--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1696"/>
+  <dimension ref="A1:H1673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46415,10 +46415,8 @@
         </is>
       </c>
       <c r="G1400" t="inlineStr"/>
-      <c r="H1400" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1400" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1401">
@@ -46449,10 +46447,8 @@
       </c>
       <c r="F1401" t="inlineStr"/>
       <c r="G1401" t="inlineStr"/>
-      <c r="H1401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1402">
@@ -46483,10 +46479,8 @@
       </c>
       <c r="F1402" t="inlineStr"/>
       <c r="G1402" t="inlineStr"/>
-      <c r="H1402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1403">
@@ -46575,10 +46569,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1407">
@@ -46613,10 +46605,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1408">
@@ -46651,10 +46641,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1409">
@@ -46689,10 +46677,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1410">
@@ -46723,10 +46709,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1411">
@@ -46761,10 +46745,8 @@
           <t>-2.3%</t>
         </is>
       </c>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1412">
@@ -46795,10 +46777,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1413">
@@ -46833,10 +46813,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1414">
@@ -46871,10 +46849,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1415">
@@ -46909,10 +46885,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1416">
@@ -46943,10 +46917,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1416" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1416" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1417">
@@ -46977,10 +46949,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1418">
@@ -47007,10 +46977,8 @@
       </c>
       <c r="F1418" t="inlineStr"/>
       <c r="G1418" t="inlineStr"/>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1419">
@@ -47037,10 +47005,8 @@
       </c>
       <c r="F1419" t="inlineStr"/>
       <c r="G1419" t="inlineStr"/>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1420">
@@ -47071,10 +47037,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1421">
@@ -47105,10 +47069,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1422">
@@ -47135,10 +47097,8 @@
       </c>
       <c r="F1422" t="inlineStr"/>
       <c r="G1422" t="inlineStr"/>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1423">
@@ -47165,10 +47125,8 @@
       </c>
       <c r="F1423" t="inlineStr"/>
       <c r="G1423" t="inlineStr"/>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1424">
@@ -47195,10 +47153,8 @@
       </c>
       <c r="F1424" t="inlineStr"/>
       <c r="G1424" t="inlineStr"/>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1425">
@@ -47221,10 +47177,8 @@
       <c r="E1425" t="inlineStr"/>
       <c r="F1425" t="inlineStr"/>
       <c r="G1425" t="inlineStr"/>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1426">
@@ -47255,10 +47209,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1427">
@@ -47289,10 +47241,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1428">
@@ -47311,10 +47261,8 @@
       <c r="E1428" t="inlineStr"/>
       <c r="F1428" t="inlineStr"/>
       <c r="G1428" t="inlineStr"/>
-      <c r="H1428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1429">
@@ -47337,10 +47285,8 @@
       </c>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1430">
@@ -47367,10 +47313,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
@@ -47389,10 +47333,8 @@
       <c r="E1431" t="inlineStr"/>
       <c r="F1431" t="inlineStr"/>
       <c r="G1431" t="inlineStr"/>
-      <c r="H1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -47419,10 +47361,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
@@ -47449,10 +47389,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1434">
@@ -47471,10 +47409,8 @@
       <c r="E1434" t="inlineStr"/>
       <c r="F1434" t="inlineStr"/>
       <c r="G1434" t="inlineStr"/>
-      <c r="H1434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1434" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1435">
@@ -47523,10 +47459,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1437">
@@ -47557,10 +47491,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1438">
@@ -47591,10 +47523,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1439">
@@ -47621,10 +47551,8 @@
       </c>
       <c r="F1439" t="inlineStr"/>
       <c r="G1439" t="inlineStr"/>
-      <c r="H1439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1440">
@@ -47651,10 +47579,8 @@
       </c>
       <c r="F1440" t="inlineStr"/>
       <c r="G1440" t="inlineStr"/>
-      <c r="H1440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1441">
@@ -47681,10 +47607,8 @@
       </c>
       <c r="F1441" t="inlineStr"/>
       <c r="G1441" t="inlineStr"/>
-      <c r="H1441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1442">
@@ -47715,10 +47639,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1442" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1442" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1443">
@@ -47753,10 +47675,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1443" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1443" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1444">
@@ -47791,10 +47711,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1444" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1444" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1445">
@@ -47825,10 +47743,8 @@
           <t>40.0K</t>
         </is>
       </c>
-      <c r="H1445" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1445" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1446">
@@ -47863,10 +47779,8 @@
           <t>5.4%</t>
         </is>
       </c>
-      <c r="H1446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1447">
@@ -47901,10 +47815,8 @@
           <t>15.0K</t>
         </is>
       </c>
-      <c r="H1447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1448">
@@ -47935,10 +47847,8 @@
           <t>-20.0K</t>
         </is>
       </c>
-      <c r="H1448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1449">
@@ -47969,10 +47879,8 @@
           <t>-3.0%</t>
         </is>
       </c>
-      <c r="H1449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1450">
@@ -48003,10 +47911,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H1450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1450" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1451">
@@ -48037,10 +47943,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1451" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1452">
@@ -48075,10 +47979,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1452" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1452" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1453">
@@ -48113,10 +48015,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1453" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1453" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1454">
@@ -48151,10 +48051,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1454" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1455">
@@ -48181,10 +48079,8 @@
       </c>
       <c r="F1455" t="inlineStr"/>
       <c r="G1455" t="inlineStr"/>
-      <c r="H1455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1455" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1456">
@@ -48211,10 +48107,8 @@
       </c>
       <c r="F1456" t="inlineStr"/>
       <c r="G1456" t="inlineStr"/>
-      <c r="H1456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1456" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1457">
@@ -48245,10 +48139,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1457" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1457" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1458">
@@ -48279,10 +48171,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1458" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1459">
@@ -48317,10 +48207,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1459" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1459" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1460">
@@ -48351,10 +48239,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1460" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1460" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1461">
@@ -48389,10 +48275,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1461" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1461" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1462">
@@ -48423,10 +48307,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1462" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1463">
@@ -48461,10 +48343,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1463" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1464">
@@ -48499,10 +48379,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1464" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1465">
@@ -48529,10 +48407,8 @@
       </c>
       <c r="F1465" t="inlineStr"/>
       <c r="G1465" t="inlineStr"/>
-      <c r="H1465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1465" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1466">
@@ -48559,10 +48435,8 @@
       </c>
       <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr"/>
-      <c r="H1466" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1466" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1467">
@@ -48589,10 +48463,8 @@
       </c>
       <c r="F1467" t="inlineStr"/>
       <c r="G1467" t="inlineStr"/>
-      <c r="H1467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1467" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1468">
@@ -48619,10 +48491,8 @@
       </c>
       <c r="F1468" t="inlineStr"/>
       <c r="G1468" t="inlineStr"/>
-      <c r="H1468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1468" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1469">
@@ -48641,10 +48511,8 @@
       <c r="E1469" t="inlineStr"/>
       <c r="F1469" t="inlineStr"/>
       <c r="G1469" t="inlineStr"/>
-      <c r="H1469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1469" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1470">
@@ -48689,10 +48557,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1471" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1471" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1472">
@@ -48723,10 +48589,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1472" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1472" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1473">
@@ -48761,10 +48625,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1473" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1473" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1474">
@@ -48795,10 +48657,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1474" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1474" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1475">
@@ -48829,10 +48689,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1475" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1475" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1476">
@@ -48863,10 +48721,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1476" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1476" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1477">
@@ -48897,10 +48753,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1477" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1478">
@@ -48927,10 +48781,8 @@
       </c>
       <c r="F1478" t="inlineStr"/>
       <c r="G1478" t="inlineStr"/>
-      <c r="H1478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1478" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1479">
@@ -48961,10 +48813,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1479" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1480">
@@ -48995,10 +48845,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1480" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1481">
@@ -49025,10 +48873,8 @@
       </c>
       <c r="F1481" t="inlineStr"/>
       <c r="G1481" t="inlineStr"/>
-      <c r="H1481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1481" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1482">
@@ -49055,10 +48901,8 @@
       </c>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
-      <c r="H1482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1482" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1483">
@@ -49085,10 +48929,8 @@
       </c>
       <c r="F1483" t="inlineStr"/>
       <c r="G1483" t="inlineStr"/>
-      <c r="H1483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1483" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1484">
@@ -49115,10 +48957,8 @@
       </c>
       <c r="F1484" t="inlineStr"/>
       <c r="G1484" t="inlineStr"/>
-      <c r="H1484" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1484" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1485">
@@ -49145,10 +48985,8 @@
       </c>
       <c r="F1485" t="inlineStr"/>
       <c r="G1485" t="inlineStr"/>
-      <c r="H1485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1485" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1486">
@@ -49175,10 +49013,8 @@
       </c>
       <c r="F1486" t="inlineStr"/>
       <c r="G1486" t="inlineStr"/>
-      <c r="H1486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1486" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1487">
@@ -49205,10 +49041,8 @@
       </c>
       <c r="F1487" t="inlineStr"/>
       <c r="G1487" t="inlineStr"/>
-      <c r="H1487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1487" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1488">
@@ -49235,10 +49069,8 @@
       </c>
       <c r="F1488" t="inlineStr"/>
       <c r="G1488" t="inlineStr"/>
-      <c r="H1488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1488" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1489">
@@ -49273,10 +49105,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1489" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1490">
@@ -49307,10 +49137,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1490" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1490" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1491">
@@ -49345,10 +49173,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1491" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1492">
@@ -49379,10 +49205,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1492" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1493">
@@ -49409,10 +49233,8 @@
       </c>
       <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr"/>
-      <c r="H1493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1493" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1494">
@@ -49447,10 +49269,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1494" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1495">
@@ -49473,10 +49293,8 @@
       <c r="E1495" t="inlineStr"/>
       <c r="F1495" t="inlineStr"/>
       <c r="G1495" t="inlineStr"/>
-      <c r="H1495" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1495" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1496">
@@ -49503,10 +49321,8 @@
       </c>
       <c r="F1496" t="inlineStr"/>
       <c r="G1496" t="inlineStr"/>
-      <c r="H1496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1496" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1497">
@@ -49533,10 +49349,8 @@
       </c>
       <c r="F1497" t="inlineStr"/>
       <c r="G1497" t="inlineStr"/>
-      <c r="H1497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1497" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1498">
@@ -49581,10 +49395,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1499" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1500">
@@ -49615,10 +49427,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1500" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1500" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1501">
@@ -49645,10 +49455,8 @@
       </c>
       <c r="F1501" t="inlineStr"/>
       <c r="G1501" t="inlineStr"/>
-      <c r="H1501" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1501" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1502">
@@ -49683,10 +49491,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1502" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1502" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1503">
@@ -49721,10 +49527,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1503" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1504">
@@ -49759,10 +49563,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1504" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1504" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1505">
@@ -49797,10 +49599,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1505" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1505" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1506">
@@ -49827,10 +49627,8 @@
       </c>
       <c r="F1506" t="inlineStr"/>
       <c r="G1506" t="inlineStr"/>
-      <c r="H1506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1506" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1507">
@@ -49865,10 +49663,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1508">
@@ -49895,10 +49691,8 @@
       </c>
       <c r="F1508" t="inlineStr"/>
       <c r="G1508" t="inlineStr"/>
-      <c r="H1508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1509">
@@ -49925,10 +49719,8 @@
       </c>
       <c r="F1509" t="inlineStr"/>
       <c r="G1509" t="inlineStr"/>
-      <c r="H1509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1510">
@@ -49955,10 +49747,8 @@
       </c>
       <c r="F1510" t="inlineStr"/>
       <c r="G1510" t="inlineStr"/>
-      <c r="H1510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1511">
@@ -49985,10 +49775,8 @@
       </c>
       <c r="F1511" t="inlineStr"/>
       <c r="G1511" t="inlineStr"/>
-      <c r="H1511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1512">
@@ -50019,10 +49807,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1513">
@@ -50053,10 +49839,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1514">
@@ -50087,10 +49871,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1515">
@@ -50121,10 +49903,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1516">
@@ -50151,10 +49931,8 @@
       </c>
       <c r="F1516" t="inlineStr"/>
       <c r="G1516" t="inlineStr"/>
-      <c r="H1516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1517">
@@ -50181,10 +49959,8 @@
       </c>
       <c r="F1517" t="inlineStr"/>
       <c r="G1517" t="inlineStr"/>
-      <c r="H1517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1518">
@@ -50215,10 +49991,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1518" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1518" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1519">
@@ -50253,10 +50027,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1519" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1519" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1520">
@@ -50287,10 +50059,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1521">
@@ -50317,10 +50087,8 @@
       </c>
       <c r="F1521" t="inlineStr"/>
       <c r="G1521" t="inlineStr"/>
-      <c r="H1521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1522">
@@ -50347,10 +50115,8 @@
       </c>
       <c r="F1522" t="inlineStr"/>
       <c r="G1522" t="inlineStr"/>
-      <c r="H1522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1522" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1523">
@@ -50377,10 +50143,8 @@
       </c>
       <c r="F1523" t="inlineStr"/>
       <c r="G1523" t="inlineStr"/>
-      <c r="H1523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1524">
@@ -50407,10 +50171,8 @@
       </c>
       <c r="F1524" t="inlineStr"/>
       <c r="G1524" t="inlineStr"/>
-      <c r="H1524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1524" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1525">
@@ -50437,10 +50199,8 @@
       </c>
       <c r="F1525" t="inlineStr"/>
       <c r="G1525" t="inlineStr"/>
-      <c r="H1525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1526">
@@ -50467,10 +50227,8 @@
       </c>
       <c r="F1526" t="inlineStr"/>
       <c r="G1526" t="inlineStr"/>
-      <c r="H1526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1527">
@@ -50497,10 +50255,8 @@
       </c>
       <c r="F1527" t="inlineStr"/>
       <c r="G1527" t="inlineStr"/>
-      <c r="H1527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1527" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1528">
@@ -50527,10 +50283,8 @@
       </c>
       <c r="F1528" t="inlineStr"/>
       <c r="G1528" t="inlineStr"/>
-      <c r="H1528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1528" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1529">
@@ -50561,10 +50315,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1529" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1530">
@@ -50595,10 +50347,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1530" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1530" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1531">
@@ -50633,10 +50383,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1531" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1531" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1532">
@@ -50667,10 +50415,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1532" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1533">
@@ -50701,10 +50447,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1533" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1533" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1534">
@@ -50739,10 +50483,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1534" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1534" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1535">
@@ -50769,10 +50511,8 @@
       </c>
       <c r="F1535" t="inlineStr"/>
       <c r="G1535" t="inlineStr"/>
-      <c r="H1535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1535" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1536">
@@ -50803,10 +50543,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1536" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1537">
@@ -50837,10 +50575,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1537" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1538">
@@ -50871,10 +50607,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1538" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1539">
@@ -50905,10 +50639,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1540">
@@ -50943,10 +50675,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1540" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1540" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1541">
@@ -50981,10 +50711,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1541" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1541" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1542">
@@ -51007,10 +50735,8 @@
       <c r="E1542" t="inlineStr"/>
       <c r="F1542" t="inlineStr"/>
       <c r="G1542" t="inlineStr"/>
-      <c r="H1542" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1542" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1543">
@@ -51041,10 +50767,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1544">
@@ -51079,10 +50803,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1544" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1544" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1545">
@@ -51113,10 +50835,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1545" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1546">
@@ -51147,10 +50867,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1547">
@@ -51185,10 +50903,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1547" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1547" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1548">
@@ -51215,10 +50931,8 @@
       </c>
       <c r="F1548" t="inlineStr"/>
       <c r="G1548" t="inlineStr"/>
-      <c r="H1548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1549">
@@ -51245,10 +50959,8 @@
       </c>
       <c r="F1549" t="inlineStr"/>
       <c r="G1549" t="inlineStr"/>
-      <c r="H1549" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1549" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1550">
@@ -51275,10 +50987,8 @@
       </c>
       <c r="F1550" t="inlineStr"/>
       <c r="G1550" t="inlineStr"/>
-      <c r="H1550" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1550" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1551">
@@ -51305,10 +51015,8 @@
       </c>
       <c r="F1551" t="inlineStr"/>
       <c r="G1551" t="inlineStr"/>
-      <c r="H1551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1552">
@@ -51335,10 +51043,8 @@
       </c>
       <c r="F1552" t="inlineStr"/>
       <c r="G1552" t="inlineStr"/>
-      <c r="H1552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1553">
@@ -51365,10 +51071,8 @@
       </c>
       <c r="F1553" t="inlineStr"/>
       <c r="G1553" t="inlineStr"/>
-      <c r="H1553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1554">
@@ -51395,10 +51099,8 @@
       </c>
       <c r="F1554" t="inlineStr"/>
       <c r="G1554" t="inlineStr"/>
-      <c r="H1554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1554" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1555">
@@ -51425,10 +51127,8 @@
       </c>
       <c r="F1555" t="inlineStr"/>
       <c r="G1555" t="inlineStr"/>
-      <c r="H1555" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1555" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1556">
@@ -51455,10 +51155,8 @@
       </c>
       <c r="F1556" t="inlineStr"/>
       <c r="G1556" t="inlineStr"/>
-      <c r="H1556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1556" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1557">
@@ -51485,10 +51183,8 @@
       </c>
       <c r="F1557" t="inlineStr"/>
       <c r="G1557" t="inlineStr"/>
-      <c r="H1557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1557" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1558">
@@ -51515,10 +51211,8 @@
       </c>
       <c r="F1558" t="inlineStr"/>
       <c r="G1558" t="inlineStr"/>
-      <c r="H1558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1558" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1559">
@@ -51545,10 +51239,8 @@
       </c>
       <c r="F1559" t="inlineStr"/>
       <c r="G1559" t="inlineStr"/>
-      <c r="H1559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1559" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1560">
@@ -51575,10 +51267,8 @@
       </c>
       <c r="F1560" t="inlineStr"/>
       <c r="G1560" t="inlineStr"/>
-      <c r="H1560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1560" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1561">
@@ -51605,10 +51295,8 @@
       </c>
       <c r="F1561" t="inlineStr"/>
       <c r="G1561" t="inlineStr"/>
-      <c r="H1561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1562">
@@ -51635,10 +51323,8 @@
       </c>
       <c r="F1562" t="inlineStr"/>
       <c r="G1562" t="inlineStr"/>
-      <c r="H1562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1563">
@@ -51665,10 +51351,8 @@
       </c>
       <c r="F1563" t="inlineStr"/>
       <c r="G1563" t="inlineStr"/>
-      <c r="H1563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1563" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1564">
@@ -51691,10 +51375,8 @@
       </c>
       <c r="F1564" t="inlineStr"/>
       <c r="G1564" t="inlineStr"/>
-      <c r="H1564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1564" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1565">
@@ -51721,256 +51403,290 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1565" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1566" t="inlineStr"/>
-      <c r="C1566" t="inlineStr"/>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B1566" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C1566" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D1566" t="inlineStr"/>
-      <c r="E1566" t="inlineStr"/>
+      <c r="E1566" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1566" t="inlineStr"/>
-      <c r="G1566" t="inlineStr"/>
-      <c r="H1566" t="inlineStr"/>
+      <c r="G1566" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="H1566" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr"/>
       <c r="E1567" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F1567" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F1567" t="inlineStr">
+        <is>
+          <t>42.1</t>
+        </is>
+      </c>
       <c r="G1567" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="H1567" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1568" t="inlineStr"/>
       <c r="E1568" t="inlineStr">
         <is>
-          <t>$6.83T</t>
-        </is>
-      </c>
-      <c r="F1568" t="inlineStr"/>
-      <c r="G1568" t="inlineStr"/>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F1568" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="G1568" t="inlineStr">
+        <is>
+          <t>49.5</t>
+        </is>
+      </c>
       <c r="H1568" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="F1569" t="inlineStr"/>
       <c r="G1569" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H1569" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1570" t="inlineStr"/>
       <c r="E1570" t="inlineStr">
         <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1570" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F1570" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
       <c r="G1570" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="H1570" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1571" t="inlineStr"/>
       <c r="E1571" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F1571" t="inlineStr"/>
       <c r="G1571" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="H1571" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1572" t="inlineStr"/>
       <c r="E1572" t="inlineStr">
         <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F1572" t="inlineStr"/>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F1572" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="G1572" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1572" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1573" t="inlineStr"/>
       <c r="E1573" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1573" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F1573" t="inlineStr"/>
       <c r="G1573" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="H1573" t="inlineStr">
@@ -51982,75 +51698,83 @@
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1574" t="inlineStr"/>
       <c r="E1574" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1574" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F1574" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="G1574" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H1574" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1575" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1575" t="inlineStr"/>
       <c r="E1575" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1575" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F1575" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="G1575" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H1575" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
@@ -52060,23 +51784,23 @@
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>Gfk Consumer ConfidenceJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr"/>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F1576" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="G1576" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="H1576" t="inlineStr">
@@ -52088,135 +51812,127 @@
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1577" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1577" t="inlineStr"/>
       <c r="E1577" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F1577" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="G1577" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1577" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr"/>
       <c r="E1578" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F1578" t="inlineStr"/>
       <c r="G1578" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="H1578" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FlashJAN</t>
+          <t>ECB President Lagarde Speech</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr"/>
-      <c r="E1579" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
+      <c r="E1579" t="inlineStr"/>
       <c r="F1579" t="inlineStr"/>
-      <c r="G1579" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G1579" t="inlineStr"/>
       <c r="H1579" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1580">
       <c r="A1580" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>URA Property Index QoQ FinalQ4</t>
+          <t>FGV Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr"/>
       <c r="E1580" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F1580" t="inlineStr"/>
       <c r="G1580" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>91.4</t>
         </is>
       </c>
       <c r="H1580" t="inlineStr">
@@ -52228,61 +51944,61 @@
     <row r="1581">
       <c r="A1581" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>BoJ Interest Rate Decision</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D1581" t="inlineStr"/>
-      <c r="E1581" t="inlineStr">
-        <is>
-          <t>0.25%</t>
-        </is>
-      </c>
-      <c r="F1581" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1581" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E1581" t="inlineStr"/>
+      <c r="F1581" t="inlineStr"/>
+      <c r="G1581" t="inlineStr"/>
       <c r="H1581" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1582">
       <c r="A1582" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>BoJ Quarterly Outlook Report</t>
+          <t>CBI Distributive TradesJAN</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr"/>
-      <c r="E1582" t="inlineStr"/>
-      <c r="F1582" t="inlineStr"/>
-      <c r="G1582" t="inlineStr"/>
+      <c r="E1582" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="F1582" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="G1582" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
       <c r="H1582" t="inlineStr">
         <is>
           <t>2</t>
@@ -52292,23 +52008,23 @@
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>Foreign Direct Investment YoYQ4</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr"/>
       <c r="E1583" t="inlineStr">
         <is>
-          <t>18.55%</t>
+          <t>$625.87B</t>
         </is>
       </c>
       <c r="F1583" t="inlineStr"/>
@@ -52322,199 +52038,203 @@
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr"/>
       <c r="E1584" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1584" t="inlineStr"/>
       <c r="G1584" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1584" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr"/>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1585" t="inlineStr"/>
       <c r="G1585" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1585" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1586" t="inlineStr"/>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1586" t="inlineStr"/>
       <c r="G1586" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1586" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr"/>
       <c r="E1587" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1587" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1587" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1587" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1587" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1588" t="inlineStr"/>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1588" t="inlineStr"/>
       <c r="G1588" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1588" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1589" t="inlineStr"/>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1589" t="inlineStr"/>
       <c r="G1589" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1589" t="inlineStr">
@@ -52526,33 +52246,29 @@
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1590" t="inlineStr"/>
       <c r="E1590" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1590" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1590" t="inlineStr"/>
       <c r="G1590" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1590" t="inlineStr">
@@ -52564,33 +52280,29 @@
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1591" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1591" t="inlineStr"/>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1591" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1591" t="inlineStr"/>
       <c r="G1591" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1591" t="inlineStr">
@@ -52602,67 +52314,67 @@
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1592" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1592" t="inlineStr"/>
       <c r="E1592" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1592" t="inlineStr"/>
       <c r="G1592" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1592" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1593" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1593" t="inlineStr"/>
       <c r="E1593" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1593" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1593" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1593" t="inlineStr">
@@ -52674,29 +52386,29 @@
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1594" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1594" t="inlineStr"/>
       <c r="E1594" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1594" t="inlineStr"/>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr">
@@ -52708,33 +52420,33 @@
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1595" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1595" t="inlineStr"/>
       <c r="E1595" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1595" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1595" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1595" t="inlineStr">
@@ -52746,215 +52458,215 @@
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1596" t="inlineStr"/>
       <c r="E1596" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1596" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1596" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1596" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1596" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1597" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1597" t="inlineStr"/>
       <c r="E1597" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1597" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1597" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1597" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1598" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1598" t="inlineStr"/>
       <c r="E1598" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1598" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1598" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1598" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1599" t="inlineStr"/>
       <c r="E1599" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1599" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1599" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1599" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1600" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1600" t="inlineStr"/>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1600" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1600" t="inlineStr"/>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1600" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1601" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1601" t="inlineStr"/>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1601" t="inlineStr"/>
       <c r="G1601" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1601" t="inlineStr">
@@ -52966,57 +52678,57 @@
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1602" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1602" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1602" t="inlineStr"/>
-      <c r="E1602" t="inlineStr"/>
+      <c r="E1602" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1602" t="inlineStr"/>
       <c r="G1602" t="inlineStr"/>
       <c r="H1602" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1603" t="inlineStr"/>
-      <c r="G1603" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1603" t="inlineStr"/>
       <c r="H1603" t="inlineStr">
         <is>
           <t>3</t>
@@ -53026,87 +52738,71 @@
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1604" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1604" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1604" t="inlineStr"/>
+      <c r="C1604" t="inlineStr"/>
       <c r="D1604" t="inlineStr"/>
       <c r="E1604" t="inlineStr"/>
       <c r="F1604" t="inlineStr"/>
       <c r="G1604" t="inlineStr"/>
-      <c r="H1604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1604" t="inlineStr"/>
     </row>
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1605" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F1605" t="inlineStr"/>
       <c r="G1605" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1605" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>$625.87B</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr"/>
@@ -53120,31 +52816,27 @@
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr"/>
-      <c r="G1607" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1607" t="inlineStr"/>
       <c r="H1607" t="inlineStr">
         <is>
           <t>3</t>
@@ -53154,31 +52846,27 @@
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1608" t="inlineStr"/>
-      <c r="G1608" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1608" t="inlineStr"/>
       <c r="H1608" t="inlineStr">
         <is>
           <t>3</t>
@@ -53188,31 +52876,23 @@
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
-      <c r="E1609" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1609" t="inlineStr"/>
       <c r="F1609" t="inlineStr"/>
-      <c r="G1609" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1609" t="inlineStr"/>
       <c r="H1609" t="inlineStr">
         <is>
           <t>3</t>
@@ -53222,69 +52902,53 @@
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
-      <c r="E1610" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1610" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1610" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1610" t="inlineStr"/>
+      <c r="F1610" t="inlineStr"/>
+      <c r="G1610" t="inlineStr"/>
       <c r="H1610" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr"/>
-      <c r="G1611" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1611" t="inlineStr"/>
       <c r="H1611" t="inlineStr">
         <is>
           <t>2</t>
@@ -53294,31 +52958,27 @@
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr"/>
-      <c r="G1612" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1612" t="inlineStr"/>
       <c r="H1612" t="inlineStr">
         <is>
           <t>3</t>
@@ -53328,169 +52988,145 @@
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1613" t="inlineStr"/>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr"/>
-      <c r="G1613" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1613" t="inlineStr"/>
       <c r="H1613" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr"/>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1614" t="inlineStr"/>
-      <c r="G1614" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1614" t="inlineStr"/>
       <c r="H1614" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr"/>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F1615" t="inlineStr"/>
-      <c r="G1615" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1615" t="inlineStr"/>
       <c r="H1615" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:15 PM</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1616" t="inlineStr"/>
-      <c r="E1616" t="inlineStr">
-        <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1616" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1616" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+      <c r="E1616" t="inlineStr"/>
+      <c r="F1616" t="inlineStr"/>
+      <c r="G1616" t="inlineStr"/>
       <c r="H1616" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1617" t="inlineStr"/>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>43.5K</t>
         </is>
       </c>
       <c r="F1617" t="inlineStr"/>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1617" t="inlineStr">
@@ -53502,71 +53138,63 @@
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1618" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1618" t="inlineStr"/>
       <c r="G1618" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1618" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1619" t="inlineStr"/>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1619" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1619" t="inlineStr"/>
       <c r="G1619" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1619" t="inlineStr">
@@ -53578,35 +53206,27 @@
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1620" t="inlineStr"/>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1620" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
-      <c r="G1620" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1620" t="inlineStr"/>
+      <c r="G1620" t="inlineStr"/>
       <c r="H1620" t="inlineStr">
         <is>
           <t>3</t>
@@ -53616,35 +53236,27 @@
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1621" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1621" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1621" t="inlineStr"/>
+      <c r="G1621" t="inlineStr"/>
       <c r="H1621" t="inlineStr">
         <is>
           <t>3</t>
@@ -53654,67 +53266,63 @@
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1622" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>$-0.133B</t>
+        </is>
+      </c>
+      <c r="F1622" t="inlineStr"/>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1622" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr"/>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr"/>
       <c r="G1623" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1623" t="inlineStr">
@@ -53726,7 +53334,7 @@
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
@@ -53736,51 +53344,55 @@
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
       <c r="E1624" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1624" t="inlineStr"/>
       <c r="G1624" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="H1624" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1625" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1625" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1625" t="inlineStr"/>
       <c r="E1625" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1625" t="inlineStr"/>
-      <c r="G1625" t="inlineStr"/>
+      <c r="G1625" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1625" t="inlineStr">
         <is>
           <t>3</t>
@@ -53790,25 +53402,21 @@
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1626" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1626" t="inlineStr"/>
-      <c r="E1626" t="inlineStr">
-        <is>
-          <t>580</t>
-        </is>
-      </c>
+      <c r="E1626" t="inlineStr"/>
       <c r="F1626" t="inlineStr"/>
       <c r="G1626" t="inlineStr"/>
       <c r="H1626" t="inlineStr">
@@ -53820,45 +53428,49 @@
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1627" t="inlineStr"/>
-      <c r="C1627" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1627" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1627" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1627" t="inlineStr"/>
       <c r="E1627" t="inlineStr"/>
       <c r="F1627" t="inlineStr"/>
       <c r="G1627" t="inlineStr"/>
-      <c r="H1627" t="inlineStr"/>
+      <c r="H1627" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1628" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1628" t="inlineStr"/>
-      <c r="E1628" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1628" t="inlineStr"/>
       <c r="F1628" t="inlineStr"/>
-      <c r="G1628" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1628" t="inlineStr"/>
       <c r="H1628" t="inlineStr">
         <is>
           <t>3</t>
@@ -53868,107 +53480,103 @@
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1629" t="inlineStr"/>
-      <c r="E1629" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1629" t="inlineStr"/>
       <c r="F1629" t="inlineStr"/>
       <c r="G1629" t="inlineStr"/>
       <c r="H1629" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1630" t="inlineStr"/>
-      <c r="E1630" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1630" t="inlineStr"/>
       <c r="F1630" t="inlineStr"/>
-      <c r="G1630" t="inlineStr"/>
+      <c r="G1630" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1630" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1631" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1631" t="inlineStr"/>
       <c r="E1631" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1631" t="inlineStr"/>
       <c r="G1631" t="inlineStr"/>
       <c r="H1631" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1632" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1632" t="inlineStr"/>
@@ -53984,17 +53592,17 @@
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr"/>
@@ -54010,55 +53618,47 @@
     <row r="1634">
       <c r="A1634" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1634" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1634" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1634" t="inlineStr"/>
-      <c r="E1634" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1634" t="inlineStr"/>
       <c r="F1634" t="inlineStr"/>
       <c r="G1634" t="inlineStr"/>
       <c r="H1634" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1635">
       <c r="A1635" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1635" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1635" t="inlineStr"/>
-      <c r="E1635" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1635" t="inlineStr"/>
       <c r="F1635" t="inlineStr"/>
       <c r="G1635" t="inlineStr"/>
       <c r="H1635" t="inlineStr">
@@ -54068,59 +53668,63 @@
       </c>
     </row>
     <row r="1636">
-      <c r="A1636" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1636" t="inlineStr"/>
       <c r="B1636" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1636" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1636" t="inlineStr"/>
       <c r="E1636" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1636" t="inlineStr"/>
-      <c r="G1636" t="inlineStr"/>
+      <c r="G1636" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1636" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1637">
-      <c r="A1637" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1637" t="inlineStr"/>
       <c r="B1637" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1637" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1637" t="inlineStr"/>
       <c r="E1637" t="inlineStr">
         <is>
-          <t>85.1</t>
-        </is>
-      </c>
-      <c r="F1637" t="inlineStr"/>
-      <c r="G1637" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1637" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1637" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1637" t="inlineStr">
         <is>
           <t>3</t>
@@ -54130,121 +53734,109 @@
     <row r="1638">
       <c r="A1638" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1638" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1638" t="inlineStr">
-        <is>
-          <t>Ifo ExpectationsJAN</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1638" t="inlineStr"/>
+      <c r="C1638" t="inlineStr"/>
       <c r="D1638" t="inlineStr"/>
-      <c r="E1638" t="inlineStr">
-        <is>
-          <t>84.4</t>
-        </is>
-      </c>
+      <c r="E1638" t="inlineStr"/>
       <c r="F1638" t="inlineStr"/>
       <c r="G1638" t="inlineStr"/>
-      <c r="H1638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1638" t="inlineStr"/>
     </row>
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1639" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1639" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1639" t="inlineStr"/>
-      <c r="E1639" t="inlineStr"/>
+      <c r="E1639" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1639" t="inlineStr"/>
-      <c r="G1639" t="inlineStr"/>
+      <c r="G1639" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1639" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1640" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1640" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1640" t="inlineStr"/>
       <c r="E1640" t="inlineStr">
         <is>
-          <t>43.5K</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1640" t="inlineStr"/>
       <c r="G1640" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="H1640" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1641" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1641" t="inlineStr"/>
       <c r="E1641" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1641" t="inlineStr"/>
-      <c r="G1641" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1641" t="inlineStr"/>
       <c r="H1641" t="inlineStr">
         <is>
           <t>3</t>
@@ -54254,29 +53846,29 @@
     <row r="1642">
       <c r="A1642" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1642" t="inlineStr"/>
       <c r="E1642" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1642" t="inlineStr"/>
       <c r="G1642" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1642" t="inlineStr">
@@ -54288,27 +53880,31 @@
     <row r="1643">
       <c r="A1643" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1643" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1643" t="inlineStr"/>
       <c r="E1643" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1643" t="inlineStr"/>
-      <c r="G1643" t="inlineStr"/>
+      <c r="G1643" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1643" t="inlineStr">
         <is>
           <t>3</t>
@@ -54318,27 +53914,31 @@
     <row r="1644">
       <c r="A1644" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1644" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1644" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1644" t="inlineStr"/>
       <c r="E1644" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1644" t="inlineStr"/>
-      <c r="G1644" t="inlineStr"/>
+      <c r="G1644" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1644" t="inlineStr">
         <is>
           <t>3</t>
@@ -54348,97 +53948,93 @@
     <row r="1645">
       <c r="A1645" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1645" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1645" t="inlineStr"/>
       <c r="E1645" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1645" t="inlineStr"/>
       <c r="G1645" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1645" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1646">
       <c r="A1646" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1646" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1646" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1646" t="inlineStr"/>
       <c r="E1646" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1646" t="inlineStr"/>
-      <c r="G1646" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1646" t="inlineStr"/>
       <c r="H1646" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1647">
       <c r="A1647" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1647" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1647" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1647" t="inlineStr"/>
       <c r="E1647" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1647" t="inlineStr"/>
       <c r="G1647" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1647" t="inlineStr">
@@ -54450,31 +54046,27 @@
     <row r="1648">
       <c r="A1648" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1648" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1648" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1648" t="inlineStr"/>
       <c r="E1648" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1648" t="inlineStr"/>
-      <c r="G1648" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1648" t="inlineStr"/>
       <c r="H1648" t="inlineStr">
         <is>
           <t>3</t>
@@ -54484,17 +54076,17 @@
     <row r="1649">
       <c r="A1649" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1649" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1649" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1649" t="inlineStr"/>
@@ -54510,17 +54102,17 @@
     <row r="1650">
       <c r="A1650" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1650" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1650" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1650" t="inlineStr"/>
@@ -54536,17 +54128,17 @@
     <row r="1651">
       <c r="A1651" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1651" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1651" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1651" t="inlineStr"/>
@@ -54562,33 +54154,37 @@
     <row r="1652">
       <c r="A1652" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1652" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1652" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1652" t="inlineStr"/>
-      <c r="E1652" t="inlineStr"/>
+      <c r="E1652" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1652" t="inlineStr"/>
       <c r="G1652" t="inlineStr"/>
       <c r="H1652" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1653">
       <c r="A1653" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1653" t="inlineStr">
@@ -54598,27 +54194,31 @@
       </c>
       <c r="C1653" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1653" t="inlineStr"/>
-      <c r="E1653" t="inlineStr"/>
+      <c r="E1653" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1653" t="inlineStr"/>
       <c r="G1653" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1653" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1654">
       <c r="A1654" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1654" t="inlineStr">
@@ -54628,17 +54228,21 @@
       </c>
       <c r="C1654" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1654" t="inlineStr"/>
       <c r="E1654" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1654" t="inlineStr"/>
-      <c r="G1654" t="inlineStr"/>
+      <c r="G1654" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1654" t="inlineStr">
         <is>
           <t>2</t>
@@ -54648,7 +54252,7 @@
     <row r="1655">
       <c r="A1655" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1655" t="inlineStr">
@@ -54658,13 +54262,21 @@
       </c>
       <c r="C1655" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1655" t="inlineStr"/>
-      <c r="E1655" t="inlineStr"/>
+      <c r="E1655" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1655" t="inlineStr"/>
-      <c r="G1655" t="inlineStr"/>
+      <c r="G1655" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1655" t="inlineStr">
         <is>
           <t>3</t>
@@ -54674,7 +54286,7 @@
     <row r="1656">
       <c r="A1656" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1656" t="inlineStr">
@@ -54684,11 +54296,15 @@
       </c>
       <c r="C1656" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1656" t="inlineStr"/>
-      <c r="E1656" t="inlineStr"/>
+      <c r="E1656" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1656" t="inlineStr"/>
       <c r="G1656" t="inlineStr"/>
       <c r="H1656" t="inlineStr">
@@ -54700,7 +54316,7 @@
     <row r="1657">
       <c r="A1657" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B1657" t="inlineStr">
@@ -54710,7 +54326,7 @@
       </c>
       <c r="C1657" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1657" t="inlineStr"/>
@@ -54726,7 +54342,7 @@
     <row r="1658">
       <c r="A1658" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1658" t="inlineStr">
@@ -54736,21 +54352,29 @@
       </c>
       <c r="C1658" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1658" t="inlineStr"/>
-      <c r="E1658" t="inlineStr"/>
+      <c r="E1658" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1658" t="inlineStr"/>
       <c r="G1658" t="inlineStr"/>
       <c r="H1658" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1659">
-      <c r="A1659" t="inlineStr"/>
+      <c r="A1659" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1659" t="inlineStr">
         <is>
           <t>US</t>
@@ -54758,21 +54382,17 @@
       </c>
       <c r="C1659" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1659" t="inlineStr"/>
       <c r="E1659" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1659" t="inlineStr"/>
-      <c r="G1659" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1659" t="inlineStr"/>
       <c r="H1659" t="inlineStr">
         <is>
           <t>3</t>
@@ -54780,7 +54400,11 @@
       </c>
     </row>
     <row r="1660">
-      <c r="A1660" t="inlineStr"/>
+      <c r="A1660" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1660" t="inlineStr">
         <is>
           <t>US</t>
@@ -54788,25 +54412,13 @@
       </c>
       <c r="C1660" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1660" t="inlineStr"/>
-      <c r="E1660" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1660" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1660" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="E1660" t="inlineStr"/>
+      <c r="F1660" t="inlineStr"/>
+      <c r="G1660" t="inlineStr"/>
       <c r="H1660" t="inlineStr">
         <is>
           <t>3</t>
@@ -54816,107 +54428,107 @@
     <row r="1661">
       <c r="A1661" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1661" t="inlineStr"/>
-      <c r="C1661" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1661" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1661" t="inlineStr">
+        <is>
+          <t>House Price Index YoYNOV</t>
+        </is>
+      </c>
       <c r="D1661" t="inlineStr"/>
-      <c r="E1661" t="inlineStr"/>
+      <c r="E1661" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="F1661" t="inlineStr"/>
       <c r="G1661" t="inlineStr"/>
-      <c r="H1661" t="inlineStr"/>
+      <c r="H1661" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1662">
       <c r="A1662" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1662" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1662" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1662" t="inlineStr"/>
       <c r="E1662" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1662" t="inlineStr"/>
-      <c r="G1662" t="inlineStr">
+      <c r="G1662" t="inlineStr"/>
+      <c r="H1662" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1662" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1663">
       <c r="A1663" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1663" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1663" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>CB Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1663" t="inlineStr"/>
-      <c r="E1663" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1663" t="inlineStr"/>
       <c r="F1663" t="inlineStr"/>
-      <c r="G1663" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1663" t="inlineStr"/>
       <c r="H1663" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1664">
       <c r="A1664" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1664" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1664" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1664" t="inlineStr"/>
-      <c r="E1664" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1664" t="inlineStr"/>
       <c r="F1664" t="inlineStr"/>
       <c r="G1664" t="inlineStr"/>
       <c r="H1664" t="inlineStr">
@@ -54928,29 +54540,29 @@
     <row r="1665">
       <c r="A1665" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1665" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1665" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1665" t="inlineStr"/>
       <c r="E1665" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1665" t="inlineStr"/>
       <c r="G1665" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1665" t="inlineStr">
@@ -54962,29 +54574,29 @@
     <row r="1666">
       <c r="A1666" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1666" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1666" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1666" t="inlineStr"/>
       <c r="E1666" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1666" t="inlineStr"/>
       <c r="G1666" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1666" t="inlineStr">
@@ -54996,31 +54608,27 @@
     <row r="1667">
       <c r="A1667" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1667" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1667" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1667" t="inlineStr"/>
       <c r="E1667" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1667" t="inlineStr"/>
-      <c r="G1667" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1667" t="inlineStr"/>
       <c r="H1667" t="inlineStr">
         <is>
           <t>3</t>
@@ -55030,31 +54638,27 @@
     <row r="1668">
       <c r="A1668" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1668" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1668" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1668" t="inlineStr"/>
       <c r="E1668" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1668" t="inlineStr"/>
-      <c r="G1668" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1668" t="inlineStr"/>
       <c r="H1668" t="inlineStr">
         <is>
           <t>3</t>
@@ -55064,87 +54668,79 @@
     <row r="1669">
       <c r="A1669" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1669" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1669" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1669" t="inlineStr"/>
-      <c r="E1669" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1669" t="inlineStr"/>
       <c r="F1669" t="inlineStr"/>
       <c r="G1669" t="inlineStr"/>
       <c r="H1669" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1670">
       <c r="A1670" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1670" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1670" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1670" t="inlineStr"/>
       <c r="E1670" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1670" t="inlineStr"/>
-      <c r="G1670" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1670" t="inlineStr"/>
       <c r="H1670" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1671">
       <c r="A1671" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1671" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1671" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1671" t="inlineStr"/>
       <c r="E1671" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1671" t="inlineStr"/>
@@ -55158,43 +54754,31 @@
     <row r="1672">
       <c r="A1672" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1672" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1672" t="inlineStr">
-        <is>
-          <t>BTP Short Term Auction</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1672" t="inlineStr"/>
+      <c r="C1672" t="inlineStr"/>
       <c r="D1672" t="inlineStr"/>
       <c r="E1672" t="inlineStr"/>
       <c r="F1672" t="inlineStr"/>
       <c r="G1672" t="inlineStr"/>
-      <c r="H1672" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1672" t="inlineStr"/>
     </row>
     <row r="1673">
       <c r="A1673" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1673" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1673" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1673" t="inlineStr"/>
@@ -55203,672 +54787,6 @@
       <c r="G1673" t="inlineStr"/>
       <c r="H1673" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1674">
-      <c r="A1674" t="inlineStr">
-        <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1674" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1674" t="inlineStr">
-        <is>
-          <t>BTP€i Auction</t>
-        </is>
-      </c>
-      <c r="D1674" t="inlineStr"/>
-      <c r="E1674" t="inlineStr"/>
-      <c r="F1674" t="inlineStr"/>
-      <c r="G1674" t="inlineStr"/>
-      <c r="H1674" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1675">
-      <c r="A1675" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1675" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1675" t="inlineStr">
-        <is>
-          <t>2-Year Schatz Auction</t>
-        </is>
-      </c>
-      <c r="D1675" t="inlineStr"/>
-      <c r="E1675" t="inlineStr">
-        <is>
-          <t>2.18%</t>
-        </is>
-      </c>
-      <c r="F1675" t="inlineStr"/>
-      <c r="G1675" t="inlineStr"/>
-      <c r="H1675" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1676">
-      <c r="A1676" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1676" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1676" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1676" t="inlineStr"/>
-      <c r="E1676" t="inlineStr">
-        <is>
-          <t>-1.1%</t>
-        </is>
-      </c>
-      <c r="F1676" t="inlineStr"/>
-      <c r="G1676" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H1676" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1677">
-      <c r="A1677" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1677" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1677" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1677" t="inlineStr"/>
-      <c r="E1677" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1677" t="inlineStr"/>
-      <c r="G1677" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1677" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1678">
-      <c r="A1678" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1678" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1678" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1678" t="inlineStr"/>
-      <c r="E1678" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1678" t="inlineStr"/>
-      <c r="G1678" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="H1678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1679">
-      <c r="A1679" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1679" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1679" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
-        </is>
-      </c>
-      <c r="D1679" t="inlineStr"/>
-      <c r="E1679" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="F1679" t="inlineStr"/>
-      <c r="G1679" t="inlineStr"/>
-      <c r="H1679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1680">
-      <c r="A1680" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B1680" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1680" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/25</t>
-        </is>
-      </c>
-      <c r="D1680" t="inlineStr"/>
-      <c r="E1680" t="inlineStr"/>
-      <c r="F1680" t="inlineStr"/>
-      <c r="G1680" t="inlineStr"/>
-      <c r="H1680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1681">
-      <c r="A1681" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1681" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1681" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1681" t="inlineStr"/>
-      <c r="E1681" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1681" t="inlineStr"/>
-      <c r="G1681" t="inlineStr"/>
-      <c r="H1681" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1682">
-      <c r="A1682" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1682" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1682" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
-      <c r="D1682" t="inlineStr"/>
-      <c r="E1682" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
-      <c r="F1682" t="inlineStr"/>
-      <c r="G1682" t="inlineStr"/>
-      <c r="H1682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1683">
-      <c r="A1683" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1683" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1683" t="inlineStr">
-        <is>
-          <t>House Price Index MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1683" t="inlineStr"/>
-      <c r="E1683" t="inlineStr"/>
-      <c r="F1683" t="inlineStr"/>
-      <c r="G1683" t="inlineStr"/>
-      <c r="H1683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1684">
-      <c r="A1684" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1684" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1684" t="inlineStr">
-        <is>
-          <t>House Price Index YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1684" t="inlineStr"/>
-      <c r="E1684" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1684" t="inlineStr"/>
-      <c r="G1684" t="inlineStr"/>
-      <c r="H1684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1685">
-      <c r="A1685" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1685" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1685" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1685" t="inlineStr"/>
-      <c r="E1685" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1685" t="inlineStr"/>
-      <c r="G1685" t="inlineStr"/>
-      <c r="H1685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1686">
-      <c r="A1686" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1686" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1686" t="inlineStr">
-        <is>
-          <t>CB Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1686" t="inlineStr"/>
-      <c r="E1686" t="inlineStr"/>
-      <c r="F1686" t="inlineStr"/>
-      <c r="G1686" t="inlineStr"/>
-      <c r="H1686" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1687">
-      <c r="A1687" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1687" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1687" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1687" t="inlineStr"/>
-      <c r="E1687" t="inlineStr"/>
-      <c r="F1687" t="inlineStr"/>
-      <c r="G1687" t="inlineStr"/>
-      <c r="H1687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1688">
-      <c r="A1688" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1688" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1688" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1688" t="inlineStr"/>
-      <c r="E1688" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F1688" t="inlineStr"/>
-      <c r="G1688" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="H1688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1689">
-      <c r="A1689" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1689" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1689" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1689" t="inlineStr"/>
-      <c r="E1689" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="F1689" t="inlineStr"/>
-      <c r="G1689" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H1689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1690">
-      <c r="A1690" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1690" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1690" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1690" t="inlineStr"/>
-      <c r="E1690" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
-      </c>
-      <c r="F1690" t="inlineStr"/>
-      <c r="G1690" t="inlineStr"/>
-      <c r="H1690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1691">
-      <c r="A1691" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1691" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1691" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1691" t="inlineStr"/>
-      <c r="E1691" t="inlineStr">
-        <is>
-          <t>13.8</t>
-        </is>
-      </c>
-      <c r="F1691" t="inlineStr"/>
-      <c r="G1691" t="inlineStr"/>
-      <c r="H1691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1692">
-      <c r="A1692" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1692" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1692" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="D1692" t="inlineStr"/>
-      <c r="E1692" t="inlineStr"/>
-      <c r="F1692" t="inlineStr"/>
-      <c r="G1692" t="inlineStr"/>
-      <c r="H1692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1693">
-      <c r="A1693" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1693" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1693" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="D1693" t="inlineStr"/>
-      <c r="E1693" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
-      <c r="F1693" t="inlineStr"/>
-      <c r="G1693" t="inlineStr"/>
-      <c r="H1693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1694">
-      <c r="A1694" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1694" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1694" t="inlineStr">
-        <is>
-          <t>Money SupplyDEC</t>
-        </is>
-      </c>
-      <c r="D1694" t="inlineStr"/>
-      <c r="E1694" t="inlineStr">
-        <is>
-          <t>$21.45T</t>
-        </is>
-      </c>
-      <c r="F1694" t="inlineStr"/>
-      <c r="G1694" t="inlineStr"/>
-      <c r="H1694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1695">
-      <c r="A1695" t="inlineStr">
-        <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1695" t="inlineStr"/>
-      <c r="C1695" t="inlineStr"/>
-      <c r="D1695" t="inlineStr"/>
-      <c r="E1695" t="inlineStr"/>
-      <c r="F1695" t="inlineStr"/>
-      <c r="G1695" t="inlineStr"/>
-      <c r="H1695" t="inlineStr"/>
-    </row>
-    <row r="1696">
-      <c r="A1696" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1696" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1696" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1696" t="inlineStr"/>
-      <c r="E1696" t="inlineStr"/>
-      <c r="F1696" t="inlineStr"/>
-      <c r="G1696" t="inlineStr"/>
-      <c r="H1696" t="inlineStr">
-        <is>
           <t>2</t>
         </is>
       </c>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1702"/>
+  <dimension ref="A1:H1679"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46555,10 +46555,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1405" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1405" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1406">
@@ -46593,10 +46591,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1407">
@@ -46631,10 +46627,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1408">
@@ -46665,10 +46659,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1409">
@@ -46703,10 +46695,8 @@
           <t>-2.3%</t>
         </is>
       </c>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1410">
@@ -46737,10 +46727,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1411">
@@ -46775,10 +46763,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1412">
@@ -46813,10 +46799,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1413">
@@ -46851,10 +46835,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1414">
@@ -46885,10 +46867,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1415">
@@ -46919,10 +46899,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1416">
@@ -46949,10 +46927,8 @@
       </c>
       <c r="F1416" t="inlineStr"/>
       <c r="G1416" t="inlineStr"/>
-      <c r="H1416" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1416" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1417">
@@ -46979,10 +46955,8 @@
       </c>
       <c r="F1417" t="inlineStr"/>
       <c r="G1417" t="inlineStr"/>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1418">
@@ -47013,10 +46987,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1419">
@@ -47047,10 +47019,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1420">
@@ -47077,10 +47047,8 @@
       </c>
       <c r="F1420" t="inlineStr"/>
       <c r="G1420" t="inlineStr"/>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1421">
@@ -47107,10 +47075,8 @@
       </c>
       <c r="F1421" t="inlineStr"/>
       <c r="G1421" t="inlineStr"/>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1422">
@@ -47137,10 +47103,8 @@
       </c>
       <c r="F1422" t="inlineStr"/>
       <c r="G1422" t="inlineStr"/>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1423">
@@ -47163,10 +47127,8 @@
       <c r="E1423" t="inlineStr"/>
       <c r="F1423" t="inlineStr"/>
       <c r="G1423" t="inlineStr"/>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1424">
@@ -47197,10 +47159,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1425">
@@ -47231,10 +47191,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1426">
@@ -47253,10 +47211,8 @@
       <c r="E1426" t="inlineStr"/>
       <c r="F1426" t="inlineStr"/>
       <c r="G1426" t="inlineStr"/>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1427">
@@ -47279,10 +47235,8 @@
       </c>
       <c r="F1427" t="inlineStr"/>
       <c r="G1427" t="inlineStr"/>
-      <c r="H1427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1428">
@@ -47309,10 +47263,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1429">
@@ -47331,10 +47283,8 @@
       <c r="E1429" t="inlineStr"/>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1430">
@@ -47361,10 +47311,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
@@ -47391,10 +47339,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -47413,10 +47359,8 @@
       <c r="E1432" t="inlineStr"/>
       <c r="F1432" t="inlineStr"/>
       <c r="G1432" t="inlineStr"/>
-      <c r="H1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
@@ -47465,10 +47409,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1434" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1435">
@@ -47499,10 +47441,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1436">
@@ -47533,10 +47473,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1437">
@@ -47563,10 +47501,8 @@
       </c>
       <c r="F1437" t="inlineStr"/>
       <c r="G1437" t="inlineStr"/>
-      <c r="H1437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1438">
@@ -47593,10 +47529,8 @@
       </c>
       <c r="F1438" t="inlineStr"/>
       <c r="G1438" t="inlineStr"/>
-      <c r="H1438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1439">
@@ -47623,10 +47557,8 @@
       </c>
       <c r="F1439" t="inlineStr"/>
       <c r="G1439" t="inlineStr"/>
-      <c r="H1439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1440">
@@ -47657,10 +47589,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1440" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1440" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1441">
@@ -47695,10 +47625,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1441" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1441" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1442">
@@ -47733,10 +47661,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1442" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1442" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1443">
@@ -47767,10 +47693,8 @@
           <t>40.0K</t>
         </is>
       </c>
-      <c r="H1443" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1443" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1444">
@@ -47805,10 +47729,8 @@
           <t>5.4%</t>
         </is>
       </c>
-      <c r="H1444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1445">
@@ -47843,10 +47765,8 @@
           <t>15.0K</t>
         </is>
       </c>
-      <c r="H1445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1445" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1446">
@@ -47877,10 +47797,8 @@
           <t>-20.0K</t>
         </is>
       </c>
-      <c r="H1446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1447">
@@ -47911,10 +47829,8 @@
           <t>-3.0%</t>
         </is>
       </c>
-      <c r="H1447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1448">
@@ -47945,10 +47861,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H1448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1449">
@@ -47979,10 +47893,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1450">
@@ -48017,10 +47929,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1450" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1450" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1451">
@@ -48055,10 +47965,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1451" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1451" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1452">
@@ -48093,10 +48001,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1452" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1453">
@@ -48123,10 +48029,8 @@
       </c>
       <c r="F1453" t="inlineStr"/>
       <c r="G1453" t="inlineStr"/>
-      <c r="H1453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1453" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1454">
@@ -48153,10 +48057,8 @@
       </c>
       <c r="F1454" t="inlineStr"/>
       <c r="G1454" t="inlineStr"/>
-      <c r="H1454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1454" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1455">
@@ -48187,10 +48089,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1455" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1456">
@@ -48221,10 +48121,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1456" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1457">
@@ -48259,10 +48157,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1457" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1457" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1458">
@@ -48293,10 +48189,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1458" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1458" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1459">
@@ -48331,10 +48225,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1459" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1459" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1460">
@@ -48365,10 +48257,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1460" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1460" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1461">
@@ -48403,10 +48293,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1461" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1461" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1462">
@@ -48441,10 +48329,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1462" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1463">
@@ -48471,10 +48357,8 @@
       </c>
       <c r="F1463" t="inlineStr"/>
       <c r="G1463" t="inlineStr"/>
-      <c r="H1463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1463" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1464">
@@ -48501,10 +48385,8 @@
       </c>
       <c r="F1464" t="inlineStr"/>
       <c r="G1464" t="inlineStr"/>
-      <c r="H1464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1464" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1465">
@@ -48531,10 +48413,8 @@
       </c>
       <c r="F1465" t="inlineStr"/>
       <c r="G1465" t="inlineStr"/>
-      <c r="H1465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1465" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1466">
@@ -48561,10 +48441,8 @@
       </c>
       <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr"/>
-      <c r="H1466" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1466" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1467">
@@ -48583,10 +48461,8 @@
       <c r="E1467" t="inlineStr"/>
       <c r="F1467" t="inlineStr"/>
       <c r="G1467" t="inlineStr"/>
-      <c r="H1467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1467" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1468">
@@ -48631,10 +48507,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1469" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1469" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1470">
@@ -48665,10 +48539,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1470" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1470" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1471">
@@ -48703,10 +48575,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1471" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1471" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1472">
@@ -48737,10 +48607,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1472" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1472" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1473">
@@ -48771,10 +48639,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1473" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1473" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1474">
@@ -48805,10 +48671,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1474" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1474" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1475">
@@ -48839,10 +48703,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1475" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1475" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1476">
@@ -48869,10 +48731,8 @@
       </c>
       <c r="F1476" t="inlineStr"/>
       <c r="G1476" t="inlineStr"/>
-      <c r="H1476" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1476" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1477">
@@ -48903,10 +48763,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1477" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1478">
@@ -48937,10 +48795,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1478" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1479">
@@ -48967,10 +48823,8 @@
       </c>
       <c r="F1479" t="inlineStr"/>
       <c r="G1479" t="inlineStr"/>
-      <c r="H1479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1479" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1480">
@@ -48997,10 +48851,8 @@
       </c>
       <c r="F1480" t="inlineStr"/>
       <c r="G1480" t="inlineStr"/>
-      <c r="H1480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1480" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1481">
@@ -49027,10 +48879,8 @@
       </c>
       <c r="F1481" t="inlineStr"/>
       <c r="G1481" t="inlineStr"/>
-      <c r="H1481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1481" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1482">
@@ -49057,10 +48907,8 @@
       </c>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
-      <c r="H1482" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1482" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1483">
@@ -49087,10 +48935,8 @@
       </c>
       <c r="F1483" t="inlineStr"/>
       <c r="G1483" t="inlineStr"/>
-      <c r="H1483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1483" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1484">
@@ -49117,10 +48963,8 @@
       </c>
       <c r="F1484" t="inlineStr"/>
       <c r="G1484" t="inlineStr"/>
-      <c r="H1484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1484" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1485">
@@ -49147,10 +48991,8 @@
       </c>
       <c r="F1485" t="inlineStr"/>
       <c r="G1485" t="inlineStr"/>
-      <c r="H1485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1485" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1486">
@@ -49177,10 +49019,8 @@
       </c>
       <c r="F1486" t="inlineStr"/>
       <c r="G1486" t="inlineStr"/>
-      <c r="H1486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1486" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1487">
@@ -49215,10 +49055,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1487" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1488">
@@ -49249,10 +49087,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1488" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1489">
@@ -49287,10 +49123,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1489" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1490">
@@ -49321,10 +49155,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1490" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1490" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1491">
@@ -49351,10 +49183,8 @@
       </c>
       <c r="F1491" t="inlineStr"/>
       <c r="G1491" t="inlineStr"/>
-      <c r="H1491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1491" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1492">
@@ -49389,10 +49219,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1492" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1493">
@@ -49415,10 +49243,8 @@
       <c r="E1493" t="inlineStr"/>
       <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr"/>
-      <c r="H1493" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1493" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1494">
@@ -49445,10 +49271,8 @@
       </c>
       <c r="F1494" t="inlineStr"/>
       <c r="G1494" t="inlineStr"/>
-      <c r="H1494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1494" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1495">
@@ -49475,10 +49299,8 @@
       </c>
       <c r="F1495" t="inlineStr"/>
       <c r="G1495" t="inlineStr"/>
-      <c r="H1495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1495" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1496">
@@ -49523,10 +49345,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1497" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1498">
@@ -49557,10 +49377,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1498" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1498" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1499">
@@ -49587,10 +49405,8 @@
       </c>
       <c r="F1499" t="inlineStr"/>
       <c r="G1499" t="inlineStr"/>
-      <c r="H1499" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1499" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1500">
@@ -49625,10 +49441,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1500" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1500" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1501">
@@ -49663,10 +49477,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1501" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1501" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1502">
@@ -49701,10 +49513,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1502" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1502" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1503">
@@ -49739,10 +49549,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1503" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1503" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1504">
@@ -49769,10 +49577,8 @@
       </c>
       <c r="F1504" t="inlineStr"/>
       <c r="G1504" t="inlineStr"/>
-      <c r="H1504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1504" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1505">
@@ -49807,10 +49613,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1505" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1505" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1506">
@@ -49837,10 +49641,8 @@
       </c>
       <c r="F1506" t="inlineStr"/>
       <c r="G1506" t="inlineStr"/>
-      <c r="H1506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1506" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1507">
@@ -49867,10 +49669,8 @@
       </c>
       <c r="F1507" t="inlineStr"/>
       <c r="G1507" t="inlineStr"/>
-      <c r="H1507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1508">
@@ -49897,10 +49697,8 @@
       </c>
       <c r="F1508" t="inlineStr"/>
       <c r="G1508" t="inlineStr"/>
-      <c r="H1508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1509">
@@ -49927,10 +49725,8 @@
       </c>
       <c r="F1509" t="inlineStr"/>
       <c r="G1509" t="inlineStr"/>
-      <c r="H1509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1510">
@@ -49961,10 +49757,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1511">
@@ -49995,10 +49789,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1512">
@@ -50029,10 +49821,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1513">
@@ -50063,10 +49853,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1514">
@@ -50093,10 +49881,8 @@
       </c>
       <c r="F1514" t="inlineStr"/>
       <c r="G1514" t="inlineStr"/>
-      <c r="H1514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1515">
@@ -50123,10 +49909,8 @@
       </c>
       <c r="F1515" t="inlineStr"/>
       <c r="G1515" t="inlineStr"/>
-      <c r="H1515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1516">
@@ -50157,10 +49941,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1516" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1516" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1517">
@@ -50195,10 +49977,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1517" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1517" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1518">
@@ -50229,10 +50009,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1518" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1519">
@@ -50259,10 +50037,8 @@
       </c>
       <c r="F1519" t="inlineStr"/>
       <c r="G1519" t="inlineStr"/>
-      <c r="H1519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1519" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1520">
@@ -50289,10 +50065,8 @@
       </c>
       <c r="F1520" t="inlineStr"/>
       <c r="G1520" t="inlineStr"/>
-      <c r="H1520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1521">
@@ -50319,10 +50093,8 @@
       </c>
       <c r="F1521" t="inlineStr"/>
       <c r="G1521" t="inlineStr"/>
-      <c r="H1521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1522">
@@ -50349,10 +50121,8 @@
       </c>
       <c r="F1522" t="inlineStr"/>
       <c r="G1522" t="inlineStr"/>
-      <c r="H1522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1522" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1523">
@@ -50379,10 +50149,8 @@
       </c>
       <c r="F1523" t="inlineStr"/>
       <c r="G1523" t="inlineStr"/>
-      <c r="H1523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1524">
@@ -50409,10 +50177,8 @@
       </c>
       <c r="F1524" t="inlineStr"/>
       <c r="G1524" t="inlineStr"/>
-      <c r="H1524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1524" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1525">
@@ -50439,10 +50205,8 @@
       </c>
       <c r="F1525" t="inlineStr"/>
       <c r="G1525" t="inlineStr"/>
-      <c r="H1525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1526">
@@ -50469,10 +50233,8 @@
       </c>
       <c r="F1526" t="inlineStr"/>
       <c r="G1526" t="inlineStr"/>
-      <c r="H1526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1527">
@@ -50503,10 +50265,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1527" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1528">
@@ -50537,10 +50297,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1528" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1528" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1529">
@@ -50575,10 +50333,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1529" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1529" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1530">
@@ -50609,10 +50365,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1530" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1531">
@@ -50643,10 +50397,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1531" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1531" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1532">
@@ -50681,10 +50433,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1532" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1532" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1533">
@@ -50711,10 +50461,8 @@
       </c>
       <c r="F1533" t="inlineStr"/>
       <c r="G1533" t="inlineStr"/>
-      <c r="H1533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1533" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1534">
@@ -50745,10 +50493,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1534" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1535">
@@ -50779,10 +50525,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1535" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1536">
@@ -50813,10 +50557,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1536" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1537">
@@ -50847,10 +50589,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1537" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1538">
@@ -50885,10 +50625,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1538" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1538" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1539">
@@ -50923,10 +50661,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1539" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1539" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1540">
@@ -50949,10 +50685,8 @@
       <c r="E1540" t="inlineStr"/>
       <c r="F1540" t="inlineStr"/>
       <c r="G1540" t="inlineStr"/>
-      <c r="H1540" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1540" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1541">
@@ -50983,10 +50717,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1542">
@@ -51021,10 +50753,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1542" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1542" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1543">
@@ -51055,10 +50785,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1544">
@@ -51089,10 +50817,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1545">
@@ -51127,10 +50853,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1545" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1545" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1546">
@@ -51157,10 +50881,8 @@
       </c>
       <c r="F1546" t="inlineStr"/>
       <c r="G1546" t="inlineStr"/>
-      <c r="H1546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1547">
@@ -51187,10 +50909,8 @@
       </c>
       <c r="F1547" t="inlineStr"/>
       <c r="G1547" t="inlineStr"/>
-      <c r="H1547" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1547" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1548">
@@ -51217,10 +50937,8 @@
       </c>
       <c r="F1548" t="inlineStr"/>
       <c r="G1548" t="inlineStr"/>
-      <c r="H1548" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1548" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1549">
@@ -51247,10 +50965,8 @@
       </c>
       <c r="F1549" t="inlineStr"/>
       <c r="G1549" t="inlineStr"/>
-      <c r="H1549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1549" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1550">
@@ -51277,10 +50993,8 @@
       </c>
       <c r="F1550" t="inlineStr"/>
       <c r="G1550" t="inlineStr"/>
-      <c r="H1550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1550" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1551">
@@ -51307,10 +51021,8 @@
       </c>
       <c r="F1551" t="inlineStr"/>
       <c r="G1551" t="inlineStr"/>
-      <c r="H1551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1552">
@@ -51337,10 +51049,8 @@
       </c>
       <c r="F1552" t="inlineStr"/>
       <c r="G1552" t="inlineStr"/>
-      <c r="H1552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1553">
@@ -51367,10 +51077,8 @@
       </c>
       <c r="F1553" t="inlineStr"/>
       <c r="G1553" t="inlineStr"/>
-      <c r="H1553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1554">
@@ -51397,10 +51105,8 @@
       </c>
       <c r="F1554" t="inlineStr"/>
       <c r="G1554" t="inlineStr"/>
-      <c r="H1554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1554" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1555">
@@ -51427,10 +51133,8 @@
       </c>
       <c r="F1555" t="inlineStr"/>
       <c r="G1555" t="inlineStr"/>
-      <c r="H1555" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1555" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1556">
@@ -51457,10 +51161,8 @@
       </c>
       <c r="F1556" t="inlineStr"/>
       <c r="G1556" t="inlineStr"/>
-      <c r="H1556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1556" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1557">
@@ -51487,10 +51189,8 @@
       </c>
       <c r="F1557" t="inlineStr"/>
       <c r="G1557" t="inlineStr"/>
-      <c r="H1557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1557" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1558">
@@ -51517,10 +51217,8 @@
       </c>
       <c r="F1558" t="inlineStr"/>
       <c r="G1558" t="inlineStr"/>
-      <c r="H1558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1558" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1559">
@@ -51547,10 +51245,8 @@
       </c>
       <c r="F1559" t="inlineStr"/>
       <c r="G1559" t="inlineStr"/>
-      <c r="H1559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1559" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1560">
@@ -51577,10 +51273,8 @@
       </c>
       <c r="F1560" t="inlineStr"/>
       <c r="G1560" t="inlineStr"/>
-      <c r="H1560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1560" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1561">
@@ -51607,10 +51301,8 @@
       </c>
       <c r="F1561" t="inlineStr"/>
       <c r="G1561" t="inlineStr"/>
-      <c r="H1561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1562">
@@ -51633,10 +51325,8 @@
       </c>
       <c r="F1562" t="inlineStr"/>
       <c r="G1562" t="inlineStr"/>
-      <c r="H1562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1563">
@@ -51663,256 +51353,290 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1563" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1564" t="inlineStr"/>
-      <c r="C1564" t="inlineStr"/>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B1564" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C1564" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D1564" t="inlineStr"/>
-      <c r="E1564" t="inlineStr"/>
+      <c r="E1564" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1564" t="inlineStr"/>
-      <c r="G1564" t="inlineStr"/>
-      <c r="H1564" t="inlineStr"/>
+      <c r="G1564" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="H1564" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1565">
       <c r="A1565" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1565" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1565" t="inlineStr"/>
       <c r="E1565" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F1565" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F1565" t="inlineStr">
+        <is>
+          <t>42.1</t>
+        </is>
+      </c>
       <c r="G1565" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="H1565" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1566" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1566" t="inlineStr"/>
       <c r="E1566" t="inlineStr">
         <is>
-          <t>$6.83T</t>
-        </is>
-      </c>
-      <c r="F1566" t="inlineStr"/>
-      <c r="G1566" t="inlineStr"/>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F1566" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="G1566" t="inlineStr">
+        <is>
+          <t>49.5</t>
+        </is>
+      </c>
       <c r="H1566" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr"/>
       <c r="E1567" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="F1567" t="inlineStr"/>
       <c r="G1567" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H1567" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1568" t="inlineStr"/>
       <c r="E1568" t="inlineStr">
         <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1568" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F1568" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
       <c r="G1568" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="H1568" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F1569" t="inlineStr"/>
       <c r="G1569" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="H1569" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1570" t="inlineStr"/>
       <c r="E1570" t="inlineStr">
         <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F1570" t="inlineStr"/>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F1570" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="G1570" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1570" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1571" t="inlineStr"/>
       <c r="E1571" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1571" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F1571" t="inlineStr"/>
       <c r="G1571" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="H1571" t="inlineStr">
@@ -51924,75 +51648,83 @@
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr">
         <is>
-          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1572" t="inlineStr"/>
       <c r="E1572" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1572" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F1572" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="G1572" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H1572" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1573" t="inlineStr"/>
       <c r="E1573" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1573" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F1573" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="G1573" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H1573" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr">
@@ -52002,23 +51734,23 @@
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>Gfk Consumer ConfidenceJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1574" t="inlineStr"/>
       <c r="E1574" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F1574" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="G1574" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="H1574" t="inlineStr">
@@ -52030,135 +51762,127 @@
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1575" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1575" t="inlineStr"/>
       <c r="E1575" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F1575" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="G1575" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1575" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr"/>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F1576" t="inlineStr"/>
       <c r="G1576" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="H1576" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1577" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FlashJAN</t>
+          <t>ECB President Lagarde Speech</t>
         </is>
       </c>
       <c r="D1577" t="inlineStr"/>
-      <c r="E1577" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
+      <c r="E1577" t="inlineStr"/>
       <c r="F1577" t="inlineStr"/>
-      <c r="G1577" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G1577" t="inlineStr"/>
       <c r="H1577" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>URA Property Index QoQ FinalQ4</t>
+          <t>FGV Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr"/>
       <c r="E1578" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F1578" t="inlineStr"/>
       <c r="G1578" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>91.4</t>
         </is>
       </c>
       <c r="H1578" t="inlineStr">
@@ -52170,61 +51894,61 @@
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>BoJ Interest Rate Decision</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr"/>
-      <c r="E1579" t="inlineStr">
-        <is>
-          <t>0.25%</t>
-        </is>
-      </c>
-      <c r="F1579" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1579" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E1579" t="inlineStr"/>
+      <c r="F1579" t="inlineStr"/>
+      <c r="G1579" t="inlineStr"/>
       <c r="H1579" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1580">
       <c r="A1580" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>BoJ Quarterly Outlook Report</t>
+          <t>CBI Distributive TradesJAN</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr"/>
-      <c r="E1580" t="inlineStr"/>
-      <c r="F1580" t="inlineStr"/>
-      <c r="G1580" t="inlineStr"/>
+      <c r="E1580" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="F1580" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="G1580" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
       <c r="H1580" t="inlineStr">
         <is>
           <t>2</t>
@@ -52234,23 +51958,23 @@
     <row r="1581">
       <c r="A1581" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>Foreign Direct Investment YoYQ4</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1581" t="inlineStr"/>
       <c r="E1581" t="inlineStr">
         <is>
-          <t>18.55%</t>
+          <t>$625.87B</t>
         </is>
       </c>
       <c r="F1581" t="inlineStr"/>
@@ -52264,199 +51988,203 @@
     <row r="1582">
       <c r="A1582" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr"/>
       <c r="E1582" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1582" t="inlineStr"/>
       <c r="G1582" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1582" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr"/>
       <c r="E1583" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1583" t="inlineStr"/>
       <c r="G1583" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1583" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr"/>
       <c r="E1584" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1584" t="inlineStr"/>
       <c r="G1584" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1584" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr"/>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1585" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1585" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1585" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1585" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1586" t="inlineStr"/>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1586" t="inlineStr"/>
       <c r="G1586" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1586" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr"/>
       <c r="E1587" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1587" t="inlineStr"/>
       <c r="G1587" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1587" t="inlineStr">
@@ -52468,33 +52196,29 @@
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1588" t="inlineStr"/>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1588" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1588" t="inlineStr"/>
       <c r="G1588" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1588" t="inlineStr">
@@ -52506,33 +52230,29 @@
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1589" t="inlineStr"/>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1589" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1589" t="inlineStr"/>
       <c r="G1589" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1589" t="inlineStr">
@@ -52544,67 +52264,67 @@
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1590" t="inlineStr"/>
       <c r="E1590" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1590" t="inlineStr"/>
       <c r="G1590" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1590" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1591" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1591" t="inlineStr"/>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1591" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1591" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1591" t="inlineStr">
@@ -52616,29 +52336,29 @@
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1592" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1592" t="inlineStr"/>
       <c r="E1592" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1592" t="inlineStr"/>
       <c r="G1592" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1592" t="inlineStr">
@@ -52650,33 +52370,33 @@
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1593" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1593" t="inlineStr"/>
       <c r="E1593" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1593" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1593" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1593" t="inlineStr">
@@ -52688,215 +52408,215 @@
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1594" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1594" t="inlineStr"/>
       <c r="E1594" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1594" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1594" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1595" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1595" t="inlineStr"/>
       <c r="E1595" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1595" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1595" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1595" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1596" t="inlineStr"/>
       <c r="E1596" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1596" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1596" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1596" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1597" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1597" t="inlineStr"/>
       <c r="E1597" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1597" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1597" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1597" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1598" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1598" t="inlineStr"/>
       <c r="E1598" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1598" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1598" t="inlineStr"/>
       <c r="G1598" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1598" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1599" t="inlineStr"/>
       <c r="E1599" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1599" t="inlineStr"/>
       <c r="G1599" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1599" t="inlineStr">
@@ -52908,57 +52628,57 @@
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1600" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1600" t="inlineStr"/>
-      <c r="E1600" t="inlineStr"/>
+      <c r="E1600" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1600" t="inlineStr"/>
       <c r="G1600" t="inlineStr"/>
       <c r="H1600" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1601" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1601" t="inlineStr"/>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1601" t="inlineStr"/>
-      <c r="G1601" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1601" t="inlineStr"/>
       <c r="H1601" t="inlineStr">
         <is>
           <t>3</t>
@@ -52968,87 +52688,71 @@
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1602" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1602" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1602" t="inlineStr"/>
+      <c r="C1602" t="inlineStr"/>
       <c r="D1602" t="inlineStr"/>
       <c r="E1602" t="inlineStr"/>
       <c r="F1602" t="inlineStr"/>
       <c r="G1602" t="inlineStr"/>
-      <c r="H1602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1602" t="inlineStr"/>
     </row>
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1603" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F1603" t="inlineStr"/>
       <c r="G1603" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1603" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1604" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1604" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1604" t="inlineStr"/>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>$625.87B</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1604" t="inlineStr"/>
@@ -53062,31 +52766,27 @@
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1605" t="inlineStr"/>
-      <c r="G1605" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1605" t="inlineStr"/>
       <c r="H1605" t="inlineStr">
         <is>
           <t>3</t>
@@ -53096,31 +52796,27 @@
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr"/>
-      <c r="G1606" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1606" t="inlineStr"/>
       <c r="H1606" t="inlineStr">
         <is>
           <t>3</t>
@@ -53130,31 +52826,23 @@
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
-      <c r="E1607" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1607" t="inlineStr"/>
       <c r="F1607" t="inlineStr"/>
-      <c r="G1607" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1607" t="inlineStr"/>
       <c r="H1607" t="inlineStr">
         <is>
           <t>3</t>
@@ -53164,69 +52852,53 @@
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
-      <c r="E1608" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1608" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1608" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1608" t="inlineStr"/>
+      <c r="F1608" t="inlineStr"/>
+      <c r="G1608" t="inlineStr"/>
       <c r="H1608" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1609" t="inlineStr"/>
-      <c r="G1609" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1609" t="inlineStr"/>
       <c r="H1609" t="inlineStr">
         <is>
           <t>2</t>
@@ -53236,31 +52908,27 @@
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1610" t="inlineStr"/>
-      <c r="G1610" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1610" t="inlineStr"/>
       <c r="H1610" t="inlineStr">
         <is>
           <t>3</t>
@@ -53270,169 +52938,145 @@
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr"/>
-      <c r="G1611" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1611" t="inlineStr"/>
       <c r="H1611" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr"/>
-      <c r="G1612" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1612" t="inlineStr"/>
       <c r="H1612" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1613" t="inlineStr"/>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr"/>
-      <c r="G1613" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1613" t="inlineStr"/>
       <c r="H1613" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:15 PM</t>
         </is>
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr"/>
-      <c r="E1614" t="inlineStr">
-        <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1614" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1614" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+      <c r="E1614" t="inlineStr"/>
+      <c r="F1614" t="inlineStr"/>
+      <c r="G1614" t="inlineStr"/>
       <c r="H1614" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr"/>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>43.5K</t>
         </is>
       </c>
       <c r="F1615" t="inlineStr"/>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1615" t="inlineStr">
@@ -53444,71 +53088,63 @@
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1616" t="inlineStr"/>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1616" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1616" t="inlineStr"/>
       <c r="G1616" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1616" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1617" t="inlineStr"/>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1617" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1617" t="inlineStr"/>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1617" t="inlineStr">
@@ -53520,35 +53156,27 @@
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1618" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
-      <c r="G1618" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1618" t="inlineStr"/>
+      <c r="G1618" t="inlineStr"/>
       <c r="H1618" t="inlineStr">
         <is>
           <t>3</t>
@@ -53558,35 +53186,27 @@
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1619" t="inlineStr"/>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1619" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1619" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1619" t="inlineStr"/>
+      <c r="G1619" t="inlineStr"/>
       <c r="H1619" t="inlineStr">
         <is>
           <t>3</t>
@@ -53596,67 +53216,63 @@
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1620" t="inlineStr"/>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1620" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>$-0.133B</t>
+        </is>
+      </c>
+      <c r="F1620" t="inlineStr"/>
       <c r="G1620" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1620" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1621" t="inlineStr"/>
       <c r="G1621" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1621" t="inlineStr">
@@ -53668,7 +53284,7 @@
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
@@ -53678,51 +53294,55 @@
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1622" t="inlineStr"/>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="H1622" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr"/>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr"/>
-      <c r="G1623" t="inlineStr"/>
+      <c r="G1623" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1623" t="inlineStr">
         <is>
           <t>3</t>
@@ -53732,25 +53352,21 @@
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
-      <c r="E1624" t="inlineStr">
-        <is>
-          <t>580</t>
-        </is>
-      </c>
+      <c r="E1624" t="inlineStr"/>
       <c r="F1624" t="inlineStr"/>
       <c r="G1624" t="inlineStr"/>
       <c r="H1624" t="inlineStr">
@@ -53762,45 +53378,49 @@
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1625" t="inlineStr"/>
-      <c r="C1625" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1625" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1625" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1625" t="inlineStr"/>
       <c r="E1625" t="inlineStr"/>
       <c r="F1625" t="inlineStr"/>
       <c r="G1625" t="inlineStr"/>
-      <c r="H1625" t="inlineStr"/>
+      <c r="H1625" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1626" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1626" t="inlineStr"/>
-      <c r="E1626" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1626" t="inlineStr"/>
       <c r="F1626" t="inlineStr"/>
-      <c r="G1626" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1626" t="inlineStr"/>
       <c r="H1626" t="inlineStr">
         <is>
           <t>3</t>
@@ -53810,107 +53430,103 @@
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1627" t="inlineStr"/>
-      <c r="E1627" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1627" t="inlineStr"/>
       <c r="F1627" t="inlineStr"/>
       <c r="G1627" t="inlineStr"/>
       <c r="H1627" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1628" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1628" t="inlineStr"/>
-      <c r="E1628" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1628" t="inlineStr"/>
       <c r="F1628" t="inlineStr"/>
-      <c r="G1628" t="inlineStr"/>
+      <c r="G1628" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1628" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1629" t="inlineStr"/>
       <c r="E1629" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1629" t="inlineStr"/>
       <c r="G1629" t="inlineStr"/>
       <c r="H1629" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1630" t="inlineStr"/>
@@ -53926,17 +53542,17 @@
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1631" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1631" t="inlineStr"/>
@@ -53952,55 +53568,47 @@
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1632" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1632" t="inlineStr"/>
-      <c r="E1632" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1632" t="inlineStr"/>
       <c r="F1632" t="inlineStr"/>
       <c r="G1632" t="inlineStr"/>
       <c r="H1632" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr"/>
-      <c r="E1633" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1633" t="inlineStr"/>
       <c r="F1633" t="inlineStr"/>
       <c r="G1633" t="inlineStr"/>
       <c r="H1633" t="inlineStr">
@@ -54010,59 +53618,63 @@
       </c>
     </row>
     <row r="1634">
-      <c r="A1634" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1634" t="inlineStr"/>
       <c r="B1634" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1634" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1634" t="inlineStr"/>
       <c r="E1634" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1634" t="inlineStr"/>
-      <c r="G1634" t="inlineStr"/>
+      <c r="G1634" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1634" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1635">
-      <c r="A1635" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1635" t="inlineStr"/>
       <c r="B1635" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1635" t="inlineStr"/>
       <c r="E1635" t="inlineStr">
         <is>
-          <t>85.1</t>
-        </is>
-      </c>
-      <c r="F1635" t="inlineStr"/>
-      <c r="G1635" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1635" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1635" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1635" t="inlineStr">
         <is>
           <t>3</t>
@@ -54072,121 +53684,109 @@
     <row r="1636">
       <c r="A1636" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1636" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1636" t="inlineStr">
-        <is>
-          <t>Ifo ExpectationsJAN</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1636" t="inlineStr"/>
+      <c r="C1636" t="inlineStr"/>
       <c r="D1636" t="inlineStr"/>
-      <c r="E1636" t="inlineStr">
-        <is>
-          <t>84.4</t>
-        </is>
-      </c>
+      <c r="E1636" t="inlineStr"/>
       <c r="F1636" t="inlineStr"/>
       <c r="G1636" t="inlineStr"/>
-      <c r="H1636" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1636" t="inlineStr"/>
     </row>
     <row r="1637">
       <c r="A1637" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1637" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1637" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1637" t="inlineStr"/>
-      <c r="E1637" t="inlineStr"/>
+      <c r="E1637" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1637" t="inlineStr"/>
-      <c r="G1637" t="inlineStr"/>
+      <c r="G1637" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1637" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1638">
       <c r="A1638" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1638" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1638" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1638" t="inlineStr"/>
       <c r="E1638" t="inlineStr">
         <is>
-          <t>43.5K</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1638" t="inlineStr"/>
       <c r="G1638" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="H1638" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1639" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1639" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1639" t="inlineStr"/>
       <c r="E1639" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1639" t="inlineStr"/>
-      <c r="G1639" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1639" t="inlineStr"/>
       <c r="H1639" t="inlineStr">
         <is>
           <t>3</t>
@@ -54196,29 +53796,29 @@
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1640" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1640" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1640" t="inlineStr"/>
       <c r="E1640" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1640" t="inlineStr"/>
       <c r="G1640" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1640" t="inlineStr">
@@ -54230,27 +53830,31 @@
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1641" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1641" t="inlineStr"/>
       <c r="E1641" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1641" t="inlineStr"/>
-      <c r="G1641" t="inlineStr"/>
+      <c r="G1641" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1641" t="inlineStr">
         <is>
           <t>3</t>
@@ -54260,27 +53864,31 @@
     <row r="1642">
       <c r="A1642" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1642" t="inlineStr"/>
       <c r="E1642" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1642" t="inlineStr"/>
-      <c r="G1642" t="inlineStr"/>
+      <c r="G1642" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1642" t="inlineStr">
         <is>
           <t>3</t>
@@ -54290,97 +53898,93 @@
     <row r="1643">
       <c r="A1643" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1643" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1643" t="inlineStr"/>
       <c r="E1643" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1643" t="inlineStr"/>
       <c r="G1643" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1643" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1644">
       <c r="A1644" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1644" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1644" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1644" t="inlineStr"/>
       <c r="E1644" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1644" t="inlineStr"/>
-      <c r="G1644" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1644" t="inlineStr"/>
       <c r="H1644" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1645">
       <c r="A1645" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1645" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1645" t="inlineStr"/>
       <c r="E1645" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1645" t="inlineStr"/>
       <c r="G1645" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1645" t="inlineStr">
@@ -54392,31 +53996,27 @@
     <row r="1646">
       <c r="A1646" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1646" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1646" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1646" t="inlineStr"/>
       <c r="E1646" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1646" t="inlineStr"/>
-      <c r="G1646" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1646" t="inlineStr"/>
       <c r="H1646" t="inlineStr">
         <is>
           <t>3</t>
@@ -54426,17 +54026,17 @@
     <row r="1647">
       <c r="A1647" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1647" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1647" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1647" t="inlineStr"/>
@@ -54452,17 +54052,17 @@
     <row r="1648">
       <c r="A1648" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1648" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1648" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1648" t="inlineStr"/>
@@ -54478,17 +54078,17 @@
     <row r="1649">
       <c r="A1649" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1649" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1649" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1649" t="inlineStr"/>
@@ -54504,33 +54104,37 @@
     <row r="1650">
       <c r="A1650" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1650" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1650" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1650" t="inlineStr"/>
-      <c r="E1650" t="inlineStr"/>
+      <c r="E1650" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1650" t="inlineStr"/>
       <c r="G1650" t="inlineStr"/>
       <c r="H1650" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1651">
       <c r="A1651" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1651" t="inlineStr">
@@ -54540,27 +54144,31 @@
       </c>
       <c r="C1651" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1651" t="inlineStr"/>
-      <c r="E1651" t="inlineStr"/>
+      <c r="E1651" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1651" t="inlineStr"/>
       <c r="G1651" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1651" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1652">
       <c r="A1652" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1652" t="inlineStr">
@@ -54570,17 +54178,21 @@
       </c>
       <c r="C1652" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1652" t="inlineStr"/>
       <c r="E1652" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1652" t="inlineStr"/>
-      <c r="G1652" t="inlineStr"/>
+      <c r="G1652" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1652" t="inlineStr">
         <is>
           <t>2</t>
@@ -54590,7 +54202,7 @@
     <row r="1653">
       <c r="A1653" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1653" t="inlineStr">
@@ -54600,13 +54212,21 @@
       </c>
       <c r="C1653" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1653" t="inlineStr"/>
-      <c r="E1653" t="inlineStr"/>
+      <c r="E1653" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1653" t="inlineStr"/>
-      <c r="G1653" t="inlineStr"/>
+      <c r="G1653" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1653" t="inlineStr">
         <is>
           <t>3</t>
@@ -54616,7 +54236,7 @@
     <row r="1654">
       <c r="A1654" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1654" t="inlineStr">
@@ -54626,11 +54246,15 @@
       </c>
       <c r="C1654" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1654" t="inlineStr"/>
-      <c r="E1654" t="inlineStr"/>
+      <c r="E1654" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1654" t="inlineStr"/>
       <c r="G1654" t="inlineStr"/>
       <c r="H1654" t="inlineStr">
@@ -54642,7 +54266,7 @@
     <row r="1655">
       <c r="A1655" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B1655" t="inlineStr">
@@ -54652,7 +54276,7 @@
       </c>
       <c r="C1655" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1655" t="inlineStr"/>
@@ -54668,7 +54292,7 @@
     <row r="1656">
       <c r="A1656" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1656" t="inlineStr">
@@ -54678,21 +54302,29 @@
       </c>
       <c r="C1656" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1656" t="inlineStr"/>
-      <c r="E1656" t="inlineStr"/>
+      <c r="E1656" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1656" t="inlineStr"/>
       <c r="G1656" t="inlineStr"/>
       <c r="H1656" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1657">
-      <c r="A1657" t="inlineStr"/>
+      <c r="A1657" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1657" t="inlineStr">
         <is>
           <t>US</t>
@@ -54700,21 +54332,17 @@
       </c>
       <c r="C1657" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1657" t="inlineStr"/>
       <c r="E1657" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1657" t="inlineStr"/>
-      <c r="G1657" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1657" t="inlineStr"/>
       <c r="H1657" t="inlineStr">
         <is>
           <t>3</t>
@@ -54722,7 +54350,11 @@
       </c>
     </row>
     <row r="1658">
-      <c r="A1658" t="inlineStr"/>
+      <c r="A1658" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1658" t="inlineStr">
         <is>
           <t>US</t>
@@ -54730,25 +54362,13 @@
       </c>
       <c r="C1658" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1658" t="inlineStr"/>
-      <c r="E1658" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1658" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1658" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="E1658" t="inlineStr"/>
+      <c r="F1658" t="inlineStr"/>
+      <c r="G1658" t="inlineStr"/>
       <c r="H1658" t="inlineStr">
         <is>
           <t>3</t>
@@ -54758,107 +54378,107 @@
     <row r="1659">
       <c r="A1659" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1659" t="inlineStr"/>
-      <c r="C1659" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1659" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1659" t="inlineStr">
+        <is>
+          <t>House Price Index YoYNOV</t>
+        </is>
+      </c>
       <c r="D1659" t="inlineStr"/>
-      <c r="E1659" t="inlineStr"/>
+      <c r="E1659" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="F1659" t="inlineStr"/>
       <c r="G1659" t="inlineStr"/>
-      <c r="H1659" t="inlineStr"/>
+      <c r="H1659" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1660">
       <c r="A1660" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1660" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1660" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1660" t="inlineStr"/>
       <c r="E1660" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1660" t="inlineStr"/>
-      <c r="G1660" t="inlineStr">
+      <c r="G1660" t="inlineStr"/>
+      <c r="H1660" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1660" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1661">
       <c r="A1661" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1661" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1661" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>CB Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1661" t="inlineStr"/>
-      <c r="E1661" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1661" t="inlineStr"/>
       <c r="F1661" t="inlineStr"/>
-      <c r="G1661" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1661" t="inlineStr"/>
       <c r="H1661" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1662">
       <c r="A1662" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1662" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1662" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1662" t="inlineStr"/>
-      <c r="E1662" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1662" t="inlineStr"/>
       <c r="F1662" t="inlineStr"/>
       <c r="G1662" t="inlineStr"/>
       <c r="H1662" t="inlineStr">
@@ -54870,29 +54490,29 @@
     <row r="1663">
       <c r="A1663" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1663" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1663" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1663" t="inlineStr"/>
       <c r="E1663" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1663" t="inlineStr"/>
       <c r="G1663" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1663" t="inlineStr">
@@ -54904,29 +54524,29 @@
     <row r="1664">
       <c r="A1664" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1664" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1664" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1664" t="inlineStr"/>
       <c r="E1664" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1664" t="inlineStr"/>
       <c r="G1664" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1664" t="inlineStr">
@@ -54938,31 +54558,27 @@
     <row r="1665">
       <c r="A1665" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1665" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1665" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1665" t="inlineStr"/>
       <c r="E1665" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1665" t="inlineStr"/>
-      <c r="G1665" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1665" t="inlineStr"/>
       <c r="H1665" t="inlineStr">
         <is>
           <t>3</t>
@@ -54972,31 +54588,27 @@
     <row r="1666">
       <c r="A1666" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1666" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1666" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1666" t="inlineStr"/>
       <c r="E1666" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1666" t="inlineStr"/>
-      <c r="G1666" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1666" t="inlineStr"/>
       <c r="H1666" t="inlineStr">
         <is>
           <t>3</t>
@@ -55006,87 +54618,79 @@
     <row r="1667">
       <c r="A1667" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1667" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1667" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1667" t="inlineStr"/>
-      <c r="E1667" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1667" t="inlineStr"/>
       <c r="F1667" t="inlineStr"/>
       <c r="G1667" t="inlineStr"/>
       <c r="H1667" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1668">
       <c r="A1668" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1668" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1668" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1668" t="inlineStr"/>
       <c r="E1668" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1668" t="inlineStr"/>
-      <c r="G1668" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1668" t="inlineStr"/>
       <c r="H1668" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1669">
       <c r="A1669" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1669" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1669" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1669" t="inlineStr"/>
       <c r="E1669" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1669" t="inlineStr"/>
@@ -55100,43 +54704,31 @@
     <row r="1670">
       <c r="A1670" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1670" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1670" t="inlineStr">
-        <is>
-          <t>BTP Short Term Auction</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1670" t="inlineStr"/>
+      <c r="C1670" t="inlineStr"/>
       <c r="D1670" t="inlineStr"/>
       <c r="E1670" t="inlineStr"/>
       <c r="F1670" t="inlineStr"/>
       <c r="G1670" t="inlineStr"/>
-      <c r="H1670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1670" t="inlineStr"/>
     </row>
     <row r="1671">
       <c r="A1671" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1671" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1671" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1671" t="inlineStr"/>
@@ -55145,126 +54737,138 @@
       <c r="G1671" t="inlineStr"/>
       <c r="H1671" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1672">
       <c r="A1672" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1672" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1672" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1672" t="inlineStr"/>
-      <c r="E1672" t="inlineStr"/>
+      <c r="E1672" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1672" t="inlineStr"/>
-      <c r="G1672" t="inlineStr"/>
+      <c r="G1672" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1672" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1673">
       <c r="A1673" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1673" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1673" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1673" t="inlineStr"/>
       <c r="E1673" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1673" t="inlineStr"/>
-      <c r="G1673" t="inlineStr"/>
+      <c r="G1673" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1673" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1674">
       <c r="A1674" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1674" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1674" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1674" t="inlineStr"/>
       <c r="E1674" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1674" t="inlineStr"/>
       <c r="G1674" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H1674" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1675">
       <c r="A1675" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1675" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1675" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1675" t="inlineStr"/>
       <c r="E1675" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1675" t="inlineStr"/>
       <c r="G1675" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1675" t="inlineStr">
@@ -55276,61 +54880,61 @@
     <row r="1676">
       <c r="A1676" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1676" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1676" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1676" t="inlineStr"/>
       <c r="E1676" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1676" t="inlineStr"/>
       <c r="G1676" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1676" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1677">
       <c r="A1677" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1677" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1677" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1677" t="inlineStr"/>
-      <c r="E1677" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1677" t="inlineStr"/>
       <c r="F1677" t="inlineStr"/>
-      <c r="G1677" t="inlineStr"/>
+      <c r="G1677" t="inlineStr">
+        <is>
+          <t>139.1</t>
+        </is>
+      </c>
       <c r="H1677" t="inlineStr">
         <is>
           <t>3</t>
@@ -55340,21 +54944,25 @@
     <row r="1678">
       <c r="A1678" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1678" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1678" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1678" t="inlineStr"/>
-      <c r="E1678" t="inlineStr"/>
+      <c r="E1678" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1678" t="inlineStr"/>
       <c r="G1678" t="inlineStr"/>
       <c r="H1678" t="inlineStr">
@@ -55366,710 +54974,28 @@
     <row r="1679">
       <c r="A1679" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1679" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1679" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1679" t="inlineStr"/>
       <c r="E1679" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1679" t="inlineStr"/>
       <c r="G1679" t="inlineStr"/>
       <c r="H1679" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1680">
-      <c r="A1680" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1680" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1680" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
-      <c r="D1680" t="inlineStr"/>
-      <c r="E1680" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
-      <c r="F1680" t="inlineStr"/>
-      <c r="G1680" t="inlineStr"/>
-      <c r="H1680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1681">
-      <c r="A1681" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1681" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1681" t="inlineStr">
-        <is>
-          <t>House Price Index MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1681" t="inlineStr"/>
-      <c r="E1681" t="inlineStr"/>
-      <c r="F1681" t="inlineStr"/>
-      <c r="G1681" t="inlineStr"/>
-      <c r="H1681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1682">
-      <c r="A1682" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1682" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1682" t="inlineStr">
-        <is>
-          <t>House Price Index YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1682" t="inlineStr"/>
-      <c r="E1682" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1682" t="inlineStr"/>
-      <c r="G1682" t="inlineStr"/>
-      <c r="H1682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1683">
-      <c r="A1683" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1683" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1683" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1683" t="inlineStr"/>
-      <c r="E1683" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1683" t="inlineStr"/>
-      <c r="G1683" t="inlineStr"/>
-      <c r="H1683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1684">
-      <c r="A1684" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1684" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1684" t="inlineStr">
-        <is>
-          <t>CB Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1684" t="inlineStr"/>
-      <c r="E1684" t="inlineStr"/>
-      <c r="F1684" t="inlineStr"/>
-      <c r="G1684" t="inlineStr"/>
-      <c r="H1684" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1685">
-      <c r="A1685" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1685" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1685" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1685" t="inlineStr"/>
-      <c r="E1685" t="inlineStr"/>
-      <c r="F1685" t="inlineStr"/>
-      <c r="G1685" t="inlineStr"/>
-      <c r="H1685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1686">
-      <c r="A1686" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1686" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1686" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1686" t="inlineStr"/>
-      <c r="E1686" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F1686" t="inlineStr"/>
-      <c r="G1686" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="H1686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1687">
-      <c r="A1687" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1687" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1687" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1687" t="inlineStr"/>
-      <c r="E1687" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="F1687" t="inlineStr"/>
-      <c r="G1687" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H1687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1688">
-      <c r="A1688" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1688" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1688" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1688" t="inlineStr"/>
-      <c r="E1688" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
-      </c>
-      <c r="F1688" t="inlineStr"/>
-      <c r="G1688" t="inlineStr"/>
-      <c r="H1688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1689">
-      <c r="A1689" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1689" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1689" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1689" t="inlineStr"/>
-      <c r="E1689" t="inlineStr">
-        <is>
-          <t>13.8</t>
-        </is>
-      </c>
-      <c r="F1689" t="inlineStr"/>
-      <c r="G1689" t="inlineStr"/>
-      <c r="H1689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1690">
-      <c r="A1690" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1690" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1690" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="D1690" t="inlineStr"/>
-      <c r="E1690" t="inlineStr"/>
-      <c r="F1690" t="inlineStr"/>
-      <c r="G1690" t="inlineStr"/>
-      <c r="H1690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1691">
-      <c r="A1691" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1691" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1691" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="D1691" t="inlineStr"/>
-      <c r="E1691" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
-      <c r="F1691" t="inlineStr"/>
-      <c r="G1691" t="inlineStr"/>
-      <c r="H1691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1692">
-      <c r="A1692" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1692" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1692" t="inlineStr">
-        <is>
-          <t>Money SupplyDEC</t>
-        </is>
-      </c>
-      <c r="D1692" t="inlineStr"/>
-      <c r="E1692" t="inlineStr">
-        <is>
-          <t>$21.45T</t>
-        </is>
-      </c>
-      <c r="F1692" t="inlineStr"/>
-      <c r="G1692" t="inlineStr"/>
-      <c r="H1692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1693">
-      <c r="A1693" t="inlineStr">
-        <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1693" t="inlineStr"/>
-      <c r="C1693" t="inlineStr"/>
-      <c r="D1693" t="inlineStr"/>
-      <c r="E1693" t="inlineStr"/>
-      <c r="F1693" t="inlineStr"/>
-      <c r="G1693" t="inlineStr"/>
-      <c r="H1693" t="inlineStr"/>
-    </row>
-    <row r="1694">
-      <c r="A1694" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1694" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1694" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1694" t="inlineStr"/>
-      <c r="E1694" t="inlineStr"/>
-      <c r="F1694" t="inlineStr"/>
-      <c r="G1694" t="inlineStr"/>
-      <c r="H1694" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1695">
-      <c r="A1695" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1695" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1695" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1695" t="inlineStr"/>
-      <c r="E1695" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1695" t="inlineStr"/>
-      <c r="G1695" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="H1695" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1696">
-      <c r="A1696" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1696" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1696" t="inlineStr">
-        <is>
-          <t>Inflation Rate QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1696" t="inlineStr"/>
-      <c r="E1696" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1696" t="inlineStr"/>
-      <c r="G1696" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1696" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1697">
-      <c r="A1697" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1697" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1697" t="inlineStr">
-        <is>
-          <t>Monthly CPI IndicatorDEC</t>
-        </is>
-      </c>
-      <c r="D1697" t="inlineStr"/>
-      <c r="E1697" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="F1697" t="inlineStr"/>
-      <c r="G1697" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H1697" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1698">
-      <c r="A1698" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1698" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1698" t="inlineStr">
-        <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1698" t="inlineStr"/>
-      <c r="E1698" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1698" t="inlineStr"/>
-      <c r="G1698" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H1698" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1699">
-      <c r="A1699" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1699" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1699" t="inlineStr">
-        <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1699" t="inlineStr"/>
-      <c r="E1699" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="F1699" t="inlineStr"/>
-      <c r="G1699" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H1699" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1700">
-      <c r="A1700" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1700" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1700" t="inlineStr">
-        <is>
-          <t>CPIQ4</t>
-        </is>
-      </c>
-      <c r="D1700" t="inlineStr"/>
-      <c r="E1700" t="inlineStr"/>
-      <c r="F1700" t="inlineStr"/>
-      <c r="G1700" t="inlineStr">
-        <is>
-          <t>139.1</t>
-        </is>
-      </c>
-      <c r="H1700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1701">
-      <c r="A1701" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1701" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1701" t="inlineStr">
-        <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1701" t="inlineStr"/>
-      <c r="E1701" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F1701" t="inlineStr"/>
-      <c r="G1701" t="inlineStr"/>
-      <c r="H1701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1702">
-      <c r="A1702" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1702" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1702" t="inlineStr">
-        <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1702" t="inlineStr"/>
-      <c r="E1702" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F1702" t="inlineStr"/>
-      <c r="G1702" t="inlineStr"/>
-      <c r="H1702" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1679"/>
+  <dimension ref="A1:H1656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51385,10 +51385,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1564" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1565">
@@ -51423,10 +51421,8 @@
           <t>42.2</t>
         </is>
       </c>
-      <c r="H1565" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1565" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1566">
@@ -51461,10 +51457,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H1566" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1566" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1567">
@@ -51495,10 +51489,8 @@
           <t>48</t>
         </is>
       </c>
-      <c r="H1567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1567" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1568">
@@ -51533,10 +51525,8 @@
           <t>42.3</t>
         </is>
       </c>
-      <c r="H1568" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1568" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1569">
@@ -51567,10 +51557,8 @@
           <t>47.8</t>
         </is>
       </c>
-      <c r="H1569" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1569" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1570">
@@ -51605,10 +51593,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1570" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1570" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1571">
@@ -51639,10 +51625,8 @@
           <t>49.4</t>
         </is>
       </c>
-      <c r="H1571" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1571" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1572">
@@ -51677,10 +51661,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1572" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1572" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1573">
@@ -51715,10 +51697,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H1573" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1573" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1574">
@@ -51753,10 +51733,8 @@
           <t>47.2</t>
         </is>
       </c>
-      <c r="H1574" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1574" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1575">
@@ -51791,10 +51769,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1575" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1575" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1576">
@@ -51825,10 +51801,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H1576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1577">
@@ -51851,10 +51825,8 @@
       <c r="E1577" t="inlineStr"/>
       <c r="F1577" t="inlineStr"/>
       <c r="G1577" t="inlineStr"/>
-      <c r="H1577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1577" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1578">
@@ -51885,10 +51857,8 @@
           <t>91.4</t>
         </is>
       </c>
-      <c r="H1578" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1578" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1579">
@@ -51911,10 +51881,8 @@
       <c r="E1579" t="inlineStr"/>
       <c r="F1579" t="inlineStr"/>
       <c r="G1579" t="inlineStr"/>
-      <c r="H1579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1579" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1580">
@@ -51949,10 +51917,8 @@
           <t>-11</t>
         </is>
       </c>
-      <c r="H1580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1580" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1581">
@@ -51979,10 +51945,8 @@
       </c>
       <c r="F1581" t="inlineStr"/>
       <c r="G1581" t="inlineStr"/>
-      <c r="H1581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1582">
@@ -52013,10 +51977,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H1582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1583">
@@ -52047,10 +52009,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1583" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1584">
@@ -52081,10 +52041,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1584" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1585">
@@ -52119,10 +52077,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1585" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1585" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1586">
@@ -52153,10 +52109,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1586" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1586" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1587">
@@ -52187,10 +52141,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1587" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1588">
@@ -52221,10 +52173,8 @@
           <t>55.3</t>
         </is>
       </c>
-      <c r="H1588" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1588" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1589">
@@ -52255,10 +52205,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H1589" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1589" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1590">
@@ -52289,10 +52237,8 @@
           <t>56.6</t>
         </is>
       </c>
-      <c r="H1590" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1590" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1591">
@@ -52327,10 +52273,8 @@
           <t>4.1M</t>
         </is>
       </c>
-      <c r="H1591" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1591" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1592">
@@ -52361,10 +52305,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1592" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1592" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1593">
@@ -52399,10 +52341,8 @@
           <t>73.2</t>
         </is>
       </c>
-      <c r="H1593" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1593" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1594">
@@ -52437,10 +52377,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1595">
@@ -52475,10 +52413,8 @@
           <t>70.2</t>
         </is>
       </c>
-      <c r="H1595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1595" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1596">
@@ -52513,10 +52449,8 @@
           <t>77.9</t>
         </is>
       </c>
-      <c r="H1596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1596" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1597">
@@ -52551,10 +52485,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1597" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1598">
@@ -52585,10 +52517,8 @@
           <t>-7</t>
         </is>
       </c>
-      <c r="H1598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1598" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1599">
@@ -52619,10 +52549,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H1599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1600">
@@ -52649,10 +52577,8 @@
       </c>
       <c r="F1600" t="inlineStr"/>
       <c r="G1600" t="inlineStr"/>
-      <c r="H1600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1601">
@@ -52679,54 +52605,56 @@
       </c>
       <c r="F1601" t="inlineStr"/>
       <c r="G1601" t="inlineStr"/>
-      <c r="H1601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1602" t="inlineStr"/>
-      <c r="C1602" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1602" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1602" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1602" t="inlineStr"/>
       <c r="E1602" t="inlineStr"/>
       <c r="F1602" t="inlineStr"/>
       <c r="G1602" t="inlineStr"/>
-      <c r="H1602" t="inlineStr"/>
+      <c r="H1602" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
-      <c r="E1603" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1603" t="inlineStr"/>
       <c r="F1603" t="inlineStr"/>
-      <c r="G1603" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1603" t="inlineStr"/>
       <c r="H1603" t="inlineStr">
         <is>
           <t>3</t>
@@ -52736,107 +52664,103 @@
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1604" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1604" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1604" t="inlineStr"/>
-      <c r="E1604" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1604" t="inlineStr"/>
       <c r="F1604" t="inlineStr"/>
       <c r="G1604" t="inlineStr"/>
       <c r="H1604" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
-      <c r="E1605" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1605" t="inlineStr"/>
       <c r="F1605" t="inlineStr"/>
-      <c r="G1605" t="inlineStr"/>
+      <c r="G1605" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1605" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr"/>
       <c r="G1606" t="inlineStr"/>
       <c r="H1606" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
@@ -52852,17 +52776,17 @@
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
@@ -52878,55 +52802,47 @@
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
-      <c r="E1609" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1609" t="inlineStr"/>
       <c r="F1609" t="inlineStr"/>
       <c r="G1609" t="inlineStr"/>
       <c r="H1609" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
-      <c r="E1610" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1610" t="inlineStr"/>
       <c r="F1610" t="inlineStr"/>
       <c r="G1610" t="inlineStr"/>
       <c r="H1610" t="inlineStr">
@@ -52936,59 +52852,63 @@
       </c>
     </row>
     <row r="1611">
-      <c r="A1611" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1611" t="inlineStr"/>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr"/>
-      <c r="G1611" t="inlineStr"/>
+      <c r="G1611" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1611" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1612">
-      <c r="A1612" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1612" t="inlineStr"/>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>85.1</t>
-        </is>
-      </c>
-      <c r="F1612" t="inlineStr"/>
-      <c r="G1612" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1612" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1612" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1612" t="inlineStr">
         <is>
           <t>3</t>
@@ -52998,121 +52918,109 @@
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1613" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1613" t="inlineStr">
-        <is>
-          <t>Ifo ExpectationsJAN</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1613" t="inlineStr"/>
+      <c r="C1613" t="inlineStr"/>
       <c r="D1613" t="inlineStr"/>
-      <c r="E1613" t="inlineStr">
-        <is>
-          <t>84.4</t>
-        </is>
-      </c>
+      <c r="E1613" t="inlineStr"/>
       <c r="F1613" t="inlineStr"/>
       <c r="G1613" t="inlineStr"/>
-      <c r="H1613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1613" t="inlineStr"/>
     </row>
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr"/>
-      <c r="E1614" t="inlineStr"/>
+      <c r="E1614" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1614" t="inlineStr"/>
-      <c r="G1614" t="inlineStr"/>
+      <c r="G1614" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1614" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr"/>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>43.5K</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1615" t="inlineStr"/>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="H1615" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1616" t="inlineStr"/>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1616" t="inlineStr"/>
-      <c r="G1616" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1616" t="inlineStr"/>
       <c r="H1616" t="inlineStr">
         <is>
           <t>3</t>
@@ -53122,29 +53030,29 @@
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1617" t="inlineStr"/>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1617" t="inlineStr"/>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1617" t="inlineStr">
@@ -53156,27 +53064,31 @@
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1618" t="inlineStr"/>
-      <c r="G1618" t="inlineStr"/>
+      <c r="G1618" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1618" t="inlineStr">
         <is>
           <t>3</t>
@@ -53186,27 +53098,31 @@
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1619" t="inlineStr"/>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1619" t="inlineStr"/>
-      <c r="G1619" t="inlineStr"/>
+      <c r="G1619" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1619" t="inlineStr">
         <is>
           <t>3</t>
@@ -53216,97 +53132,93 @@
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1620" t="inlineStr"/>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1620" t="inlineStr"/>
       <c r="G1620" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1620" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1621" t="inlineStr"/>
-      <c r="G1621" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1621" t="inlineStr"/>
       <c r="H1621" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1622" t="inlineStr"/>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1622" t="inlineStr">
@@ -53318,31 +53230,27 @@
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr"/>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr"/>
-      <c r="G1623" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1623" t="inlineStr"/>
       <c r="H1623" t="inlineStr">
         <is>
           <t>3</t>
@@ -53352,17 +53260,17 @@
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
@@ -53378,17 +53286,17 @@
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1625" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1625" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1625" t="inlineStr"/>
@@ -53404,17 +53312,17 @@
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1626" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1626" t="inlineStr"/>
@@ -53430,33 +53338,37 @@
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1627" t="inlineStr"/>
-      <c r="E1627" t="inlineStr"/>
+      <c r="E1627" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1627" t="inlineStr"/>
       <c r="G1627" t="inlineStr"/>
       <c r="H1627" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
@@ -53466,27 +53378,31 @@
       </c>
       <c r="C1628" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1628" t="inlineStr"/>
-      <c r="E1628" t="inlineStr"/>
+      <c r="E1628" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1628" t="inlineStr"/>
       <c r="G1628" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1628" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
@@ -53496,17 +53412,21 @@
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1629" t="inlineStr"/>
       <c r="E1629" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1629" t="inlineStr"/>
-      <c r="G1629" t="inlineStr"/>
+      <c r="G1629" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1629" t="inlineStr">
         <is>
           <t>2</t>
@@ -53516,7 +53436,7 @@
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr">
@@ -53526,13 +53446,21 @@
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1630" t="inlineStr"/>
-      <c r="E1630" t="inlineStr"/>
+      <c r="E1630" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1630" t="inlineStr"/>
-      <c r="G1630" t="inlineStr"/>
+      <c r="G1630" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1630" t="inlineStr">
         <is>
           <t>3</t>
@@ -53542,7 +53470,7 @@
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1631" t="inlineStr">
@@ -53552,11 +53480,15 @@
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1631" t="inlineStr"/>
-      <c r="E1631" t="inlineStr"/>
+      <c r="E1631" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1631" t="inlineStr"/>
       <c r="G1631" t="inlineStr"/>
       <c r="H1631" t="inlineStr">
@@ -53568,7 +53500,7 @@
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B1632" t="inlineStr">
@@ -53578,7 +53510,7 @@
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1632" t="inlineStr"/>
@@ -53594,7 +53526,7 @@
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
@@ -53604,21 +53536,29 @@
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr"/>
-      <c r="E1633" t="inlineStr"/>
+      <c r="E1633" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1633" t="inlineStr"/>
       <c r="G1633" t="inlineStr"/>
       <c r="H1633" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1634">
-      <c r="A1634" t="inlineStr"/>
+      <c r="A1634" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1634" t="inlineStr">
         <is>
           <t>US</t>
@@ -53626,21 +53566,17 @@
       </c>
       <c r="C1634" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1634" t="inlineStr"/>
       <c r="E1634" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1634" t="inlineStr"/>
-      <c r="G1634" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1634" t="inlineStr"/>
       <c r="H1634" t="inlineStr">
         <is>
           <t>3</t>
@@ -53648,7 +53584,11 @@
       </c>
     </row>
     <row r="1635">
-      <c r="A1635" t="inlineStr"/>
+      <c r="A1635" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1635" t="inlineStr">
         <is>
           <t>US</t>
@@ -53656,25 +53596,13 @@
       </c>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1635" t="inlineStr"/>
-      <c r="E1635" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1635" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1635" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="E1635" t="inlineStr"/>
+      <c r="F1635" t="inlineStr"/>
+      <c r="G1635" t="inlineStr"/>
       <c r="H1635" t="inlineStr">
         <is>
           <t>3</t>
@@ -53684,107 +53612,107 @@
     <row r="1636">
       <c r="A1636" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1636" t="inlineStr"/>
-      <c r="C1636" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1636" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1636" t="inlineStr">
+        <is>
+          <t>House Price Index YoYNOV</t>
+        </is>
+      </c>
       <c r="D1636" t="inlineStr"/>
-      <c r="E1636" t="inlineStr"/>
+      <c r="E1636" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="F1636" t="inlineStr"/>
       <c r="G1636" t="inlineStr"/>
-      <c r="H1636" t="inlineStr"/>
+      <c r="H1636" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1637">
       <c r="A1637" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1637" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1637" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1637" t="inlineStr"/>
       <c r="E1637" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1637" t="inlineStr"/>
-      <c r="G1637" t="inlineStr">
+      <c r="G1637" t="inlineStr"/>
+      <c r="H1637" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1637" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1638">
       <c r="A1638" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1638" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1638" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>CB Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1638" t="inlineStr"/>
-      <c r="E1638" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1638" t="inlineStr"/>
       <c r="F1638" t="inlineStr"/>
-      <c r="G1638" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1638" t="inlineStr"/>
       <c r="H1638" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1639" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1639" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1639" t="inlineStr"/>
-      <c r="E1639" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1639" t="inlineStr"/>
       <c r="F1639" t="inlineStr"/>
       <c r="G1639" t="inlineStr"/>
       <c r="H1639" t="inlineStr">
@@ -53796,29 +53724,29 @@
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1640" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1640" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1640" t="inlineStr"/>
       <c r="E1640" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1640" t="inlineStr"/>
       <c r="G1640" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1640" t="inlineStr">
@@ -53830,29 +53758,29 @@
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1641" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1641" t="inlineStr"/>
       <c r="E1641" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1641" t="inlineStr"/>
       <c r="G1641" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1641" t="inlineStr">
@@ -53864,31 +53792,27 @@
     <row r="1642">
       <c r="A1642" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1642" t="inlineStr"/>
       <c r="E1642" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1642" t="inlineStr"/>
-      <c r="G1642" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1642" t="inlineStr"/>
       <c r="H1642" t="inlineStr">
         <is>
           <t>3</t>
@@ -53898,31 +53822,27 @@
     <row r="1643">
       <c r="A1643" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1643" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1643" t="inlineStr"/>
       <c r="E1643" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1643" t="inlineStr"/>
-      <c r="G1643" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1643" t="inlineStr"/>
       <c r="H1643" t="inlineStr">
         <is>
           <t>3</t>
@@ -53932,87 +53852,79 @@
     <row r="1644">
       <c r="A1644" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1644" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1644" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1644" t="inlineStr"/>
-      <c r="E1644" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1644" t="inlineStr"/>
       <c r="F1644" t="inlineStr"/>
       <c r="G1644" t="inlineStr"/>
       <c r="H1644" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1645">
       <c r="A1645" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1645" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1645" t="inlineStr"/>
       <c r="E1645" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1645" t="inlineStr"/>
-      <c r="G1645" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1645" t="inlineStr"/>
       <c r="H1645" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1646">
       <c r="A1646" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1646" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1646" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1646" t="inlineStr"/>
       <c r="E1646" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1646" t="inlineStr"/>
@@ -54026,43 +53938,31 @@
     <row r="1647">
       <c r="A1647" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1647" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1647" t="inlineStr">
-        <is>
-          <t>BTP Short Term Auction</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1647" t="inlineStr"/>
+      <c r="C1647" t="inlineStr"/>
       <c r="D1647" t="inlineStr"/>
       <c r="E1647" t="inlineStr"/>
       <c r="F1647" t="inlineStr"/>
       <c r="G1647" t="inlineStr"/>
-      <c r="H1647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1647" t="inlineStr"/>
     </row>
     <row r="1648">
       <c r="A1648" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1648" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1648" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1648" t="inlineStr"/>
@@ -54071,126 +53971,138 @@
       <c r="G1648" t="inlineStr"/>
       <c r="H1648" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1649">
       <c r="A1649" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1649" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1649" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1649" t="inlineStr"/>
-      <c r="E1649" t="inlineStr"/>
+      <c r="E1649" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1649" t="inlineStr"/>
-      <c r="G1649" t="inlineStr"/>
+      <c r="G1649" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1649" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1650">
       <c r="A1650" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1650" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1650" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1650" t="inlineStr"/>
       <c r="E1650" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1650" t="inlineStr"/>
-      <c r="G1650" t="inlineStr"/>
+      <c r="G1650" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1650" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1651">
       <c r="A1651" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1651" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1651" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1651" t="inlineStr"/>
       <c r="E1651" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1651" t="inlineStr"/>
       <c r="G1651" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H1651" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1652">
       <c r="A1652" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1652" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1652" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1652" t="inlineStr"/>
       <c r="E1652" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1652" t="inlineStr"/>
       <c r="G1652" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1652" t="inlineStr">
@@ -54202,61 +54114,61 @@
     <row r="1653">
       <c r="A1653" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1653" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1653" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1653" t="inlineStr"/>
       <c r="E1653" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1653" t="inlineStr"/>
       <c r="G1653" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1653" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1654">
       <c r="A1654" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1654" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1654" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1654" t="inlineStr"/>
-      <c r="E1654" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1654" t="inlineStr"/>
       <c r="F1654" t="inlineStr"/>
-      <c r="G1654" t="inlineStr"/>
+      <c r="G1654" t="inlineStr">
+        <is>
+          <t>139.1</t>
+        </is>
+      </c>
       <c r="H1654" t="inlineStr">
         <is>
           <t>3</t>
@@ -54266,21 +54178,25 @@
     <row r="1655">
       <c r="A1655" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1655" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1655" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1655" t="inlineStr"/>
-      <c r="E1655" t="inlineStr"/>
+      <c r="E1655" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1655" t="inlineStr"/>
       <c r="G1655" t="inlineStr"/>
       <c r="H1655" t="inlineStr">
@@ -54292,710 +54208,28 @@
     <row r="1656">
       <c r="A1656" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1656" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1656" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1656" t="inlineStr"/>
       <c r="E1656" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1656" t="inlineStr"/>
       <c r="G1656" t="inlineStr"/>
       <c r="H1656" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1657">
-      <c r="A1657" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1657" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1657" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
-      <c r="D1657" t="inlineStr"/>
-      <c r="E1657" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
-      <c r="F1657" t="inlineStr"/>
-      <c r="G1657" t="inlineStr"/>
-      <c r="H1657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1658">
-      <c r="A1658" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1658" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1658" t="inlineStr">
-        <is>
-          <t>House Price Index MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1658" t="inlineStr"/>
-      <c r="E1658" t="inlineStr"/>
-      <c r="F1658" t="inlineStr"/>
-      <c r="G1658" t="inlineStr"/>
-      <c r="H1658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1659">
-      <c r="A1659" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1659" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1659" t="inlineStr">
-        <is>
-          <t>House Price Index YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1659" t="inlineStr"/>
-      <c r="E1659" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1659" t="inlineStr"/>
-      <c r="G1659" t="inlineStr"/>
-      <c r="H1659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1660">
-      <c r="A1660" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1660" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1660" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1660" t="inlineStr"/>
-      <c r="E1660" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1660" t="inlineStr"/>
-      <c r="G1660" t="inlineStr"/>
-      <c r="H1660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1661">
-      <c r="A1661" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1661" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1661" t="inlineStr">
-        <is>
-          <t>CB Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1661" t="inlineStr"/>
-      <c r="E1661" t="inlineStr"/>
-      <c r="F1661" t="inlineStr"/>
-      <c r="G1661" t="inlineStr"/>
-      <c r="H1661" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1662">
-      <c r="A1662" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1662" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1662" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1662" t="inlineStr"/>
-      <c r="E1662" t="inlineStr"/>
-      <c r="F1662" t="inlineStr"/>
-      <c r="G1662" t="inlineStr"/>
-      <c r="H1662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1663">
-      <c r="A1663" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1663" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1663" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1663" t="inlineStr"/>
-      <c r="E1663" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F1663" t="inlineStr"/>
-      <c r="G1663" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="H1663" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1664">
-      <c r="A1664" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1664" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1664" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1664" t="inlineStr"/>
-      <c r="E1664" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="F1664" t="inlineStr"/>
-      <c r="G1664" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H1664" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1665">
-      <c r="A1665" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1665" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1665" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1665" t="inlineStr"/>
-      <c r="E1665" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
-      </c>
-      <c r="F1665" t="inlineStr"/>
-      <c r="G1665" t="inlineStr"/>
-      <c r="H1665" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1666">
-      <c r="A1666" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1666" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1666" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1666" t="inlineStr"/>
-      <c r="E1666" t="inlineStr">
-        <is>
-          <t>13.8</t>
-        </is>
-      </c>
-      <c r="F1666" t="inlineStr"/>
-      <c r="G1666" t="inlineStr"/>
-      <c r="H1666" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1667">
-      <c r="A1667" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1667" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1667" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="D1667" t="inlineStr"/>
-      <c r="E1667" t="inlineStr"/>
-      <c r="F1667" t="inlineStr"/>
-      <c r="G1667" t="inlineStr"/>
-      <c r="H1667" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1668">
-      <c r="A1668" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1668" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1668" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="D1668" t="inlineStr"/>
-      <c r="E1668" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
-      <c r="F1668" t="inlineStr"/>
-      <c r="G1668" t="inlineStr"/>
-      <c r="H1668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1669">
-      <c r="A1669" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1669" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1669" t="inlineStr">
-        <is>
-          <t>Money SupplyDEC</t>
-        </is>
-      </c>
-      <c r="D1669" t="inlineStr"/>
-      <c r="E1669" t="inlineStr">
-        <is>
-          <t>$21.45T</t>
-        </is>
-      </c>
-      <c r="F1669" t="inlineStr"/>
-      <c r="G1669" t="inlineStr"/>
-      <c r="H1669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1670">
-      <c r="A1670" t="inlineStr">
-        <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1670" t="inlineStr"/>
-      <c r="C1670" t="inlineStr"/>
-      <c r="D1670" t="inlineStr"/>
-      <c r="E1670" t="inlineStr"/>
-      <c r="F1670" t="inlineStr"/>
-      <c r="G1670" t="inlineStr"/>
-      <c r="H1670" t="inlineStr"/>
-    </row>
-    <row r="1671">
-      <c r="A1671" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1671" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1671" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1671" t="inlineStr"/>
-      <c r="E1671" t="inlineStr"/>
-      <c r="F1671" t="inlineStr"/>
-      <c r="G1671" t="inlineStr"/>
-      <c r="H1671" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1672">
-      <c r="A1672" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1672" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1672" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1672" t="inlineStr"/>
-      <c r="E1672" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1672" t="inlineStr"/>
-      <c r="G1672" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="H1672" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1673">
-      <c r="A1673" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1673" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1673" t="inlineStr">
-        <is>
-          <t>Inflation Rate QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1673" t="inlineStr"/>
-      <c r="E1673" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1673" t="inlineStr"/>
-      <c r="G1673" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1673" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1674">
-      <c r="A1674" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1674" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1674" t="inlineStr">
-        <is>
-          <t>Monthly CPI IndicatorDEC</t>
-        </is>
-      </c>
-      <c r="D1674" t="inlineStr"/>
-      <c r="E1674" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="F1674" t="inlineStr"/>
-      <c r="G1674" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H1674" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1675">
-      <c r="A1675" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1675" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1675" t="inlineStr">
-        <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1675" t="inlineStr"/>
-      <c r="E1675" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1675" t="inlineStr"/>
-      <c r="G1675" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H1675" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1676">
-      <c r="A1676" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1676" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1676" t="inlineStr">
-        <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1676" t="inlineStr"/>
-      <c r="E1676" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="F1676" t="inlineStr"/>
-      <c r="G1676" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H1676" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1677">
-      <c r="A1677" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1677" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1677" t="inlineStr">
-        <is>
-          <t>CPIQ4</t>
-        </is>
-      </c>
-      <c r="D1677" t="inlineStr"/>
-      <c r="E1677" t="inlineStr"/>
-      <c r="F1677" t="inlineStr"/>
-      <c r="G1677" t="inlineStr">
-        <is>
-          <t>139.1</t>
-        </is>
-      </c>
-      <c r="H1677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1678">
-      <c r="A1678" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1678" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1678" t="inlineStr">
-        <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1678" t="inlineStr"/>
-      <c r="E1678" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F1678" t="inlineStr"/>
-      <c r="G1678" t="inlineStr"/>
-      <c r="H1678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1679">
-      <c r="A1679" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1679" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1679" t="inlineStr">
-        <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1679" t="inlineStr"/>
-      <c r="E1679" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F1679" t="inlineStr"/>
-      <c r="G1679" t="inlineStr"/>
-      <c r="H1679" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1705"/>
+  <dimension ref="A1:H1683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46415,10 +46415,8 @@
         </is>
       </c>
       <c r="G1400" t="inlineStr"/>
-      <c r="H1400" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1400" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1401">
@@ -46449,10 +46447,8 @@
       </c>
       <c r="F1401" t="inlineStr"/>
       <c r="G1401" t="inlineStr"/>
-      <c r="H1401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1402">
@@ -46483,10 +46479,8 @@
       </c>
       <c r="F1402" t="inlineStr"/>
       <c r="G1402" t="inlineStr"/>
-      <c r="H1402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1403">
@@ -46575,10 +46569,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1407">
@@ -46613,10 +46605,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1408">
@@ -46651,10 +46641,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1409">
@@ -46689,10 +46677,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1410">
@@ -46723,10 +46709,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1411">
@@ -46761,10 +46745,8 @@
           <t>-2.3%</t>
         </is>
       </c>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1412">
@@ -46795,10 +46777,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1413">
@@ -46833,10 +46813,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1414">
@@ -46871,10 +46849,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1415">
@@ -46909,10 +46885,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1416">
@@ -46943,10 +46917,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1416" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1416" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1417">
@@ -46977,10 +46949,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1418">
@@ -47007,10 +46977,8 @@
       </c>
       <c r="F1418" t="inlineStr"/>
       <c r="G1418" t="inlineStr"/>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1419">
@@ -47037,10 +47005,8 @@
       </c>
       <c r="F1419" t="inlineStr"/>
       <c r="G1419" t="inlineStr"/>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1420">
@@ -47071,10 +47037,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1421">
@@ -47105,10 +47069,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1422">
@@ -47135,10 +47097,8 @@
       </c>
       <c r="F1422" t="inlineStr"/>
       <c r="G1422" t="inlineStr"/>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1423">
@@ -47165,10 +47125,8 @@
       </c>
       <c r="F1423" t="inlineStr"/>
       <c r="G1423" t="inlineStr"/>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1424">
@@ -47195,10 +47153,8 @@
       </c>
       <c r="F1424" t="inlineStr"/>
       <c r="G1424" t="inlineStr"/>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1425">
@@ -47221,10 +47177,8 @@
       <c r="E1425" t="inlineStr"/>
       <c r="F1425" t="inlineStr"/>
       <c r="G1425" t="inlineStr"/>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1426">
@@ -47255,10 +47209,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1427">
@@ -47289,10 +47241,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1428">
@@ -47311,10 +47261,8 @@
       <c r="E1428" t="inlineStr"/>
       <c r="F1428" t="inlineStr"/>
       <c r="G1428" t="inlineStr"/>
-      <c r="H1428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1429">
@@ -47337,10 +47285,8 @@
       </c>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1430">
@@ -47367,10 +47313,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
@@ -47389,10 +47333,8 @@
       <c r="E1431" t="inlineStr"/>
       <c r="F1431" t="inlineStr"/>
       <c r="G1431" t="inlineStr"/>
-      <c r="H1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -47419,10 +47361,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
@@ -47449,10 +47389,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1434">
@@ -47471,10 +47409,8 @@
       <c r="E1434" t="inlineStr"/>
       <c r="F1434" t="inlineStr"/>
       <c r="G1434" t="inlineStr"/>
-      <c r="H1434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1434" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1435">
@@ -47523,10 +47459,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1437">
@@ -47557,10 +47491,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1438">
@@ -47591,10 +47523,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1439">
@@ -47621,10 +47551,8 @@
       </c>
       <c r="F1439" t="inlineStr"/>
       <c r="G1439" t="inlineStr"/>
-      <c r="H1439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1440">
@@ -47651,10 +47579,8 @@
       </c>
       <c r="F1440" t="inlineStr"/>
       <c r="G1440" t="inlineStr"/>
-      <c r="H1440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1441">
@@ -47681,10 +47607,8 @@
       </c>
       <c r="F1441" t="inlineStr"/>
       <c r="G1441" t="inlineStr"/>
-      <c r="H1441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1442">
@@ -47715,10 +47639,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1442" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1442" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1443">
@@ -47753,10 +47675,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1443" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1443" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1444">
@@ -47791,10 +47711,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1444" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1444" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1445">
@@ -47825,10 +47743,8 @@
           <t>40.0K</t>
         </is>
       </c>
-      <c r="H1445" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1445" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1446">
@@ -47863,10 +47779,8 @@
           <t>5.4%</t>
         </is>
       </c>
-      <c r="H1446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1447">
@@ -47901,10 +47815,8 @@
           <t>15.0K</t>
         </is>
       </c>
-      <c r="H1447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1448">
@@ -47935,10 +47847,8 @@
           <t>-20.0K</t>
         </is>
       </c>
-      <c r="H1448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1449">
@@ -47969,10 +47879,8 @@
           <t>-3.0%</t>
         </is>
       </c>
-      <c r="H1449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1450">
@@ -48003,10 +47911,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H1450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1450" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1451">
@@ -48037,10 +47943,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1451" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1452">
@@ -48075,10 +47979,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1452" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1452" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1453">
@@ -48113,10 +48015,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1453" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1453" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1454">
@@ -48151,10 +48051,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1454" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1455">
@@ -48181,10 +48079,8 @@
       </c>
       <c r="F1455" t="inlineStr"/>
       <c r="G1455" t="inlineStr"/>
-      <c r="H1455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1455" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1456">
@@ -48211,10 +48107,8 @@
       </c>
       <c r="F1456" t="inlineStr"/>
       <c r="G1456" t="inlineStr"/>
-      <c r="H1456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1456" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1457">
@@ -48245,10 +48139,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1457" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1457" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1458">
@@ -48279,10 +48171,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1458" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1459">
@@ -48317,10 +48207,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1459" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1459" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1460">
@@ -48351,10 +48239,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1460" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1460" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1461">
@@ -48389,10 +48275,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1461" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1461" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1462">
@@ -48423,10 +48307,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1462" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1463">
@@ -48461,10 +48343,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1463" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1464">
@@ -48499,10 +48379,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1464" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1465">
@@ -48529,10 +48407,8 @@
       </c>
       <c r="F1465" t="inlineStr"/>
       <c r="G1465" t="inlineStr"/>
-      <c r="H1465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1465" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1466">
@@ -48559,10 +48435,8 @@
       </c>
       <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr"/>
-      <c r="H1466" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1466" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1467">
@@ -48589,10 +48463,8 @@
       </c>
       <c r="F1467" t="inlineStr"/>
       <c r="G1467" t="inlineStr"/>
-      <c r="H1467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1467" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1468">
@@ -48619,10 +48491,8 @@
       </c>
       <c r="F1468" t="inlineStr"/>
       <c r="G1468" t="inlineStr"/>
-      <c r="H1468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1468" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1469">
@@ -48641,10 +48511,8 @@
       <c r="E1469" t="inlineStr"/>
       <c r="F1469" t="inlineStr"/>
       <c r="G1469" t="inlineStr"/>
-      <c r="H1469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1469" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1470">
@@ -48689,10 +48557,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1471" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1471" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1472">
@@ -48723,10 +48589,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1472" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1472" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1473">
@@ -48761,10 +48625,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1473" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1473" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1474">
@@ -48795,10 +48657,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1474" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1474" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1475">
@@ -48829,10 +48689,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1475" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1475" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1476">
@@ -48863,10 +48721,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1476" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1476" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1477">
@@ -48897,10 +48753,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1477" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1478">
@@ -48927,10 +48781,8 @@
       </c>
       <c r="F1478" t="inlineStr"/>
       <c r="G1478" t="inlineStr"/>
-      <c r="H1478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1478" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1479">
@@ -48961,10 +48813,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1479" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1480">
@@ -48995,10 +48845,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1480" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1481">
@@ -49025,10 +48873,8 @@
       </c>
       <c r="F1481" t="inlineStr"/>
       <c r="G1481" t="inlineStr"/>
-      <c r="H1481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1481" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1482">
@@ -49055,10 +48901,8 @@
       </c>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
-      <c r="H1482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1482" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1483">
@@ -49085,10 +48929,8 @@
       </c>
       <c r="F1483" t="inlineStr"/>
       <c r="G1483" t="inlineStr"/>
-      <c r="H1483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1483" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1484">
@@ -49115,10 +48957,8 @@
       </c>
       <c r="F1484" t="inlineStr"/>
       <c r="G1484" t="inlineStr"/>
-      <c r="H1484" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1484" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1485">
@@ -49145,10 +48985,8 @@
       </c>
       <c r="F1485" t="inlineStr"/>
       <c r="G1485" t="inlineStr"/>
-      <c r="H1485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1485" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1486">
@@ -49175,10 +49013,8 @@
       </c>
       <c r="F1486" t="inlineStr"/>
       <c r="G1486" t="inlineStr"/>
-      <c r="H1486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1486" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1487">
@@ -49205,10 +49041,8 @@
       </c>
       <c r="F1487" t="inlineStr"/>
       <c r="G1487" t="inlineStr"/>
-      <c r="H1487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1487" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1488">
@@ -49235,10 +49069,8 @@
       </c>
       <c r="F1488" t="inlineStr"/>
       <c r="G1488" t="inlineStr"/>
-      <c r="H1488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1488" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1489">
@@ -49273,10 +49105,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1489" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1490">
@@ -49307,10 +49137,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1490" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1490" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1491">
@@ -49345,10 +49173,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1491" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1492">
@@ -49379,10 +49205,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1492" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1493">
@@ -49409,10 +49233,8 @@
       </c>
       <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr"/>
-      <c r="H1493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1493" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1494">
@@ -49447,10 +49269,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1494" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1495">
@@ -49473,10 +49293,8 @@
       <c r="E1495" t="inlineStr"/>
       <c r="F1495" t="inlineStr"/>
       <c r="G1495" t="inlineStr"/>
-      <c r="H1495" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1495" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1496">
@@ -49503,10 +49321,8 @@
       </c>
       <c r="F1496" t="inlineStr"/>
       <c r="G1496" t="inlineStr"/>
-      <c r="H1496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1496" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1497">
@@ -49533,10 +49349,8 @@
       </c>
       <c r="F1497" t="inlineStr"/>
       <c r="G1497" t="inlineStr"/>
-      <c r="H1497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1497" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1498">
@@ -49581,10 +49395,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1499" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1500">
@@ -49615,10 +49427,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1500" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1500" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1501">
@@ -49645,10 +49455,8 @@
       </c>
       <c r="F1501" t="inlineStr"/>
       <c r="G1501" t="inlineStr"/>
-      <c r="H1501" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1501" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1502">
@@ -49683,10 +49491,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1502" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1502" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1503">
@@ -49721,10 +49527,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1503" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1504">
@@ -49759,10 +49563,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1504" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1504" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1505">
@@ -49797,10 +49599,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1505" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1505" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1506">
@@ -49827,10 +49627,8 @@
       </c>
       <c r="F1506" t="inlineStr"/>
       <c r="G1506" t="inlineStr"/>
-      <c r="H1506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1506" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1507">
@@ -49865,10 +49663,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1508">
@@ -49895,10 +49691,8 @@
       </c>
       <c r="F1508" t="inlineStr"/>
       <c r="G1508" t="inlineStr"/>
-      <c r="H1508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1509">
@@ -49925,10 +49719,8 @@
       </c>
       <c r="F1509" t="inlineStr"/>
       <c r="G1509" t="inlineStr"/>
-      <c r="H1509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1510">
@@ -49955,10 +49747,8 @@
       </c>
       <c r="F1510" t="inlineStr"/>
       <c r="G1510" t="inlineStr"/>
-      <c r="H1510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1511">
@@ -49985,10 +49775,8 @@
       </c>
       <c r="F1511" t="inlineStr"/>
       <c r="G1511" t="inlineStr"/>
-      <c r="H1511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1512">
@@ -50019,10 +49807,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1513">
@@ -50053,10 +49839,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1514">
@@ -50087,10 +49871,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1515">
@@ -50121,10 +49903,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1516">
@@ -50151,10 +49931,8 @@
       </c>
       <c r="F1516" t="inlineStr"/>
       <c r="G1516" t="inlineStr"/>
-      <c r="H1516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1517">
@@ -50181,10 +49959,8 @@
       </c>
       <c r="F1517" t="inlineStr"/>
       <c r="G1517" t="inlineStr"/>
-      <c r="H1517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1518">
@@ -50215,10 +49991,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1518" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1518" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1519">
@@ -50253,10 +50027,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1519" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1519" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1520">
@@ -50287,10 +50059,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1521">
@@ -50317,10 +50087,8 @@
       </c>
       <c r="F1521" t="inlineStr"/>
       <c r="G1521" t="inlineStr"/>
-      <c r="H1521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1522">
@@ -50347,10 +50115,8 @@
       </c>
       <c r="F1522" t="inlineStr"/>
       <c r="G1522" t="inlineStr"/>
-      <c r="H1522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1522" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1523">
@@ -50377,10 +50143,8 @@
       </c>
       <c r="F1523" t="inlineStr"/>
       <c r="G1523" t="inlineStr"/>
-      <c r="H1523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1524">
@@ -50407,10 +50171,8 @@
       </c>
       <c r="F1524" t="inlineStr"/>
       <c r="G1524" t="inlineStr"/>
-      <c r="H1524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1524" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1525">
@@ -50437,10 +50199,8 @@
       </c>
       <c r="F1525" t="inlineStr"/>
       <c r="G1525" t="inlineStr"/>
-      <c r="H1525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1526">
@@ -50467,10 +50227,8 @@
       </c>
       <c r="F1526" t="inlineStr"/>
       <c r="G1526" t="inlineStr"/>
-      <c r="H1526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1527">
@@ -50497,10 +50255,8 @@
       </c>
       <c r="F1527" t="inlineStr"/>
       <c r="G1527" t="inlineStr"/>
-      <c r="H1527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1527" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1528">
@@ -50527,10 +50283,8 @@
       </c>
       <c r="F1528" t="inlineStr"/>
       <c r="G1528" t="inlineStr"/>
-      <c r="H1528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1528" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1529">
@@ -50561,10 +50315,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1529" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1530">
@@ -50595,10 +50347,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1530" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1530" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1531">
@@ -50633,10 +50383,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1531" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1531" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1532">
@@ -50667,10 +50415,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1532" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1533">
@@ -50701,10 +50447,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1533" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1533" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1534">
@@ -50739,10 +50483,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1534" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1534" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1535">
@@ -50769,10 +50511,8 @@
       </c>
       <c r="F1535" t="inlineStr"/>
       <c r="G1535" t="inlineStr"/>
-      <c r="H1535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1535" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1536">
@@ -50803,10 +50543,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1536" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1537">
@@ -50837,10 +50575,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1537" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1538">
@@ -50871,10 +50607,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1538" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1539">
@@ -50905,10 +50639,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1540">
@@ -50943,10 +50675,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1540" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1540" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1541">
@@ -50981,10 +50711,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1541" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1541" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1542">
@@ -51007,10 +50735,8 @@
       <c r="E1542" t="inlineStr"/>
       <c r="F1542" t="inlineStr"/>
       <c r="G1542" t="inlineStr"/>
-      <c r="H1542" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1542" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1543">
@@ -51041,10 +50767,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1544">
@@ -51079,10 +50803,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1544" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1544" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1545">
@@ -51113,10 +50835,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1545" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1546">
@@ -51147,10 +50867,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1547">
@@ -51185,10 +50903,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1547" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1547" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1548">
@@ -51215,10 +50931,8 @@
       </c>
       <c r="F1548" t="inlineStr"/>
       <c r="G1548" t="inlineStr"/>
-      <c r="H1548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1549">
@@ -51245,10 +50959,8 @@
       </c>
       <c r="F1549" t="inlineStr"/>
       <c r="G1549" t="inlineStr"/>
-      <c r="H1549" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1549" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1550">
@@ -51275,10 +50987,8 @@
       </c>
       <c r="F1550" t="inlineStr"/>
       <c r="G1550" t="inlineStr"/>
-      <c r="H1550" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1550" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1551">
@@ -51305,10 +51015,8 @@
       </c>
       <c r="F1551" t="inlineStr"/>
       <c r="G1551" t="inlineStr"/>
-      <c r="H1551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1552">
@@ -51335,10 +51043,8 @@
       </c>
       <c r="F1552" t="inlineStr"/>
       <c r="G1552" t="inlineStr"/>
-      <c r="H1552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1553">
@@ -51365,10 +51071,8 @@
       </c>
       <c r="F1553" t="inlineStr"/>
       <c r="G1553" t="inlineStr"/>
-      <c r="H1553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1554">
@@ -51395,10 +51099,8 @@
       </c>
       <c r="F1554" t="inlineStr"/>
       <c r="G1554" t="inlineStr"/>
-      <c r="H1554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1554" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1555">
@@ -51425,10 +51127,8 @@
       </c>
       <c r="F1555" t="inlineStr"/>
       <c r="G1555" t="inlineStr"/>
-      <c r="H1555" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1555" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1556">
@@ -51455,10 +51155,8 @@
       </c>
       <c r="F1556" t="inlineStr"/>
       <c r="G1556" t="inlineStr"/>
-      <c r="H1556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1556" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1557">
@@ -51485,10 +51183,8 @@
       </c>
       <c r="F1557" t="inlineStr"/>
       <c r="G1557" t="inlineStr"/>
-      <c r="H1557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1557" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1558">
@@ -51515,10 +51211,8 @@
       </c>
       <c r="F1558" t="inlineStr"/>
       <c r="G1558" t="inlineStr"/>
-      <c r="H1558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1558" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1559">
@@ -51545,10 +51239,8 @@
       </c>
       <c r="F1559" t="inlineStr"/>
       <c r="G1559" t="inlineStr"/>
-      <c r="H1559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1559" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1560">
@@ -51575,10 +51267,8 @@
       </c>
       <c r="F1560" t="inlineStr"/>
       <c r="G1560" t="inlineStr"/>
-      <c r="H1560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1560" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1561">
@@ -51605,10 +51295,8 @@
       </c>
       <c r="F1561" t="inlineStr"/>
       <c r="G1561" t="inlineStr"/>
-      <c r="H1561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1562">
@@ -51635,10 +51323,8 @@
       </c>
       <c r="F1562" t="inlineStr"/>
       <c r="G1562" t="inlineStr"/>
-      <c r="H1562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1563">
@@ -51665,10 +51351,8 @@
       </c>
       <c r="F1563" t="inlineStr"/>
       <c r="G1563" t="inlineStr"/>
-      <c r="H1563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1563" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1564">
@@ -51691,10 +51375,8 @@
       </c>
       <c r="F1564" t="inlineStr"/>
       <c r="G1564" t="inlineStr"/>
-      <c r="H1564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1564" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1565">
@@ -51721,256 +51403,290 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1565" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1566" t="inlineStr"/>
-      <c r="C1566" t="inlineStr"/>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B1566" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C1566" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D1566" t="inlineStr"/>
-      <c r="E1566" t="inlineStr"/>
+      <c r="E1566" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1566" t="inlineStr"/>
-      <c r="G1566" t="inlineStr"/>
-      <c r="H1566" t="inlineStr"/>
+      <c r="G1566" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="H1566" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr"/>
       <c r="E1567" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F1567" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F1567" t="inlineStr">
+        <is>
+          <t>42.1</t>
+        </is>
+      </c>
       <c r="G1567" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="H1567" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1568" t="inlineStr"/>
       <c r="E1568" t="inlineStr">
         <is>
-          <t>$6.83T</t>
-        </is>
-      </c>
-      <c r="F1568" t="inlineStr"/>
-      <c r="G1568" t="inlineStr"/>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F1568" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="G1568" t="inlineStr">
+        <is>
+          <t>49.5</t>
+        </is>
+      </c>
       <c r="H1568" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="F1569" t="inlineStr"/>
       <c r="G1569" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H1569" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1570" t="inlineStr"/>
       <c r="E1570" t="inlineStr">
         <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1570" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F1570" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
       <c r="G1570" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="H1570" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1571" t="inlineStr"/>
       <c r="E1571" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F1571" t="inlineStr"/>
       <c r="G1571" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="H1571" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1572" t="inlineStr"/>
       <c r="E1572" t="inlineStr">
         <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F1572" t="inlineStr"/>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F1572" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="G1572" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1572" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1573" t="inlineStr"/>
       <c r="E1573" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1573" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F1573" t="inlineStr"/>
       <c r="G1573" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="H1573" t="inlineStr">
@@ -51982,75 +51698,83 @@
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1574" t="inlineStr"/>
       <c r="E1574" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1574" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F1574" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="G1574" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H1574" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1575" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1575" t="inlineStr"/>
       <c r="E1575" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1575" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F1575" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="G1575" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H1575" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
@@ -52060,23 +51784,23 @@
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>Gfk Consumer ConfidenceJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr"/>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F1576" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="G1576" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="H1576" t="inlineStr">
@@ -52088,135 +51812,127 @@
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1577" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1577" t="inlineStr"/>
       <c r="E1577" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F1577" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="G1577" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1577" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr"/>
       <c r="E1578" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F1578" t="inlineStr"/>
       <c r="G1578" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="H1578" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FlashJAN</t>
+          <t>ECB President Lagarde Speech</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr"/>
-      <c r="E1579" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
+      <c r="E1579" t="inlineStr"/>
       <c r="F1579" t="inlineStr"/>
-      <c r="G1579" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G1579" t="inlineStr"/>
       <c r="H1579" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1580">
       <c r="A1580" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>URA Property Index QoQ FinalQ4</t>
+          <t>FGV Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr"/>
       <c r="E1580" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F1580" t="inlineStr"/>
       <c r="G1580" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>91.4</t>
         </is>
       </c>
       <c r="H1580" t="inlineStr">
@@ -52228,61 +51944,61 @@
     <row r="1581">
       <c r="A1581" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>BoJ Interest Rate Decision</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D1581" t="inlineStr"/>
-      <c r="E1581" t="inlineStr">
-        <is>
-          <t>0.25%</t>
-        </is>
-      </c>
-      <c r="F1581" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1581" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E1581" t="inlineStr"/>
+      <c r="F1581" t="inlineStr"/>
+      <c r="G1581" t="inlineStr"/>
       <c r="H1581" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1582">
       <c r="A1582" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>BoJ Quarterly Outlook Report</t>
+          <t>CBI Distributive TradesJAN</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr"/>
-      <c r="E1582" t="inlineStr"/>
-      <c r="F1582" t="inlineStr"/>
-      <c r="G1582" t="inlineStr"/>
+      <c r="E1582" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="F1582" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="G1582" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
       <c r="H1582" t="inlineStr">
         <is>
           <t>2</t>
@@ -52292,23 +52008,23 @@
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>Foreign Direct Investment YoYQ4</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr"/>
       <c r="E1583" t="inlineStr">
         <is>
-          <t>18.55%</t>
+          <t>$625.87B</t>
         </is>
       </c>
       <c r="F1583" t="inlineStr"/>
@@ -52322,199 +52038,203 @@
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr"/>
       <c r="E1584" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1584" t="inlineStr"/>
       <c r="G1584" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1584" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr"/>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1585" t="inlineStr"/>
       <c r="G1585" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1585" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1586" t="inlineStr"/>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1586" t="inlineStr"/>
       <c r="G1586" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1586" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr"/>
       <c r="E1587" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1587" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1587" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1587" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1587" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1588" t="inlineStr"/>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1588" t="inlineStr"/>
       <c r="G1588" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1588" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1589" t="inlineStr"/>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1589" t="inlineStr"/>
       <c r="G1589" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1589" t="inlineStr">
@@ -52526,33 +52246,29 @@
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1590" t="inlineStr"/>
       <c r="E1590" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1590" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1590" t="inlineStr"/>
       <c r="G1590" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1590" t="inlineStr">
@@ -52564,33 +52280,29 @@
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1591" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1591" t="inlineStr"/>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1591" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1591" t="inlineStr"/>
       <c r="G1591" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1591" t="inlineStr">
@@ -52602,67 +52314,67 @@
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1592" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1592" t="inlineStr"/>
       <c r="E1592" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1592" t="inlineStr"/>
       <c r="G1592" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1592" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1593" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1593" t="inlineStr"/>
       <c r="E1593" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1593" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1593" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1593" t="inlineStr">
@@ -52674,29 +52386,29 @@
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1594" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1594" t="inlineStr"/>
       <c r="E1594" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1594" t="inlineStr"/>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr">
@@ -52708,33 +52420,33 @@
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1595" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1595" t="inlineStr"/>
       <c r="E1595" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1595" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1595" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1595" t="inlineStr">
@@ -52746,215 +52458,215 @@
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1596" t="inlineStr"/>
       <c r="E1596" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1596" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1596" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1596" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1596" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1597" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1597" t="inlineStr"/>
       <c r="E1597" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1597" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1597" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1597" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1598" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1598" t="inlineStr"/>
       <c r="E1598" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1598" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1598" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1598" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1599" t="inlineStr"/>
       <c r="E1599" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1599" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1599" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1599" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1600" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1600" t="inlineStr"/>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1600" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1600" t="inlineStr"/>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1600" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1601" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1601" t="inlineStr"/>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1601" t="inlineStr"/>
       <c r="G1601" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1601" t="inlineStr">
@@ -52966,57 +52678,57 @@
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1602" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1602" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1602" t="inlineStr"/>
-      <c r="E1602" t="inlineStr"/>
+      <c r="E1602" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1602" t="inlineStr"/>
       <c r="G1602" t="inlineStr"/>
       <c r="H1602" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1603" t="inlineStr"/>
-      <c r="G1603" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1603" t="inlineStr"/>
       <c r="H1603" t="inlineStr">
         <is>
           <t>3</t>
@@ -53026,87 +52738,71 @@
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1604" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1604" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1604" t="inlineStr"/>
+      <c r="C1604" t="inlineStr"/>
       <c r="D1604" t="inlineStr"/>
       <c r="E1604" t="inlineStr"/>
       <c r="F1604" t="inlineStr"/>
       <c r="G1604" t="inlineStr"/>
-      <c r="H1604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1604" t="inlineStr"/>
     </row>
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1605" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F1605" t="inlineStr"/>
       <c r="G1605" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1605" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>$625.87B</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr"/>
@@ -53120,31 +52816,27 @@
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr"/>
-      <c r="G1607" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1607" t="inlineStr"/>
       <c r="H1607" t="inlineStr">
         <is>
           <t>3</t>
@@ -53154,31 +52846,27 @@
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1608" t="inlineStr"/>
-      <c r="G1608" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1608" t="inlineStr"/>
       <c r="H1608" t="inlineStr">
         <is>
           <t>3</t>
@@ -53188,31 +52876,23 @@
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
-      <c r="E1609" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1609" t="inlineStr"/>
       <c r="F1609" t="inlineStr"/>
-      <c r="G1609" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1609" t="inlineStr"/>
       <c r="H1609" t="inlineStr">
         <is>
           <t>3</t>
@@ -53222,69 +52902,53 @@
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
-      <c r="E1610" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1610" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1610" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1610" t="inlineStr"/>
+      <c r="F1610" t="inlineStr"/>
+      <c r="G1610" t="inlineStr"/>
       <c r="H1610" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr"/>
-      <c r="G1611" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1611" t="inlineStr"/>
       <c r="H1611" t="inlineStr">
         <is>
           <t>2</t>
@@ -53294,31 +52958,27 @@
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr"/>
-      <c r="G1612" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1612" t="inlineStr"/>
       <c r="H1612" t="inlineStr">
         <is>
           <t>3</t>
@@ -53328,169 +52988,145 @@
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1613" t="inlineStr"/>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr"/>
-      <c r="G1613" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1613" t="inlineStr"/>
       <c r="H1613" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr"/>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1614" t="inlineStr"/>
-      <c r="G1614" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1614" t="inlineStr"/>
       <c r="H1614" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr"/>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F1615" t="inlineStr"/>
-      <c r="G1615" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1615" t="inlineStr"/>
       <c r="H1615" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:15 PM</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1616" t="inlineStr"/>
-      <c r="E1616" t="inlineStr">
-        <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1616" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1616" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+      <c r="E1616" t="inlineStr"/>
+      <c r="F1616" t="inlineStr"/>
+      <c r="G1616" t="inlineStr"/>
       <c r="H1616" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1617" t="inlineStr"/>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>43.5K</t>
         </is>
       </c>
       <c r="F1617" t="inlineStr"/>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1617" t="inlineStr">
@@ -53502,71 +53138,63 @@
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1618" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1618" t="inlineStr"/>
       <c r="G1618" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1618" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1619" t="inlineStr"/>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1619" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1619" t="inlineStr"/>
       <c r="G1619" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1619" t="inlineStr">
@@ -53578,35 +53206,27 @@
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1620" t="inlineStr"/>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1620" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
-      <c r="G1620" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1620" t="inlineStr"/>
+      <c r="G1620" t="inlineStr"/>
       <c r="H1620" t="inlineStr">
         <is>
           <t>3</t>
@@ -53616,35 +53236,27 @@
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1621" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1621" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1621" t="inlineStr"/>
+      <c r="G1621" t="inlineStr"/>
       <c r="H1621" t="inlineStr">
         <is>
           <t>3</t>
@@ -53654,67 +53266,63 @@
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1622" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>$-0.133B</t>
+        </is>
+      </c>
+      <c r="F1622" t="inlineStr"/>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1622" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr"/>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr"/>
       <c r="G1623" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1623" t="inlineStr">
@@ -53726,7 +53334,7 @@
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
@@ -53736,51 +53344,55 @@
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
       <c r="E1624" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1624" t="inlineStr"/>
       <c r="G1624" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="H1624" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1625" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1625" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1625" t="inlineStr"/>
       <c r="E1625" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1625" t="inlineStr"/>
-      <c r="G1625" t="inlineStr"/>
+      <c r="G1625" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1625" t="inlineStr">
         <is>
           <t>3</t>
@@ -53790,25 +53402,21 @@
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1626" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1626" t="inlineStr"/>
-      <c r="E1626" t="inlineStr">
-        <is>
-          <t>580</t>
-        </is>
-      </c>
+      <c r="E1626" t="inlineStr"/>
       <c r="F1626" t="inlineStr"/>
       <c r="G1626" t="inlineStr"/>
       <c r="H1626" t="inlineStr">
@@ -53820,45 +53428,49 @@
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1627" t="inlineStr"/>
-      <c r="C1627" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1627" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1627" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1627" t="inlineStr"/>
       <c r="E1627" t="inlineStr"/>
       <c r="F1627" t="inlineStr"/>
       <c r="G1627" t="inlineStr"/>
-      <c r="H1627" t="inlineStr"/>
+      <c r="H1627" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1628" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1628" t="inlineStr"/>
-      <c r="E1628" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1628" t="inlineStr"/>
       <c r="F1628" t="inlineStr"/>
-      <c r="G1628" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1628" t="inlineStr"/>
       <c r="H1628" t="inlineStr">
         <is>
           <t>3</t>
@@ -53868,107 +53480,103 @@
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1629" t="inlineStr"/>
-      <c r="E1629" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1629" t="inlineStr"/>
       <c r="F1629" t="inlineStr"/>
       <c r="G1629" t="inlineStr"/>
       <c r="H1629" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1630" t="inlineStr"/>
-      <c r="E1630" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1630" t="inlineStr"/>
       <c r="F1630" t="inlineStr"/>
-      <c r="G1630" t="inlineStr"/>
+      <c r="G1630" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1630" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1631" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1631" t="inlineStr"/>
       <c r="E1631" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1631" t="inlineStr"/>
       <c r="G1631" t="inlineStr"/>
       <c r="H1631" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1632" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1632" t="inlineStr"/>
@@ -53984,17 +53592,17 @@
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr"/>
@@ -54010,55 +53618,47 @@
     <row r="1634">
       <c r="A1634" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1634" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1634" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1634" t="inlineStr"/>
-      <c r="E1634" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1634" t="inlineStr"/>
       <c r="F1634" t="inlineStr"/>
       <c r="G1634" t="inlineStr"/>
       <c r="H1634" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1635">
       <c r="A1635" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1635" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1635" t="inlineStr"/>
-      <c r="E1635" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1635" t="inlineStr"/>
       <c r="F1635" t="inlineStr"/>
       <c r="G1635" t="inlineStr"/>
       <c r="H1635" t="inlineStr">
@@ -54068,59 +53668,63 @@
       </c>
     </row>
     <row r="1636">
-      <c r="A1636" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1636" t="inlineStr"/>
       <c r="B1636" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1636" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1636" t="inlineStr"/>
       <c r="E1636" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1636" t="inlineStr"/>
-      <c r="G1636" t="inlineStr"/>
+      <c r="G1636" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1636" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1637">
-      <c r="A1637" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1637" t="inlineStr"/>
       <c r="B1637" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1637" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1637" t="inlineStr"/>
       <c r="E1637" t="inlineStr">
         <is>
-          <t>85.1</t>
-        </is>
-      </c>
-      <c r="F1637" t="inlineStr"/>
-      <c r="G1637" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1637" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1637" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1637" t="inlineStr">
         <is>
           <t>3</t>
@@ -54130,121 +53734,109 @@
     <row r="1638">
       <c r="A1638" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1638" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1638" t="inlineStr">
-        <is>
-          <t>Ifo ExpectationsJAN</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1638" t="inlineStr"/>
+      <c r="C1638" t="inlineStr"/>
       <c r="D1638" t="inlineStr"/>
-      <c r="E1638" t="inlineStr">
-        <is>
-          <t>84.4</t>
-        </is>
-      </c>
+      <c r="E1638" t="inlineStr"/>
       <c r="F1638" t="inlineStr"/>
       <c r="G1638" t="inlineStr"/>
-      <c r="H1638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1638" t="inlineStr"/>
     </row>
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1639" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1639" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1639" t="inlineStr"/>
-      <c r="E1639" t="inlineStr"/>
+      <c r="E1639" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1639" t="inlineStr"/>
-      <c r="G1639" t="inlineStr"/>
+      <c r="G1639" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1639" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1640" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1640" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1640" t="inlineStr"/>
       <c r="E1640" t="inlineStr">
         <is>
-          <t>43.5K</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1640" t="inlineStr"/>
       <c r="G1640" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="H1640" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1641" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1641" t="inlineStr"/>
       <c r="E1641" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1641" t="inlineStr"/>
-      <c r="G1641" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1641" t="inlineStr"/>
       <c r="H1641" t="inlineStr">
         <is>
           <t>3</t>
@@ -54254,29 +53846,29 @@
     <row r="1642">
       <c r="A1642" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1642" t="inlineStr"/>
       <c r="E1642" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1642" t="inlineStr"/>
       <c r="G1642" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1642" t="inlineStr">
@@ -54288,27 +53880,31 @@
     <row r="1643">
       <c r="A1643" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1643" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1643" t="inlineStr"/>
       <c r="E1643" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1643" t="inlineStr"/>
-      <c r="G1643" t="inlineStr"/>
+      <c r="G1643" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1643" t="inlineStr">
         <is>
           <t>3</t>
@@ -54318,27 +53914,31 @@
     <row r="1644">
       <c r="A1644" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1644" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1644" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1644" t="inlineStr"/>
       <c r="E1644" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1644" t="inlineStr"/>
-      <c r="G1644" t="inlineStr"/>
+      <c r="G1644" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1644" t="inlineStr">
         <is>
           <t>3</t>
@@ -54348,97 +53948,93 @@
     <row r="1645">
       <c r="A1645" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1645" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1645" t="inlineStr"/>
       <c r="E1645" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1645" t="inlineStr"/>
       <c r="G1645" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1645" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1646">
       <c r="A1646" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1646" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1646" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1646" t="inlineStr"/>
       <c r="E1646" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1646" t="inlineStr"/>
-      <c r="G1646" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1646" t="inlineStr"/>
       <c r="H1646" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1647">
       <c r="A1647" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1647" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1647" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1647" t="inlineStr"/>
       <c r="E1647" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1647" t="inlineStr"/>
       <c r="G1647" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1647" t="inlineStr">
@@ -54450,31 +54046,27 @@
     <row r="1648">
       <c r="A1648" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1648" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1648" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1648" t="inlineStr"/>
       <c r="E1648" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1648" t="inlineStr"/>
-      <c r="G1648" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1648" t="inlineStr"/>
       <c r="H1648" t="inlineStr">
         <is>
           <t>3</t>
@@ -54484,17 +54076,17 @@
     <row r="1649">
       <c r="A1649" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1649" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1649" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1649" t="inlineStr"/>
@@ -54510,17 +54102,17 @@
     <row r="1650">
       <c r="A1650" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1650" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1650" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1650" t="inlineStr"/>
@@ -54536,17 +54128,17 @@
     <row r="1651">
       <c r="A1651" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1651" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1651" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1651" t="inlineStr"/>
@@ -54562,33 +54154,37 @@
     <row r="1652">
       <c r="A1652" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1652" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1652" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1652" t="inlineStr"/>
-      <c r="E1652" t="inlineStr"/>
+      <c r="E1652" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1652" t="inlineStr"/>
       <c r="G1652" t="inlineStr"/>
       <c r="H1652" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1653">
       <c r="A1653" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1653" t="inlineStr">
@@ -54598,27 +54194,31 @@
       </c>
       <c r="C1653" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1653" t="inlineStr"/>
-      <c r="E1653" t="inlineStr"/>
+      <c r="E1653" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1653" t="inlineStr"/>
       <c r="G1653" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1653" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1654">
       <c r="A1654" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1654" t="inlineStr">
@@ -54628,17 +54228,21 @@
       </c>
       <c r="C1654" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1654" t="inlineStr"/>
       <c r="E1654" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1654" t="inlineStr"/>
-      <c r="G1654" t="inlineStr"/>
+      <c r="G1654" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1654" t="inlineStr">
         <is>
           <t>2</t>
@@ -54648,7 +54252,7 @@
     <row r="1655">
       <c r="A1655" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1655" t="inlineStr">
@@ -54658,13 +54262,21 @@
       </c>
       <c r="C1655" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1655" t="inlineStr"/>
-      <c r="E1655" t="inlineStr"/>
+      <c r="E1655" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1655" t="inlineStr"/>
-      <c r="G1655" t="inlineStr"/>
+      <c r="G1655" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1655" t="inlineStr">
         <is>
           <t>3</t>
@@ -54674,7 +54286,7 @@
     <row r="1656">
       <c r="A1656" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1656" t="inlineStr">
@@ -54684,11 +54296,15 @@
       </c>
       <c r="C1656" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1656" t="inlineStr"/>
-      <c r="E1656" t="inlineStr"/>
+      <c r="E1656" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1656" t="inlineStr"/>
       <c r="G1656" t="inlineStr"/>
       <c r="H1656" t="inlineStr">
@@ -54700,7 +54316,7 @@
     <row r="1657">
       <c r="A1657" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B1657" t="inlineStr">
@@ -54710,7 +54326,7 @@
       </c>
       <c r="C1657" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1657" t="inlineStr"/>
@@ -54726,7 +54342,7 @@
     <row r="1658">
       <c r="A1658" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1658" t="inlineStr">
@@ -54736,21 +54352,29 @@
       </c>
       <c r="C1658" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1658" t="inlineStr"/>
-      <c r="E1658" t="inlineStr"/>
+      <c r="E1658" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1658" t="inlineStr"/>
       <c r="G1658" t="inlineStr"/>
       <c r="H1658" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1659">
-      <c r="A1659" t="inlineStr"/>
+      <c r="A1659" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1659" t="inlineStr">
         <is>
           <t>US</t>
@@ -54758,21 +54382,17 @@
       </c>
       <c r="C1659" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1659" t="inlineStr"/>
       <c r="E1659" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1659" t="inlineStr"/>
-      <c r="G1659" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1659" t="inlineStr"/>
       <c r="H1659" t="inlineStr">
         <is>
           <t>3</t>
@@ -54780,7 +54400,11 @@
       </c>
     </row>
     <row r="1660">
-      <c r="A1660" t="inlineStr"/>
+      <c r="A1660" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1660" t="inlineStr">
         <is>
           <t>US</t>
@@ -54788,25 +54412,13 @@
       </c>
       <c r="C1660" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1660" t="inlineStr"/>
-      <c r="E1660" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1660" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1660" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="E1660" t="inlineStr"/>
+      <c r="F1660" t="inlineStr"/>
+      <c r="G1660" t="inlineStr"/>
       <c r="H1660" t="inlineStr">
         <is>
           <t>3</t>
@@ -54816,107 +54428,107 @@
     <row r="1661">
       <c r="A1661" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1661" t="inlineStr"/>
-      <c r="C1661" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1661" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1661" t="inlineStr">
+        <is>
+          <t>House Price Index YoYNOV</t>
+        </is>
+      </c>
       <c r="D1661" t="inlineStr"/>
-      <c r="E1661" t="inlineStr"/>
+      <c r="E1661" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="F1661" t="inlineStr"/>
       <c r="G1661" t="inlineStr"/>
-      <c r="H1661" t="inlineStr"/>
+      <c r="H1661" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1662">
       <c r="A1662" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1662" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1662" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1662" t="inlineStr"/>
       <c r="E1662" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1662" t="inlineStr"/>
-      <c r="G1662" t="inlineStr">
+      <c r="G1662" t="inlineStr"/>
+      <c r="H1662" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1662" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1663">
       <c r="A1663" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1663" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1663" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>CB Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1663" t="inlineStr"/>
-      <c r="E1663" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1663" t="inlineStr"/>
       <c r="F1663" t="inlineStr"/>
-      <c r="G1663" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1663" t="inlineStr"/>
       <c r="H1663" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1664">
       <c r="A1664" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1664" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1664" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1664" t="inlineStr"/>
-      <c r="E1664" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1664" t="inlineStr"/>
       <c r="F1664" t="inlineStr"/>
       <c r="G1664" t="inlineStr"/>
       <c r="H1664" t="inlineStr">
@@ -54928,29 +54540,29 @@
     <row r="1665">
       <c r="A1665" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1665" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1665" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1665" t="inlineStr"/>
       <c r="E1665" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1665" t="inlineStr"/>
       <c r="G1665" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1665" t="inlineStr">
@@ -54962,29 +54574,29 @@
     <row r="1666">
       <c r="A1666" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1666" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1666" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1666" t="inlineStr"/>
       <c r="E1666" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1666" t="inlineStr"/>
       <c r="G1666" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1666" t="inlineStr">
@@ -54996,31 +54608,27 @@
     <row r="1667">
       <c r="A1667" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1667" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1667" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1667" t="inlineStr"/>
       <c r="E1667" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1667" t="inlineStr"/>
-      <c r="G1667" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1667" t="inlineStr"/>
       <c r="H1667" t="inlineStr">
         <is>
           <t>3</t>
@@ -55030,31 +54638,27 @@
     <row r="1668">
       <c r="A1668" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1668" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1668" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1668" t="inlineStr"/>
       <c r="E1668" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1668" t="inlineStr"/>
-      <c r="G1668" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1668" t="inlineStr"/>
       <c r="H1668" t="inlineStr">
         <is>
           <t>3</t>
@@ -55064,87 +54668,79 @@
     <row r="1669">
       <c r="A1669" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1669" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1669" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1669" t="inlineStr"/>
-      <c r="E1669" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1669" t="inlineStr"/>
       <c r="F1669" t="inlineStr"/>
       <c r="G1669" t="inlineStr"/>
       <c r="H1669" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1670">
       <c r="A1670" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1670" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1670" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1670" t="inlineStr"/>
       <c r="E1670" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1670" t="inlineStr"/>
-      <c r="G1670" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1670" t="inlineStr"/>
       <c r="H1670" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1671">
       <c r="A1671" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1671" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1671" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1671" t="inlineStr"/>
       <c r="E1671" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1671" t="inlineStr"/>
@@ -55158,43 +54754,31 @@
     <row r="1672">
       <c r="A1672" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1672" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1672" t="inlineStr">
-        <is>
-          <t>BTP Short Term Auction</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1672" t="inlineStr"/>
+      <c r="C1672" t="inlineStr"/>
       <c r="D1672" t="inlineStr"/>
       <c r="E1672" t="inlineStr"/>
       <c r="F1672" t="inlineStr"/>
       <c r="G1672" t="inlineStr"/>
-      <c r="H1672" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1672" t="inlineStr"/>
     </row>
     <row r="1673">
       <c r="A1673" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1673" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1673" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1673" t="inlineStr"/>
@@ -55203,126 +54787,138 @@
       <c r="G1673" t="inlineStr"/>
       <c r="H1673" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1674">
       <c r="A1674" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1674" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1674" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1674" t="inlineStr"/>
-      <c r="E1674" t="inlineStr"/>
+      <c r="E1674" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1674" t="inlineStr"/>
-      <c r="G1674" t="inlineStr"/>
+      <c r="G1674" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1674" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1675">
       <c r="A1675" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1675" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1675" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1675" t="inlineStr"/>
       <c r="E1675" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1675" t="inlineStr"/>
-      <c r="G1675" t="inlineStr"/>
+      <c r="G1675" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1675" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1676">
       <c r="A1676" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1676" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1676" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1676" t="inlineStr"/>
       <c r="E1676" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1676" t="inlineStr"/>
       <c r="G1676" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H1676" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1677">
       <c r="A1677" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1677" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1677" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1677" t="inlineStr"/>
       <c r="E1677" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1677" t="inlineStr"/>
       <c r="G1677" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1677" t="inlineStr">
@@ -55334,61 +54930,61 @@
     <row r="1678">
       <c r="A1678" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1678" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1678" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1678" t="inlineStr"/>
       <c r="E1678" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1678" t="inlineStr"/>
       <c r="G1678" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1678" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1679">
       <c r="A1679" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1679" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1679" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1679" t="inlineStr"/>
-      <c r="E1679" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1679" t="inlineStr"/>
       <c r="F1679" t="inlineStr"/>
-      <c r="G1679" t="inlineStr"/>
+      <c r="G1679" t="inlineStr">
+        <is>
+          <t>139.1</t>
+        </is>
+      </c>
       <c r="H1679" t="inlineStr">
         <is>
           <t>3</t>
@@ -55398,21 +54994,25 @@
     <row r="1680">
       <c r="A1680" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1680" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1680" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1680" t="inlineStr"/>
-      <c r="E1680" t="inlineStr"/>
+      <c r="E1680" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1680" t="inlineStr"/>
       <c r="G1680" t="inlineStr"/>
       <c r="H1680" t="inlineStr">
@@ -55424,53 +55024,53 @@
     <row r="1681">
       <c r="A1681" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1681" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1681" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1681" t="inlineStr"/>
       <c r="E1681" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1681" t="inlineStr"/>
       <c r="G1681" t="inlineStr"/>
       <c r="H1681" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1682">
       <c r="A1682" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B1682" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1682" t="inlineStr">
         <is>
-          <t>House Price IndexNOV</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1682" t="inlineStr"/>
       <c r="E1682" t="inlineStr">
         <is>
-          <t>432.3</t>
+          <t>0.595%</t>
         </is>
       </c>
       <c r="F1682" t="inlineStr"/>
@@ -55484,682 +55084,30 @@
     <row r="1683">
       <c r="A1683" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1683" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1683" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1683" t="inlineStr"/>
-      <c r="E1683" t="inlineStr"/>
+      <c r="E1683" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
       <c r="F1683" t="inlineStr"/>
       <c r="G1683" t="inlineStr"/>
       <c r="H1683" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1684">
-      <c r="A1684" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1684" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1684" t="inlineStr">
-        <is>
-          <t>House Price Index YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1684" t="inlineStr"/>
-      <c r="E1684" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1684" t="inlineStr"/>
-      <c r="G1684" t="inlineStr"/>
-      <c r="H1684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1685">
-      <c r="A1685" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1685" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1685" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1685" t="inlineStr"/>
-      <c r="E1685" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1685" t="inlineStr"/>
-      <c r="G1685" t="inlineStr"/>
-      <c r="H1685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1686">
-      <c r="A1686" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1686" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1686" t="inlineStr">
-        <is>
-          <t>CB Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1686" t="inlineStr"/>
-      <c r="E1686" t="inlineStr"/>
-      <c r="F1686" t="inlineStr"/>
-      <c r="G1686" t="inlineStr"/>
-      <c r="H1686" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1687">
-      <c r="A1687" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1687" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1687" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1687" t="inlineStr"/>
-      <c r="E1687" t="inlineStr"/>
-      <c r="F1687" t="inlineStr"/>
-      <c r="G1687" t="inlineStr"/>
-      <c r="H1687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1688">
-      <c r="A1688" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1688" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1688" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1688" t="inlineStr"/>
-      <c r="E1688" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F1688" t="inlineStr"/>
-      <c r="G1688" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="H1688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1689">
-      <c r="A1689" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1689" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1689" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1689" t="inlineStr"/>
-      <c r="E1689" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="F1689" t="inlineStr"/>
-      <c r="G1689" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H1689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1690">
-      <c r="A1690" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1690" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1690" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1690" t="inlineStr"/>
-      <c r="E1690" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
-      </c>
-      <c r="F1690" t="inlineStr"/>
-      <c r="G1690" t="inlineStr"/>
-      <c r="H1690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1691">
-      <c r="A1691" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1691" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1691" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1691" t="inlineStr"/>
-      <c r="E1691" t="inlineStr">
-        <is>
-          <t>13.8</t>
-        </is>
-      </c>
-      <c r="F1691" t="inlineStr"/>
-      <c r="G1691" t="inlineStr"/>
-      <c r="H1691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1692">
-      <c r="A1692" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1692" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1692" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="D1692" t="inlineStr"/>
-      <c r="E1692" t="inlineStr"/>
-      <c r="F1692" t="inlineStr"/>
-      <c r="G1692" t="inlineStr"/>
-      <c r="H1692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1693">
-      <c r="A1693" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1693" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1693" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="D1693" t="inlineStr"/>
-      <c r="E1693" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
-      <c r="F1693" t="inlineStr"/>
-      <c r="G1693" t="inlineStr"/>
-      <c r="H1693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1694">
-      <c r="A1694" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1694" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1694" t="inlineStr">
-        <is>
-          <t>Money SupplyDEC</t>
-        </is>
-      </c>
-      <c r="D1694" t="inlineStr"/>
-      <c r="E1694" t="inlineStr">
-        <is>
-          <t>$21.45T</t>
-        </is>
-      </c>
-      <c r="F1694" t="inlineStr"/>
-      <c r="G1694" t="inlineStr"/>
-      <c r="H1694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1695">
-      <c r="A1695" t="inlineStr">
-        <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1695" t="inlineStr"/>
-      <c r="C1695" t="inlineStr"/>
-      <c r="D1695" t="inlineStr"/>
-      <c r="E1695" t="inlineStr"/>
-      <c r="F1695" t="inlineStr"/>
-      <c r="G1695" t="inlineStr"/>
-      <c r="H1695" t="inlineStr"/>
-    </row>
-    <row r="1696">
-      <c r="A1696" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1696" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1696" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1696" t="inlineStr"/>
-      <c r="E1696" t="inlineStr"/>
-      <c r="F1696" t="inlineStr"/>
-      <c r="G1696" t="inlineStr"/>
-      <c r="H1696" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1697">
-      <c r="A1697" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1697" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1697" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1697" t="inlineStr"/>
-      <c r="E1697" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1697" t="inlineStr"/>
-      <c r="G1697" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="H1697" t="inlineStr">
-        <is>
           <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1698">
-      <c r="A1698" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1698" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1698" t="inlineStr">
-        <is>
-          <t>Inflation Rate QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1698" t="inlineStr"/>
-      <c r="E1698" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1698" t="inlineStr"/>
-      <c r="G1698" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1698" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1699">
-      <c r="A1699" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1699" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1699" t="inlineStr">
-        <is>
-          <t>Monthly CPI IndicatorDEC</t>
-        </is>
-      </c>
-      <c r="D1699" t="inlineStr"/>
-      <c r="E1699" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="F1699" t="inlineStr"/>
-      <c r="G1699" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H1699" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1700">
-      <c r="A1700" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1700" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1700" t="inlineStr">
-        <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1700" t="inlineStr"/>
-      <c r="E1700" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1700" t="inlineStr"/>
-      <c r="G1700" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H1700" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1701">
-      <c r="A1701" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1701" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1701" t="inlineStr">
-        <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1701" t="inlineStr"/>
-      <c r="E1701" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="F1701" t="inlineStr"/>
-      <c r="G1701" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H1701" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1702">
-      <c r="A1702" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1702" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1702" t="inlineStr">
-        <is>
-          <t>CPIQ4</t>
-        </is>
-      </c>
-      <c r="D1702" t="inlineStr"/>
-      <c r="E1702" t="inlineStr"/>
-      <c r="F1702" t="inlineStr"/>
-      <c r="G1702" t="inlineStr">
-        <is>
-          <t>139.1</t>
-        </is>
-      </c>
-      <c r="H1702" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1703">
-      <c r="A1703" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1703" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1703" t="inlineStr">
-        <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1703" t="inlineStr"/>
-      <c r="E1703" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F1703" t="inlineStr"/>
-      <c r="G1703" t="inlineStr"/>
-      <c r="H1703" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1704">
-      <c r="A1704" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1704" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1704" t="inlineStr">
-        <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1704" t="inlineStr"/>
-      <c r="E1704" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F1704" t="inlineStr"/>
-      <c r="G1704" t="inlineStr"/>
-      <c r="H1704" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1705">
-      <c r="A1705" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
-      <c r="B1705" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1705" t="inlineStr">
-        <is>
-          <t>5-Year Climate Transition JGB Auction</t>
-        </is>
-      </c>
-      <c r="D1705" t="inlineStr"/>
-      <c r="E1705" t="inlineStr">
-        <is>
-          <t>0.595%</t>
-        </is>
-      </c>
-      <c r="F1705" t="inlineStr"/>
-      <c r="G1705" t="inlineStr"/>
-      <c r="H1705" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1704"/>
+  <dimension ref="A1:H1682"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46555,10 +46555,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1405" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1405" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1406">
@@ -46593,10 +46591,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1407">
@@ -46631,10 +46627,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1408">
@@ -46665,10 +46659,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1409">
@@ -46703,10 +46695,8 @@
           <t>-2.3%</t>
         </is>
       </c>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1410">
@@ -46737,10 +46727,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1411">
@@ -46775,10 +46763,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1412">
@@ -46813,10 +46799,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1413">
@@ -46851,10 +46835,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1414">
@@ -46885,10 +46867,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1415">
@@ -46919,10 +46899,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1416">
@@ -46949,10 +46927,8 @@
       </c>
       <c r="F1416" t="inlineStr"/>
       <c r="G1416" t="inlineStr"/>
-      <c r="H1416" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1416" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1417">
@@ -46979,10 +46955,8 @@
       </c>
       <c r="F1417" t="inlineStr"/>
       <c r="G1417" t="inlineStr"/>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1418">
@@ -47013,10 +46987,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1419">
@@ -47047,10 +47019,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1420">
@@ -47077,10 +47047,8 @@
       </c>
       <c r="F1420" t="inlineStr"/>
       <c r="G1420" t="inlineStr"/>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1421">
@@ -47107,10 +47075,8 @@
       </c>
       <c r="F1421" t="inlineStr"/>
       <c r="G1421" t="inlineStr"/>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1422">
@@ -47137,10 +47103,8 @@
       </c>
       <c r="F1422" t="inlineStr"/>
       <c r="G1422" t="inlineStr"/>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1423">
@@ -47163,10 +47127,8 @@
       <c r="E1423" t="inlineStr"/>
       <c r="F1423" t="inlineStr"/>
       <c r="G1423" t="inlineStr"/>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1424">
@@ -47197,10 +47159,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1425">
@@ -47231,10 +47191,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1426">
@@ -47253,10 +47211,8 @@
       <c r="E1426" t="inlineStr"/>
       <c r="F1426" t="inlineStr"/>
       <c r="G1426" t="inlineStr"/>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1427">
@@ -47279,10 +47235,8 @@
       </c>
       <c r="F1427" t="inlineStr"/>
       <c r="G1427" t="inlineStr"/>
-      <c r="H1427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1428">
@@ -47309,10 +47263,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1429">
@@ -47331,10 +47283,8 @@
       <c r="E1429" t="inlineStr"/>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1430">
@@ -47361,10 +47311,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
@@ -47391,10 +47339,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -47413,10 +47359,8 @@
       <c r="E1432" t="inlineStr"/>
       <c r="F1432" t="inlineStr"/>
       <c r="G1432" t="inlineStr"/>
-      <c r="H1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
@@ -47465,10 +47409,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1434" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1435">
@@ -47499,10 +47441,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1436">
@@ -47533,10 +47473,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1437">
@@ -47563,10 +47501,8 @@
       </c>
       <c r="F1437" t="inlineStr"/>
       <c r="G1437" t="inlineStr"/>
-      <c r="H1437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1438">
@@ -47593,10 +47529,8 @@
       </c>
       <c r="F1438" t="inlineStr"/>
       <c r="G1438" t="inlineStr"/>
-      <c r="H1438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1439">
@@ -47623,10 +47557,8 @@
       </c>
       <c r="F1439" t="inlineStr"/>
       <c r="G1439" t="inlineStr"/>
-      <c r="H1439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1440">
@@ -47657,10 +47589,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1440" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1440" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1441">
@@ -47695,10 +47625,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1441" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1441" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1442">
@@ -47733,10 +47661,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1442" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1442" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1443">
@@ -47767,10 +47693,8 @@
           <t>40.0K</t>
         </is>
       </c>
-      <c r="H1443" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1443" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1444">
@@ -47805,10 +47729,8 @@
           <t>5.4%</t>
         </is>
       </c>
-      <c r="H1444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1445">
@@ -47843,10 +47765,8 @@
           <t>15.0K</t>
         </is>
       </c>
-      <c r="H1445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1445" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1446">
@@ -47877,10 +47797,8 @@
           <t>-20.0K</t>
         </is>
       </c>
-      <c r="H1446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1447">
@@ -47911,10 +47829,8 @@
           <t>-3.0%</t>
         </is>
       </c>
-      <c r="H1447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1448">
@@ -47945,10 +47861,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H1448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1449">
@@ -47979,10 +47893,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1450">
@@ -48017,10 +47929,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1450" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1450" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1451">
@@ -48055,10 +47965,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1451" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1451" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1452">
@@ -48093,10 +48001,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1452" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1453">
@@ -48123,10 +48029,8 @@
       </c>
       <c r="F1453" t="inlineStr"/>
       <c r="G1453" t="inlineStr"/>
-      <c r="H1453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1453" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1454">
@@ -48153,10 +48057,8 @@
       </c>
       <c r="F1454" t="inlineStr"/>
       <c r="G1454" t="inlineStr"/>
-      <c r="H1454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1454" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1455">
@@ -48187,10 +48089,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1455" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1456">
@@ -48221,10 +48121,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1456" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1457">
@@ -48259,10 +48157,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1457" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1457" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1458">
@@ -48293,10 +48189,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1458" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1458" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1459">
@@ -48331,10 +48225,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1459" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1459" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1460">
@@ -48365,10 +48257,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1460" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1460" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1461">
@@ -48403,10 +48293,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1461" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1461" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1462">
@@ -48441,10 +48329,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1462" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1463">
@@ -48471,10 +48357,8 @@
       </c>
       <c r="F1463" t="inlineStr"/>
       <c r="G1463" t="inlineStr"/>
-      <c r="H1463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1463" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1464">
@@ -48501,10 +48385,8 @@
       </c>
       <c r="F1464" t="inlineStr"/>
       <c r="G1464" t="inlineStr"/>
-      <c r="H1464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1464" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1465">
@@ -48531,10 +48413,8 @@
       </c>
       <c r="F1465" t="inlineStr"/>
       <c r="G1465" t="inlineStr"/>
-      <c r="H1465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1465" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1466">
@@ -48561,10 +48441,8 @@
       </c>
       <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr"/>
-      <c r="H1466" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1466" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1467">
@@ -48583,10 +48461,8 @@
       <c r="E1467" t="inlineStr"/>
       <c r="F1467" t="inlineStr"/>
       <c r="G1467" t="inlineStr"/>
-      <c r="H1467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1467" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1468">
@@ -48631,10 +48507,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1469" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1469" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1470">
@@ -48665,10 +48539,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1470" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1470" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1471">
@@ -48703,10 +48575,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1471" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1471" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1472">
@@ -48737,10 +48607,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1472" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1472" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1473">
@@ -48771,10 +48639,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1473" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1473" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1474">
@@ -48805,10 +48671,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1474" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1474" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1475">
@@ -48839,10 +48703,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1475" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1475" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1476">
@@ -48869,10 +48731,8 @@
       </c>
       <c r="F1476" t="inlineStr"/>
       <c r="G1476" t="inlineStr"/>
-      <c r="H1476" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1476" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1477">
@@ -48903,10 +48763,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1477" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1478">
@@ -48937,10 +48795,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1478" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1479">
@@ -48967,10 +48823,8 @@
       </c>
       <c r="F1479" t="inlineStr"/>
       <c r="G1479" t="inlineStr"/>
-      <c r="H1479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1479" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1480">
@@ -48997,10 +48851,8 @@
       </c>
       <c r="F1480" t="inlineStr"/>
       <c r="G1480" t="inlineStr"/>
-      <c r="H1480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1480" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1481">
@@ -49027,10 +48879,8 @@
       </c>
       <c r="F1481" t="inlineStr"/>
       <c r="G1481" t="inlineStr"/>
-      <c r="H1481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1481" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1482">
@@ -49057,10 +48907,8 @@
       </c>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
-      <c r="H1482" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1482" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1483">
@@ -49087,10 +48935,8 @@
       </c>
       <c r="F1483" t="inlineStr"/>
       <c r="G1483" t="inlineStr"/>
-      <c r="H1483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1483" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1484">
@@ -49117,10 +48963,8 @@
       </c>
       <c r="F1484" t="inlineStr"/>
       <c r="G1484" t="inlineStr"/>
-      <c r="H1484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1484" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1485">
@@ -49147,10 +48991,8 @@
       </c>
       <c r="F1485" t="inlineStr"/>
       <c r="G1485" t="inlineStr"/>
-      <c r="H1485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1485" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1486">
@@ -49177,10 +49019,8 @@
       </c>
       <c r="F1486" t="inlineStr"/>
       <c r="G1486" t="inlineStr"/>
-      <c r="H1486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1486" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1487">
@@ -49215,10 +49055,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1487" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1488">
@@ -49249,10 +49087,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1488" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1489">
@@ -49287,10 +49123,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1489" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1490">
@@ -49321,10 +49155,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1490" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1490" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1491">
@@ -49351,10 +49183,8 @@
       </c>
       <c r="F1491" t="inlineStr"/>
       <c r="G1491" t="inlineStr"/>
-      <c r="H1491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1491" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1492">
@@ -49389,10 +49219,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1492" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1493">
@@ -49415,10 +49243,8 @@
       <c r="E1493" t="inlineStr"/>
       <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr"/>
-      <c r="H1493" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1493" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1494">
@@ -49445,10 +49271,8 @@
       </c>
       <c r="F1494" t="inlineStr"/>
       <c r="G1494" t="inlineStr"/>
-      <c r="H1494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1494" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1495">
@@ -49475,10 +49299,8 @@
       </c>
       <c r="F1495" t="inlineStr"/>
       <c r="G1495" t="inlineStr"/>
-      <c r="H1495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1495" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1496">
@@ -49523,10 +49345,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1497" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1498">
@@ -49557,10 +49377,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1498" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1498" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1499">
@@ -49587,10 +49405,8 @@
       </c>
       <c r="F1499" t="inlineStr"/>
       <c r="G1499" t="inlineStr"/>
-      <c r="H1499" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1499" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1500">
@@ -49625,10 +49441,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1500" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1500" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1501">
@@ -49663,10 +49477,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1501" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1501" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1502">
@@ -49701,10 +49513,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1502" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1502" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1503">
@@ -49739,10 +49549,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1503" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1503" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1504">
@@ -49769,10 +49577,8 @@
       </c>
       <c r="F1504" t="inlineStr"/>
       <c r="G1504" t="inlineStr"/>
-      <c r="H1504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1504" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1505">
@@ -49807,10 +49613,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1505" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1505" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1506">
@@ -49837,10 +49641,8 @@
       </c>
       <c r="F1506" t="inlineStr"/>
       <c r="G1506" t="inlineStr"/>
-      <c r="H1506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1506" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1507">
@@ -49867,10 +49669,8 @@
       </c>
       <c r="F1507" t="inlineStr"/>
       <c r="G1507" t="inlineStr"/>
-      <c r="H1507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1508">
@@ -49897,10 +49697,8 @@
       </c>
       <c r="F1508" t="inlineStr"/>
       <c r="G1508" t="inlineStr"/>
-      <c r="H1508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1509">
@@ -49927,10 +49725,8 @@
       </c>
       <c r="F1509" t="inlineStr"/>
       <c r="G1509" t="inlineStr"/>
-      <c r="H1509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1510">
@@ -49961,10 +49757,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1511">
@@ -49995,10 +49789,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1512">
@@ -50029,10 +49821,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1513">
@@ -50063,10 +49853,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1514">
@@ -50093,10 +49881,8 @@
       </c>
       <c r="F1514" t="inlineStr"/>
       <c r="G1514" t="inlineStr"/>
-      <c r="H1514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1515">
@@ -50123,10 +49909,8 @@
       </c>
       <c r="F1515" t="inlineStr"/>
       <c r="G1515" t="inlineStr"/>
-      <c r="H1515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1516">
@@ -50157,10 +49941,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1516" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1516" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1517">
@@ -50195,10 +49977,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1517" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1517" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1518">
@@ -50229,10 +50009,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1518" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1519">
@@ -50259,10 +50037,8 @@
       </c>
       <c r="F1519" t="inlineStr"/>
       <c r="G1519" t="inlineStr"/>
-      <c r="H1519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1519" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1520">
@@ -50289,10 +50065,8 @@
       </c>
       <c r="F1520" t="inlineStr"/>
       <c r="G1520" t="inlineStr"/>
-      <c r="H1520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1521">
@@ -50319,10 +50093,8 @@
       </c>
       <c r="F1521" t="inlineStr"/>
       <c r="G1521" t="inlineStr"/>
-      <c r="H1521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1522">
@@ -50349,10 +50121,8 @@
       </c>
       <c r="F1522" t="inlineStr"/>
       <c r="G1522" t="inlineStr"/>
-      <c r="H1522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1522" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1523">
@@ -50379,10 +50149,8 @@
       </c>
       <c r="F1523" t="inlineStr"/>
       <c r="G1523" t="inlineStr"/>
-      <c r="H1523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1524">
@@ -50409,10 +50177,8 @@
       </c>
       <c r="F1524" t="inlineStr"/>
       <c r="G1524" t="inlineStr"/>
-      <c r="H1524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1524" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1525">
@@ -50439,10 +50205,8 @@
       </c>
       <c r="F1525" t="inlineStr"/>
       <c r="G1525" t="inlineStr"/>
-      <c r="H1525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1526">
@@ -50469,10 +50233,8 @@
       </c>
       <c r="F1526" t="inlineStr"/>
       <c r="G1526" t="inlineStr"/>
-      <c r="H1526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1527">
@@ -50503,10 +50265,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1527" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1528">
@@ -50537,10 +50297,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1528" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1528" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1529">
@@ -50575,10 +50333,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1529" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1529" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1530">
@@ -50609,10 +50365,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1530" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1531">
@@ -50643,10 +50397,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1531" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1531" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1532">
@@ -50681,10 +50433,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1532" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1532" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1533">
@@ -50711,10 +50461,8 @@
       </c>
       <c r="F1533" t="inlineStr"/>
       <c r="G1533" t="inlineStr"/>
-      <c r="H1533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1533" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1534">
@@ -50745,10 +50493,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1534" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1535">
@@ -50779,10 +50525,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1535" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1536">
@@ -50813,10 +50557,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1536" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1537">
@@ -50847,10 +50589,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1537" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1538">
@@ -50885,10 +50625,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1538" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1538" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1539">
@@ -50923,10 +50661,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1539" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1539" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1540">
@@ -50949,10 +50685,8 @@
       <c r="E1540" t="inlineStr"/>
       <c r="F1540" t="inlineStr"/>
       <c r="G1540" t="inlineStr"/>
-      <c r="H1540" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1540" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1541">
@@ -50983,10 +50717,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1542">
@@ -51021,10 +50753,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1542" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1542" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1543">
@@ -51055,10 +50785,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1544">
@@ -51089,10 +50817,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1545">
@@ -51127,10 +50853,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1545" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1545" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1546">
@@ -51157,10 +50881,8 @@
       </c>
       <c r="F1546" t="inlineStr"/>
       <c r="G1546" t="inlineStr"/>
-      <c r="H1546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1547">
@@ -51187,10 +50909,8 @@
       </c>
       <c r="F1547" t="inlineStr"/>
       <c r="G1547" t="inlineStr"/>
-      <c r="H1547" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1547" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1548">
@@ -51217,10 +50937,8 @@
       </c>
       <c r="F1548" t="inlineStr"/>
       <c r="G1548" t="inlineStr"/>
-      <c r="H1548" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1548" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1549">
@@ -51247,10 +50965,8 @@
       </c>
       <c r="F1549" t="inlineStr"/>
       <c r="G1549" t="inlineStr"/>
-      <c r="H1549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1549" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1550">
@@ -51277,10 +50993,8 @@
       </c>
       <c r="F1550" t="inlineStr"/>
       <c r="G1550" t="inlineStr"/>
-      <c r="H1550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1550" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1551">
@@ -51307,10 +51021,8 @@
       </c>
       <c r="F1551" t="inlineStr"/>
       <c r="G1551" t="inlineStr"/>
-      <c r="H1551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1552">
@@ -51337,10 +51049,8 @@
       </c>
       <c r="F1552" t="inlineStr"/>
       <c r="G1552" t="inlineStr"/>
-      <c r="H1552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1553">
@@ -51367,10 +51077,8 @@
       </c>
       <c r="F1553" t="inlineStr"/>
       <c r="G1553" t="inlineStr"/>
-      <c r="H1553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1554">
@@ -51397,10 +51105,8 @@
       </c>
       <c r="F1554" t="inlineStr"/>
       <c r="G1554" t="inlineStr"/>
-      <c r="H1554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1554" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1555">
@@ -51427,10 +51133,8 @@
       </c>
       <c r="F1555" t="inlineStr"/>
       <c r="G1555" t="inlineStr"/>
-      <c r="H1555" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1555" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1556">
@@ -51457,10 +51161,8 @@
       </c>
       <c r="F1556" t="inlineStr"/>
       <c r="G1556" t="inlineStr"/>
-      <c r="H1556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1556" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1557">
@@ -51487,10 +51189,8 @@
       </c>
       <c r="F1557" t="inlineStr"/>
       <c r="G1557" t="inlineStr"/>
-      <c r="H1557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1557" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1558">
@@ -51517,10 +51217,8 @@
       </c>
       <c r="F1558" t="inlineStr"/>
       <c r="G1558" t="inlineStr"/>
-      <c r="H1558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1558" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1559">
@@ -51547,10 +51245,8 @@
       </c>
       <c r="F1559" t="inlineStr"/>
       <c r="G1559" t="inlineStr"/>
-      <c r="H1559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1559" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1560">
@@ -51577,10 +51273,8 @@
       </c>
       <c r="F1560" t="inlineStr"/>
       <c r="G1560" t="inlineStr"/>
-      <c r="H1560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1560" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1561">
@@ -51607,10 +51301,8 @@
       </c>
       <c r="F1561" t="inlineStr"/>
       <c r="G1561" t="inlineStr"/>
-      <c r="H1561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1562">
@@ -51633,10 +51325,8 @@
       </c>
       <c r="F1562" t="inlineStr"/>
       <c r="G1562" t="inlineStr"/>
-      <c r="H1562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1563">
@@ -51663,256 +51353,290 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1563" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1564" t="inlineStr"/>
-      <c r="C1564" t="inlineStr"/>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B1564" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C1564" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D1564" t="inlineStr"/>
-      <c r="E1564" t="inlineStr"/>
+      <c r="E1564" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1564" t="inlineStr"/>
-      <c r="G1564" t="inlineStr"/>
-      <c r="H1564" t="inlineStr"/>
+      <c r="G1564" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="H1564" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1565">
       <c r="A1565" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1565" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1565" t="inlineStr"/>
       <c r="E1565" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F1565" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F1565" t="inlineStr">
+        <is>
+          <t>42.1</t>
+        </is>
+      </c>
       <c r="G1565" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="H1565" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1566" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1566" t="inlineStr"/>
       <c r="E1566" t="inlineStr">
         <is>
-          <t>$6.83T</t>
-        </is>
-      </c>
-      <c r="F1566" t="inlineStr"/>
-      <c r="G1566" t="inlineStr"/>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F1566" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="G1566" t="inlineStr">
+        <is>
+          <t>49.5</t>
+        </is>
+      </c>
       <c r="H1566" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr"/>
       <c r="E1567" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="F1567" t="inlineStr"/>
       <c r="G1567" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H1567" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1568" t="inlineStr"/>
       <c r="E1568" t="inlineStr">
         <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1568" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F1568" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
       <c r="G1568" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="H1568" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F1569" t="inlineStr"/>
       <c r="G1569" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="H1569" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1570" t="inlineStr"/>
       <c r="E1570" t="inlineStr">
         <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F1570" t="inlineStr"/>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F1570" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="G1570" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1570" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1571" t="inlineStr"/>
       <c r="E1571" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1571" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F1571" t="inlineStr"/>
       <c r="G1571" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="H1571" t="inlineStr">
@@ -51924,75 +51648,83 @@
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr">
         <is>
-          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1572" t="inlineStr"/>
       <c r="E1572" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1572" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F1572" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="G1572" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H1572" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1573" t="inlineStr"/>
       <c r="E1573" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1573" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F1573" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="G1573" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H1573" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr">
@@ -52002,23 +51734,23 @@
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>Gfk Consumer ConfidenceJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1574" t="inlineStr"/>
       <c r="E1574" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F1574" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="G1574" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="H1574" t="inlineStr">
@@ -52030,135 +51762,127 @@
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1575" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1575" t="inlineStr"/>
       <c r="E1575" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F1575" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="G1575" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1575" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr"/>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F1576" t="inlineStr"/>
       <c r="G1576" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="H1576" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1577" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FlashJAN</t>
+          <t>ECB President Lagarde Speech</t>
         </is>
       </c>
       <c r="D1577" t="inlineStr"/>
-      <c r="E1577" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
+      <c r="E1577" t="inlineStr"/>
       <c r="F1577" t="inlineStr"/>
-      <c r="G1577" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G1577" t="inlineStr"/>
       <c r="H1577" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>URA Property Index QoQ FinalQ4</t>
+          <t>FGV Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr"/>
       <c r="E1578" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F1578" t="inlineStr"/>
       <c r="G1578" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>91.4</t>
         </is>
       </c>
       <c r="H1578" t="inlineStr">
@@ -52170,61 +51894,61 @@
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>BoJ Interest Rate Decision</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr"/>
-      <c r="E1579" t="inlineStr">
-        <is>
-          <t>0.25%</t>
-        </is>
-      </c>
-      <c r="F1579" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1579" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E1579" t="inlineStr"/>
+      <c r="F1579" t="inlineStr"/>
+      <c r="G1579" t="inlineStr"/>
       <c r="H1579" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1580">
       <c r="A1580" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>BoJ Quarterly Outlook Report</t>
+          <t>CBI Distributive TradesJAN</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr"/>
-      <c r="E1580" t="inlineStr"/>
-      <c r="F1580" t="inlineStr"/>
-      <c r="G1580" t="inlineStr"/>
+      <c r="E1580" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="F1580" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="G1580" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
       <c r="H1580" t="inlineStr">
         <is>
           <t>2</t>
@@ -52234,23 +51958,23 @@
     <row r="1581">
       <c r="A1581" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>Foreign Direct Investment YoYQ4</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1581" t="inlineStr"/>
       <c r="E1581" t="inlineStr">
         <is>
-          <t>18.55%</t>
+          <t>$625.87B</t>
         </is>
       </c>
       <c r="F1581" t="inlineStr"/>
@@ -52264,199 +51988,203 @@
     <row r="1582">
       <c r="A1582" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr"/>
       <c r="E1582" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1582" t="inlineStr"/>
       <c r="G1582" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1582" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr"/>
       <c r="E1583" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1583" t="inlineStr"/>
       <c r="G1583" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1583" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr"/>
       <c r="E1584" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1584" t="inlineStr"/>
       <c r="G1584" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1584" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr"/>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1585" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1585" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1585" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1585" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1586" t="inlineStr"/>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1586" t="inlineStr"/>
       <c r="G1586" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1586" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr"/>
       <c r="E1587" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1587" t="inlineStr"/>
       <c r="G1587" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1587" t="inlineStr">
@@ -52468,33 +52196,29 @@
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1588" t="inlineStr"/>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1588" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1588" t="inlineStr"/>
       <c r="G1588" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1588" t="inlineStr">
@@ -52506,33 +52230,29 @@
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1589" t="inlineStr"/>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1589" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1589" t="inlineStr"/>
       <c r="G1589" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1589" t="inlineStr">
@@ -52544,67 +52264,67 @@
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1590" t="inlineStr"/>
       <c r="E1590" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1590" t="inlineStr"/>
       <c r="G1590" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1590" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1591" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1591" t="inlineStr"/>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1591" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1591" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1591" t="inlineStr">
@@ -52616,29 +52336,29 @@
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1592" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1592" t="inlineStr"/>
       <c r="E1592" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1592" t="inlineStr"/>
       <c r="G1592" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1592" t="inlineStr">
@@ -52650,33 +52370,33 @@
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1593" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1593" t="inlineStr"/>
       <c r="E1593" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1593" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1593" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1593" t="inlineStr">
@@ -52688,215 +52408,215 @@
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1594" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1594" t="inlineStr"/>
       <c r="E1594" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1594" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1594" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1595" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1595" t="inlineStr"/>
       <c r="E1595" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1595" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1595" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1595" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1596" t="inlineStr"/>
       <c r="E1596" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1596" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1596" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1596" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1597" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1597" t="inlineStr"/>
       <c r="E1597" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1597" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1597" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1597" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1598" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1598" t="inlineStr"/>
       <c r="E1598" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1598" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1598" t="inlineStr"/>
       <c r="G1598" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1598" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1599" t="inlineStr"/>
       <c r="E1599" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1599" t="inlineStr"/>
       <c r="G1599" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1599" t="inlineStr">
@@ -52908,57 +52628,57 @@
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1600" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1600" t="inlineStr"/>
-      <c r="E1600" t="inlineStr"/>
+      <c r="E1600" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1600" t="inlineStr"/>
       <c r="G1600" t="inlineStr"/>
       <c r="H1600" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1601" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1601" t="inlineStr"/>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1601" t="inlineStr"/>
-      <c r="G1601" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1601" t="inlineStr"/>
       <c r="H1601" t="inlineStr">
         <is>
           <t>3</t>
@@ -52968,87 +52688,71 @@
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1602" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1602" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1602" t="inlineStr"/>
+      <c r="C1602" t="inlineStr"/>
       <c r="D1602" t="inlineStr"/>
       <c r="E1602" t="inlineStr"/>
       <c r="F1602" t="inlineStr"/>
       <c r="G1602" t="inlineStr"/>
-      <c r="H1602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1602" t="inlineStr"/>
     </row>
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1603" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F1603" t="inlineStr"/>
       <c r="G1603" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1603" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1604" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1604" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1604" t="inlineStr"/>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>$625.87B</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1604" t="inlineStr"/>
@@ -53062,31 +52766,27 @@
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1605" t="inlineStr"/>
-      <c r="G1605" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1605" t="inlineStr"/>
       <c r="H1605" t="inlineStr">
         <is>
           <t>3</t>
@@ -53096,31 +52796,27 @@
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr"/>
-      <c r="G1606" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1606" t="inlineStr"/>
       <c r="H1606" t="inlineStr">
         <is>
           <t>3</t>
@@ -53130,31 +52826,23 @@
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
-      <c r="E1607" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1607" t="inlineStr"/>
       <c r="F1607" t="inlineStr"/>
-      <c r="G1607" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1607" t="inlineStr"/>
       <c r="H1607" t="inlineStr">
         <is>
           <t>3</t>
@@ -53164,69 +52852,53 @@
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
-      <c r="E1608" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1608" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1608" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1608" t="inlineStr"/>
+      <c r="F1608" t="inlineStr"/>
+      <c r="G1608" t="inlineStr"/>
       <c r="H1608" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1609" t="inlineStr"/>
-      <c r="G1609" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1609" t="inlineStr"/>
       <c r="H1609" t="inlineStr">
         <is>
           <t>2</t>
@@ -53236,31 +52908,27 @@
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1610" t="inlineStr"/>
-      <c r="G1610" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1610" t="inlineStr"/>
       <c r="H1610" t="inlineStr">
         <is>
           <t>3</t>
@@ -53270,169 +52938,145 @@
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr"/>
-      <c r="G1611" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1611" t="inlineStr"/>
       <c r="H1611" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr"/>
-      <c r="G1612" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1612" t="inlineStr"/>
       <c r="H1612" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1613" t="inlineStr"/>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr"/>
-      <c r="G1613" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1613" t="inlineStr"/>
       <c r="H1613" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:15 PM</t>
         </is>
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr"/>
-      <c r="E1614" t="inlineStr">
-        <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1614" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1614" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+      <c r="E1614" t="inlineStr"/>
+      <c r="F1614" t="inlineStr"/>
+      <c r="G1614" t="inlineStr"/>
       <c r="H1614" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr"/>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>43.5K</t>
         </is>
       </c>
       <c r="F1615" t="inlineStr"/>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1615" t="inlineStr">
@@ -53444,71 +53088,63 @@
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1616" t="inlineStr"/>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1616" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1616" t="inlineStr"/>
       <c r="G1616" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1616" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1617" t="inlineStr"/>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1617" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1617" t="inlineStr"/>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1617" t="inlineStr">
@@ -53520,35 +53156,27 @@
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1618" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
-      <c r="G1618" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1618" t="inlineStr"/>
+      <c r="G1618" t="inlineStr"/>
       <c r="H1618" t="inlineStr">
         <is>
           <t>3</t>
@@ -53558,35 +53186,27 @@
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1619" t="inlineStr"/>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1619" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1619" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1619" t="inlineStr"/>
+      <c r="G1619" t="inlineStr"/>
       <c r="H1619" t="inlineStr">
         <is>
           <t>3</t>
@@ -53596,67 +53216,63 @@
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1620" t="inlineStr"/>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1620" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>$-0.133B</t>
+        </is>
+      </c>
+      <c r="F1620" t="inlineStr"/>
       <c r="G1620" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1620" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1621" t="inlineStr"/>
       <c r="G1621" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1621" t="inlineStr">
@@ -53668,7 +53284,7 @@
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
@@ -53678,51 +53294,55 @@
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1622" t="inlineStr"/>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="H1622" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr"/>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr"/>
-      <c r="G1623" t="inlineStr"/>
+      <c r="G1623" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1623" t="inlineStr">
         <is>
           <t>3</t>
@@ -53732,25 +53352,21 @@
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
-      <c r="E1624" t="inlineStr">
-        <is>
-          <t>580</t>
-        </is>
-      </c>
+      <c r="E1624" t="inlineStr"/>
       <c r="F1624" t="inlineStr"/>
       <c r="G1624" t="inlineStr"/>
       <c r="H1624" t="inlineStr">
@@ -53762,45 +53378,49 @@
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1625" t="inlineStr"/>
-      <c r="C1625" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1625" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1625" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1625" t="inlineStr"/>
       <c r="E1625" t="inlineStr"/>
       <c r="F1625" t="inlineStr"/>
       <c r="G1625" t="inlineStr"/>
-      <c r="H1625" t="inlineStr"/>
+      <c r="H1625" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1626" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1626" t="inlineStr"/>
-      <c r="E1626" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1626" t="inlineStr"/>
       <c r="F1626" t="inlineStr"/>
-      <c r="G1626" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1626" t="inlineStr"/>
       <c r="H1626" t="inlineStr">
         <is>
           <t>3</t>
@@ -53810,107 +53430,103 @@
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1627" t="inlineStr"/>
-      <c r="E1627" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1627" t="inlineStr"/>
       <c r="F1627" t="inlineStr"/>
       <c r="G1627" t="inlineStr"/>
       <c r="H1627" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1628" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1628" t="inlineStr"/>
-      <c r="E1628" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1628" t="inlineStr"/>
       <c r="F1628" t="inlineStr"/>
-      <c r="G1628" t="inlineStr"/>
+      <c r="G1628" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1628" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1629" t="inlineStr"/>
       <c r="E1629" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1629" t="inlineStr"/>
       <c r="G1629" t="inlineStr"/>
       <c r="H1629" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1630" t="inlineStr"/>
@@ -53926,17 +53542,17 @@
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1631" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1631" t="inlineStr"/>
@@ -53952,55 +53568,47 @@
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1632" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1632" t="inlineStr"/>
-      <c r="E1632" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1632" t="inlineStr"/>
       <c r="F1632" t="inlineStr"/>
       <c r="G1632" t="inlineStr"/>
       <c r="H1632" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr"/>
-      <c r="E1633" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1633" t="inlineStr"/>
       <c r="F1633" t="inlineStr"/>
       <c r="G1633" t="inlineStr"/>
       <c r="H1633" t="inlineStr">
@@ -54010,59 +53618,63 @@
       </c>
     </row>
     <row r="1634">
-      <c r="A1634" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1634" t="inlineStr"/>
       <c r="B1634" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1634" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1634" t="inlineStr"/>
       <c r="E1634" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1634" t="inlineStr"/>
-      <c r="G1634" t="inlineStr"/>
+      <c r="G1634" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1634" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1635">
-      <c r="A1635" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1635" t="inlineStr"/>
       <c r="B1635" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1635" t="inlineStr"/>
       <c r="E1635" t="inlineStr">
         <is>
-          <t>85.1</t>
-        </is>
-      </c>
-      <c r="F1635" t="inlineStr"/>
-      <c r="G1635" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1635" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1635" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1635" t="inlineStr">
         <is>
           <t>3</t>
@@ -54072,121 +53684,109 @@
     <row r="1636">
       <c r="A1636" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1636" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1636" t="inlineStr">
-        <is>
-          <t>Ifo ExpectationsJAN</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1636" t="inlineStr"/>
+      <c r="C1636" t="inlineStr"/>
       <c r="D1636" t="inlineStr"/>
-      <c r="E1636" t="inlineStr">
-        <is>
-          <t>84.4</t>
-        </is>
-      </c>
+      <c r="E1636" t="inlineStr"/>
       <c r="F1636" t="inlineStr"/>
       <c r="G1636" t="inlineStr"/>
-      <c r="H1636" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1636" t="inlineStr"/>
     </row>
     <row r="1637">
       <c r="A1637" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1637" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1637" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1637" t="inlineStr"/>
-      <c r="E1637" t="inlineStr"/>
+      <c r="E1637" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1637" t="inlineStr"/>
-      <c r="G1637" t="inlineStr"/>
+      <c r="G1637" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1637" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1638">
       <c r="A1638" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1638" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1638" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1638" t="inlineStr"/>
       <c r="E1638" t="inlineStr">
         <is>
-          <t>43.5K</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1638" t="inlineStr"/>
       <c r="G1638" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="H1638" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1639" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1639" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1639" t="inlineStr"/>
       <c r="E1639" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1639" t="inlineStr"/>
-      <c r="G1639" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1639" t="inlineStr"/>
       <c r="H1639" t="inlineStr">
         <is>
           <t>3</t>
@@ -54196,29 +53796,29 @@
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1640" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1640" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1640" t="inlineStr"/>
       <c r="E1640" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1640" t="inlineStr"/>
       <c r="G1640" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1640" t="inlineStr">
@@ -54230,27 +53830,31 @@
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1641" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1641" t="inlineStr"/>
       <c r="E1641" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1641" t="inlineStr"/>
-      <c r="G1641" t="inlineStr"/>
+      <c r="G1641" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1641" t="inlineStr">
         <is>
           <t>3</t>
@@ -54260,27 +53864,31 @@
     <row r="1642">
       <c r="A1642" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1642" t="inlineStr"/>
       <c r="E1642" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1642" t="inlineStr"/>
-      <c r="G1642" t="inlineStr"/>
+      <c r="G1642" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1642" t="inlineStr">
         <is>
           <t>3</t>
@@ -54290,97 +53898,93 @@
     <row r="1643">
       <c r="A1643" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1643" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1643" t="inlineStr"/>
       <c r="E1643" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1643" t="inlineStr"/>
       <c r="G1643" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1643" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1644">
       <c r="A1644" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1644" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1644" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1644" t="inlineStr"/>
       <c r="E1644" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1644" t="inlineStr"/>
-      <c r="G1644" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1644" t="inlineStr"/>
       <c r="H1644" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1645">
       <c r="A1645" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1645" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1645" t="inlineStr"/>
       <c r="E1645" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1645" t="inlineStr"/>
       <c r="G1645" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1645" t="inlineStr">
@@ -54392,31 +53996,27 @@
     <row r="1646">
       <c r="A1646" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1646" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1646" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1646" t="inlineStr"/>
       <c r="E1646" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1646" t="inlineStr"/>
-      <c r="G1646" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1646" t="inlineStr"/>
       <c r="H1646" t="inlineStr">
         <is>
           <t>3</t>
@@ -54426,17 +54026,17 @@
     <row r="1647">
       <c r="A1647" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1647" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1647" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1647" t="inlineStr"/>
@@ -54452,17 +54052,17 @@
     <row r="1648">
       <c r="A1648" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1648" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1648" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1648" t="inlineStr"/>
@@ -54478,17 +54078,17 @@
     <row r="1649">
       <c r="A1649" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1649" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1649" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1649" t="inlineStr"/>
@@ -54504,33 +54104,37 @@
     <row r="1650">
       <c r="A1650" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1650" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1650" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1650" t="inlineStr"/>
-      <c r="E1650" t="inlineStr"/>
+      <c r="E1650" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1650" t="inlineStr"/>
       <c r="G1650" t="inlineStr"/>
       <c r="H1650" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1651">
       <c r="A1651" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1651" t="inlineStr">
@@ -54540,27 +54144,31 @@
       </c>
       <c r="C1651" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1651" t="inlineStr"/>
-      <c r="E1651" t="inlineStr"/>
+      <c r="E1651" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1651" t="inlineStr"/>
       <c r="G1651" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1651" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1652">
       <c r="A1652" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1652" t="inlineStr">
@@ -54570,17 +54178,21 @@
       </c>
       <c r="C1652" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1652" t="inlineStr"/>
       <c r="E1652" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1652" t="inlineStr"/>
-      <c r="G1652" t="inlineStr"/>
+      <c r="G1652" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1652" t="inlineStr">
         <is>
           <t>2</t>
@@ -54590,7 +54202,7 @@
     <row r="1653">
       <c r="A1653" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1653" t="inlineStr">
@@ -54600,13 +54212,21 @@
       </c>
       <c r="C1653" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1653" t="inlineStr"/>
-      <c r="E1653" t="inlineStr"/>
+      <c r="E1653" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1653" t="inlineStr"/>
-      <c r="G1653" t="inlineStr"/>
+      <c r="G1653" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1653" t="inlineStr">
         <is>
           <t>3</t>
@@ -54616,7 +54236,7 @@
     <row r="1654">
       <c r="A1654" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1654" t="inlineStr">
@@ -54626,11 +54246,15 @@
       </c>
       <c r="C1654" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1654" t="inlineStr"/>
-      <c r="E1654" t="inlineStr"/>
+      <c r="E1654" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1654" t="inlineStr"/>
       <c r="G1654" t="inlineStr"/>
       <c r="H1654" t="inlineStr">
@@ -54642,7 +54266,7 @@
     <row r="1655">
       <c r="A1655" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B1655" t="inlineStr">
@@ -54652,7 +54276,7 @@
       </c>
       <c r="C1655" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1655" t="inlineStr"/>
@@ -54668,7 +54292,7 @@
     <row r="1656">
       <c r="A1656" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1656" t="inlineStr">
@@ -54678,21 +54302,29 @@
       </c>
       <c r="C1656" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1656" t="inlineStr"/>
-      <c r="E1656" t="inlineStr"/>
+      <c r="E1656" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1656" t="inlineStr"/>
       <c r="G1656" t="inlineStr"/>
       <c r="H1656" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1657">
-      <c r="A1657" t="inlineStr"/>
+      <c r="A1657" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1657" t="inlineStr">
         <is>
           <t>US</t>
@@ -54700,21 +54332,17 @@
       </c>
       <c r="C1657" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1657" t="inlineStr"/>
       <c r="E1657" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1657" t="inlineStr"/>
-      <c r="G1657" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1657" t="inlineStr"/>
       <c r="H1657" t="inlineStr">
         <is>
           <t>3</t>
@@ -54722,7 +54350,11 @@
       </c>
     </row>
     <row r="1658">
-      <c r="A1658" t="inlineStr"/>
+      <c r="A1658" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1658" t="inlineStr">
         <is>
           <t>US</t>
@@ -54730,25 +54362,13 @@
       </c>
       <c r="C1658" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1658" t="inlineStr"/>
-      <c r="E1658" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1658" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1658" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="E1658" t="inlineStr"/>
+      <c r="F1658" t="inlineStr"/>
+      <c r="G1658" t="inlineStr"/>
       <c r="H1658" t="inlineStr">
         <is>
           <t>3</t>
@@ -54758,107 +54378,107 @@
     <row r="1659">
       <c r="A1659" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1659" t="inlineStr"/>
-      <c r="C1659" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1659" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1659" t="inlineStr">
+        <is>
+          <t>House Price Index YoYNOV</t>
+        </is>
+      </c>
       <c r="D1659" t="inlineStr"/>
-      <c r="E1659" t="inlineStr"/>
+      <c r="E1659" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="F1659" t="inlineStr"/>
       <c r="G1659" t="inlineStr"/>
-      <c r="H1659" t="inlineStr"/>
+      <c r="H1659" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1660">
       <c r="A1660" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1660" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1660" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1660" t="inlineStr"/>
       <c r="E1660" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1660" t="inlineStr"/>
-      <c r="G1660" t="inlineStr">
+      <c r="G1660" t="inlineStr"/>
+      <c r="H1660" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1660" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1661">
       <c r="A1661" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1661" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1661" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>CB Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1661" t="inlineStr"/>
-      <c r="E1661" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1661" t="inlineStr"/>
       <c r="F1661" t="inlineStr"/>
-      <c r="G1661" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1661" t="inlineStr"/>
       <c r="H1661" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1662">
       <c r="A1662" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1662" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1662" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1662" t="inlineStr"/>
-      <c r="E1662" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1662" t="inlineStr"/>
       <c r="F1662" t="inlineStr"/>
       <c r="G1662" t="inlineStr"/>
       <c r="H1662" t="inlineStr">
@@ -54870,29 +54490,29 @@
     <row r="1663">
       <c r="A1663" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1663" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1663" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1663" t="inlineStr"/>
       <c r="E1663" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1663" t="inlineStr"/>
       <c r="G1663" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1663" t="inlineStr">
@@ -54904,29 +54524,29 @@
     <row r="1664">
       <c r="A1664" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1664" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1664" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1664" t="inlineStr"/>
       <c r="E1664" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1664" t="inlineStr"/>
       <c r="G1664" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1664" t="inlineStr">
@@ -54938,31 +54558,27 @@
     <row r="1665">
       <c r="A1665" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1665" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1665" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1665" t="inlineStr"/>
       <c r="E1665" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1665" t="inlineStr"/>
-      <c r="G1665" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1665" t="inlineStr"/>
       <c r="H1665" t="inlineStr">
         <is>
           <t>3</t>
@@ -54972,31 +54588,27 @@
     <row r="1666">
       <c r="A1666" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1666" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1666" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1666" t="inlineStr"/>
       <c r="E1666" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1666" t="inlineStr"/>
-      <c r="G1666" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1666" t="inlineStr"/>
       <c r="H1666" t="inlineStr">
         <is>
           <t>3</t>
@@ -55006,87 +54618,79 @@
     <row r="1667">
       <c r="A1667" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1667" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1667" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1667" t="inlineStr"/>
-      <c r="E1667" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1667" t="inlineStr"/>
       <c r="F1667" t="inlineStr"/>
       <c r="G1667" t="inlineStr"/>
       <c r="H1667" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1668">
       <c r="A1668" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1668" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1668" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1668" t="inlineStr"/>
       <c r="E1668" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1668" t="inlineStr"/>
-      <c r="G1668" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1668" t="inlineStr"/>
       <c r="H1668" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1669">
       <c r="A1669" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1669" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1669" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1669" t="inlineStr"/>
       <c r="E1669" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1669" t="inlineStr"/>
@@ -55100,43 +54704,31 @@
     <row r="1670">
       <c r="A1670" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1670" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1670" t="inlineStr">
-        <is>
-          <t>BTP Short Term Auction</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1670" t="inlineStr"/>
+      <c r="C1670" t="inlineStr"/>
       <c r="D1670" t="inlineStr"/>
       <c r="E1670" t="inlineStr"/>
       <c r="F1670" t="inlineStr"/>
       <c r="G1670" t="inlineStr"/>
-      <c r="H1670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1670" t="inlineStr"/>
     </row>
     <row r="1671">
       <c r="A1671" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1671" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1671" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1671" t="inlineStr"/>
@@ -55145,126 +54737,138 @@
       <c r="G1671" t="inlineStr"/>
       <c r="H1671" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1672">
       <c r="A1672" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1672" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1672" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1672" t="inlineStr"/>
-      <c r="E1672" t="inlineStr"/>
+      <c r="E1672" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1672" t="inlineStr"/>
-      <c r="G1672" t="inlineStr"/>
+      <c r="G1672" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1672" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1673">
       <c r="A1673" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1673" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1673" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1673" t="inlineStr"/>
       <c r="E1673" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1673" t="inlineStr"/>
-      <c r="G1673" t="inlineStr"/>
+      <c r="G1673" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1673" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1674">
       <c r="A1674" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1674" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1674" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1674" t="inlineStr"/>
       <c r="E1674" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1674" t="inlineStr"/>
       <c r="G1674" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H1674" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1675">
       <c r="A1675" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1675" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1675" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1675" t="inlineStr"/>
       <c r="E1675" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1675" t="inlineStr"/>
       <c r="G1675" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1675" t="inlineStr">
@@ -55276,61 +54880,61 @@
     <row r="1676">
       <c r="A1676" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1676" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1676" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1676" t="inlineStr"/>
       <c r="E1676" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1676" t="inlineStr"/>
       <c r="G1676" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1676" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1677">
       <c r="A1677" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1677" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1677" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1677" t="inlineStr"/>
-      <c r="E1677" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1677" t="inlineStr"/>
       <c r="F1677" t="inlineStr"/>
-      <c r="G1677" t="inlineStr"/>
+      <c r="G1677" t="inlineStr">
+        <is>
+          <t>139.1</t>
+        </is>
+      </c>
       <c r="H1677" t="inlineStr">
         <is>
           <t>3</t>
@@ -55340,21 +54944,25 @@
     <row r="1678">
       <c r="A1678" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1678" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1678" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1678" t="inlineStr"/>
-      <c r="E1678" t="inlineStr"/>
+      <c r="E1678" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1678" t="inlineStr"/>
       <c r="G1678" t="inlineStr"/>
       <c r="H1678" t="inlineStr">
@@ -55366,53 +54974,53 @@
     <row r="1679">
       <c r="A1679" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1679" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1679" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1679" t="inlineStr"/>
       <c r="E1679" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1679" t="inlineStr"/>
       <c r="G1679" t="inlineStr"/>
       <c r="H1679" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1680">
       <c r="A1680" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B1680" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1680" t="inlineStr">
         <is>
-          <t>House Price IndexNOV</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1680" t="inlineStr"/>
       <c r="E1680" t="inlineStr">
         <is>
-          <t>432.3</t>
+          <t>0.595%</t>
         </is>
       </c>
       <c r="F1680" t="inlineStr"/>
@@ -55426,710 +55034,58 @@
     <row r="1681">
       <c r="A1681" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1681" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1681" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1681" t="inlineStr"/>
-      <c r="E1681" t="inlineStr"/>
+      <c r="E1681" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
       <c r="F1681" t="inlineStr"/>
       <c r="G1681" t="inlineStr"/>
       <c r="H1681" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1682">
       <c r="A1682" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1682" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1682" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>GfK Consumer ConfidenceFEB</t>
         </is>
       </c>
       <c r="D1682" t="inlineStr"/>
       <c r="E1682" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-21.3</t>
         </is>
       </c>
       <c r="F1682" t="inlineStr"/>
       <c r="G1682" t="inlineStr"/>
       <c r="H1682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1683">
-      <c r="A1683" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1683" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1683" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1683" t="inlineStr"/>
-      <c r="E1683" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1683" t="inlineStr"/>
-      <c r="G1683" t="inlineStr"/>
-      <c r="H1683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1684">
-      <c r="A1684" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1684" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1684" t="inlineStr">
-        <is>
-          <t>CB Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1684" t="inlineStr"/>
-      <c r="E1684" t="inlineStr"/>
-      <c r="F1684" t="inlineStr"/>
-      <c r="G1684" t="inlineStr"/>
-      <c r="H1684" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1685">
-      <c r="A1685" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1685" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1685" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1685" t="inlineStr"/>
-      <c r="E1685" t="inlineStr"/>
-      <c r="F1685" t="inlineStr"/>
-      <c r="G1685" t="inlineStr"/>
-      <c r="H1685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1686">
-      <c r="A1686" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1686" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1686" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1686" t="inlineStr"/>
-      <c r="E1686" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F1686" t="inlineStr"/>
-      <c r="G1686" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="H1686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1687">
-      <c r="A1687" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1687" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1687" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1687" t="inlineStr"/>
-      <c r="E1687" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="F1687" t="inlineStr"/>
-      <c r="G1687" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H1687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1688">
-      <c r="A1688" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1688" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1688" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1688" t="inlineStr"/>
-      <c r="E1688" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
-      </c>
-      <c r="F1688" t="inlineStr"/>
-      <c r="G1688" t="inlineStr"/>
-      <c r="H1688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1689">
-      <c r="A1689" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1689" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1689" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1689" t="inlineStr"/>
-      <c r="E1689" t="inlineStr">
-        <is>
-          <t>13.8</t>
-        </is>
-      </c>
-      <c r="F1689" t="inlineStr"/>
-      <c r="G1689" t="inlineStr"/>
-      <c r="H1689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1690">
-      <c r="A1690" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1690" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1690" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="D1690" t="inlineStr"/>
-      <c r="E1690" t="inlineStr"/>
-      <c r="F1690" t="inlineStr"/>
-      <c r="G1690" t="inlineStr"/>
-      <c r="H1690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1691">
-      <c r="A1691" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1691" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1691" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="D1691" t="inlineStr"/>
-      <c r="E1691" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
-      <c r="F1691" t="inlineStr"/>
-      <c r="G1691" t="inlineStr"/>
-      <c r="H1691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1692">
-      <c r="A1692" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1692" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1692" t="inlineStr">
-        <is>
-          <t>Money SupplyDEC</t>
-        </is>
-      </c>
-      <c r="D1692" t="inlineStr"/>
-      <c r="E1692" t="inlineStr">
-        <is>
-          <t>$21.45T</t>
-        </is>
-      </c>
-      <c r="F1692" t="inlineStr"/>
-      <c r="G1692" t="inlineStr"/>
-      <c r="H1692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1693">
-      <c r="A1693" t="inlineStr">
-        <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1693" t="inlineStr"/>
-      <c r="C1693" t="inlineStr"/>
-      <c r="D1693" t="inlineStr"/>
-      <c r="E1693" t="inlineStr"/>
-      <c r="F1693" t="inlineStr"/>
-      <c r="G1693" t="inlineStr"/>
-      <c r="H1693" t="inlineStr"/>
-    </row>
-    <row r="1694">
-      <c r="A1694" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1694" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1694" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1694" t="inlineStr"/>
-      <c r="E1694" t="inlineStr"/>
-      <c r="F1694" t="inlineStr"/>
-      <c r="G1694" t="inlineStr"/>
-      <c r="H1694" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1695">
-      <c r="A1695" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1695" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1695" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1695" t="inlineStr"/>
-      <c r="E1695" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1695" t="inlineStr"/>
-      <c r="G1695" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="H1695" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1696">
-      <c r="A1696" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1696" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1696" t="inlineStr">
-        <is>
-          <t>Inflation Rate QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1696" t="inlineStr"/>
-      <c r="E1696" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1696" t="inlineStr"/>
-      <c r="G1696" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1696" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1697">
-      <c r="A1697" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1697" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1697" t="inlineStr">
-        <is>
-          <t>Monthly CPI IndicatorDEC</t>
-        </is>
-      </c>
-      <c r="D1697" t="inlineStr"/>
-      <c r="E1697" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="F1697" t="inlineStr"/>
-      <c r="G1697" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H1697" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1698">
-      <c r="A1698" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1698" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1698" t="inlineStr">
-        <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1698" t="inlineStr"/>
-      <c r="E1698" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1698" t="inlineStr"/>
-      <c r="G1698" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H1698" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1699">
-      <c r="A1699" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1699" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1699" t="inlineStr">
-        <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1699" t="inlineStr"/>
-      <c r="E1699" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="F1699" t="inlineStr"/>
-      <c r="G1699" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H1699" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1700">
-      <c r="A1700" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1700" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1700" t="inlineStr">
-        <is>
-          <t>CPIQ4</t>
-        </is>
-      </c>
-      <c r="D1700" t="inlineStr"/>
-      <c r="E1700" t="inlineStr"/>
-      <c r="F1700" t="inlineStr"/>
-      <c r="G1700" t="inlineStr">
-        <is>
-          <t>139.1</t>
-        </is>
-      </c>
-      <c r="H1700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1701">
-      <c r="A1701" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1701" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1701" t="inlineStr">
-        <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1701" t="inlineStr"/>
-      <c r="E1701" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F1701" t="inlineStr"/>
-      <c r="G1701" t="inlineStr"/>
-      <c r="H1701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1702">
-      <c r="A1702" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1702" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1702" t="inlineStr">
-        <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1702" t="inlineStr"/>
-      <c r="E1702" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F1702" t="inlineStr"/>
-      <c r="G1702" t="inlineStr"/>
-      <c r="H1702" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1703">
-      <c r="A1703" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
-      <c r="B1703" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1703" t="inlineStr">
-        <is>
-          <t>5-Year Climate Transition JGB Auction</t>
-        </is>
-      </c>
-      <c r="D1703" t="inlineStr"/>
-      <c r="E1703" t="inlineStr">
-        <is>
-          <t>0.595%</t>
-        </is>
-      </c>
-      <c r="F1703" t="inlineStr"/>
-      <c r="G1703" t="inlineStr"/>
-      <c r="H1703" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1704">
-      <c r="A1704" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1704" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1704" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1704" t="inlineStr"/>
-      <c r="E1704" t="inlineStr">
-        <is>
-          <t>36.2</t>
-        </is>
-      </c>
-      <c r="F1704" t="inlineStr"/>
-      <c r="G1704" t="inlineStr"/>
-      <c r="H1704" t="inlineStr">
         <is>
           <t>1</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1682"/>
+  <dimension ref="A1:H1661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51385,10 +51385,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1564" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1565">
@@ -51423,10 +51421,8 @@
           <t>42.2</t>
         </is>
       </c>
-      <c r="H1565" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1565" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1566">
@@ -51461,10 +51457,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H1566" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1566" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1567">
@@ -51495,10 +51489,8 @@
           <t>48</t>
         </is>
       </c>
-      <c r="H1567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1567" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1568">
@@ -51533,10 +51525,8 @@
           <t>42.3</t>
         </is>
       </c>
-      <c r="H1568" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1568" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1569">
@@ -51567,10 +51557,8 @@
           <t>47.8</t>
         </is>
       </c>
-      <c r="H1569" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1569" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1570">
@@ -51605,10 +51593,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1570" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1570" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1571">
@@ -51639,10 +51625,8 @@
           <t>49.4</t>
         </is>
       </c>
-      <c r="H1571" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1571" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1572">
@@ -51677,10 +51661,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1572" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1572" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1573">
@@ -51715,10 +51697,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H1573" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1573" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1574">
@@ -51753,10 +51733,8 @@
           <t>47.2</t>
         </is>
       </c>
-      <c r="H1574" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1574" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1575">
@@ -51791,10 +51769,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1575" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1575" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1576">
@@ -51825,10 +51801,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H1576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1577">
@@ -51851,10 +51825,8 @@
       <c r="E1577" t="inlineStr"/>
       <c r="F1577" t="inlineStr"/>
       <c r="G1577" t="inlineStr"/>
-      <c r="H1577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1577" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1578">
@@ -51885,10 +51857,8 @@
           <t>91.4</t>
         </is>
       </c>
-      <c r="H1578" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1578" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1579">
@@ -51911,10 +51881,8 @@
       <c r="E1579" t="inlineStr"/>
       <c r="F1579" t="inlineStr"/>
       <c r="G1579" t="inlineStr"/>
-      <c r="H1579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1579" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1580">
@@ -51949,10 +51917,8 @@
           <t>-11</t>
         </is>
       </c>
-      <c r="H1580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1580" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1581">
@@ -51979,10 +51945,8 @@
       </c>
       <c r="F1581" t="inlineStr"/>
       <c r="G1581" t="inlineStr"/>
-      <c r="H1581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1582">
@@ -52013,10 +51977,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H1582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1583">
@@ -52047,10 +52009,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1583" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1584">
@@ -52081,10 +52041,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1584" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1585">
@@ -52119,10 +52077,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1585" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1585" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1586">
@@ -52153,10 +52109,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1586" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1586" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1587">
@@ -52187,10 +52141,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1587" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1588">
@@ -52221,10 +52173,8 @@
           <t>55.3</t>
         </is>
       </c>
-      <c r="H1588" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1588" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1589">
@@ -52255,10 +52205,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H1589" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1589" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1590">
@@ -52289,10 +52237,8 @@
           <t>56.6</t>
         </is>
       </c>
-      <c r="H1590" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1590" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1591">
@@ -52327,10 +52273,8 @@
           <t>4.1M</t>
         </is>
       </c>
-      <c r="H1591" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1591" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1592">
@@ -52361,10 +52305,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1592" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1592" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1593">
@@ -52399,10 +52341,8 @@
           <t>73.2</t>
         </is>
       </c>
-      <c r="H1593" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1593" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1594">
@@ -52437,10 +52377,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1595">
@@ -52475,10 +52413,8 @@
           <t>70.2</t>
         </is>
       </c>
-      <c r="H1595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1595" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1596">
@@ -52513,10 +52449,8 @@
           <t>77.9</t>
         </is>
       </c>
-      <c r="H1596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1596" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1597">
@@ -52551,10 +52485,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1597" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1598">
@@ -52585,10 +52517,8 @@
           <t>-7</t>
         </is>
       </c>
-      <c r="H1598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1598" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1599">
@@ -52619,10 +52549,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H1599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1600">
@@ -52649,10 +52577,8 @@
       </c>
       <c r="F1600" t="inlineStr"/>
       <c r="G1600" t="inlineStr"/>
-      <c r="H1600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1601">
@@ -52679,54 +52605,56 @@
       </c>
       <c r="F1601" t="inlineStr"/>
       <c r="G1601" t="inlineStr"/>
-      <c r="H1601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1602" t="inlineStr"/>
-      <c r="C1602" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1602" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1602" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1602" t="inlineStr"/>
       <c r="E1602" t="inlineStr"/>
       <c r="F1602" t="inlineStr"/>
       <c r="G1602" t="inlineStr"/>
-      <c r="H1602" t="inlineStr"/>
+      <c r="H1602" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
-      <c r="E1603" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1603" t="inlineStr"/>
       <c r="F1603" t="inlineStr"/>
-      <c r="G1603" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1603" t="inlineStr"/>
       <c r="H1603" t="inlineStr">
         <is>
           <t>3</t>
@@ -52736,107 +52664,103 @@
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1604" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1604" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1604" t="inlineStr"/>
-      <c r="E1604" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1604" t="inlineStr"/>
       <c r="F1604" t="inlineStr"/>
       <c r="G1604" t="inlineStr"/>
       <c r="H1604" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
-      <c r="E1605" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1605" t="inlineStr"/>
       <c r="F1605" t="inlineStr"/>
-      <c r="G1605" t="inlineStr"/>
+      <c r="G1605" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1605" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr"/>
       <c r="G1606" t="inlineStr"/>
       <c r="H1606" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
@@ -52852,17 +52776,17 @@
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
@@ -52878,55 +52802,47 @@
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
-      <c r="E1609" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1609" t="inlineStr"/>
       <c r="F1609" t="inlineStr"/>
       <c r="G1609" t="inlineStr"/>
       <c r="H1609" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
-      <c r="E1610" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1610" t="inlineStr"/>
       <c r="F1610" t="inlineStr"/>
       <c r="G1610" t="inlineStr"/>
       <c r="H1610" t="inlineStr">
@@ -52936,59 +52852,63 @@
       </c>
     </row>
     <row r="1611">
-      <c r="A1611" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1611" t="inlineStr"/>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr"/>
-      <c r="G1611" t="inlineStr"/>
+      <c r="G1611" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1611" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1612">
-      <c r="A1612" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1612" t="inlineStr"/>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>85.1</t>
-        </is>
-      </c>
-      <c r="F1612" t="inlineStr"/>
-      <c r="G1612" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1612" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1612" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1612" t="inlineStr">
         <is>
           <t>3</t>
@@ -52998,121 +52918,109 @@
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1613" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1613" t="inlineStr">
-        <is>
-          <t>Ifo ExpectationsJAN</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1613" t="inlineStr"/>
+      <c r="C1613" t="inlineStr"/>
       <c r="D1613" t="inlineStr"/>
-      <c r="E1613" t="inlineStr">
-        <is>
-          <t>84.4</t>
-        </is>
-      </c>
+      <c r="E1613" t="inlineStr"/>
       <c r="F1613" t="inlineStr"/>
       <c r="G1613" t="inlineStr"/>
-      <c r="H1613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1613" t="inlineStr"/>
     </row>
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr"/>
-      <c r="E1614" t="inlineStr"/>
+      <c r="E1614" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1614" t="inlineStr"/>
-      <c r="G1614" t="inlineStr"/>
+      <c r="G1614" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1614" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr"/>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>43.5K</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1615" t="inlineStr"/>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="H1615" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1616" t="inlineStr"/>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1616" t="inlineStr"/>
-      <c r="G1616" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1616" t="inlineStr"/>
       <c r="H1616" t="inlineStr">
         <is>
           <t>3</t>
@@ -53122,29 +53030,29 @@
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1617" t="inlineStr"/>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1617" t="inlineStr"/>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1617" t="inlineStr">
@@ -53156,27 +53064,31 @@
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1618" t="inlineStr"/>
-      <c r="G1618" t="inlineStr"/>
+      <c r="G1618" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1618" t="inlineStr">
         <is>
           <t>3</t>
@@ -53186,27 +53098,31 @@
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1619" t="inlineStr"/>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1619" t="inlineStr"/>
-      <c r="G1619" t="inlineStr"/>
+      <c r="G1619" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1619" t="inlineStr">
         <is>
           <t>3</t>
@@ -53216,97 +53132,93 @@
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1620" t="inlineStr"/>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1620" t="inlineStr"/>
       <c r="G1620" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1620" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1621" t="inlineStr"/>
-      <c r="G1621" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1621" t="inlineStr"/>
       <c r="H1621" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1622" t="inlineStr"/>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1622" t="inlineStr">
@@ -53318,31 +53230,27 @@
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr"/>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr"/>
-      <c r="G1623" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1623" t="inlineStr"/>
       <c r="H1623" t="inlineStr">
         <is>
           <t>3</t>
@@ -53352,17 +53260,17 @@
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
@@ -53378,17 +53286,17 @@
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1625" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1625" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1625" t="inlineStr"/>
@@ -53404,17 +53312,17 @@
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1626" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1626" t="inlineStr"/>
@@ -53430,33 +53338,37 @@
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1627" t="inlineStr"/>
-      <c r="E1627" t="inlineStr"/>
+      <c r="E1627" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1627" t="inlineStr"/>
       <c r="G1627" t="inlineStr"/>
       <c r="H1627" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
@@ -53466,27 +53378,31 @@
       </c>
       <c r="C1628" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1628" t="inlineStr"/>
-      <c r="E1628" t="inlineStr"/>
+      <c r="E1628" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1628" t="inlineStr"/>
       <c r="G1628" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1628" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
@@ -53496,17 +53412,21 @@
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1629" t="inlineStr"/>
       <c r="E1629" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1629" t="inlineStr"/>
-      <c r="G1629" t="inlineStr"/>
+      <c r="G1629" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1629" t="inlineStr">
         <is>
           <t>2</t>
@@ -53516,7 +53436,7 @@
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr">
@@ -53526,13 +53446,21 @@
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1630" t="inlineStr"/>
-      <c r="E1630" t="inlineStr"/>
+      <c r="E1630" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1630" t="inlineStr"/>
-      <c r="G1630" t="inlineStr"/>
+      <c r="G1630" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1630" t="inlineStr">
         <is>
           <t>3</t>
@@ -53542,7 +53470,7 @@
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1631" t="inlineStr">
@@ -53552,11 +53480,15 @@
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1631" t="inlineStr"/>
-      <c r="E1631" t="inlineStr"/>
+      <c r="E1631" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1631" t="inlineStr"/>
       <c r="G1631" t="inlineStr"/>
       <c r="H1631" t="inlineStr">
@@ -53568,7 +53500,7 @@
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B1632" t="inlineStr">
@@ -53578,7 +53510,7 @@
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1632" t="inlineStr"/>
@@ -53594,7 +53526,7 @@
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
@@ -53604,21 +53536,29 @@
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr"/>
-      <c r="E1633" t="inlineStr"/>
+      <c r="E1633" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1633" t="inlineStr"/>
       <c r="G1633" t="inlineStr"/>
       <c r="H1633" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1634">
-      <c r="A1634" t="inlineStr"/>
+      <c r="A1634" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1634" t="inlineStr">
         <is>
           <t>US</t>
@@ -53626,21 +53566,17 @@
       </c>
       <c r="C1634" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1634" t="inlineStr"/>
       <c r="E1634" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1634" t="inlineStr"/>
-      <c r="G1634" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1634" t="inlineStr"/>
       <c r="H1634" t="inlineStr">
         <is>
           <t>3</t>
@@ -53648,7 +53584,11 @@
       </c>
     </row>
     <row r="1635">
-      <c r="A1635" t="inlineStr"/>
+      <c r="A1635" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1635" t="inlineStr">
         <is>
           <t>US</t>
@@ -53656,25 +53596,13 @@
       </c>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1635" t="inlineStr"/>
-      <c r="E1635" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1635" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1635" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="E1635" t="inlineStr"/>
+      <c r="F1635" t="inlineStr"/>
+      <c r="G1635" t="inlineStr"/>
       <c r="H1635" t="inlineStr">
         <is>
           <t>3</t>
@@ -53684,107 +53612,107 @@
     <row r="1636">
       <c r="A1636" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1636" t="inlineStr"/>
-      <c r="C1636" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1636" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1636" t="inlineStr">
+        <is>
+          <t>House Price Index YoYNOV</t>
+        </is>
+      </c>
       <c r="D1636" t="inlineStr"/>
-      <c r="E1636" t="inlineStr"/>
+      <c r="E1636" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="F1636" t="inlineStr"/>
       <c r="G1636" t="inlineStr"/>
-      <c r="H1636" t="inlineStr"/>
+      <c r="H1636" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1637">
       <c r="A1637" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1637" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1637" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1637" t="inlineStr"/>
       <c r="E1637" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1637" t="inlineStr"/>
-      <c r="G1637" t="inlineStr">
+      <c r="G1637" t="inlineStr"/>
+      <c r="H1637" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1637" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1638">
       <c r="A1638" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1638" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1638" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>CB Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1638" t="inlineStr"/>
-      <c r="E1638" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1638" t="inlineStr"/>
       <c r="F1638" t="inlineStr"/>
-      <c r="G1638" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1638" t="inlineStr"/>
       <c r="H1638" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1639" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1639" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1639" t="inlineStr"/>
-      <c r="E1639" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1639" t="inlineStr"/>
       <c r="F1639" t="inlineStr"/>
       <c r="G1639" t="inlineStr"/>
       <c r="H1639" t="inlineStr">
@@ -53796,29 +53724,29 @@
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1640" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1640" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1640" t="inlineStr"/>
       <c r="E1640" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1640" t="inlineStr"/>
       <c r="G1640" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1640" t="inlineStr">
@@ -53830,29 +53758,29 @@
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1641" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1641" t="inlineStr"/>
       <c r="E1641" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1641" t="inlineStr"/>
       <c r="G1641" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1641" t="inlineStr">
@@ -53864,31 +53792,27 @@
     <row r="1642">
       <c r="A1642" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1642" t="inlineStr"/>
       <c r="E1642" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1642" t="inlineStr"/>
-      <c r="G1642" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1642" t="inlineStr"/>
       <c r="H1642" t="inlineStr">
         <is>
           <t>3</t>
@@ -53898,31 +53822,27 @@
     <row r="1643">
       <c r="A1643" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1643" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1643" t="inlineStr"/>
       <c r="E1643" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1643" t="inlineStr"/>
-      <c r="G1643" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1643" t="inlineStr"/>
       <c r="H1643" t="inlineStr">
         <is>
           <t>3</t>
@@ -53932,87 +53852,79 @@
     <row r="1644">
       <c r="A1644" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1644" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1644" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1644" t="inlineStr"/>
-      <c r="E1644" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1644" t="inlineStr"/>
       <c r="F1644" t="inlineStr"/>
       <c r="G1644" t="inlineStr"/>
       <c r="H1644" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1645">
       <c r="A1645" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1645" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1645" t="inlineStr"/>
       <c r="E1645" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1645" t="inlineStr"/>
-      <c r="G1645" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1645" t="inlineStr"/>
       <c r="H1645" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1646">
       <c r="A1646" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1646" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1646" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1646" t="inlineStr"/>
       <c r="E1646" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1646" t="inlineStr"/>
@@ -54026,43 +53938,31 @@
     <row r="1647">
       <c r="A1647" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1647" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1647" t="inlineStr">
-        <is>
-          <t>BTP Short Term Auction</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1647" t="inlineStr"/>
+      <c r="C1647" t="inlineStr"/>
       <c r="D1647" t="inlineStr"/>
       <c r="E1647" t="inlineStr"/>
       <c r="F1647" t="inlineStr"/>
       <c r="G1647" t="inlineStr"/>
-      <c r="H1647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1647" t="inlineStr"/>
     </row>
     <row r="1648">
       <c r="A1648" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1648" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1648" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1648" t="inlineStr"/>
@@ -54071,126 +53971,138 @@
       <c r="G1648" t="inlineStr"/>
       <c r="H1648" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1649">
       <c r="A1649" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1649" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1649" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1649" t="inlineStr"/>
-      <c r="E1649" t="inlineStr"/>
+      <c r="E1649" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1649" t="inlineStr"/>
-      <c r="G1649" t="inlineStr"/>
+      <c r="G1649" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1649" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1650">
       <c r="A1650" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1650" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1650" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1650" t="inlineStr"/>
       <c r="E1650" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1650" t="inlineStr"/>
-      <c r="G1650" t="inlineStr"/>
+      <c r="G1650" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1650" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1651">
       <c r="A1651" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1651" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1651" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1651" t="inlineStr"/>
       <c r="E1651" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1651" t="inlineStr"/>
       <c r="G1651" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H1651" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1652">
       <c r="A1652" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1652" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1652" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1652" t="inlineStr"/>
       <c r="E1652" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1652" t="inlineStr"/>
       <c r="G1652" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1652" t="inlineStr">
@@ -54202,61 +54114,61 @@
     <row r="1653">
       <c r="A1653" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1653" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1653" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1653" t="inlineStr"/>
       <c r="E1653" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1653" t="inlineStr"/>
       <c r="G1653" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1653" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1654">
       <c r="A1654" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1654" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1654" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1654" t="inlineStr"/>
-      <c r="E1654" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1654" t="inlineStr"/>
       <c r="F1654" t="inlineStr"/>
-      <c r="G1654" t="inlineStr"/>
+      <c r="G1654" t="inlineStr">
+        <is>
+          <t>139.1</t>
+        </is>
+      </c>
       <c r="H1654" t="inlineStr">
         <is>
           <t>3</t>
@@ -54266,21 +54178,25 @@
     <row r="1655">
       <c r="A1655" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1655" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1655" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1655" t="inlineStr"/>
-      <c r="E1655" t="inlineStr"/>
+      <c r="E1655" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1655" t="inlineStr"/>
       <c r="G1655" t="inlineStr"/>
       <c r="H1655" t="inlineStr">
@@ -54292,53 +54208,53 @@
     <row r="1656">
       <c r="A1656" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1656" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1656" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1656" t="inlineStr"/>
       <c r="E1656" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1656" t="inlineStr"/>
       <c r="G1656" t="inlineStr"/>
       <c r="H1656" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1657">
       <c r="A1657" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B1657" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1657" t="inlineStr">
         <is>
-          <t>House Price IndexNOV</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1657" t="inlineStr"/>
       <c r="E1657" t="inlineStr">
         <is>
-          <t>432.3</t>
+          <t>0.595%</t>
         </is>
       </c>
       <c r="F1657" t="inlineStr"/>
@@ -54352,740 +54268,126 @@
     <row r="1658">
       <c r="A1658" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1658" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1658" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1658" t="inlineStr"/>
-      <c r="E1658" t="inlineStr"/>
+      <c r="E1658" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
       <c r="F1658" t="inlineStr"/>
       <c r="G1658" t="inlineStr"/>
       <c r="H1658" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1659">
       <c r="A1659" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1659" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1659" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>GfK Consumer ConfidenceFEB</t>
         </is>
       </c>
       <c r="D1659" t="inlineStr"/>
       <c r="E1659" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-21.3</t>
         </is>
       </c>
       <c r="F1659" t="inlineStr"/>
       <c r="G1659" t="inlineStr"/>
       <c r="H1659" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1660">
       <c r="A1660" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1660" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1660" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1660" t="inlineStr"/>
       <c r="E1660" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1660" t="inlineStr"/>
-      <c r="G1660" t="inlineStr"/>
+      <c r="G1660" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1660" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1661">
       <c r="A1661" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1661" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1661" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJAN</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1661" t="inlineStr"/>
-      <c r="E1661" t="inlineStr"/>
+      <c r="E1661" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F1661" t="inlineStr"/>
-      <c r="G1661" t="inlineStr"/>
+      <c r="G1661" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H1661" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1662">
-      <c r="A1662" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1662" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1662" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1662" t="inlineStr"/>
-      <c r="E1662" t="inlineStr"/>
-      <c r="F1662" t="inlineStr"/>
-      <c r="G1662" t="inlineStr"/>
-      <c r="H1662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1663">
-      <c r="A1663" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1663" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1663" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1663" t="inlineStr"/>
-      <c r="E1663" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F1663" t="inlineStr"/>
-      <c r="G1663" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="H1663" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1664">
-      <c r="A1664" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1664" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1664" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1664" t="inlineStr"/>
-      <c r="E1664" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="F1664" t="inlineStr"/>
-      <c r="G1664" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H1664" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1665">
-      <c r="A1665" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1665" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1665" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1665" t="inlineStr"/>
-      <c r="E1665" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
-      </c>
-      <c r="F1665" t="inlineStr"/>
-      <c r="G1665" t="inlineStr"/>
-      <c r="H1665" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1666">
-      <c r="A1666" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1666" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1666" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1666" t="inlineStr"/>
-      <c r="E1666" t="inlineStr">
-        <is>
-          <t>13.8</t>
-        </is>
-      </c>
-      <c r="F1666" t="inlineStr"/>
-      <c r="G1666" t="inlineStr"/>
-      <c r="H1666" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1667">
-      <c r="A1667" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1667" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1667" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="D1667" t="inlineStr"/>
-      <c r="E1667" t="inlineStr"/>
-      <c r="F1667" t="inlineStr"/>
-      <c r="G1667" t="inlineStr"/>
-      <c r="H1667" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1668">
-      <c r="A1668" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1668" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1668" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="D1668" t="inlineStr"/>
-      <c r="E1668" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
-      <c r="F1668" t="inlineStr"/>
-      <c r="G1668" t="inlineStr"/>
-      <c r="H1668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1669">
-      <c r="A1669" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1669" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1669" t="inlineStr">
-        <is>
-          <t>Money SupplyDEC</t>
-        </is>
-      </c>
-      <c r="D1669" t="inlineStr"/>
-      <c r="E1669" t="inlineStr">
-        <is>
-          <t>$21.45T</t>
-        </is>
-      </c>
-      <c r="F1669" t="inlineStr"/>
-      <c r="G1669" t="inlineStr"/>
-      <c r="H1669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1670">
-      <c r="A1670" t="inlineStr">
-        <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1670" t="inlineStr"/>
-      <c r="C1670" t="inlineStr"/>
-      <c r="D1670" t="inlineStr"/>
-      <c r="E1670" t="inlineStr"/>
-      <c r="F1670" t="inlineStr"/>
-      <c r="G1670" t="inlineStr"/>
-      <c r="H1670" t="inlineStr"/>
-    </row>
-    <row r="1671">
-      <c r="A1671" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1671" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1671" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1671" t="inlineStr"/>
-      <c r="E1671" t="inlineStr"/>
-      <c r="F1671" t="inlineStr"/>
-      <c r="G1671" t="inlineStr"/>
-      <c r="H1671" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1672">
-      <c r="A1672" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1672" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1672" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1672" t="inlineStr"/>
-      <c r="E1672" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1672" t="inlineStr"/>
-      <c r="G1672" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="H1672" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1673">
-      <c r="A1673" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1673" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1673" t="inlineStr">
-        <is>
-          <t>Inflation Rate QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1673" t="inlineStr"/>
-      <c r="E1673" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1673" t="inlineStr"/>
-      <c r="G1673" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1673" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1674">
-      <c r="A1674" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1674" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1674" t="inlineStr">
-        <is>
-          <t>Monthly CPI IndicatorDEC</t>
-        </is>
-      </c>
-      <c r="D1674" t="inlineStr"/>
-      <c r="E1674" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="F1674" t="inlineStr"/>
-      <c r="G1674" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H1674" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1675">
-      <c r="A1675" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1675" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1675" t="inlineStr">
-        <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1675" t="inlineStr"/>
-      <c r="E1675" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1675" t="inlineStr"/>
-      <c r="G1675" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H1675" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1676">
-      <c r="A1676" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1676" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1676" t="inlineStr">
-        <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1676" t="inlineStr"/>
-      <c r="E1676" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="F1676" t="inlineStr"/>
-      <c r="G1676" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H1676" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1677">
-      <c r="A1677" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1677" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1677" t="inlineStr">
-        <is>
-          <t>CPIQ4</t>
-        </is>
-      </c>
-      <c r="D1677" t="inlineStr"/>
-      <c r="E1677" t="inlineStr"/>
-      <c r="F1677" t="inlineStr"/>
-      <c r="G1677" t="inlineStr">
-        <is>
-          <t>139.1</t>
-        </is>
-      </c>
-      <c r="H1677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1678">
-      <c r="A1678" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1678" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1678" t="inlineStr">
-        <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1678" t="inlineStr"/>
-      <c r="E1678" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F1678" t="inlineStr"/>
-      <c r="G1678" t="inlineStr"/>
-      <c r="H1678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1679">
-      <c r="A1679" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1679" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1679" t="inlineStr">
-        <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1679" t="inlineStr"/>
-      <c r="E1679" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F1679" t="inlineStr"/>
-      <c r="G1679" t="inlineStr"/>
-      <c r="H1679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1680">
-      <c r="A1680" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
-      <c r="B1680" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1680" t="inlineStr">
-        <is>
-          <t>5-Year Climate Transition JGB Auction</t>
-        </is>
-      </c>
-      <c r="D1680" t="inlineStr"/>
-      <c r="E1680" t="inlineStr">
-        <is>
-          <t>0.595%</t>
-        </is>
-      </c>
-      <c r="F1680" t="inlineStr"/>
-      <c r="G1680" t="inlineStr"/>
-      <c r="H1680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1681">
-      <c r="A1681" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1681" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1681" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1681" t="inlineStr"/>
-      <c r="E1681" t="inlineStr">
-        <is>
-          <t>36.2</t>
-        </is>
-      </c>
-      <c r="F1681" t="inlineStr"/>
-      <c r="G1681" t="inlineStr"/>
-      <c r="H1681" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1682">
-      <c r="A1682" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B1682" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1682" t="inlineStr">
-        <is>
-          <t>GfK Consumer ConfidenceFEB</t>
-        </is>
-      </c>
-      <c r="D1682" t="inlineStr"/>
-      <c r="E1682" t="inlineStr">
-        <is>
-          <t>-21.3</t>
-        </is>
-      </c>
-      <c r="F1682" t="inlineStr"/>
-      <c r="G1682" t="inlineStr"/>
-      <c r="H1682" t="inlineStr">
         <is>
           <t>1</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1714"/>
+  <dimension ref="A1:H1692"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46569,10 +46569,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1407">
@@ -46607,10 +46605,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1408">
@@ -46645,10 +46641,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1409">
@@ -46683,10 +46677,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1410">
@@ -46717,10 +46709,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1411">
@@ -46755,10 +46745,8 @@
           <t>-2.3%</t>
         </is>
       </c>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1412">
@@ -46789,10 +46777,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1413">
@@ -46827,10 +46813,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1414">
@@ -46865,10 +46849,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1415">
@@ -46903,10 +46885,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1416">
@@ -46937,10 +46917,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1416" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1416" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1417">
@@ -46971,10 +46949,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1418">
@@ -47001,10 +46977,8 @@
       </c>
       <c r="F1418" t="inlineStr"/>
       <c r="G1418" t="inlineStr"/>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1419">
@@ -47031,10 +47005,8 @@
       </c>
       <c r="F1419" t="inlineStr"/>
       <c r="G1419" t="inlineStr"/>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1420">
@@ -47065,10 +47037,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1421">
@@ -47099,10 +47069,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1422">
@@ -47129,10 +47097,8 @@
       </c>
       <c r="F1422" t="inlineStr"/>
       <c r="G1422" t="inlineStr"/>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1423">
@@ -47159,10 +47125,8 @@
       </c>
       <c r="F1423" t="inlineStr"/>
       <c r="G1423" t="inlineStr"/>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1424">
@@ -47189,10 +47153,8 @@
       </c>
       <c r="F1424" t="inlineStr"/>
       <c r="G1424" t="inlineStr"/>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1425">
@@ -47215,10 +47177,8 @@
       <c r="E1425" t="inlineStr"/>
       <c r="F1425" t="inlineStr"/>
       <c r="G1425" t="inlineStr"/>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1426">
@@ -47249,10 +47209,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1427">
@@ -47283,10 +47241,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1428">
@@ -47305,10 +47261,8 @@
       <c r="E1428" t="inlineStr"/>
       <c r="F1428" t="inlineStr"/>
       <c r="G1428" t="inlineStr"/>
-      <c r="H1428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1429">
@@ -47331,10 +47285,8 @@
       </c>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1430">
@@ -47361,10 +47313,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
@@ -47383,10 +47333,8 @@
       <c r="E1431" t="inlineStr"/>
       <c r="F1431" t="inlineStr"/>
       <c r="G1431" t="inlineStr"/>
-      <c r="H1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -47413,10 +47361,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
@@ -47443,10 +47389,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1434">
@@ -47465,10 +47409,8 @@
       <c r="E1434" t="inlineStr"/>
       <c r="F1434" t="inlineStr"/>
       <c r="G1434" t="inlineStr"/>
-      <c r="H1434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1434" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1435">
@@ -47517,10 +47459,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1437">
@@ -47551,10 +47491,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1438">
@@ -47585,10 +47523,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1439">
@@ -47615,10 +47551,8 @@
       </c>
       <c r="F1439" t="inlineStr"/>
       <c r="G1439" t="inlineStr"/>
-      <c r="H1439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1440">
@@ -47645,10 +47579,8 @@
       </c>
       <c r="F1440" t="inlineStr"/>
       <c r="G1440" t="inlineStr"/>
-      <c r="H1440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1441">
@@ -47675,10 +47607,8 @@
       </c>
       <c r="F1441" t="inlineStr"/>
       <c r="G1441" t="inlineStr"/>
-      <c r="H1441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1442">
@@ -47709,10 +47639,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1442" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1442" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1443">
@@ -47747,10 +47675,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1443" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1443" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1444">
@@ -47785,10 +47711,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1444" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1444" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1445">
@@ -47819,10 +47743,8 @@
           <t>40.0K</t>
         </is>
       </c>
-      <c r="H1445" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1445" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1446">
@@ -47857,10 +47779,8 @@
           <t>5.4%</t>
         </is>
       </c>
-      <c r="H1446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1447">
@@ -47895,10 +47815,8 @@
           <t>15.0K</t>
         </is>
       </c>
-      <c r="H1447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1448">
@@ -47929,10 +47847,8 @@
           <t>-20.0K</t>
         </is>
       </c>
-      <c r="H1448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1449">
@@ -47963,10 +47879,8 @@
           <t>-3.0%</t>
         </is>
       </c>
-      <c r="H1449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1450">
@@ -47997,10 +47911,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H1450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1450" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1451">
@@ -48031,10 +47943,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1451" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1452">
@@ -48069,10 +47979,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1452" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1452" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1453">
@@ -48107,10 +48015,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1453" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1453" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1454">
@@ -48145,10 +48051,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1454" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1455">
@@ -48175,10 +48079,8 @@
       </c>
       <c r="F1455" t="inlineStr"/>
       <c r="G1455" t="inlineStr"/>
-      <c r="H1455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1455" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1456">
@@ -48205,10 +48107,8 @@
       </c>
       <c r="F1456" t="inlineStr"/>
       <c r="G1456" t="inlineStr"/>
-      <c r="H1456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1456" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1457">
@@ -48239,10 +48139,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1457" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1457" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1458">
@@ -48273,10 +48171,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1458" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1459">
@@ -48311,10 +48207,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1459" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1459" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1460">
@@ -48345,10 +48239,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1460" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1460" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1461">
@@ -48383,10 +48275,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1461" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1461" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1462">
@@ -48417,10 +48307,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1462" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1463">
@@ -48455,10 +48343,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1463" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1464">
@@ -48493,10 +48379,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1464" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1465">
@@ -48523,10 +48407,8 @@
       </c>
       <c r="F1465" t="inlineStr"/>
       <c r="G1465" t="inlineStr"/>
-      <c r="H1465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1465" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1466">
@@ -48553,10 +48435,8 @@
       </c>
       <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr"/>
-      <c r="H1466" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1466" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1467">
@@ -48583,10 +48463,8 @@
       </c>
       <c r="F1467" t="inlineStr"/>
       <c r="G1467" t="inlineStr"/>
-      <c r="H1467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1467" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1468">
@@ -48613,10 +48491,8 @@
       </c>
       <c r="F1468" t="inlineStr"/>
       <c r="G1468" t="inlineStr"/>
-      <c r="H1468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1468" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1469">
@@ -48635,10 +48511,8 @@
       <c r="E1469" t="inlineStr"/>
       <c r="F1469" t="inlineStr"/>
       <c r="G1469" t="inlineStr"/>
-      <c r="H1469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1469" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1470">
@@ -48683,10 +48557,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1471" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1471" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1472">
@@ -48717,10 +48589,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1472" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1472" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1473">
@@ -48755,10 +48625,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1473" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1473" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1474">
@@ -48789,10 +48657,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1474" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1474" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1475">
@@ -48823,10 +48689,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1475" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1475" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1476">
@@ -48857,10 +48721,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1476" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1476" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1477">
@@ -48891,10 +48753,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1477" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1478">
@@ -48921,10 +48781,8 @@
       </c>
       <c r="F1478" t="inlineStr"/>
       <c r="G1478" t="inlineStr"/>
-      <c r="H1478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1478" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1479">
@@ -48955,10 +48813,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1479" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1480">
@@ -48989,10 +48845,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1480" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1481">
@@ -49019,10 +48873,8 @@
       </c>
       <c r="F1481" t="inlineStr"/>
       <c r="G1481" t="inlineStr"/>
-      <c r="H1481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1481" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1482">
@@ -49049,10 +48901,8 @@
       </c>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
-      <c r="H1482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1482" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1483">
@@ -49079,10 +48929,8 @@
       </c>
       <c r="F1483" t="inlineStr"/>
       <c r="G1483" t="inlineStr"/>
-      <c r="H1483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1483" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1484">
@@ -49109,10 +48957,8 @@
       </c>
       <c r="F1484" t="inlineStr"/>
       <c r="G1484" t="inlineStr"/>
-      <c r="H1484" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1484" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1485">
@@ -49139,10 +48985,8 @@
       </c>
       <c r="F1485" t="inlineStr"/>
       <c r="G1485" t="inlineStr"/>
-      <c r="H1485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1485" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1486">
@@ -49169,10 +49013,8 @@
       </c>
       <c r="F1486" t="inlineStr"/>
       <c r="G1486" t="inlineStr"/>
-      <c r="H1486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1486" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1487">
@@ -49199,10 +49041,8 @@
       </c>
       <c r="F1487" t="inlineStr"/>
       <c r="G1487" t="inlineStr"/>
-      <c r="H1487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1487" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1488">
@@ -49229,10 +49069,8 @@
       </c>
       <c r="F1488" t="inlineStr"/>
       <c r="G1488" t="inlineStr"/>
-      <c r="H1488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1488" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1489">
@@ -49267,10 +49105,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1489" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1490">
@@ -49301,10 +49137,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1490" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1490" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1491">
@@ -49339,10 +49173,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1491" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1492">
@@ -49373,10 +49205,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1492" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1493">
@@ -49403,10 +49233,8 @@
       </c>
       <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr"/>
-      <c r="H1493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1493" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1494">
@@ -49441,10 +49269,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1494" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1495">
@@ -49467,10 +49293,8 @@
       <c r="E1495" t="inlineStr"/>
       <c r="F1495" t="inlineStr"/>
       <c r="G1495" t="inlineStr"/>
-      <c r="H1495" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1495" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1496">
@@ -49497,10 +49321,8 @@
       </c>
       <c r="F1496" t="inlineStr"/>
       <c r="G1496" t="inlineStr"/>
-      <c r="H1496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1496" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1497">
@@ -49527,10 +49349,8 @@
       </c>
       <c r="F1497" t="inlineStr"/>
       <c r="G1497" t="inlineStr"/>
-      <c r="H1497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1497" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1498">
@@ -49575,10 +49395,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1499" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1500">
@@ -49609,10 +49427,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1500" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1500" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1501">
@@ -49639,10 +49455,8 @@
       </c>
       <c r="F1501" t="inlineStr"/>
       <c r="G1501" t="inlineStr"/>
-      <c r="H1501" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1501" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1502">
@@ -49677,10 +49491,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1502" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1502" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1503">
@@ -49715,10 +49527,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1503" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1504">
@@ -49753,10 +49563,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1504" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1504" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1505">
@@ -49791,10 +49599,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1505" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1505" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1506">
@@ -49821,10 +49627,8 @@
       </c>
       <c r="F1506" t="inlineStr"/>
       <c r="G1506" t="inlineStr"/>
-      <c r="H1506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1506" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1507">
@@ -49859,10 +49663,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1508">
@@ -49889,10 +49691,8 @@
       </c>
       <c r="F1508" t="inlineStr"/>
       <c r="G1508" t="inlineStr"/>
-      <c r="H1508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1509">
@@ -49919,10 +49719,8 @@
       </c>
       <c r="F1509" t="inlineStr"/>
       <c r="G1509" t="inlineStr"/>
-      <c r="H1509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1510">
@@ -49949,10 +49747,8 @@
       </c>
       <c r="F1510" t="inlineStr"/>
       <c r="G1510" t="inlineStr"/>
-      <c r="H1510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1511">
@@ -49979,10 +49775,8 @@
       </c>
       <c r="F1511" t="inlineStr"/>
       <c r="G1511" t="inlineStr"/>
-      <c r="H1511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1512">
@@ -50013,10 +49807,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1513">
@@ -50047,10 +49839,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1514">
@@ -50081,10 +49871,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1515">
@@ -50115,10 +49903,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1516">
@@ -50145,10 +49931,8 @@
       </c>
       <c r="F1516" t="inlineStr"/>
       <c r="G1516" t="inlineStr"/>
-      <c r="H1516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1517">
@@ -50175,10 +49959,8 @@
       </c>
       <c r="F1517" t="inlineStr"/>
       <c r="G1517" t="inlineStr"/>
-      <c r="H1517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1518">
@@ -50209,10 +49991,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1518" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1518" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1519">
@@ -50247,10 +50027,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1519" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1519" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1520">
@@ -50281,10 +50059,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1521">
@@ -50311,10 +50087,8 @@
       </c>
       <c r="F1521" t="inlineStr"/>
       <c r="G1521" t="inlineStr"/>
-      <c r="H1521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1522">
@@ -50341,10 +50115,8 @@
       </c>
       <c r="F1522" t="inlineStr"/>
       <c r="G1522" t="inlineStr"/>
-      <c r="H1522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1522" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1523">
@@ -50371,10 +50143,8 @@
       </c>
       <c r="F1523" t="inlineStr"/>
       <c r="G1523" t="inlineStr"/>
-      <c r="H1523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1524">
@@ -50401,10 +50171,8 @@
       </c>
       <c r="F1524" t="inlineStr"/>
       <c r="G1524" t="inlineStr"/>
-      <c r="H1524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1524" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1525">
@@ -50431,10 +50199,8 @@
       </c>
       <c r="F1525" t="inlineStr"/>
       <c r="G1525" t="inlineStr"/>
-      <c r="H1525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1526">
@@ -50461,10 +50227,8 @@
       </c>
       <c r="F1526" t="inlineStr"/>
       <c r="G1526" t="inlineStr"/>
-      <c r="H1526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1527">
@@ -50491,10 +50255,8 @@
       </c>
       <c r="F1527" t="inlineStr"/>
       <c r="G1527" t="inlineStr"/>
-      <c r="H1527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1527" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1528">
@@ -50521,10 +50283,8 @@
       </c>
       <c r="F1528" t="inlineStr"/>
       <c r="G1528" t="inlineStr"/>
-      <c r="H1528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1528" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1529">
@@ -50555,10 +50315,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1529" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1530">
@@ -50589,10 +50347,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1530" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1530" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1531">
@@ -50627,10 +50383,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1531" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1531" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1532">
@@ -50661,10 +50415,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1532" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1533">
@@ -50695,10 +50447,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1533" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1533" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1534">
@@ -50733,10 +50483,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1534" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1534" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1535">
@@ -50763,10 +50511,8 @@
       </c>
       <c r="F1535" t="inlineStr"/>
       <c r="G1535" t="inlineStr"/>
-      <c r="H1535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1535" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1536">
@@ -50797,10 +50543,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1536" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1537">
@@ -50831,10 +50575,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1537" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1538">
@@ -50865,10 +50607,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1538" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1539">
@@ -50899,10 +50639,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1540">
@@ -50937,10 +50675,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1540" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1540" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1541">
@@ -50975,10 +50711,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1541" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1541" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1542">
@@ -51001,10 +50735,8 @@
       <c r="E1542" t="inlineStr"/>
       <c r="F1542" t="inlineStr"/>
       <c r="G1542" t="inlineStr"/>
-      <c r="H1542" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1542" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1543">
@@ -51035,10 +50767,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1544">
@@ -51073,10 +50803,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1544" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1544" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1545">
@@ -51107,10 +50835,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1545" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1546">
@@ -51141,10 +50867,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1547">
@@ -51179,10 +50903,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1547" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1547" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1548">
@@ -51209,10 +50931,8 @@
       </c>
       <c r="F1548" t="inlineStr"/>
       <c r="G1548" t="inlineStr"/>
-      <c r="H1548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1549">
@@ -51239,10 +50959,8 @@
       </c>
       <c r="F1549" t="inlineStr"/>
       <c r="G1549" t="inlineStr"/>
-      <c r="H1549" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1549" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1550">
@@ -51269,10 +50987,8 @@
       </c>
       <c r="F1550" t="inlineStr"/>
       <c r="G1550" t="inlineStr"/>
-      <c r="H1550" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1550" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1551">
@@ -51299,10 +51015,8 @@
       </c>
       <c r="F1551" t="inlineStr"/>
       <c r="G1551" t="inlineStr"/>
-      <c r="H1551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1552">
@@ -51329,10 +51043,8 @@
       </c>
       <c r="F1552" t="inlineStr"/>
       <c r="G1552" t="inlineStr"/>
-      <c r="H1552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1553">
@@ -51359,10 +51071,8 @@
       </c>
       <c r="F1553" t="inlineStr"/>
       <c r="G1553" t="inlineStr"/>
-      <c r="H1553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1554">
@@ -51389,10 +51099,8 @@
       </c>
       <c r="F1554" t="inlineStr"/>
       <c r="G1554" t="inlineStr"/>
-      <c r="H1554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1554" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1555">
@@ -51419,10 +51127,8 @@
       </c>
       <c r="F1555" t="inlineStr"/>
       <c r="G1555" t="inlineStr"/>
-      <c r="H1555" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1555" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1556">
@@ -51449,10 +51155,8 @@
       </c>
       <c r="F1556" t="inlineStr"/>
       <c r="G1556" t="inlineStr"/>
-      <c r="H1556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1556" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1557">
@@ -51479,10 +51183,8 @@
       </c>
       <c r="F1557" t="inlineStr"/>
       <c r="G1557" t="inlineStr"/>
-      <c r="H1557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1557" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1558">
@@ -51509,10 +51211,8 @@
       </c>
       <c r="F1558" t="inlineStr"/>
       <c r="G1558" t="inlineStr"/>
-      <c r="H1558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1558" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1559">
@@ -51539,10 +51239,8 @@
       </c>
       <c r="F1559" t="inlineStr"/>
       <c r="G1559" t="inlineStr"/>
-      <c r="H1559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1559" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1560">
@@ -51569,10 +51267,8 @@
       </c>
       <c r="F1560" t="inlineStr"/>
       <c r="G1560" t="inlineStr"/>
-      <c r="H1560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1560" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1561">
@@ -51599,10 +51295,8 @@
       </c>
       <c r="F1561" t="inlineStr"/>
       <c r="G1561" t="inlineStr"/>
-      <c r="H1561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1562">
@@ -51629,10 +51323,8 @@
       </c>
       <c r="F1562" t="inlineStr"/>
       <c r="G1562" t="inlineStr"/>
-      <c r="H1562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1563">
@@ -51659,10 +51351,8 @@
       </c>
       <c r="F1563" t="inlineStr"/>
       <c r="G1563" t="inlineStr"/>
-      <c r="H1563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1563" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1564">
@@ -51685,10 +51375,8 @@
       </c>
       <c r="F1564" t="inlineStr"/>
       <c r="G1564" t="inlineStr"/>
-      <c r="H1564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1564" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1565">
@@ -51715,256 +51403,290 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1565" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1566" t="inlineStr"/>
-      <c r="C1566" t="inlineStr"/>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B1566" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C1566" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D1566" t="inlineStr"/>
-      <c r="E1566" t="inlineStr"/>
+      <c r="E1566" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1566" t="inlineStr"/>
-      <c r="G1566" t="inlineStr"/>
-      <c r="H1566" t="inlineStr"/>
+      <c r="G1566" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="H1566" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr"/>
       <c r="E1567" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F1567" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F1567" t="inlineStr">
+        <is>
+          <t>42.1</t>
+        </is>
+      </c>
       <c r="G1567" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="H1567" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1568" t="inlineStr"/>
       <c r="E1568" t="inlineStr">
         <is>
-          <t>$6.83T</t>
-        </is>
-      </c>
-      <c r="F1568" t="inlineStr"/>
-      <c r="G1568" t="inlineStr"/>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F1568" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="G1568" t="inlineStr">
+        <is>
+          <t>49.5</t>
+        </is>
+      </c>
       <c r="H1568" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="F1569" t="inlineStr"/>
       <c r="G1569" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H1569" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1570" t="inlineStr"/>
       <c r="E1570" t="inlineStr">
         <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1570" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F1570" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
       <c r="G1570" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="H1570" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1571" t="inlineStr"/>
       <c r="E1571" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F1571" t="inlineStr"/>
       <c r="G1571" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="H1571" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1572" t="inlineStr"/>
       <c r="E1572" t="inlineStr">
         <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F1572" t="inlineStr"/>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F1572" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="G1572" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1572" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1573" t="inlineStr"/>
       <c r="E1573" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1573" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F1573" t="inlineStr"/>
       <c r="G1573" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="H1573" t="inlineStr">
@@ -51976,75 +51698,83 @@
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1574" t="inlineStr"/>
       <c r="E1574" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1574" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F1574" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="G1574" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H1574" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1575" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1575" t="inlineStr"/>
       <c r="E1575" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1575" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F1575" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="G1575" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H1575" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
@@ -52054,23 +51784,23 @@
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>Gfk Consumer ConfidenceJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr"/>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F1576" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="G1576" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="H1576" t="inlineStr">
@@ -52082,135 +51812,127 @@
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1577" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1577" t="inlineStr"/>
       <c r="E1577" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F1577" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="G1577" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1577" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr"/>
       <c r="E1578" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F1578" t="inlineStr"/>
       <c r="G1578" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="H1578" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FlashJAN</t>
+          <t>ECB President Lagarde Speech</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr"/>
-      <c r="E1579" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
+      <c r="E1579" t="inlineStr"/>
       <c r="F1579" t="inlineStr"/>
-      <c r="G1579" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G1579" t="inlineStr"/>
       <c r="H1579" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1580">
       <c r="A1580" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>URA Property Index QoQ FinalQ4</t>
+          <t>FGV Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr"/>
       <c r="E1580" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F1580" t="inlineStr"/>
       <c r="G1580" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>91.4</t>
         </is>
       </c>
       <c r="H1580" t="inlineStr">
@@ -52222,61 +51944,61 @@
     <row r="1581">
       <c r="A1581" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>BoJ Interest Rate Decision</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D1581" t="inlineStr"/>
-      <c r="E1581" t="inlineStr">
-        <is>
-          <t>0.25%</t>
-        </is>
-      </c>
-      <c r="F1581" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1581" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E1581" t="inlineStr"/>
+      <c r="F1581" t="inlineStr"/>
+      <c r="G1581" t="inlineStr"/>
       <c r="H1581" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1582">
       <c r="A1582" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>BoJ Quarterly Outlook Report</t>
+          <t>CBI Distributive TradesJAN</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr"/>
-      <c r="E1582" t="inlineStr"/>
-      <c r="F1582" t="inlineStr"/>
-      <c r="G1582" t="inlineStr"/>
+      <c r="E1582" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="F1582" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="G1582" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
       <c r="H1582" t="inlineStr">
         <is>
           <t>2</t>
@@ -52286,23 +52008,23 @@
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>Foreign Direct Investment YoYQ4</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr"/>
       <c r="E1583" t="inlineStr">
         <is>
-          <t>18.55%</t>
+          <t>$625.87B</t>
         </is>
       </c>
       <c r="F1583" t="inlineStr"/>
@@ -52316,199 +52038,203 @@
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr"/>
       <c r="E1584" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1584" t="inlineStr"/>
       <c r="G1584" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1584" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr"/>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1585" t="inlineStr"/>
       <c r="G1585" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1585" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1586" t="inlineStr"/>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1586" t="inlineStr"/>
       <c r="G1586" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1586" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr"/>
       <c r="E1587" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1587" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1587" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1587" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1587" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1588" t="inlineStr"/>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1588" t="inlineStr"/>
       <c r="G1588" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1588" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1589" t="inlineStr"/>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1589" t="inlineStr"/>
       <c r="G1589" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1589" t="inlineStr">
@@ -52520,33 +52246,29 @@
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1590" t="inlineStr"/>
       <c r="E1590" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1590" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1590" t="inlineStr"/>
       <c r="G1590" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1590" t="inlineStr">
@@ -52558,33 +52280,29 @@
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1591" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1591" t="inlineStr"/>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1591" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1591" t="inlineStr"/>
       <c r="G1591" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1591" t="inlineStr">
@@ -52596,67 +52314,67 @@
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1592" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1592" t="inlineStr"/>
       <c r="E1592" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1592" t="inlineStr"/>
       <c r="G1592" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1592" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1593" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1593" t="inlineStr"/>
       <c r="E1593" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1593" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1593" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1593" t="inlineStr">
@@ -52668,29 +52386,29 @@
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1594" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1594" t="inlineStr"/>
       <c r="E1594" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1594" t="inlineStr"/>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr">
@@ -52702,33 +52420,33 @@
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1595" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1595" t="inlineStr"/>
       <c r="E1595" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1595" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1595" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1595" t="inlineStr">
@@ -52740,215 +52458,215 @@
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1596" t="inlineStr"/>
       <c r="E1596" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1596" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1596" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1596" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1596" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1597" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1597" t="inlineStr"/>
       <c r="E1597" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1597" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1597" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1597" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1598" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1598" t="inlineStr"/>
       <c r="E1598" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1598" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1598" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1598" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1599" t="inlineStr"/>
       <c r="E1599" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1599" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1599" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1599" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1600" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1600" t="inlineStr"/>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1600" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1600" t="inlineStr"/>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1600" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1601" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1601" t="inlineStr"/>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1601" t="inlineStr"/>
       <c r="G1601" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1601" t="inlineStr">
@@ -52960,57 +52678,57 @@
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1602" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1602" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1602" t="inlineStr"/>
-      <c r="E1602" t="inlineStr"/>
+      <c r="E1602" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1602" t="inlineStr"/>
       <c r="G1602" t="inlineStr"/>
       <c r="H1602" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1603" t="inlineStr"/>
-      <c r="G1603" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1603" t="inlineStr"/>
       <c r="H1603" t="inlineStr">
         <is>
           <t>3</t>
@@ -53020,87 +52738,71 @@
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1604" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1604" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1604" t="inlineStr"/>
+      <c r="C1604" t="inlineStr"/>
       <c r="D1604" t="inlineStr"/>
       <c r="E1604" t="inlineStr"/>
       <c r="F1604" t="inlineStr"/>
       <c r="G1604" t="inlineStr"/>
-      <c r="H1604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1604" t="inlineStr"/>
     </row>
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1605" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F1605" t="inlineStr"/>
       <c r="G1605" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1605" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>$625.87B</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr"/>
@@ -53114,31 +52816,27 @@
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr"/>
-      <c r="G1607" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1607" t="inlineStr"/>
       <c r="H1607" t="inlineStr">
         <is>
           <t>3</t>
@@ -53148,31 +52846,27 @@
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1608" t="inlineStr"/>
-      <c r="G1608" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1608" t="inlineStr"/>
       <c r="H1608" t="inlineStr">
         <is>
           <t>3</t>
@@ -53182,31 +52876,23 @@
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
-      <c r="E1609" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1609" t="inlineStr"/>
       <c r="F1609" t="inlineStr"/>
-      <c r="G1609" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1609" t="inlineStr"/>
       <c r="H1609" t="inlineStr">
         <is>
           <t>3</t>
@@ -53216,69 +52902,53 @@
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
-      <c r="E1610" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1610" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1610" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1610" t="inlineStr"/>
+      <c r="F1610" t="inlineStr"/>
+      <c r="G1610" t="inlineStr"/>
       <c r="H1610" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr"/>
-      <c r="G1611" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1611" t="inlineStr"/>
       <c r="H1611" t="inlineStr">
         <is>
           <t>2</t>
@@ -53288,31 +52958,27 @@
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr"/>
-      <c r="G1612" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1612" t="inlineStr"/>
       <c r="H1612" t="inlineStr">
         <is>
           <t>3</t>
@@ -53322,169 +52988,145 @@
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1613" t="inlineStr"/>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr"/>
-      <c r="G1613" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1613" t="inlineStr"/>
       <c r="H1613" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr"/>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1614" t="inlineStr"/>
-      <c r="G1614" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1614" t="inlineStr"/>
       <c r="H1614" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr"/>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F1615" t="inlineStr"/>
-      <c r="G1615" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1615" t="inlineStr"/>
       <c r="H1615" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:15 PM</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1616" t="inlineStr"/>
-      <c r="E1616" t="inlineStr">
-        <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1616" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1616" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+      <c r="E1616" t="inlineStr"/>
+      <c r="F1616" t="inlineStr"/>
+      <c r="G1616" t="inlineStr"/>
       <c r="H1616" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1617" t="inlineStr"/>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>43.5K</t>
         </is>
       </c>
       <c r="F1617" t="inlineStr"/>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1617" t="inlineStr">
@@ -53496,71 +53138,63 @@
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1618" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1618" t="inlineStr"/>
       <c r="G1618" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1618" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1619" t="inlineStr"/>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1619" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1619" t="inlineStr"/>
       <c r="G1619" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1619" t="inlineStr">
@@ -53572,35 +53206,27 @@
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1620" t="inlineStr"/>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1620" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
-      <c r="G1620" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1620" t="inlineStr"/>
+      <c r="G1620" t="inlineStr"/>
       <c r="H1620" t="inlineStr">
         <is>
           <t>3</t>
@@ -53610,35 +53236,27 @@
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1621" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1621" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1621" t="inlineStr"/>
+      <c r="G1621" t="inlineStr"/>
       <c r="H1621" t="inlineStr">
         <is>
           <t>3</t>
@@ -53648,67 +53266,63 @@
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1622" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>$-0.133B</t>
+        </is>
+      </c>
+      <c r="F1622" t="inlineStr"/>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1622" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr"/>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr"/>
       <c r="G1623" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1623" t="inlineStr">
@@ -53720,7 +53334,7 @@
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
@@ -53730,51 +53344,55 @@
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
       <c r="E1624" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1624" t="inlineStr"/>
       <c r="G1624" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="H1624" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1625" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1625" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1625" t="inlineStr"/>
       <c r="E1625" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1625" t="inlineStr"/>
-      <c r="G1625" t="inlineStr"/>
+      <c r="G1625" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1625" t="inlineStr">
         <is>
           <t>3</t>
@@ -53784,25 +53402,21 @@
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1626" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1626" t="inlineStr"/>
-      <c r="E1626" t="inlineStr">
-        <is>
-          <t>580</t>
-        </is>
-      </c>
+      <c r="E1626" t="inlineStr"/>
       <c r="F1626" t="inlineStr"/>
       <c r="G1626" t="inlineStr"/>
       <c r="H1626" t="inlineStr">
@@ -53814,45 +53428,49 @@
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1627" t="inlineStr"/>
-      <c r="C1627" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1627" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1627" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1627" t="inlineStr"/>
       <c r="E1627" t="inlineStr"/>
       <c r="F1627" t="inlineStr"/>
       <c r="G1627" t="inlineStr"/>
-      <c r="H1627" t="inlineStr"/>
+      <c r="H1627" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1628" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1628" t="inlineStr"/>
-      <c r="E1628" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1628" t="inlineStr"/>
       <c r="F1628" t="inlineStr"/>
-      <c r="G1628" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1628" t="inlineStr"/>
       <c r="H1628" t="inlineStr">
         <is>
           <t>3</t>
@@ -53862,107 +53480,103 @@
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1629" t="inlineStr"/>
-      <c r="E1629" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1629" t="inlineStr"/>
       <c r="F1629" t="inlineStr"/>
       <c r="G1629" t="inlineStr"/>
       <c r="H1629" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1630" t="inlineStr"/>
-      <c r="E1630" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1630" t="inlineStr"/>
       <c r="F1630" t="inlineStr"/>
-      <c r="G1630" t="inlineStr"/>
+      <c r="G1630" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1630" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1631" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1631" t="inlineStr"/>
       <c r="E1631" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1631" t="inlineStr"/>
       <c r="G1631" t="inlineStr"/>
       <c r="H1631" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1632" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1632" t="inlineStr"/>
@@ -53978,17 +53592,17 @@
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr"/>
@@ -54004,55 +53618,47 @@
     <row r="1634">
       <c r="A1634" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1634" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1634" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1634" t="inlineStr"/>
-      <c r="E1634" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1634" t="inlineStr"/>
       <c r="F1634" t="inlineStr"/>
       <c r="G1634" t="inlineStr"/>
       <c r="H1634" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1635">
       <c r="A1635" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1635" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1635" t="inlineStr"/>
-      <c r="E1635" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1635" t="inlineStr"/>
       <c r="F1635" t="inlineStr"/>
       <c r="G1635" t="inlineStr"/>
       <c r="H1635" t="inlineStr">
@@ -54062,59 +53668,63 @@
       </c>
     </row>
     <row r="1636">
-      <c r="A1636" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1636" t="inlineStr"/>
       <c r="B1636" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1636" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1636" t="inlineStr"/>
       <c r="E1636" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1636" t="inlineStr"/>
-      <c r="G1636" t="inlineStr"/>
+      <c r="G1636" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1636" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1637">
-      <c r="A1637" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1637" t="inlineStr"/>
       <c r="B1637" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1637" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1637" t="inlineStr"/>
       <c r="E1637" t="inlineStr">
         <is>
-          <t>85.1</t>
-        </is>
-      </c>
-      <c r="F1637" t="inlineStr"/>
-      <c r="G1637" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1637" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1637" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1637" t="inlineStr">
         <is>
           <t>3</t>
@@ -54124,121 +53734,109 @@
     <row r="1638">
       <c r="A1638" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1638" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1638" t="inlineStr">
-        <is>
-          <t>Ifo ExpectationsJAN</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1638" t="inlineStr"/>
+      <c r="C1638" t="inlineStr"/>
       <c r="D1638" t="inlineStr"/>
-      <c r="E1638" t="inlineStr">
-        <is>
-          <t>84.4</t>
-        </is>
-      </c>
+      <c r="E1638" t="inlineStr"/>
       <c r="F1638" t="inlineStr"/>
       <c r="G1638" t="inlineStr"/>
-      <c r="H1638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1638" t="inlineStr"/>
     </row>
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1639" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1639" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1639" t="inlineStr"/>
-      <c r="E1639" t="inlineStr"/>
+      <c r="E1639" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1639" t="inlineStr"/>
-      <c r="G1639" t="inlineStr"/>
+      <c r="G1639" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1639" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1640" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1640" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1640" t="inlineStr"/>
       <c r="E1640" t="inlineStr">
         <is>
-          <t>43.5K</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1640" t="inlineStr"/>
       <c r="G1640" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="H1640" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1641" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1641" t="inlineStr"/>
       <c r="E1641" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1641" t="inlineStr"/>
-      <c r="G1641" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1641" t="inlineStr"/>
       <c r="H1641" t="inlineStr">
         <is>
           <t>3</t>
@@ -54248,29 +53846,29 @@
     <row r="1642">
       <c r="A1642" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1642" t="inlineStr"/>
       <c r="E1642" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1642" t="inlineStr"/>
       <c r="G1642" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1642" t="inlineStr">
@@ -54282,27 +53880,31 @@
     <row r="1643">
       <c r="A1643" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1643" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1643" t="inlineStr"/>
       <c r="E1643" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1643" t="inlineStr"/>
-      <c r="G1643" t="inlineStr"/>
+      <c r="G1643" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1643" t="inlineStr">
         <is>
           <t>3</t>
@@ -54312,27 +53914,31 @@
     <row r="1644">
       <c r="A1644" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1644" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1644" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1644" t="inlineStr"/>
       <c r="E1644" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1644" t="inlineStr"/>
-      <c r="G1644" t="inlineStr"/>
+      <c r="G1644" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1644" t="inlineStr">
         <is>
           <t>3</t>
@@ -54342,97 +53948,93 @@
     <row r="1645">
       <c r="A1645" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1645" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1645" t="inlineStr"/>
       <c r="E1645" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1645" t="inlineStr"/>
       <c r="G1645" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1645" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1646">
       <c r="A1646" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1646" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1646" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1646" t="inlineStr"/>
       <c r="E1646" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1646" t="inlineStr"/>
-      <c r="G1646" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1646" t="inlineStr"/>
       <c r="H1646" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1647">
       <c r="A1647" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1647" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1647" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1647" t="inlineStr"/>
       <c r="E1647" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1647" t="inlineStr"/>
       <c r="G1647" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1647" t="inlineStr">
@@ -54444,31 +54046,27 @@
     <row r="1648">
       <c r="A1648" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1648" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1648" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1648" t="inlineStr"/>
       <c r="E1648" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1648" t="inlineStr"/>
-      <c r="G1648" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1648" t="inlineStr"/>
       <c r="H1648" t="inlineStr">
         <is>
           <t>3</t>
@@ -54478,17 +54076,17 @@
     <row r="1649">
       <c r="A1649" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1649" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1649" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1649" t="inlineStr"/>
@@ -54504,17 +54102,17 @@
     <row r="1650">
       <c r="A1650" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1650" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1650" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1650" t="inlineStr"/>
@@ -54530,17 +54128,17 @@
     <row r="1651">
       <c r="A1651" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1651" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1651" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1651" t="inlineStr"/>
@@ -54556,33 +54154,37 @@
     <row r="1652">
       <c r="A1652" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1652" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1652" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1652" t="inlineStr"/>
-      <c r="E1652" t="inlineStr"/>
+      <c r="E1652" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1652" t="inlineStr"/>
       <c r="G1652" t="inlineStr"/>
       <c r="H1652" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1653">
       <c r="A1653" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1653" t="inlineStr">
@@ -54592,27 +54194,31 @@
       </c>
       <c r="C1653" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1653" t="inlineStr"/>
-      <c r="E1653" t="inlineStr"/>
+      <c r="E1653" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1653" t="inlineStr"/>
       <c r="G1653" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1653" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1654">
       <c r="A1654" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1654" t="inlineStr">
@@ -54622,17 +54228,21 @@
       </c>
       <c r="C1654" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1654" t="inlineStr"/>
       <c r="E1654" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1654" t="inlineStr"/>
-      <c r="G1654" t="inlineStr"/>
+      <c r="G1654" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1654" t="inlineStr">
         <is>
           <t>2</t>
@@ -54642,7 +54252,7 @@
     <row r="1655">
       <c r="A1655" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1655" t="inlineStr">
@@ -54652,13 +54262,21 @@
       </c>
       <c r="C1655" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1655" t="inlineStr"/>
-      <c r="E1655" t="inlineStr"/>
+      <c r="E1655" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1655" t="inlineStr"/>
-      <c r="G1655" t="inlineStr"/>
+      <c r="G1655" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1655" t="inlineStr">
         <is>
           <t>3</t>
@@ -54668,7 +54286,7 @@
     <row r="1656">
       <c r="A1656" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1656" t="inlineStr">
@@ -54678,11 +54296,15 @@
       </c>
       <c r="C1656" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1656" t="inlineStr"/>
-      <c r="E1656" t="inlineStr"/>
+      <c r="E1656" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1656" t="inlineStr"/>
       <c r="G1656" t="inlineStr"/>
       <c r="H1656" t="inlineStr">
@@ -54694,7 +54316,7 @@
     <row r="1657">
       <c r="A1657" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B1657" t="inlineStr">
@@ -54704,7 +54326,7 @@
       </c>
       <c r="C1657" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1657" t="inlineStr"/>
@@ -54720,7 +54342,7 @@
     <row r="1658">
       <c r="A1658" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1658" t="inlineStr">
@@ -54730,21 +54352,29 @@
       </c>
       <c r="C1658" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1658" t="inlineStr"/>
-      <c r="E1658" t="inlineStr"/>
+      <c r="E1658" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1658" t="inlineStr"/>
       <c r="G1658" t="inlineStr"/>
       <c r="H1658" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1659">
-      <c r="A1659" t="inlineStr"/>
+      <c r="A1659" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1659" t="inlineStr">
         <is>
           <t>US</t>
@@ -54752,21 +54382,17 @@
       </c>
       <c r="C1659" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1659" t="inlineStr"/>
       <c r="E1659" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1659" t="inlineStr"/>
-      <c r="G1659" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1659" t="inlineStr"/>
       <c r="H1659" t="inlineStr">
         <is>
           <t>3</t>
@@ -54774,7 +54400,11 @@
       </c>
     </row>
     <row r="1660">
-      <c r="A1660" t="inlineStr"/>
+      <c r="A1660" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1660" t="inlineStr">
         <is>
           <t>US</t>
@@ -54782,25 +54412,13 @@
       </c>
       <c r="C1660" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1660" t="inlineStr"/>
-      <c r="E1660" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1660" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1660" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="E1660" t="inlineStr"/>
+      <c r="F1660" t="inlineStr"/>
+      <c r="G1660" t="inlineStr"/>
       <c r="H1660" t="inlineStr">
         <is>
           <t>3</t>
@@ -54810,107 +54428,107 @@
     <row r="1661">
       <c r="A1661" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1661" t="inlineStr"/>
-      <c r="C1661" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1661" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1661" t="inlineStr">
+        <is>
+          <t>House Price Index YoYNOV</t>
+        </is>
+      </c>
       <c r="D1661" t="inlineStr"/>
-      <c r="E1661" t="inlineStr"/>
+      <c r="E1661" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="F1661" t="inlineStr"/>
       <c r="G1661" t="inlineStr"/>
-      <c r="H1661" t="inlineStr"/>
+      <c r="H1661" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1662">
       <c r="A1662" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1662" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1662" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1662" t="inlineStr"/>
       <c r="E1662" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1662" t="inlineStr"/>
-      <c r="G1662" t="inlineStr">
+      <c r="G1662" t="inlineStr"/>
+      <c r="H1662" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1662" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1663">
       <c r="A1663" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1663" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1663" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>CB Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1663" t="inlineStr"/>
-      <c r="E1663" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1663" t="inlineStr"/>
       <c r="F1663" t="inlineStr"/>
-      <c r="G1663" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1663" t="inlineStr"/>
       <c r="H1663" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1664">
       <c r="A1664" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1664" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1664" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1664" t="inlineStr"/>
-      <c r="E1664" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1664" t="inlineStr"/>
       <c r="F1664" t="inlineStr"/>
       <c r="G1664" t="inlineStr"/>
       <c r="H1664" t="inlineStr">
@@ -54922,29 +54540,29 @@
     <row r="1665">
       <c r="A1665" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1665" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1665" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1665" t="inlineStr"/>
       <c r="E1665" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1665" t="inlineStr"/>
       <c r="G1665" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1665" t="inlineStr">
@@ -54956,29 +54574,29 @@
     <row r="1666">
       <c r="A1666" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1666" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1666" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1666" t="inlineStr"/>
       <c r="E1666" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1666" t="inlineStr"/>
       <c r="G1666" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1666" t="inlineStr">
@@ -54990,31 +54608,27 @@
     <row r="1667">
       <c r="A1667" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1667" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1667" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1667" t="inlineStr"/>
       <c r="E1667" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1667" t="inlineStr"/>
-      <c r="G1667" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1667" t="inlineStr"/>
       <c r="H1667" t="inlineStr">
         <is>
           <t>3</t>
@@ -55024,31 +54638,27 @@
     <row r="1668">
       <c r="A1668" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1668" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1668" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1668" t="inlineStr"/>
       <c r="E1668" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1668" t="inlineStr"/>
-      <c r="G1668" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1668" t="inlineStr"/>
       <c r="H1668" t="inlineStr">
         <is>
           <t>3</t>
@@ -55058,87 +54668,79 @@
     <row r="1669">
       <c r="A1669" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1669" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1669" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1669" t="inlineStr"/>
-      <c r="E1669" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1669" t="inlineStr"/>
       <c r="F1669" t="inlineStr"/>
       <c r="G1669" t="inlineStr"/>
       <c r="H1669" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1670">
       <c r="A1670" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1670" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1670" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1670" t="inlineStr"/>
       <c r="E1670" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1670" t="inlineStr"/>
-      <c r="G1670" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1670" t="inlineStr"/>
       <c r="H1670" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1671">
       <c r="A1671" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1671" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1671" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1671" t="inlineStr"/>
       <c r="E1671" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1671" t="inlineStr"/>
@@ -55152,43 +54754,31 @@
     <row r="1672">
       <c r="A1672" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1672" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1672" t="inlineStr">
-        <is>
-          <t>BTP Short Term Auction</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1672" t="inlineStr"/>
+      <c r="C1672" t="inlineStr"/>
       <c r="D1672" t="inlineStr"/>
       <c r="E1672" t="inlineStr"/>
       <c r="F1672" t="inlineStr"/>
       <c r="G1672" t="inlineStr"/>
-      <c r="H1672" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1672" t="inlineStr"/>
     </row>
     <row r="1673">
       <c r="A1673" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1673" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1673" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1673" t="inlineStr"/>
@@ -55197,126 +54787,138 @@
       <c r="G1673" t="inlineStr"/>
       <c r="H1673" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1674">
       <c r="A1674" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1674" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1674" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1674" t="inlineStr"/>
-      <c r="E1674" t="inlineStr"/>
+      <c r="E1674" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1674" t="inlineStr"/>
-      <c r="G1674" t="inlineStr"/>
+      <c r="G1674" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1674" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1675">
       <c r="A1675" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1675" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1675" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1675" t="inlineStr"/>
       <c r="E1675" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1675" t="inlineStr"/>
-      <c r="G1675" t="inlineStr"/>
+      <c r="G1675" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1675" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1676">
       <c r="A1676" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1676" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1676" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1676" t="inlineStr"/>
       <c r="E1676" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1676" t="inlineStr"/>
       <c r="G1676" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H1676" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1677">
       <c r="A1677" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1677" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1677" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1677" t="inlineStr"/>
       <c r="E1677" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1677" t="inlineStr"/>
       <c r="G1677" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1677" t="inlineStr">
@@ -55328,61 +54930,61 @@
     <row r="1678">
       <c r="A1678" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1678" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1678" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1678" t="inlineStr"/>
       <c r="E1678" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1678" t="inlineStr"/>
       <c r="G1678" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1678" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1679">
       <c r="A1679" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1679" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1679" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1679" t="inlineStr"/>
-      <c r="E1679" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1679" t="inlineStr"/>
       <c r="F1679" t="inlineStr"/>
-      <c r="G1679" t="inlineStr"/>
+      <c r="G1679" t="inlineStr">
+        <is>
+          <t>139.1</t>
+        </is>
+      </c>
       <c r="H1679" t="inlineStr">
         <is>
           <t>3</t>
@@ -55392,21 +54994,25 @@
     <row r="1680">
       <c r="A1680" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1680" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1680" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1680" t="inlineStr"/>
-      <c r="E1680" t="inlineStr"/>
+      <c r="E1680" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1680" t="inlineStr"/>
       <c r="G1680" t="inlineStr"/>
       <c r="H1680" t="inlineStr">
@@ -55418,53 +55024,53 @@
     <row r="1681">
       <c r="A1681" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1681" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1681" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1681" t="inlineStr"/>
       <c r="E1681" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1681" t="inlineStr"/>
       <c r="G1681" t="inlineStr"/>
       <c r="H1681" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1682">
       <c r="A1682" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B1682" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1682" t="inlineStr">
         <is>
-          <t>House Price IndexNOV</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1682" t="inlineStr"/>
       <c r="E1682" t="inlineStr">
         <is>
-          <t>432.3</t>
+          <t>0.595%</t>
         </is>
       </c>
       <c r="F1682" t="inlineStr"/>
@@ -55478,133 +55084,153 @@
     <row r="1683">
       <c r="A1683" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1683" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1683" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1683" t="inlineStr"/>
-      <c r="E1683" t="inlineStr"/>
+      <c r="E1683" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
       <c r="F1683" t="inlineStr"/>
       <c r="G1683" t="inlineStr"/>
       <c r="H1683" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1684">
       <c r="A1684" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1684" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1684" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>GfK Consumer ConfidenceFEB</t>
         </is>
       </c>
       <c r="D1684" t="inlineStr"/>
       <c r="E1684" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-21.3</t>
         </is>
       </c>
       <c r="F1684" t="inlineStr"/>
       <c r="G1684" t="inlineStr"/>
       <c r="H1684" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1685">
       <c r="A1685" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1685" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1685" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1685" t="inlineStr"/>
       <c r="E1685" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1685" t="inlineStr"/>
-      <c r="G1685" t="inlineStr"/>
+      <c r="G1685" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1685" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1686">
       <c r="A1686" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1686" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1686" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJAN</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1686" t="inlineStr"/>
-      <c r="E1686" t="inlineStr"/>
+      <c r="E1686" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F1686" t="inlineStr"/>
-      <c r="G1686" t="inlineStr"/>
+      <c r="G1686" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H1686" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1687">
       <c r="A1687" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1687" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1687" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
+          <t>Loans to Companies YoYDEC</t>
         </is>
       </c>
       <c r="D1687" t="inlineStr"/>
-      <c r="E1687" t="inlineStr"/>
+      <c r="E1687" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="F1687" t="inlineStr"/>
       <c r="G1687" t="inlineStr"/>
       <c r="H1687" t="inlineStr">
@@ -55616,29 +55242,29 @@
     <row r="1688">
       <c r="A1688" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1688" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1688" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
+          <t>Loans to Households YoYDEC</t>
         </is>
       </c>
       <c r="D1688" t="inlineStr"/>
       <c r="E1688" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1688" t="inlineStr"/>
       <c r="G1688" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1688" t="inlineStr">
@@ -55650,31 +55276,27 @@
     <row r="1689">
       <c r="A1689" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1689" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1689" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1689" t="inlineStr"/>
       <c r="E1689" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1689" t="inlineStr"/>
-      <c r="G1689" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="G1689" t="inlineStr"/>
       <c r="H1689" t="inlineStr">
         <is>
           <t>3</t>
@@ -55684,758 +55306,90 @@
     <row r="1690">
       <c r="A1690" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1690" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1690" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1690" t="inlineStr"/>
       <c r="E1690" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>85.8</t>
         </is>
       </c>
       <c r="F1690" t="inlineStr"/>
       <c r="G1690" t="inlineStr"/>
       <c r="H1690" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1691">
       <c r="A1691" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1691" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1691" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1691" t="inlineStr"/>
       <c r="E1691" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>96.3</t>
         </is>
       </c>
       <c r="F1691" t="inlineStr"/>
       <c r="G1691" t="inlineStr"/>
       <c r="H1691" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1692">
       <c r="A1692" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1692" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1692" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>10-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D1692" t="inlineStr"/>
-      <c r="E1692" t="inlineStr"/>
+      <c r="E1692" t="inlineStr">
+        <is>
+          <t>3.731%</t>
+        </is>
+      </c>
       <c r="F1692" t="inlineStr"/>
       <c r="G1692" t="inlineStr"/>
       <c r="H1692" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1693">
-      <c r="A1693" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1693" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1693" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="D1693" t="inlineStr"/>
-      <c r="E1693" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
-      <c r="F1693" t="inlineStr"/>
-      <c r="G1693" t="inlineStr"/>
-      <c r="H1693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1694">
-      <c r="A1694" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1694" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1694" t="inlineStr">
-        <is>
-          <t>Money SupplyDEC</t>
-        </is>
-      </c>
-      <c r="D1694" t="inlineStr"/>
-      <c r="E1694" t="inlineStr">
-        <is>
-          <t>$21.45T</t>
-        </is>
-      </c>
-      <c r="F1694" t="inlineStr"/>
-      <c r="G1694" t="inlineStr"/>
-      <c r="H1694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1695">
-      <c r="A1695" t="inlineStr">
-        <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1695" t="inlineStr"/>
-      <c r="C1695" t="inlineStr"/>
-      <c r="D1695" t="inlineStr"/>
-      <c r="E1695" t="inlineStr"/>
-      <c r="F1695" t="inlineStr"/>
-      <c r="G1695" t="inlineStr"/>
-      <c r="H1695" t="inlineStr"/>
-    </row>
-    <row r="1696">
-      <c r="A1696" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1696" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1696" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1696" t="inlineStr"/>
-      <c r="E1696" t="inlineStr"/>
-      <c r="F1696" t="inlineStr"/>
-      <c r="G1696" t="inlineStr"/>
-      <c r="H1696" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1697">
-      <c r="A1697" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1697" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1697" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1697" t="inlineStr"/>
-      <c r="E1697" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1697" t="inlineStr"/>
-      <c r="G1697" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="H1697" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1698">
-      <c r="A1698" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1698" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1698" t="inlineStr">
-        <is>
-          <t>Inflation Rate QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1698" t="inlineStr"/>
-      <c r="E1698" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1698" t="inlineStr"/>
-      <c r="G1698" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1698" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1699">
-      <c r="A1699" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1699" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1699" t="inlineStr">
-        <is>
-          <t>Monthly CPI IndicatorDEC</t>
-        </is>
-      </c>
-      <c r="D1699" t="inlineStr"/>
-      <c r="E1699" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="F1699" t="inlineStr"/>
-      <c r="G1699" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H1699" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1700">
-      <c r="A1700" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1700" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1700" t="inlineStr">
-        <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1700" t="inlineStr"/>
-      <c r="E1700" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1700" t="inlineStr"/>
-      <c r="G1700" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H1700" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1701">
-      <c r="A1701" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1701" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1701" t="inlineStr">
-        <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1701" t="inlineStr"/>
-      <c r="E1701" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="F1701" t="inlineStr"/>
-      <c r="G1701" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H1701" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1702">
-      <c r="A1702" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1702" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1702" t="inlineStr">
-        <is>
-          <t>CPIQ4</t>
-        </is>
-      </c>
-      <c r="D1702" t="inlineStr"/>
-      <c r="E1702" t="inlineStr"/>
-      <c r="F1702" t="inlineStr"/>
-      <c r="G1702" t="inlineStr">
-        <is>
-          <t>139.1</t>
-        </is>
-      </c>
-      <c r="H1702" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1703">
-      <c r="A1703" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1703" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1703" t="inlineStr">
-        <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1703" t="inlineStr"/>
-      <c r="E1703" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F1703" t="inlineStr"/>
-      <c r="G1703" t="inlineStr"/>
-      <c r="H1703" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1704">
-      <c r="A1704" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1704" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1704" t="inlineStr">
-        <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1704" t="inlineStr"/>
-      <c r="E1704" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F1704" t="inlineStr"/>
-      <c r="G1704" t="inlineStr"/>
-      <c r="H1704" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1705">
-      <c r="A1705" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
-      <c r="B1705" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1705" t="inlineStr">
-        <is>
-          <t>5-Year Climate Transition JGB Auction</t>
-        </is>
-      </c>
-      <c r="D1705" t="inlineStr"/>
-      <c r="E1705" t="inlineStr">
-        <is>
-          <t>0.595%</t>
-        </is>
-      </c>
-      <c r="F1705" t="inlineStr"/>
-      <c r="G1705" t="inlineStr"/>
-      <c r="H1705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1706">
-      <c r="A1706" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1706" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1706" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1706" t="inlineStr"/>
-      <c r="E1706" t="inlineStr">
-        <is>
-          <t>36.2</t>
-        </is>
-      </c>
-      <c r="F1706" t="inlineStr"/>
-      <c r="G1706" t="inlineStr"/>
-      <c r="H1706" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1707">
-      <c r="A1707" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B1707" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1707" t="inlineStr">
-        <is>
-          <t>GfK Consumer ConfidenceFEB</t>
-        </is>
-      </c>
-      <c r="D1707" t="inlineStr"/>
-      <c r="E1707" t="inlineStr">
-        <is>
-          <t>-21.3</t>
-        </is>
-      </c>
-      <c r="F1707" t="inlineStr"/>
-      <c r="G1707" t="inlineStr"/>
-      <c r="H1707" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1708">
-      <c r="A1708" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B1708" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1708" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
-        </is>
-      </c>
-      <c r="D1708" t="inlineStr"/>
-      <c r="E1708" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1708" t="inlineStr"/>
-      <c r="G1708" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1708" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1709">
-      <c r="A1709" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B1709" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1709" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
-        </is>
-      </c>
-      <c r="D1709" t="inlineStr"/>
-      <c r="E1709" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F1709" t="inlineStr"/>
-      <c r="G1709" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="H1709" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1710">
-      <c r="A1710" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1710" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1710" t="inlineStr">
-        <is>
-          <t>Loans to Companies YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1710" t="inlineStr"/>
-      <c r="E1710" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="F1710" t="inlineStr"/>
-      <c r="G1710" t="inlineStr"/>
-      <c r="H1710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1711">
-      <c r="A1711" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1711" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1711" t="inlineStr">
-        <is>
-          <t>Loans to Households YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1711" t="inlineStr"/>
-      <c r="E1711" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F1711" t="inlineStr"/>
-      <c r="G1711" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H1711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1712">
-      <c r="A1712" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1712" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1712" t="inlineStr">
-        <is>
-          <t>M3 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1712" t="inlineStr"/>
-      <c r="E1712" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F1712" t="inlineStr"/>
-      <c r="G1712" t="inlineStr"/>
-      <c r="H1712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1713">
-      <c r="A1713" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1713" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1713" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1713" t="inlineStr"/>
-      <c r="E1713" t="inlineStr">
-        <is>
-          <t>85.8</t>
-        </is>
-      </c>
-      <c r="F1713" t="inlineStr"/>
-      <c r="G1713" t="inlineStr"/>
-      <c r="H1713" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1714">
-      <c r="A1714" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1714" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1714" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1714" t="inlineStr"/>
-      <c r="E1714" t="inlineStr">
-        <is>
-          <t>96.3</t>
-        </is>
-      </c>
-      <c r="F1714" t="inlineStr"/>
-      <c r="G1714" t="inlineStr"/>
-      <c r="H1714" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1716"/>
+  <dimension ref="A1:H1699"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46555,10 +46555,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1405" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1405" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1406">
@@ -46593,10 +46591,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1407">
@@ -46631,10 +46627,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1408">
@@ -46669,10 +46663,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1409">
@@ -46703,10 +46695,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1410">
@@ -46741,10 +46731,8 @@
           <t>-2.3%</t>
         </is>
       </c>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1411">
@@ -46775,10 +46763,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1412">
@@ -46813,10 +46799,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1413">
@@ -46851,10 +46835,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1414">
@@ -46889,10 +46871,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1415">
@@ -46923,10 +46903,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1416">
@@ -46957,10 +46935,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1416" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1416" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1417">
@@ -46987,10 +46963,8 @@
       </c>
       <c r="F1417" t="inlineStr"/>
       <c r="G1417" t="inlineStr"/>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1418">
@@ -47017,10 +46991,8 @@
       </c>
       <c r="F1418" t="inlineStr"/>
       <c r="G1418" t="inlineStr"/>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1419">
@@ -47051,10 +47023,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1420">
@@ -47085,10 +47055,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1421">
@@ -47115,10 +47083,8 @@
       </c>
       <c r="F1421" t="inlineStr"/>
       <c r="G1421" t="inlineStr"/>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1422">
@@ -47145,10 +47111,8 @@
       </c>
       <c r="F1422" t="inlineStr"/>
       <c r="G1422" t="inlineStr"/>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1423">
@@ -47175,10 +47139,8 @@
       </c>
       <c r="F1423" t="inlineStr"/>
       <c r="G1423" t="inlineStr"/>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1424">
@@ -47201,10 +47163,8 @@
       <c r="E1424" t="inlineStr"/>
       <c r="F1424" t="inlineStr"/>
       <c r="G1424" t="inlineStr"/>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1425">
@@ -47235,10 +47195,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1426">
@@ -47269,10 +47227,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1427">
@@ -47291,10 +47247,8 @@
       <c r="E1427" t="inlineStr"/>
       <c r="F1427" t="inlineStr"/>
       <c r="G1427" t="inlineStr"/>
-      <c r="H1427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1428">
@@ -47317,10 +47271,8 @@
       </c>
       <c r="F1428" t="inlineStr"/>
       <c r="G1428" t="inlineStr"/>
-      <c r="H1428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1429">
@@ -47347,10 +47299,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1430">
@@ -47369,10 +47319,8 @@
       <c r="E1430" t="inlineStr"/>
       <c r="F1430" t="inlineStr"/>
       <c r="G1430" t="inlineStr"/>
-      <c r="H1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
@@ -47399,10 +47347,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -47429,10 +47375,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
@@ -47451,10 +47395,8 @@
       <c r="E1433" t="inlineStr"/>
       <c r="F1433" t="inlineStr"/>
       <c r="G1433" t="inlineStr"/>
-      <c r="H1433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1434">
@@ -47503,10 +47445,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1436">
@@ -47537,10 +47477,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1437">
@@ -47571,10 +47509,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1438">
@@ -47601,10 +47537,8 @@
       </c>
       <c r="F1438" t="inlineStr"/>
       <c r="G1438" t="inlineStr"/>
-      <c r="H1438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1439">
@@ -47631,10 +47565,8 @@
       </c>
       <c r="F1439" t="inlineStr"/>
       <c r="G1439" t="inlineStr"/>
-      <c r="H1439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1440">
@@ -47661,10 +47593,8 @@
       </c>
       <c r="F1440" t="inlineStr"/>
       <c r="G1440" t="inlineStr"/>
-      <c r="H1440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1441">
@@ -47695,10 +47625,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1441" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1441" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1442">
@@ -47733,10 +47661,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1442" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1442" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1443">
@@ -47771,10 +47697,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1443" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1443" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1444">
@@ -47805,10 +47729,8 @@
           <t>40.0K</t>
         </is>
       </c>
-      <c r="H1444" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1444" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1445">
@@ -47843,10 +47765,8 @@
           <t>5.4%</t>
         </is>
       </c>
-      <c r="H1445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1445" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1446">
@@ -47881,10 +47801,8 @@
           <t>15.0K</t>
         </is>
       </c>
-      <c r="H1446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1447">
@@ -47915,10 +47833,8 @@
           <t>-20.0K</t>
         </is>
       </c>
-      <c r="H1447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1448">
@@ -47949,10 +47865,8 @@
           <t>-3.0%</t>
         </is>
       </c>
-      <c r="H1448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1449">
@@ -47983,10 +47897,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H1449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1450">
@@ -48017,10 +47929,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1450" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1451">
@@ -48055,10 +47965,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1451" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1451" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1452">
@@ -48093,10 +48001,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1452" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1452" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1453">
@@ -48131,10 +48037,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1453" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1454">
@@ -48161,10 +48065,8 @@
       </c>
       <c r="F1454" t="inlineStr"/>
       <c r="G1454" t="inlineStr"/>
-      <c r="H1454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1454" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1455">
@@ -48191,10 +48093,8 @@
       </c>
       <c r="F1455" t="inlineStr"/>
       <c r="G1455" t="inlineStr"/>
-      <c r="H1455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1455" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1456">
@@ -48225,10 +48125,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1456" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1457">
@@ -48259,10 +48157,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1457" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1457" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1458">
@@ -48297,10 +48193,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1458" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1458" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1459">
@@ -48331,10 +48225,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1459" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1459" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1460">
@@ -48369,10 +48261,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1460" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1460" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1461">
@@ -48403,10 +48293,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1461" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1461" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1462">
@@ -48441,10 +48329,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1462" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1463">
@@ -48479,10 +48365,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1463" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1464">
@@ -48509,10 +48393,8 @@
       </c>
       <c r="F1464" t="inlineStr"/>
       <c r="G1464" t="inlineStr"/>
-      <c r="H1464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1464" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1465">
@@ -48539,10 +48421,8 @@
       </c>
       <c r="F1465" t="inlineStr"/>
       <c r="G1465" t="inlineStr"/>
-      <c r="H1465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1465" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1466">
@@ -48569,10 +48449,8 @@
       </c>
       <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr"/>
-      <c r="H1466" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1466" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1467">
@@ -48599,10 +48477,8 @@
       </c>
       <c r="F1467" t="inlineStr"/>
       <c r="G1467" t="inlineStr"/>
-      <c r="H1467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1467" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1468">
@@ -48621,10 +48497,8 @@
       <c r="E1468" t="inlineStr"/>
       <c r="F1468" t="inlineStr"/>
       <c r="G1468" t="inlineStr"/>
-      <c r="H1468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1468" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1469">
@@ -48669,10 +48543,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1470" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1470" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1471">
@@ -48703,10 +48575,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1471" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1471" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1472">
@@ -48741,10 +48611,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1472" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1472" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1473">
@@ -48775,10 +48643,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1473" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1473" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1474">
@@ -48809,10 +48675,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1474" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1474" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1475">
@@ -48843,10 +48707,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1475" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1475" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1476">
@@ -48877,10 +48739,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1476" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1476" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1477">
@@ -48907,10 +48767,8 @@
       </c>
       <c r="F1477" t="inlineStr"/>
       <c r="G1477" t="inlineStr"/>
-      <c r="H1477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1477" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1478">
@@ -48941,10 +48799,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1478" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1479">
@@ -48975,10 +48831,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1479" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1480">
@@ -49005,10 +48859,8 @@
       </c>
       <c r="F1480" t="inlineStr"/>
       <c r="G1480" t="inlineStr"/>
-      <c r="H1480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1480" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1481">
@@ -49035,10 +48887,8 @@
       </c>
       <c r="F1481" t="inlineStr"/>
       <c r="G1481" t="inlineStr"/>
-      <c r="H1481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1481" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1482">
@@ -49065,10 +48915,8 @@
       </c>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
-      <c r="H1482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1482" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1483">
@@ -49095,10 +48943,8 @@
       </c>
       <c r="F1483" t="inlineStr"/>
       <c r="G1483" t="inlineStr"/>
-      <c r="H1483" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1483" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1484">
@@ -49125,10 +48971,8 @@
       </c>
       <c r="F1484" t="inlineStr"/>
       <c r="G1484" t="inlineStr"/>
-      <c r="H1484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1484" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1485">
@@ -49155,10 +48999,8 @@
       </c>
       <c r="F1485" t="inlineStr"/>
       <c r="G1485" t="inlineStr"/>
-      <c r="H1485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1485" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1486">
@@ -49185,10 +49027,8 @@
       </c>
       <c r="F1486" t="inlineStr"/>
       <c r="G1486" t="inlineStr"/>
-      <c r="H1486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1486" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1487">
@@ -49215,10 +49055,8 @@
       </c>
       <c r="F1487" t="inlineStr"/>
       <c r="G1487" t="inlineStr"/>
-      <c r="H1487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1487" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1488">
@@ -49253,10 +49091,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1488" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1489">
@@ -49287,10 +49123,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1489" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1490">
@@ -49325,10 +49159,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1490" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1490" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1491">
@@ -49359,10 +49191,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1491" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1492">
@@ -49389,10 +49219,8 @@
       </c>
       <c r="F1492" t="inlineStr"/>
       <c r="G1492" t="inlineStr"/>
-      <c r="H1492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1492" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1493">
@@ -49427,10 +49255,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1493" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1494">
@@ -49453,10 +49279,8 @@
       <c r="E1494" t="inlineStr"/>
       <c r="F1494" t="inlineStr"/>
       <c r="G1494" t="inlineStr"/>
-      <c r="H1494" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1494" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1495">
@@ -49483,10 +49307,8 @@
       </c>
       <c r="F1495" t="inlineStr"/>
       <c r="G1495" t="inlineStr"/>
-      <c r="H1495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1495" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1496">
@@ -49513,10 +49335,8 @@
       </c>
       <c r="F1496" t="inlineStr"/>
       <c r="G1496" t="inlineStr"/>
-      <c r="H1496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1496" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1497">
@@ -49561,10 +49381,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1498" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1499">
@@ -49595,10 +49413,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1499" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1499" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1500">
@@ -49625,10 +49441,8 @@
       </c>
       <c r="F1500" t="inlineStr"/>
       <c r="G1500" t="inlineStr"/>
-      <c r="H1500" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1500" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1501">
@@ -49663,10 +49477,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1501" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1501" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1502">
@@ -49701,10 +49513,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1502" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1503">
@@ -49739,10 +49549,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1503" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1503" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1504">
@@ -49777,10 +49585,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1504" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1504" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1505">
@@ -49807,10 +49613,8 @@
       </c>
       <c r="F1505" t="inlineStr"/>
       <c r="G1505" t="inlineStr"/>
-      <c r="H1505" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1505" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1506">
@@ -49845,10 +49649,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1506" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1507">
@@ -49875,10 +49677,8 @@
       </c>
       <c r="F1507" t="inlineStr"/>
       <c r="G1507" t="inlineStr"/>
-      <c r="H1507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1508">
@@ -49905,10 +49705,8 @@
       </c>
       <c r="F1508" t="inlineStr"/>
       <c r="G1508" t="inlineStr"/>
-      <c r="H1508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1509">
@@ -49935,10 +49733,8 @@
       </c>
       <c r="F1509" t="inlineStr"/>
       <c r="G1509" t="inlineStr"/>
-      <c r="H1509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1510">
@@ -49965,10 +49761,8 @@
       </c>
       <c r="F1510" t="inlineStr"/>
       <c r="G1510" t="inlineStr"/>
-      <c r="H1510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1511">
@@ -49999,10 +49793,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1512">
@@ -50033,10 +49825,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1513">
@@ -50067,10 +49857,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1514">
@@ -50101,10 +49889,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1515">
@@ -50131,10 +49917,8 @@
       </c>
       <c r="F1515" t="inlineStr"/>
       <c r="G1515" t="inlineStr"/>
-      <c r="H1515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1516">
@@ -50161,10 +49945,8 @@
       </c>
       <c r="F1516" t="inlineStr"/>
       <c r="G1516" t="inlineStr"/>
-      <c r="H1516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1517">
@@ -50195,10 +49977,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1517" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1517" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1518">
@@ -50233,10 +50013,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1518" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1518" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1519">
@@ -50267,10 +50045,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1519" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1520">
@@ -50297,10 +50073,8 @@
       </c>
       <c r="F1520" t="inlineStr"/>
       <c r="G1520" t="inlineStr"/>
-      <c r="H1520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1521">
@@ -50327,10 +50101,8 @@
       </c>
       <c r="F1521" t="inlineStr"/>
       <c r="G1521" t="inlineStr"/>
-      <c r="H1521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1522">
@@ -50357,10 +50129,8 @@
       </c>
       <c r="F1522" t="inlineStr"/>
       <c r="G1522" t="inlineStr"/>
-      <c r="H1522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1522" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1523">
@@ -50387,10 +50157,8 @@
       </c>
       <c r="F1523" t="inlineStr"/>
       <c r="G1523" t="inlineStr"/>
-      <c r="H1523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1524">
@@ -50417,10 +50185,8 @@
       </c>
       <c r="F1524" t="inlineStr"/>
       <c r="G1524" t="inlineStr"/>
-      <c r="H1524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1524" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1525">
@@ -50447,10 +50213,8 @@
       </c>
       <c r="F1525" t="inlineStr"/>
       <c r="G1525" t="inlineStr"/>
-      <c r="H1525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1526">
@@ -50477,10 +50241,8 @@
       </c>
       <c r="F1526" t="inlineStr"/>
       <c r="G1526" t="inlineStr"/>
-      <c r="H1526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1527">
@@ -50507,10 +50269,8 @@
       </c>
       <c r="F1527" t="inlineStr"/>
       <c r="G1527" t="inlineStr"/>
-      <c r="H1527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1527" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1528">
@@ -50541,10 +50301,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1528" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1529">
@@ -50575,10 +50333,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1529" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1529" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1530">
@@ -50613,10 +50369,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1530" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1530" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1531">
@@ -50647,10 +50401,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1531" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1532">
@@ -50681,10 +50433,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1532" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1532" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1533">
@@ -50719,10 +50469,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1533" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1533" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1534">
@@ -50749,10 +50497,8 @@
       </c>
       <c r="F1534" t="inlineStr"/>
       <c r="G1534" t="inlineStr"/>
-      <c r="H1534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1534" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1535">
@@ -50783,10 +50529,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1535" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1536">
@@ -50817,10 +50561,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1536" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1537">
@@ -50851,10 +50593,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1537" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1538">
@@ -50885,10 +50625,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1538" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1539">
@@ -50923,10 +50661,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1539" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1539" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1540">
@@ -50961,10 +50697,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1540" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1540" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1541">
@@ -50987,10 +50721,8 @@
       <c r="E1541" t="inlineStr"/>
       <c r="F1541" t="inlineStr"/>
       <c r="G1541" t="inlineStr"/>
-      <c r="H1541" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1541" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1542">
@@ -51021,10 +50753,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1543">
@@ -51059,10 +50789,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1543" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1543" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1544">
@@ -51093,10 +50821,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1545">
@@ -51127,10 +50853,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1545" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1546">
@@ -51165,10 +50889,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1546" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1546" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1547">
@@ -51195,10 +50917,8 @@
       </c>
       <c r="F1547" t="inlineStr"/>
       <c r="G1547" t="inlineStr"/>
-      <c r="H1547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1547" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1548">
@@ -51225,10 +50945,8 @@
       </c>
       <c r="F1548" t="inlineStr"/>
       <c r="G1548" t="inlineStr"/>
-      <c r="H1548" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1548" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1549">
@@ -51255,10 +50973,8 @@
       </c>
       <c r="F1549" t="inlineStr"/>
       <c r="G1549" t="inlineStr"/>
-      <c r="H1549" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1549" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1550">
@@ -51285,10 +51001,8 @@
       </c>
       <c r="F1550" t="inlineStr"/>
       <c r="G1550" t="inlineStr"/>
-      <c r="H1550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1550" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1551">
@@ -51315,10 +51029,8 @@
       </c>
       <c r="F1551" t="inlineStr"/>
       <c r="G1551" t="inlineStr"/>
-      <c r="H1551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1552">
@@ -51345,10 +51057,8 @@
       </c>
       <c r="F1552" t="inlineStr"/>
       <c r="G1552" t="inlineStr"/>
-      <c r="H1552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1553">
@@ -51375,10 +51085,8 @@
       </c>
       <c r="F1553" t="inlineStr"/>
       <c r="G1553" t="inlineStr"/>
-      <c r="H1553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1554">
@@ -51405,10 +51113,8 @@
       </c>
       <c r="F1554" t="inlineStr"/>
       <c r="G1554" t="inlineStr"/>
-      <c r="H1554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1554" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1555">
@@ -51435,10 +51141,8 @@
       </c>
       <c r="F1555" t="inlineStr"/>
       <c r="G1555" t="inlineStr"/>
-      <c r="H1555" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1555" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1556">
@@ -51465,10 +51169,8 @@
       </c>
       <c r="F1556" t="inlineStr"/>
       <c r="G1556" t="inlineStr"/>
-      <c r="H1556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1556" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1557">
@@ -51495,10 +51197,8 @@
       </c>
       <c r="F1557" t="inlineStr"/>
       <c r="G1557" t="inlineStr"/>
-      <c r="H1557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1557" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1558">
@@ -51525,10 +51225,8 @@
       </c>
       <c r="F1558" t="inlineStr"/>
       <c r="G1558" t="inlineStr"/>
-      <c r="H1558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1558" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1559">
@@ -51555,10 +51253,8 @@
       </c>
       <c r="F1559" t="inlineStr"/>
       <c r="G1559" t="inlineStr"/>
-      <c r="H1559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1559" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1560">
@@ -51585,10 +51281,8 @@
       </c>
       <c r="F1560" t="inlineStr"/>
       <c r="G1560" t="inlineStr"/>
-      <c r="H1560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1560" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1561">
@@ -51615,10 +51309,8 @@
       </c>
       <c r="F1561" t="inlineStr"/>
       <c r="G1561" t="inlineStr"/>
-      <c r="H1561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1562">
@@ -51645,10 +51337,8 @@
       </c>
       <c r="F1562" t="inlineStr"/>
       <c r="G1562" t="inlineStr"/>
-      <c r="H1562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1563">
@@ -51671,10 +51361,8 @@
       </c>
       <c r="F1563" t="inlineStr"/>
       <c r="G1563" t="inlineStr"/>
-      <c r="H1563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1563" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1564">
@@ -51701,256 +51389,290 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1564" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1565">
       <c r="A1565" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1565" t="inlineStr"/>
-      <c r="C1565" t="inlineStr"/>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B1565" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C1565" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D1565" t="inlineStr"/>
-      <c r="E1565" t="inlineStr"/>
+      <c r="E1565" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1565" t="inlineStr"/>
-      <c r="G1565" t="inlineStr"/>
-      <c r="H1565" t="inlineStr"/>
+      <c r="G1565" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="H1565" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1566" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1566" t="inlineStr"/>
       <c r="E1566" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F1566" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F1566" t="inlineStr">
+        <is>
+          <t>42.1</t>
+        </is>
+      </c>
       <c r="G1566" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="H1566" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr"/>
       <c r="E1567" t="inlineStr">
         <is>
-          <t>$6.83T</t>
-        </is>
-      </c>
-      <c r="F1567" t="inlineStr"/>
-      <c r="G1567" t="inlineStr"/>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F1567" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="G1567" t="inlineStr">
+        <is>
+          <t>49.5</t>
+        </is>
+      </c>
       <c r="H1567" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1568" t="inlineStr"/>
       <c r="E1568" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="F1568" t="inlineStr"/>
       <c r="G1568" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H1568" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1569" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F1569" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
       <c r="G1569" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="H1569" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1570" t="inlineStr"/>
       <c r="E1570" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F1570" t="inlineStr"/>
       <c r="G1570" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="H1570" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1571" t="inlineStr"/>
       <c r="E1571" t="inlineStr">
         <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F1571" t="inlineStr"/>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F1571" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="G1571" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1571" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1572" t="inlineStr"/>
       <c r="E1572" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1572" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F1572" t="inlineStr"/>
       <c r="G1572" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="H1572" t="inlineStr">
@@ -51962,75 +51684,83 @@
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1573" t="inlineStr"/>
       <c r="E1573" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1573" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F1573" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="G1573" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H1573" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1574" t="inlineStr"/>
       <c r="E1574" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1574" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F1574" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="G1574" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H1574" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr">
@@ -52040,23 +51770,23 @@
       </c>
       <c r="C1575" t="inlineStr">
         <is>
-          <t>Gfk Consumer ConfidenceJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1575" t="inlineStr"/>
       <c r="E1575" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F1575" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="G1575" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="H1575" t="inlineStr">
@@ -52068,135 +51798,127 @@
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr"/>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F1576" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="G1576" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1576" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1577" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1577" t="inlineStr"/>
       <c r="E1577" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F1577" t="inlineStr"/>
       <c r="G1577" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="H1577" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FlashJAN</t>
+          <t>ECB President Lagarde Speech</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr"/>
-      <c r="E1578" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
+      <c r="E1578" t="inlineStr"/>
       <c r="F1578" t="inlineStr"/>
-      <c r="G1578" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G1578" t="inlineStr"/>
       <c r="H1578" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>URA Property Index QoQ FinalQ4</t>
+          <t>FGV Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr"/>
       <c r="E1579" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F1579" t="inlineStr"/>
       <c r="G1579" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>91.4</t>
         </is>
       </c>
       <c r="H1579" t="inlineStr">
@@ -52208,61 +51930,61 @@
     <row r="1580">
       <c r="A1580" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>BoJ Interest Rate Decision</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr"/>
-      <c r="E1580" t="inlineStr">
-        <is>
-          <t>0.25%</t>
-        </is>
-      </c>
-      <c r="F1580" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1580" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E1580" t="inlineStr"/>
+      <c r="F1580" t="inlineStr"/>
+      <c r="G1580" t="inlineStr"/>
       <c r="H1580" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1581">
       <c r="A1581" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>BoJ Quarterly Outlook Report</t>
+          <t>CBI Distributive TradesJAN</t>
         </is>
       </c>
       <c r="D1581" t="inlineStr"/>
-      <c r="E1581" t="inlineStr"/>
-      <c r="F1581" t="inlineStr"/>
-      <c r="G1581" t="inlineStr"/>
+      <c r="E1581" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="F1581" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="G1581" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
       <c r="H1581" t="inlineStr">
         <is>
           <t>2</t>
@@ -52272,23 +51994,23 @@
     <row r="1582">
       <c r="A1582" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>Foreign Direct Investment YoYQ4</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr"/>
       <c r="E1582" t="inlineStr">
         <is>
-          <t>18.55%</t>
+          <t>$625.87B</t>
         </is>
       </c>
       <c r="F1582" t="inlineStr"/>
@@ -52302,199 +52024,203 @@
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr"/>
       <c r="E1583" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1583" t="inlineStr"/>
       <c r="G1583" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1583" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr"/>
       <c r="E1584" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1584" t="inlineStr"/>
       <c r="G1584" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1584" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr"/>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1585" t="inlineStr"/>
       <c r="G1585" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1585" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1586" t="inlineStr"/>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1586" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1586" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1586" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1586" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr"/>
       <c r="E1587" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1587" t="inlineStr"/>
       <c r="G1587" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1587" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1588" t="inlineStr"/>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1588" t="inlineStr"/>
       <c r="G1588" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1588" t="inlineStr">
@@ -52506,33 +52232,29 @@
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1589" t="inlineStr"/>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1589" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1589" t="inlineStr"/>
       <c r="G1589" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1589" t="inlineStr">
@@ -52544,33 +52266,29 @@
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1590" t="inlineStr"/>
       <c r="E1590" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1590" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1590" t="inlineStr"/>
       <c r="G1590" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1590" t="inlineStr">
@@ -52582,67 +52300,67 @@
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1591" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1591" t="inlineStr"/>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1591" t="inlineStr"/>
       <c r="G1591" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1591" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1592" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1592" t="inlineStr"/>
       <c r="E1592" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1592" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1592" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1592" t="inlineStr">
@@ -52654,29 +52372,29 @@
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1593" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1593" t="inlineStr"/>
       <c r="E1593" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1593" t="inlineStr"/>
       <c r="G1593" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1593" t="inlineStr">
@@ -52688,33 +52406,33 @@
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1594" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1594" t="inlineStr"/>
       <c r="E1594" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1594" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr">
@@ -52726,215 +52444,215 @@
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1595" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1595" t="inlineStr"/>
       <c r="E1595" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1595" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1595" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1595" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1595" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1596" t="inlineStr"/>
       <c r="E1596" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1596" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1596" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1596" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1597" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1597" t="inlineStr"/>
       <c r="E1597" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1597" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1597" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1597" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1598" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1598" t="inlineStr"/>
       <c r="E1598" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1598" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1598" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1598" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1599" t="inlineStr"/>
       <c r="E1599" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1599" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1599" t="inlineStr"/>
       <c r="G1599" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1599" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1600" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1600" t="inlineStr"/>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1600" t="inlineStr"/>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1600" t="inlineStr">
@@ -52946,57 +52664,57 @@
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1601" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1601" t="inlineStr"/>
-      <c r="E1601" t="inlineStr"/>
+      <c r="E1601" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1601" t="inlineStr"/>
       <c r="G1601" t="inlineStr"/>
       <c r="H1601" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1602" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1602" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1602" t="inlineStr"/>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1602" t="inlineStr"/>
-      <c r="G1602" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1602" t="inlineStr"/>
       <c r="H1602" t="inlineStr">
         <is>
           <t>3</t>
@@ -53006,87 +52724,71 @@
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1603" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1603" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1603" t="inlineStr"/>
+      <c r="C1603" t="inlineStr"/>
       <c r="D1603" t="inlineStr"/>
       <c r="E1603" t="inlineStr"/>
       <c r="F1603" t="inlineStr"/>
       <c r="G1603" t="inlineStr"/>
-      <c r="H1603" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1603" t="inlineStr"/>
     </row>
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1604" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1604" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1604" t="inlineStr"/>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1604" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F1604" t="inlineStr"/>
       <c r="G1604" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1604" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>$625.87B</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1605" t="inlineStr"/>
@@ -53100,31 +52802,27 @@
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr"/>
-      <c r="G1606" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1606" t="inlineStr"/>
       <c r="H1606" t="inlineStr">
         <is>
           <t>3</t>
@@ -53134,31 +52832,27 @@
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr"/>
-      <c r="G1607" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1607" t="inlineStr"/>
       <c r="H1607" t="inlineStr">
         <is>
           <t>3</t>
@@ -53168,31 +52862,23 @@
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
-      <c r="E1608" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1608" t="inlineStr"/>
       <c r="F1608" t="inlineStr"/>
-      <c r="G1608" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1608" t="inlineStr"/>
       <c r="H1608" t="inlineStr">
         <is>
           <t>3</t>
@@ -53202,69 +52888,53 @@
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
-      <c r="E1609" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1609" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1609" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1609" t="inlineStr"/>
+      <c r="F1609" t="inlineStr"/>
+      <c r="G1609" t="inlineStr"/>
       <c r="H1609" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1610" t="inlineStr"/>
-      <c r="G1610" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1610" t="inlineStr"/>
       <c r="H1610" t="inlineStr">
         <is>
           <t>2</t>
@@ -53274,31 +52944,27 @@
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr"/>
-      <c r="G1611" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1611" t="inlineStr"/>
       <c r="H1611" t="inlineStr">
         <is>
           <t>3</t>
@@ -53308,169 +52974,145 @@
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr"/>
-      <c r="G1612" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1612" t="inlineStr"/>
       <c r="H1612" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1613" t="inlineStr"/>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr"/>
-      <c r="G1613" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1613" t="inlineStr"/>
       <c r="H1613" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr"/>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F1614" t="inlineStr"/>
-      <c r="G1614" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1614" t="inlineStr"/>
       <c r="H1614" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:15 PM</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr"/>
-      <c r="E1615" t="inlineStr">
-        <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1615" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1615" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+      <c r="E1615" t="inlineStr"/>
+      <c r="F1615" t="inlineStr"/>
+      <c r="G1615" t="inlineStr"/>
       <c r="H1615" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1616" t="inlineStr"/>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>43.5K</t>
         </is>
       </c>
       <c r="F1616" t="inlineStr"/>
       <c r="G1616" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1616" t="inlineStr">
@@ -53482,71 +53124,63 @@
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1617" t="inlineStr"/>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1617" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1617" t="inlineStr"/>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1617" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1618" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1618" t="inlineStr"/>
       <c r="G1618" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1618" t="inlineStr">
@@ -53558,35 +53192,27 @@
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1619" t="inlineStr"/>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1619" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
-      <c r="G1619" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1619" t="inlineStr"/>
+      <c r="G1619" t="inlineStr"/>
       <c r="H1619" t="inlineStr">
         <is>
           <t>3</t>
@@ -53596,35 +53222,27 @@
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1620" t="inlineStr"/>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1620" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1620" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1620" t="inlineStr"/>
+      <c r="G1620" t="inlineStr"/>
       <c r="H1620" t="inlineStr">
         <is>
           <t>3</t>
@@ -53634,67 +53252,63 @@
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1621" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>$-0.133B</t>
+        </is>
+      </c>
+      <c r="F1621" t="inlineStr"/>
       <c r="G1621" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1621" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1622" t="inlineStr"/>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1622" t="inlineStr">
@@ -53706,7 +53320,7 @@
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
@@ -53716,51 +53330,55 @@
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr"/>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr"/>
       <c r="G1623" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="H1623" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
       <c r="E1624" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1624" t="inlineStr"/>
-      <c r="G1624" t="inlineStr"/>
+      <c r="G1624" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1624" t="inlineStr">
         <is>
           <t>3</t>
@@ -53770,25 +53388,21 @@
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1625" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1625" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1625" t="inlineStr"/>
-      <c r="E1625" t="inlineStr">
-        <is>
-          <t>580</t>
-        </is>
-      </c>
+      <c r="E1625" t="inlineStr"/>
       <c r="F1625" t="inlineStr"/>
       <c r="G1625" t="inlineStr"/>
       <c r="H1625" t="inlineStr">
@@ -53800,45 +53414,49 @@
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1626" t="inlineStr"/>
-      <c r="C1626" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1626" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1626" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1626" t="inlineStr"/>
       <c r="E1626" t="inlineStr"/>
       <c r="F1626" t="inlineStr"/>
       <c r="G1626" t="inlineStr"/>
-      <c r="H1626" t="inlineStr"/>
+      <c r="H1626" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1627" t="inlineStr"/>
-      <c r="E1627" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1627" t="inlineStr"/>
       <c r="F1627" t="inlineStr"/>
-      <c r="G1627" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1627" t="inlineStr"/>
       <c r="H1627" t="inlineStr">
         <is>
           <t>3</t>
@@ -53848,107 +53466,103 @@
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1628" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1628" t="inlineStr"/>
-      <c r="E1628" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1628" t="inlineStr"/>
       <c r="F1628" t="inlineStr"/>
       <c r="G1628" t="inlineStr"/>
       <c r="H1628" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1629" t="inlineStr"/>
-      <c r="E1629" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1629" t="inlineStr"/>
       <c r="F1629" t="inlineStr"/>
-      <c r="G1629" t="inlineStr"/>
+      <c r="G1629" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1629" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1630" t="inlineStr"/>
       <c r="E1630" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1630" t="inlineStr"/>
       <c r="G1630" t="inlineStr"/>
       <c r="H1630" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1631" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1631" t="inlineStr"/>
@@ -53964,17 +53578,17 @@
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1632" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1632" t="inlineStr"/>
@@ -53990,55 +53604,47 @@
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr"/>
-      <c r="E1633" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1633" t="inlineStr"/>
       <c r="F1633" t="inlineStr"/>
       <c r="G1633" t="inlineStr"/>
       <c r="H1633" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1634">
       <c r="A1634" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1634" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1634" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1634" t="inlineStr"/>
-      <c r="E1634" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1634" t="inlineStr"/>
       <c r="F1634" t="inlineStr"/>
       <c r="G1634" t="inlineStr"/>
       <c r="H1634" t="inlineStr">
@@ -54048,59 +53654,63 @@
       </c>
     </row>
     <row r="1635">
-      <c r="A1635" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1635" t="inlineStr"/>
       <c r="B1635" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1635" t="inlineStr"/>
       <c r="E1635" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1635" t="inlineStr"/>
-      <c r="G1635" t="inlineStr"/>
+      <c r="G1635" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1635" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1636">
-      <c r="A1636" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1636" t="inlineStr"/>
       <c r="B1636" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1636" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1636" t="inlineStr"/>
       <c r="E1636" t="inlineStr">
         <is>
-          <t>85.1</t>
-        </is>
-      </c>
-      <c r="F1636" t="inlineStr"/>
-      <c r="G1636" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1636" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1636" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1636" t="inlineStr">
         <is>
           <t>3</t>
@@ -54110,121 +53720,109 @@
     <row r="1637">
       <c r="A1637" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1637" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1637" t="inlineStr">
-        <is>
-          <t>Ifo ExpectationsJAN</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1637" t="inlineStr"/>
+      <c r="C1637" t="inlineStr"/>
       <c r="D1637" t="inlineStr"/>
-      <c r="E1637" t="inlineStr">
-        <is>
-          <t>84.4</t>
-        </is>
-      </c>
+      <c r="E1637" t="inlineStr"/>
       <c r="F1637" t="inlineStr"/>
       <c r="G1637" t="inlineStr"/>
-      <c r="H1637" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1637" t="inlineStr"/>
     </row>
     <row r="1638">
       <c r="A1638" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1638" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1638" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1638" t="inlineStr"/>
-      <c r="E1638" t="inlineStr"/>
+      <c r="E1638" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1638" t="inlineStr"/>
-      <c r="G1638" t="inlineStr"/>
+      <c r="G1638" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1638" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1639" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1639" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1639" t="inlineStr"/>
       <c r="E1639" t="inlineStr">
         <is>
-          <t>43.5K</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1639" t="inlineStr"/>
       <c r="G1639" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="H1639" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1640" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1640" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1640" t="inlineStr"/>
       <c r="E1640" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1640" t="inlineStr"/>
-      <c r="G1640" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1640" t="inlineStr"/>
       <c r="H1640" t="inlineStr">
         <is>
           <t>3</t>
@@ -54234,29 +53832,29 @@
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1641" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1641" t="inlineStr"/>
       <c r="E1641" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1641" t="inlineStr"/>
       <c r="G1641" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1641" t="inlineStr">
@@ -54268,27 +53866,31 @@
     <row r="1642">
       <c r="A1642" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1642" t="inlineStr"/>
       <c r="E1642" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1642" t="inlineStr"/>
-      <c r="G1642" t="inlineStr"/>
+      <c r="G1642" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1642" t="inlineStr">
         <is>
           <t>3</t>
@@ -54298,27 +53900,31 @@
     <row r="1643">
       <c r="A1643" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1643" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1643" t="inlineStr"/>
       <c r="E1643" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1643" t="inlineStr"/>
-      <c r="G1643" t="inlineStr"/>
+      <c r="G1643" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1643" t="inlineStr">
         <is>
           <t>3</t>
@@ -54328,97 +53934,93 @@
     <row r="1644">
       <c r="A1644" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1644" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1644" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1644" t="inlineStr"/>
       <c r="E1644" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1644" t="inlineStr"/>
       <c r="G1644" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1644" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1645">
       <c r="A1645" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1645" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1645" t="inlineStr"/>
       <c r="E1645" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1645" t="inlineStr"/>
-      <c r="G1645" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1645" t="inlineStr"/>
       <c r="H1645" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1646">
       <c r="A1646" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1646" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1646" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1646" t="inlineStr"/>
       <c r="E1646" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1646" t="inlineStr"/>
       <c r="G1646" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1646" t="inlineStr">
@@ -54430,31 +54032,27 @@
     <row r="1647">
       <c r="A1647" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1647" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1647" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1647" t="inlineStr"/>
       <c r="E1647" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1647" t="inlineStr"/>
-      <c r="G1647" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1647" t="inlineStr"/>
       <c r="H1647" t="inlineStr">
         <is>
           <t>3</t>
@@ -54464,17 +54062,17 @@
     <row r="1648">
       <c r="A1648" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1648" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1648" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1648" t="inlineStr"/>
@@ -54490,17 +54088,17 @@
     <row r="1649">
       <c r="A1649" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1649" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1649" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1649" t="inlineStr"/>
@@ -54516,17 +54114,17 @@
     <row r="1650">
       <c r="A1650" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1650" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1650" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1650" t="inlineStr"/>
@@ -54542,33 +54140,37 @@
     <row r="1651">
       <c r="A1651" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1651" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1651" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1651" t="inlineStr"/>
-      <c r="E1651" t="inlineStr"/>
+      <c r="E1651" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1651" t="inlineStr"/>
       <c r="G1651" t="inlineStr"/>
       <c r="H1651" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1652">
       <c r="A1652" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1652" t="inlineStr">
@@ -54578,27 +54180,31 @@
       </c>
       <c r="C1652" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1652" t="inlineStr"/>
-      <c r="E1652" t="inlineStr"/>
+      <c r="E1652" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1652" t="inlineStr"/>
       <c r="G1652" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1652" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1653">
       <c r="A1653" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1653" t="inlineStr">
@@ -54608,17 +54214,21 @@
       </c>
       <c r="C1653" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1653" t="inlineStr"/>
       <c r="E1653" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1653" t="inlineStr"/>
-      <c r="G1653" t="inlineStr"/>
+      <c r="G1653" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1653" t="inlineStr">
         <is>
           <t>2</t>
@@ -54628,7 +54238,7 @@
     <row r="1654">
       <c r="A1654" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1654" t="inlineStr">
@@ -54638,13 +54248,21 @@
       </c>
       <c r="C1654" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1654" t="inlineStr"/>
-      <c r="E1654" t="inlineStr"/>
+      <c r="E1654" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1654" t="inlineStr"/>
-      <c r="G1654" t="inlineStr"/>
+      <c r="G1654" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1654" t="inlineStr">
         <is>
           <t>3</t>
@@ -54654,7 +54272,7 @@
     <row r="1655">
       <c r="A1655" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1655" t="inlineStr">
@@ -54664,11 +54282,15 @@
       </c>
       <c r="C1655" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1655" t="inlineStr"/>
-      <c r="E1655" t="inlineStr"/>
+      <c r="E1655" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1655" t="inlineStr"/>
       <c r="G1655" t="inlineStr"/>
       <c r="H1655" t="inlineStr">
@@ -54680,7 +54302,7 @@
     <row r="1656">
       <c r="A1656" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B1656" t="inlineStr">
@@ -54690,7 +54312,7 @@
       </c>
       <c r="C1656" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1656" t="inlineStr"/>
@@ -54706,7 +54328,7 @@
     <row r="1657">
       <c r="A1657" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1657" t="inlineStr">
@@ -54716,21 +54338,29 @@
       </c>
       <c r="C1657" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1657" t="inlineStr"/>
-      <c r="E1657" t="inlineStr"/>
+      <c r="E1657" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1657" t="inlineStr"/>
       <c r="G1657" t="inlineStr"/>
       <c r="H1657" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1658">
-      <c r="A1658" t="inlineStr"/>
+      <c r="A1658" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1658" t="inlineStr">
         <is>
           <t>US</t>
@@ -54738,21 +54368,17 @@
       </c>
       <c r="C1658" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1658" t="inlineStr"/>
       <c r="E1658" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1658" t="inlineStr"/>
-      <c r="G1658" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1658" t="inlineStr"/>
       <c r="H1658" t="inlineStr">
         <is>
           <t>3</t>
@@ -54760,7 +54386,11 @@
       </c>
     </row>
     <row r="1659">
-      <c r="A1659" t="inlineStr"/>
+      <c r="A1659" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1659" t="inlineStr">
         <is>
           <t>US</t>
@@ -54768,25 +54398,13 @@
       </c>
       <c r="C1659" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1659" t="inlineStr"/>
-      <c r="E1659" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1659" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1659" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="E1659" t="inlineStr"/>
+      <c r="F1659" t="inlineStr"/>
+      <c r="G1659" t="inlineStr"/>
       <c r="H1659" t="inlineStr">
         <is>
           <t>3</t>
@@ -54796,107 +54414,107 @@
     <row r="1660">
       <c r="A1660" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1660" t="inlineStr"/>
-      <c r="C1660" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1660" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1660" t="inlineStr">
+        <is>
+          <t>House Price Index YoYNOV</t>
+        </is>
+      </c>
       <c r="D1660" t="inlineStr"/>
-      <c r="E1660" t="inlineStr"/>
+      <c r="E1660" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="F1660" t="inlineStr"/>
       <c r="G1660" t="inlineStr"/>
-      <c r="H1660" t="inlineStr"/>
+      <c r="H1660" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1661">
       <c r="A1661" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1661" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1661" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1661" t="inlineStr"/>
       <c r="E1661" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1661" t="inlineStr"/>
-      <c r="G1661" t="inlineStr">
+      <c r="G1661" t="inlineStr"/>
+      <c r="H1661" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1661" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1662">
       <c r="A1662" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1662" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1662" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>CB Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1662" t="inlineStr"/>
-      <c r="E1662" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1662" t="inlineStr"/>
       <c r="F1662" t="inlineStr"/>
-      <c r="G1662" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1662" t="inlineStr"/>
       <c r="H1662" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1663">
       <c r="A1663" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1663" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1663" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1663" t="inlineStr"/>
-      <c r="E1663" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1663" t="inlineStr"/>
       <c r="F1663" t="inlineStr"/>
       <c r="G1663" t="inlineStr"/>
       <c r="H1663" t="inlineStr">
@@ -54908,29 +54526,29 @@
     <row r="1664">
       <c r="A1664" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1664" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1664" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1664" t="inlineStr"/>
       <c r="E1664" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1664" t="inlineStr"/>
       <c r="G1664" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1664" t="inlineStr">
@@ -54942,29 +54560,29 @@
     <row r="1665">
       <c r="A1665" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1665" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1665" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1665" t="inlineStr"/>
       <c r="E1665" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1665" t="inlineStr"/>
       <c r="G1665" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1665" t="inlineStr">
@@ -54976,31 +54594,27 @@
     <row r="1666">
       <c r="A1666" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1666" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1666" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1666" t="inlineStr"/>
       <c r="E1666" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1666" t="inlineStr"/>
-      <c r="G1666" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1666" t="inlineStr"/>
       <c r="H1666" t="inlineStr">
         <is>
           <t>3</t>
@@ -55010,31 +54624,27 @@
     <row r="1667">
       <c r="A1667" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1667" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1667" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1667" t="inlineStr"/>
       <c r="E1667" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1667" t="inlineStr"/>
-      <c r="G1667" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1667" t="inlineStr"/>
       <c r="H1667" t="inlineStr">
         <is>
           <t>3</t>
@@ -55044,87 +54654,79 @@
     <row r="1668">
       <c r="A1668" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1668" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1668" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1668" t="inlineStr"/>
-      <c r="E1668" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1668" t="inlineStr"/>
       <c r="F1668" t="inlineStr"/>
       <c r="G1668" t="inlineStr"/>
       <c r="H1668" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1669">
       <c r="A1669" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1669" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1669" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1669" t="inlineStr"/>
       <c r="E1669" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1669" t="inlineStr"/>
-      <c r="G1669" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1669" t="inlineStr"/>
       <c r="H1669" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1670">
       <c r="A1670" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1670" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1670" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1670" t="inlineStr"/>
       <c r="E1670" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1670" t="inlineStr"/>
@@ -55138,43 +54740,31 @@
     <row r="1671">
       <c r="A1671" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1671" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1671" t="inlineStr">
-        <is>
-          <t>BTP Short Term Auction</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1671" t="inlineStr"/>
+      <c r="C1671" t="inlineStr"/>
       <c r="D1671" t="inlineStr"/>
       <c r="E1671" t="inlineStr"/>
       <c r="F1671" t="inlineStr"/>
       <c r="G1671" t="inlineStr"/>
-      <c r="H1671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1671" t="inlineStr"/>
     </row>
     <row r="1672">
       <c r="A1672" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1672" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1672" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1672" t="inlineStr"/>
@@ -55183,126 +54773,138 @@
       <c r="G1672" t="inlineStr"/>
       <c r="H1672" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1673">
       <c r="A1673" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1673" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1673" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1673" t="inlineStr"/>
-      <c r="E1673" t="inlineStr"/>
+      <c r="E1673" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1673" t="inlineStr"/>
-      <c r="G1673" t="inlineStr"/>
+      <c r="G1673" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1673" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1674">
       <c r="A1674" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1674" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1674" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1674" t="inlineStr"/>
       <c r="E1674" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1674" t="inlineStr"/>
-      <c r="G1674" t="inlineStr"/>
+      <c r="G1674" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1674" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1675">
       <c r="A1675" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1675" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1675" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1675" t="inlineStr"/>
       <c r="E1675" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1675" t="inlineStr"/>
       <c r="G1675" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H1675" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1676">
       <c r="A1676" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1676" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1676" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1676" t="inlineStr"/>
       <c r="E1676" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1676" t="inlineStr"/>
       <c r="G1676" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1676" t="inlineStr">
@@ -55314,61 +54916,61 @@
     <row r="1677">
       <c r="A1677" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1677" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1677" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1677" t="inlineStr"/>
       <c r="E1677" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1677" t="inlineStr"/>
       <c r="G1677" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1677" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1678">
       <c r="A1678" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1678" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1678" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1678" t="inlineStr"/>
-      <c r="E1678" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1678" t="inlineStr"/>
       <c r="F1678" t="inlineStr"/>
-      <c r="G1678" t="inlineStr"/>
+      <c r="G1678" t="inlineStr">
+        <is>
+          <t>139.1</t>
+        </is>
+      </c>
       <c r="H1678" t="inlineStr">
         <is>
           <t>3</t>
@@ -55378,21 +54980,25 @@
     <row r="1679">
       <c r="A1679" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1679" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1679" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1679" t="inlineStr"/>
-      <c r="E1679" t="inlineStr"/>
+      <c r="E1679" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1679" t="inlineStr"/>
       <c r="G1679" t="inlineStr"/>
       <c r="H1679" t="inlineStr">
@@ -55404,53 +55010,53 @@
     <row r="1680">
       <c r="A1680" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1680" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1680" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1680" t="inlineStr"/>
       <c r="E1680" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1680" t="inlineStr"/>
       <c r="G1680" t="inlineStr"/>
       <c r="H1680" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1681">
       <c r="A1681" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B1681" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1681" t="inlineStr">
         <is>
-          <t>House Price IndexNOV</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1681" t="inlineStr"/>
       <c r="E1681" t="inlineStr">
         <is>
-          <t>432.3</t>
+          <t>0.595%</t>
         </is>
       </c>
       <c r="F1681" t="inlineStr"/>
@@ -55464,133 +55070,153 @@
     <row r="1682">
       <c r="A1682" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1682" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1682" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1682" t="inlineStr"/>
-      <c r="E1682" t="inlineStr"/>
+      <c r="E1682" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
       <c r="F1682" t="inlineStr"/>
       <c r="G1682" t="inlineStr"/>
       <c r="H1682" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1683">
       <c r="A1683" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1683" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1683" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>GfK Consumer ConfidenceFEB</t>
         </is>
       </c>
       <c r="D1683" t="inlineStr"/>
       <c r="E1683" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-21.3</t>
         </is>
       </c>
       <c r="F1683" t="inlineStr"/>
       <c r="G1683" t="inlineStr"/>
       <c r="H1683" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1684">
       <c r="A1684" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1684" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1684" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1684" t="inlineStr"/>
       <c r="E1684" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1684" t="inlineStr"/>
-      <c r="G1684" t="inlineStr"/>
+      <c r="G1684" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1684" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1685">
       <c r="A1685" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1685" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1685" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJAN</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1685" t="inlineStr"/>
-      <c r="E1685" t="inlineStr"/>
+      <c r="E1685" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F1685" t="inlineStr"/>
-      <c r="G1685" t="inlineStr"/>
+      <c r="G1685" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H1685" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1686">
       <c r="A1686" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1686" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1686" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
+          <t>Loans to Companies YoYDEC</t>
         </is>
       </c>
       <c r="D1686" t="inlineStr"/>
-      <c r="E1686" t="inlineStr"/>
+      <c r="E1686" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="F1686" t="inlineStr"/>
       <c r="G1686" t="inlineStr"/>
       <c r="H1686" t="inlineStr">
@@ -55602,29 +55228,29 @@
     <row r="1687">
       <c r="A1687" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1687" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1687" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
+          <t>Loans to Households YoYDEC</t>
         </is>
       </c>
       <c r="D1687" t="inlineStr"/>
       <c r="E1687" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1687" t="inlineStr"/>
       <c r="G1687" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1687" t="inlineStr">
@@ -55636,31 +55262,27 @@
     <row r="1688">
       <c r="A1688" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1688" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1688" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1688" t="inlineStr"/>
       <c r="E1688" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1688" t="inlineStr"/>
-      <c r="G1688" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="G1688" t="inlineStr"/>
       <c r="H1688" t="inlineStr">
         <is>
           <t>3</t>
@@ -55670,81 +55292,85 @@
     <row r="1689">
       <c r="A1689" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1689" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1689" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1689" t="inlineStr"/>
       <c r="E1689" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>85.8</t>
         </is>
       </c>
       <c r="F1689" t="inlineStr"/>
       <c r="G1689" t="inlineStr"/>
       <c r="H1689" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1690">
       <c r="A1690" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1690" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1690" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1690" t="inlineStr"/>
       <c r="E1690" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>96.3</t>
         </is>
       </c>
       <c r="F1690" t="inlineStr"/>
       <c r="G1690" t="inlineStr"/>
       <c r="H1690" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1691">
       <c r="A1691" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1691" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1691" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>10-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D1691" t="inlineStr"/>
-      <c r="E1691" t="inlineStr"/>
+      <c r="E1691" t="inlineStr">
+        <is>
+          <t>3.731%</t>
+        </is>
+      </c>
       <c r="F1691" t="inlineStr"/>
       <c r="G1691" t="inlineStr"/>
       <c r="H1691" t="inlineStr">
@@ -55756,25 +55382,21 @@
     <row r="1692">
       <c r="A1692" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1692" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1692" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>6-Month BOT Auction</t>
         </is>
       </c>
       <c r="D1692" t="inlineStr"/>
-      <c r="E1692" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
+      <c r="E1692" t="inlineStr"/>
       <c r="F1692" t="inlineStr"/>
       <c r="G1692" t="inlineStr"/>
       <c r="H1692" t="inlineStr">
@@ -55786,23 +55408,23 @@
     <row r="1693">
       <c r="A1693" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1693" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1693" t="inlineStr">
         <is>
-          <t>Money SupplyDEC</t>
+          <t>10-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1693" t="inlineStr"/>
       <c r="E1693" t="inlineStr">
         <is>
-          <t>$21.45T</t>
+          <t>2.51%</t>
         </is>
       </c>
       <c r="F1693" t="inlineStr"/>
@@ -55816,21 +55438,37 @@
     <row r="1694">
       <c r="A1694" t="inlineStr">
         <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1694" t="inlineStr"/>
-      <c r="C1694" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1694" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C1694" t="inlineStr">
+        <is>
+          <t>Unemployment RateDEC</t>
+        </is>
+      </c>
       <c r="D1694" t="inlineStr"/>
       <c r="E1694" t="inlineStr"/>
       <c r="F1694" t="inlineStr"/>
-      <c r="G1694" t="inlineStr"/>
-      <c r="H1694" t="inlineStr"/>
+      <c r="G1694" t="inlineStr">
+        <is>
+          <t>2.70%</t>
+        </is>
+      </c>
+      <c r="H1694" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1695">
       <c r="A1695" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1695" t="inlineStr">
@@ -55840,7 +55478,7 @@
       </c>
       <c r="C1695" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
+          <t>MBA 30-Year Mortgage RateJAN/24</t>
         </is>
       </c>
       <c r="D1695" t="inlineStr"/>
@@ -55856,656 +55494,102 @@
     <row r="1696">
       <c r="A1696" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1696" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1696" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYQ4</t>
+          <t>MBA Mortgage ApplicationsJAN/24</t>
         </is>
       </c>
       <c r="D1696" t="inlineStr"/>
-      <c r="E1696" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="E1696" t="inlineStr"/>
       <c r="F1696" t="inlineStr"/>
-      <c r="G1696" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1696" t="inlineStr"/>
       <c r="H1696" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1697">
       <c r="A1697" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1697" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1697" t="inlineStr">
         <is>
-          <t>Inflation Rate QoQQ4</t>
+          <t>MBA Mortgage Market IndexJAN/24</t>
         </is>
       </c>
       <c r="D1697" t="inlineStr"/>
-      <c r="E1697" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1697" t="inlineStr"/>
       <c r="F1697" t="inlineStr"/>
-      <c r="G1697" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1697" t="inlineStr"/>
       <c r="H1697" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1698">
       <c r="A1698" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1698" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1698" t="inlineStr">
         <is>
-          <t>Monthly CPI IndicatorDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/24</t>
         </is>
       </c>
       <c r="D1698" t="inlineStr"/>
-      <c r="E1698" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="E1698" t="inlineStr"/>
       <c r="F1698" t="inlineStr"/>
-      <c r="G1698" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1698" t="inlineStr"/>
       <c r="H1698" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1699">
       <c r="A1699" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1699" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1699" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
+          <t>MBA Purchase IndexJAN/24</t>
         </is>
       </c>
       <c r="D1699" t="inlineStr"/>
-      <c r="E1699" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1699" t="inlineStr"/>
       <c r="F1699" t="inlineStr"/>
-      <c r="G1699" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G1699" t="inlineStr"/>
       <c r="H1699" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1700">
-      <c r="A1700" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1700" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1700" t="inlineStr">
-        <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1700" t="inlineStr"/>
-      <c r="E1700" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="F1700" t="inlineStr"/>
-      <c r="G1700" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H1700" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1701">
-      <c r="A1701" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1701" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1701" t="inlineStr">
-        <is>
-          <t>CPIQ4</t>
-        </is>
-      </c>
-      <c r="D1701" t="inlineStr"/>
-      <c r="E1701" t="inlineStr"/>
-      <c r="F1701" t="inlineStr"/>
-      <c r="G1701" t="inlineStr">
-        <is>
-          <t>139.1</t>
-        </is>
-      </c>
-      <c r="H1701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1702">
-      <c r="A1702" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1702" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1702" t="inlineStr">
-        <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1702" t="inlineStr"/>
-      <c r="E1702" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F1702" t="inlineStr"/>
-      <c r="G1702" t="inlineStr"/>
-      <c r="H1702" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1703">
-      <c r="A1703" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1703" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1703" t="inlineStr">
-        <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1703" t="inlineStr"/>
-      <c r="E1703" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F1703" t="inlineStr"/>
-      <c r="G1703" t="inlineStr"/>
-      <c r="H1703" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1704">
-      <c r="A1704" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
-      <c r="B1704" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1704" t="inlineStr">
-        <is>
-          <t>5-Year Climate Transition JGB Auction</t>
-        </is>
-      </c>
-      <c r="D1704" t="inlineStr"/>
-      <c r="E1704" t="inlineStr">
-        <is>
-          <t>0.595%</t>
-        </is>
-      </c>
-      <c r="F1704" t="inlineStr"/>
-      <c r="G1704" t="inlineStr"/>
-      <c r="H1704" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1705">
-      <c r="A1705" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1705" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1705" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1705" t="inlineStr"/>
-      <c r="E1705" t="inlineStr">
-        <is>
-          <t>36.2</t>
-        </is>
-      </c>
-      <c r="F1705" t="inlineStr"/>
-      <c r="G1705" t="inlineStr"/>
-      <c r="H1705" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1706">
-      <c r="A1706" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B1706" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1706" t="inlineStr">
-        <is>
-          <t>GfK Consumer ConfidenceFEB</t>
-        </is>
-      </c>
-      <c r="D1706" t="inlineStr"/>
-      <c r="E1706" t="inlineStr">
-        <is>
-          <t>-21.3</t>
-        </is>
-      </c>
-      <c r="F1706" t="inlineStr"/>
-      <c r="G1706" t="inlineStr"/>
-      <c r="H1706" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1707">
-      <c r="A1707" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B1707" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1707" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
-        </is>
-      </c>
-      <c r="D1707" t="inlineStr"/>
-      <c r="E1707" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1707" t="inlineStr"/>
-      <c r="G1707" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1707" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1708">
-      <c r="A1708" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B1708" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1708" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
-        </is>
-      </c>
-      <c r="D1708" t="inlineStr"/>
-      <c r="E1708" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F1708" t="inlineStr"/>
-      <c r="G1708" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="H1708" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1709">
-      <c r="A1709" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1709" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1709" t="inlineStr">
-        <is>
-          <t>Loans to Companies YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1709" t="inlineStr"/>
-      <c r="E1709" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="F1709" t="inlineStr"/>
-      <c r="G1709" t="inlineStr"/>
-      <c r="H1709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1710">
-      <c r="A1710" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1710" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1710" t="inlineStr">
-        <is>
-          <t>Loans to Households YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1710" t="inlineStr"/>
-      <c r="E1710" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F1710" t="inlineStr"/>
-      <c r="G1710" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H1710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1711">
-      <c r="A1711" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1711" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1711" t="inlineStr">
-        <is>
-          <t>M3 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1711" t="inlineStr"/>
-      <c r="E1711" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F1711" t="inlineStr"/>
-      <c r="G1711" t="inlineStr"/>
-      <c r="H1711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1712">
-      <c r="A1712" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1712" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1712" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1712" t="inlineStr"/>
-      <c r="E1712" t="inlineStr">
-        <is>
-          <t>85.8</t>
-        </is>
-      </c>
-      <c r="F1712" t="inlineStr"/>
-      <c r="G1712" t="inlineStr"/>
-      <c r="H1712" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1713">
-      <c r="A1713" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1713" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1713" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1713" t="inlineStr"/>
-      <c r="E1713" t="inlineStr">
-        <is>
-          <t>96.3</t>
-        </is>
-      </c>
-      <c r="F1713" t="inlineStr"/>
-      <c r="G1713" t="inlineStr"/>
-      <c r="H1713" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1714">
-      <c r="A1714" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1714" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1714" t="inlineStr">
-        <is>
-          <t>10-Year Green Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D1714" t="inlineStr"/>
-      <c r="E1714" t="inlineStr">
-        <is>
-          <t>3.731%</t>
-        </is>
-      </c>
-      <c r="F1714" t="inlineStr"/>
-      <c r="G1714" t="inlineStr"/>
-      <c r="H1714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1715">
-      <c r="A1715" t="inlineStr">
-        <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1715" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1715" t="inlineStr">
-        <is>
-          <t>6-Month BOT Auction</t>
-        </is>
-      </c>
-      <c r="D1715" t="inlineStr"/>
-      <c r="E1715" t="inlineStr"/>
-      <c r="F1715" t="inlineStr"/>
-      <c r="G1715" t="inlineStr"/>
-      <c r="H1715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1716">
-      <c r="A1716" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1716" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1716" t="inlineStr">
-        <is>
-          <t>10-Year Bund Auction</t>
-        </is>
-      </c>
-      <c r="D1716" t="inlineStr"/>
-      <c r="E1716" t="inlineStr">
-        <is>
-          <t>2.51%</t>
-        </is>
-      </c>
-      <c r="F1716" t="inlineStr"/>
-      <c r="G1716" t="inlineStr"/>
-      <c r="H1716" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1699"/>
+  <dimension ref="A1:H1676"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51421,10 +51421,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1565" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1566">
@@ -51459,10 +51457,8 @@
           <t>42.2</t>
         </is>
       </c>
-      <c r="H1566" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1566" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1567">
@@ -51497,10 +51493,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H1567" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1567" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1568">
@@ -51531,10 +51525,8 @@
           <t>48</t>
         </is>
       </c>
-      <c r="H1568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1568" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1569">
@@ -51569,10 +51561,8 @@
           <t>42.3</t>
         </is>
       </c>
-      <c r="H1569" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1569" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1570">
@@ -51603,10 +51593,8 @@
           <t>47.8</t>
         </is>
       </c>
-      <c r="H1570" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1570" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1571">
@@ -51641,10 +51629,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1571" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1571" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1572">
@@ -51675,10 +51661,8 @@
           <t>49.4</t>
         </is>
       </c>
-      <c r="H1572" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1572" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1573">
@@ -51713,10 +51697,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1573" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1573" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1574">
@@ -51751,10 +51733,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H1574" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1574" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1575">
@@ -51789,10 +51769,8 @@
           <t>47.2</t>
         </is>
       </c>
-      <c r="H1575" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1575" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1576">
@@ -51827,10 +51805,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1576" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1576" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1577">
@@ -51861,10 +51837,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H1577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1577" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1578">
@@ -51887,10 +51861,8 @@
       <c r="E1578" t="inlineStr"/>
       <c r="F1578" t="inlineStr"/>
       <c r="G1578" t="inlineStr"/>
-      <c r="H1578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1578" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1579">
@@ -51921,10 +51893,8 @@
           <t>91.4</t>
         </is>
       </c>
-      <c r="H1579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1579" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1580">
@@ -51947,10 +51917,8 @@
       <c r="E1580" t="inlineStr"/>
       <c r="F1580" t="inlineStr"/>
       <c r="G1580" t="inlineStr"/>
-      <c r="H1580" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1580" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1581">
@@ -51985,10 +51953,8 @@
           <t>-11</t>
         </is>
       </c>
-      <c r="H1581" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1581" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1582">
@@ -52015,10 +51981,8 @@
       </c>
       <c r="F1582" t="inlineStr"/>
       <c r="G1582" t="inlineStr"/>
-      <c r="H1582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1583">
@@ -52049,10 +52013,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H1583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1583" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1584">
@@ -52083,10 +52045,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1584" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1585">
@@ -52117,10 +52077,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1585" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1586">
@@ -52155,10 +52113,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1586" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1586" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1587">
@@ -52189,10 +52145,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1587" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1587" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1588">
@@ -52223,10 +52177,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1588" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1589">
@@ -52257,10 +52209,8 @@
           <t>55.3</t>
         </is>
       </c>
-      <c r="H1589" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1589" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1590">
@@ -52291,10 +52241,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H1590" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1590" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1591">
@@ -52325,10 +52273,8 @@
           <t>56.6</t>
         </is>
       </c>
-      <c r="H1591" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1591" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1592">
@@ -52363,10 +52309,8 @@
           <t>4.1M</t>
         </is>
       </c>
-      <c r="H1592" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1592" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1593">
@@ -52397,10 +52341,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1593" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1593" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1594">
@@ -52435,10 +52377,8 @@
           <t>73.2</t>
         </is>
       </c>
-      <c r="H1594" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1594" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1595">
@@ -52473,10 +52413,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1595" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1596">
@@ -52511,10 +52449,8 @@
           <t>70.2</t>
         </is>
       </c>
-      <c r="H1596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1596" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1597">
@@ -52549,10 +52485,8 @@
           <t>77.9</t>
         </is>
       </c>
-      <c r="H1597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1597" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1598">
@@ -52587,10 +52521,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1598" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1599">
@@ -52621,10 +52553,8 @@
           <t>-7</t>
         </is>
       </c>
-      <c r="H1599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1600">
@@ -52655,10 +52585,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H1600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1601">
@@ -52685,10 +52613,8 @@
       </c>
       <c r="F1601" t="inlineStr"/>
       <c r="G1601" t="inlineStr"/>
-      <c r="H1601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1602">
@@ -52715,54 +52641,56 @@
       </c>
       <c r="F1602" t="inlineStr"/>
       <c r="G1602" t="inlineStr"/>
-      <c r="H1602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1602" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1603" t="inlineStr"/>
-      <c r="C1603" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1603" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1603" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1603" t="inlineStr"/>
       <c r="E1603" t="inlineStr"/>
       <c r="F1603" t="inlineStr"/>
       <c r="G1603" t="inlineStr"/>
-      <c r="H1603" t="inlineStr"/>
+      <c r="H1603" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1604" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1604" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1604" t="inlineStr"/>
-      <c r="E1604" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1604" t="inlineStr"/>
       <c r="F1604" t="inlineStr"/>
-      <c r="G1604" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1604" t="inlineStr"/>
       <c r="H1604" t="inlineStr">
         <is>
           <t>3</t>
@@ -52772,107 +52700,103 @@
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
-      <c r="E1605" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1605" t="inlineStr"/>
       <c r="F1605" t="inlineStr"/>
       <c r="G1605" t="inlineStr"/>
       <c r="H1605" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
-      <c r="E1606" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1606" t="inlineStr"/>
       <c r="F1606" t="inlineStr"/>
-      <c r="G1606" t="inlineStr"/>
+      <c r="G1606" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1606" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr"/>
       <c r="G1607" t="inlineStr"/>
       <c r="H1607" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
@@ -52888,17 +52812,17 @@
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
@@ -52914,55 +52838,47 @@
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
-      <c r="E1610" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1610" t="inlineStr"/>
       <c r="F1610" t="inlineStr"/>
       <c r="G1610" t="inlineStr"/>
       <c r="H1610" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
-      <c r="E1611" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1611" t="inlineStr"/>
       <c r="F1611" t="inlineStr"/>
       <c r="G1611" t="inlineStr"/>
       <c r="H1611" t="inlineStr">
@@ -52972,59 +52888,63 @@
       </c>
     </row>
     <row r="1612">
-      <c r="A1612" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1612" t="inlineStr"/>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr"/>
-      <c r="G1612" t="inlineStr"/>
+      <c r="G1612" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1612" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1613">
-      <c r="A1613" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1613" t="inlineStr"/>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1613" t="inlineStr"/>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>85.1</t>
-        </is>
-      </c>
-      <c r="F1613" t="inlineStr"/>
-      <c r="G1613" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1613" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1613" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1613" t="inlineStr">
         <is>
           <t>3</t>
@@ -53034,121 +52954,109 @@
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1614" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1614" t="inlineStr">
-        <is>
-          <t>Ifo ExpectationsJAN</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1614" t="inlineStr"/>
+      <c r="C1614" t="inlineStr"/>
       <c r="D1614" t="inlineStr"/>
-      <c r="E1614" t="inlineStr">
-        <is>
-          <t>84.4</t>
-        </is>
-      </c>
+      <c r="E1614" t="inlineStr"/>
       <c r="F1614" t="inlineStr"/>
       <c r="G1614" t="inlineStr"/>
-      <c r="H1614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1614" t="inlineStr"/>
     </row>
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr"/>
-      <c r="E1615" t="inlineStr"/>
+      <c r="E1615" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1615" t="inlineStr"/>
-      <c r="G1615" t="inlineStr"/>
+      <c r="G1615" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1615" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1616" t="inlineStr"/>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>43.5K</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1616" t="inlineStr"/>
       <c r="G1616" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="H1616" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1617" t="inlineStr"/>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1617" t="inlineStr"/>
-      <c r="G1617" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1617" t="inlineStr"/>
       <c r="H1617" t="inlineStr">
         <is>
           <t>3</t>
@@ -53158,29 +53066,29 @@
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1618" t="inlineStr"/>
       <c r="G1618" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1618" t="inlineStr">
@@ -53192,27 +53100,31 @@
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1619" t="inlineStr"/>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1619" t="inlineStr"/>
-      <c r="G1619" t="inlineStr"/>
+      <c r="G1619" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1619" t="inlineStr">
         <is>
           <t>3</t>
@@ -53222,27 +53134,31 @@
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1620" t="inlineStr"/>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1620" t="inlineStr"/>
-      <c r="G1620" t="inlineStr"/>
+      <c r="G1620" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1620" t="inlineStr">
         <is>
           <t>3</t>
@@ -53252,97 +53168,93 @@
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1621" t="inlineStr"/>
       <c r="G1621" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1621" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1622" t="inlineStr"/>
-      <c r="G1622" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1622" t="inlineStr"/>
       <c r="H1622" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr"/>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr"/>
       <c r="G1623" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1623" t="inlineStr">
@@ -53354,31 +53266,27 @@
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
       <c r="E1624" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1624" t="inlineStr"/>
-      <c r="G1624" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1624" t="inlineStr"/>
       <c r="H1624" t="inlineStr">
         <is>
           <t>3</t>
@@ -53388,17 +53296,17 @@
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1625" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1625" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1625" t="inlineStr"/>
@@ -53414,17 +53322,17 @@
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1626" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1626" t="inlineStr"/>
@@ -53440,17 +53348,17 @@
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1627" t="inlineStr"/>
@@ -53466,33 +53374,37 @@
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1628" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1628" t="inlineStr"/>
-      <c r="E1628" t="inlineStr"/>
+      <c r="E1628" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1628" t="inlineStr"/>
       <c r="G1628" t="inlineStr"/>
       <c r="H1628" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
@@ -53502,27 +53414,31 @@
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1629" t="inlineStr"/>
-      <c r="E1629" t="inlineStr"/>
+      <c r="E1629" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1629" t="inlineStr"/>
       <c r="G1629" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1629" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr">
@@ -53532,17 +53448,21 @@
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1630" t="inlineStr"/>
       <c r="E1630" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1630" t="inlineStr"/>
-      <c r="G1630" t="inlineStr"/>
+      <c r="G1630" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1630" t="inlineStr">
         <is>
           <t>2</t>
@@ -53552,7 +53472,7 @@
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1631" t="inlineStr">
@@ -53562,13 +53482,21 @@
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1631" t="inlineStr"/>
-      <c r="E1631" t="inlineStr"/>
+      <c r="E1631" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1631" t="inlineStr"/>
-      <c r="G1631" t="inlineStr"/>
+      <c r="G1631" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1631" t="inlineStr">
         <is>
           <t>3</t>
@@ -53578,7 +53506,7 @@
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1632" t="inlineStr">
@@ -53588,11 +53516,15 @@
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1632" t="inlineStr"/>
-      <c r="E1632" t="inlineStr"/>
+      <c r="E1632" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1632" t="inlineStr"/>
       <c r="G1632" t="inlineStr"/>
       <c r="H1632" t="inlineStr">
@@ -53604,7 +53536,7 @@
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
@@ -53614,7 +53546,7 @@
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr"/>
@@ -53630,7 +53562,7 @@
     <row r="1634">
       <c r="A1634" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1634" t="inlineStr">
@@ -53640,21 +53572,29 @@
       </c>
       <c r="C1634" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1634" t="inlineStr"/>
-      <c r="E1634" t="inlineStr"/>
+      <c r="E1634" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1634" t="inlineStr"/>
       <c r="G1634" t="inlineStr"/>
       <c r="H1634" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1635">
-      <c r="A1635" t="inlineStr"/>
+      <c r="A1635" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1635" t="inlineStr">
         <is>
           <t>US</t>
@@ -53662,21 +53602,17 @@
       </c>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1635" t="inlineStr"/>
       <c r="E1635" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1635" t="inlineStr"/>
-      <c r="G1635" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1635" t="inlineStr"/>
       <c r="H1635" t="inlineStr">
         <is>
           <t>3</t>
@@ -53684,7 +53620,11 @@
       </c>
     </row>
     <row r="1636">
-      <c r="A1636" t="inlineStr"/>
+      <c r="A1636" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1636" t="inlineStr">
         <is>
           <t>US</t>
@@ -53692,25 +53632,13 @@
       </c>
       <c r="C1636" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1636" t="inlineStr"/>
-      <c r="E1636" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1636" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1636" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="E1636" t="inlineStr"/>
+      <c r="F1636" t="inlineStr"/>
+      <c r="G1636" t="inlineStr"/>
       <c r="H1636" t="inlineStr">
         <is>
           <t>3</t>
@@ -53720,107 +53648,107 @@
     <row r="1637">
       <c r="A1637" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1637" t="inlineStr"/>
-      <c r="C1637" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1637" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1637" t="inlineStr">
+        <is>
+          <t>House Price Index YoYNOV</t>
+        </is>
+      </c>
       <c r="D1637" t="inlineStr"/>
-      <c r="E1637" t="inlineStr"/>
+      <c r="E1637" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="F1637" t="inlineStr"/>
       <c r="G1637" t="inlineStr"/>
-      <c r="H1637" t="inlineStr"/>
+      <c r="H1637" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1638">
       <c r="A1638" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1638" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1638" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1638" t="inlineStr"/>
       <c r="E1638" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1638" t="inlineStr"/>
-      <c r="G1638" t="inlineStr">
+      <c r="G1638" t="inlineStr"/>
+      <c r="H1638" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1638" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1639" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1639" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>CB Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1639" t="inlineStr"/>
-      <c r="E1639" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1639" t="inlineStr"/>
       <c r="F1639" t="inlineStr"/>
-      <c r="G1639" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1639" t="inlineStr"/>
       <c r="H1639" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1640" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1640" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1640" t="inlineStr"/>
-      <c r="E1640" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1640" t="inlineStr"/>
       <c r="F1640" t="inlineStr"/>
       <c r="G1640" t="inlineStr"/>
       <c r="H1640" t="inlineStr">
@@ -53832,29 +53760,29 @@
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1641" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1641" t="inlineStr"/>
       <c r="E1641" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1641" t="inlineStr"/>
       <c r="G1641" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1641" t="inlineStr">
@@ -53866,29 +53794,29 @@
     <row r="1642">
       <c r="A1642" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1642" t="inlineStr"/>
       <c r="E1642" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1642" t="inlineStr"/>
       <c r="G1642" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1642" t="inlineStr">
@@ -53900,31 +53828,27 @@
     <row r="1643">
       <c r="A1643" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1643" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1643" t="inlineStr"/>
       <c r="E1643" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1643" t="inlineStr"/>
-      <c r="G1643" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1643" t="inlineStr"/>
       <c r="H1643" t="inlineStr">
         <is>
           <t>3</t>
@@ -53934,31 +53858,27 @@
     <row r="1644">
       <c r="A1644" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1644" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1644" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1644" t="inlineStr"/>
       <c r="E1644" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1644" t="inlineStr"/>
-      <c r="G1644" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1644" t="inlineStr"/>
       <c r="H1644" t="inlineStr">
         <is>
           <t>3</t>
@@ -53968,87 +53888,79 @@
     <row r="1645">
       <c r="A1645" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1645" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1645" t="inlineStr"/>
-      <c r="E1645" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1645" t="inlineStr"/>
       <c r="F1645" t="inlineStr"/>
       <c r="G1645" t="inlineStr"/>
       <c r="H1645" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1646">
       <c r="A1646" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1646" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1646" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1646" t="inlineStr"/>
       <c r="E1646" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1646" t="inlineStr"/>
-      <c r="G1646" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1646" t="inlineStr"/>
       <c r="H1646" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1647">
       <c r="A1647" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1647" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1647" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1647" t="inlineStr"/>
       <c r="E1647" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1647" t="inlineStr"/>
@@ -54062,43 +53974,31 @@
     <row r="1648">
       <c r="A1648" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1648" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1648" t="inlineStr">
-        <is>
-          <t>BTP Short Term Auction</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1648" t="inlineStr"/>
+      <c r="C1648" t="inlineStr"/>
       <c r="D1648" t="inlineStr"/>
       <c r="E1648" t="inlineStr"/>
       <c r="F1648" t="inlineStr"/>
       <c r="G1648" t="inlineStr"/>
-      <c r="H1648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1648" t="inlineStr"/>
     </row>
     <row r="1649">
       <c r="A1649" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1649" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1649" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1649" t="inlineStr"/>
@@ -54107,126 +54007,138 @@
       <c r="G1649" t="inlineStr"/>
       <c r="H1649" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1650">
       <c r="A1650" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1650" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1650" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1650" t="inlineStr"/>
-      <c r="E1650" t="inlineStr"/>
+      <c r="E1650" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1650" t="inlineStr"/>
-      <c r="G1650" t="inlineStr"/>
+      <c r="G1650" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1650" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1651">
       <c r="A1651" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1651" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1651" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1651" t="inlineStr"/>
       <c r="E1651" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1651" t="inlineStr"/>
-      <c r="G1651" t="inlineStr"/>
+      <c r="G1651" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1651" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1652">
       <c r="A1652" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1652" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1652" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1652" t="inlineStr"/>
       <c r="E1652" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1652" t="inlineStr"/>
       <c r="G1652" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H1652" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1653">
       <c r="A1653" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1653" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1653" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1653" t="inlineStr"/>
       <c r="E1653" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1653" t="inlineStr"/>
       <c r="G1653" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1653" t="inlineStr">
@@ -54238,61 +54150,61 @@
     <row r="1654">
       <c r="A1654" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1654" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1654" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1654" t="inlineStr"/>
       <c r="E1654" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1654" t="inlineStr"/>
       <c r="G1654" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1654" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1655">
       <c r="A1655" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1655" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1655" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1655" t="inlineStr"/>
-      <c r="E1655" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1655" t="inlineStr"/>
       <c r="F1655" t="inlineStr"/>
-      <c r="G1655" t="inlineStr"/>
+      <c r="G1655" t="inlineStr">
+        <is>
+          <t>139.1</t>
+        </is>
+      </c>
       <c r="H1655" t="inlineStr">
         <is>
           <t>3</t>
@@ -54302,21 +54214,25 @@
     <row r="1656">
       <c r="A1656" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1656" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1656" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1656" t="inlineStr"/>
-      <c r="E1656" t="inlineStr"/>
+      <c r="E1656" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1656" t="inlineStr"/>
       <c r="G1656" t="inlineStr"/>
       <c r="H1656" t="inlineStr">
@@ -54328,53 +54244,53 @@
     <row r="1657">
       <c r="A1657" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1657" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1657" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1657" t="inlineStr"/>
       <c r="E1657" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1657" t="inlineStr"/>
       <c r="G1657" t="inlineStr"/>
       <c r="H1657" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1658">
       <c r="A1658" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B1658" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1658" t="inlineStr">
         <is>
-          <t>House Price IndexNOV</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1658" t="inlineStr"/>
       <c r="E1658" t="inlineStr">
         <is>
-          <t>432.3</t>
+          <t>0.595%</t>
         </is>
       </c>
       <c r="F1658" t="inlineStr"/>
@@ -54388,133 +54304,153 @@
     <row r="1659">
       <c r="A1659" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1659" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1659" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1659" t="inlineStr"/>
-      <c r="E1659" t="inlineStr"/>
+      <c r="E1659" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
       <c r="F1659" t="inlineStr"/>
       <c r="G1659" t="inlineStr"/>
       <c r="H1659" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1660">
       <c r="A1660" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1660" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1660" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>GfK Consumer ConfidenceFEB</t>
         </is>
       </c>
       <c r="D1660" t="inlineStr"/>
       <c r="E1660" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-21.3</t>
         </is>
       </c>
       <c r="F1660" t="inlineStr"/>
       <c r="G1660" t="inlineStr"/>
       <c r="H1660" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1661">
       <c r="A1661" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1661" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1661" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1661" t="inlineStr"/>
       <c r="E1661" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1661" t="inlineStr"/>
-      <c r="G1661" t="inlineStr"/>
+      <c r="G1661" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1661" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1662">
       <c r="A1662" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1662" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1662" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJAN</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1662" t="inlineStr"/>
-      <c r="E1662" t="inlineStr"/>
+      <c r="E1662" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F1662" t="inlineStr"/>
-      <c r="G1662" t="inlineStr"/>
+      <c r="G1662" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H1662" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1663">
       <c r="A1663" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1663" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1663" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
+          <t>Loans to Companies YoYDEC</t>
         </is>
       </c>
       <c r="D1663" t="inlineStr"/>
-      <c r="E1663" t="inlineStr"/>
+      <c r="E1663" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="F1663" t="inlineStr"/>
       <c r="G1663" t="inlineStr"/>
       <c r="H1663" t="inlineStr">
@@ -54526,29 +54462,29 @@
     <row r="1664">
       <c r="A1664" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1664" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1664" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
+          <t>Loans to Households YoYDEC</t>
         </is>
       </c>
       <c r="D1664" t="inlineStr"/>
       <c r="E1664" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1664" t="inlineStr"/>
       <c r="G1664" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1664" t="inlineStr">
@@ -54560,31 +54496,27 @@
     <row r="1665">
       <c r="A1665" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1665" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1665" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1665" t="inlineStr"/>
       <c r="E1665" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1665" t="inlineStr"/>
-      <c r="G1665" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="G1665" t="inlineStr"/>
       <c r="H1665" t="inlineStr">
         <is>
           <t>3</t>
@@ -54594,81 +54526,85 @@
     <row r="1666">
       <c r="A1666" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1666" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1666" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1666" t="inlineStr"/>
       <c r="E1666" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>85.8</t>
         </is>
       </c>
       <c r="F1666" t="inlineStr"/>
       <c r="G1666" t="inlineStr"/>
       <c r="H1666" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1667">
       <c r="A1667" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1667" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1667" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1667" t="inlineStr"/>
       <c r="E1667" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>96.3</t>
         </is>
       </c>
       <c r="F1667" t="inlineStr"/>
       <c r="G1667" t="inlineStr"/>
       <c r="H1667" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1668">
       <c r="A1668" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1668" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1668" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>10-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D1668" t="inlineStr"/>
-      <c r="E1668" t="inlineStr"/>
+      <c r="E1668" t="inlineStr">
+        <is>
+          <t>3.731%</t>
+        </is>
+      </c>
       <c r="F1668" t="inlineStr"/>
       <c r="G1668" t="inlineStr"/>
       <c r="H1668" t="inlineStr">
@@ -54680,25 +54616,21 @@
     <row r="1669">
       <c r="A1669" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1669" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1669" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>6-Month BOT Auction</t>
         </is>
       </c>
       <c r="D1669" t="inlineStr"/>
-      <c r="E1669" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
+      <c r="E1669" t="inlineStr"/>
       <c r="F1669" t="inlineStr"/>
       <c r="G1669" t="inlineStr"/>
       <c r="H1669" t="inlineStr">
@@ -54710,23 +54642,23 @@
     <row r="1670">
       <c r="A1670" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1670" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1670" t="inlineStr">
         <is>
-          <t>Money SupplyDEC</t>
+          <t>10-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1670" t="inlineStr"/>
       <c r="E1670" t="inlineStr">
         <is>
-          <t>$21.45T</t>
+          <t>2.51%</t>
         </is>
       </c>
       <c r="F1670" t="inlineStr"/>
@@ -54740,21 +54672,37 @@
     <row r="1671">
       <c r="A1671" t="inlineStr">
         <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1671" t="inlineStr"/>
-      <c r="C1671" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1671" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C1671" t="inlineStr">
+        <is>
+          <t>Unemployment RateDEC</t>
+        </is>
+      </c>
       <c r="D1671" t="inlineStr"/>
       <c r="E1671" t="inlineStr"/>
       <c r="F1671" t="inlineStr"/>
-      <c r="G1671" t="inlineStr"/>
-      <c r="H1671" t="inlineStr"/>
+      <c r="G1671" t="inlineStr">
+        <is>
+          <t>2.70%</t>
+        </is>
+      </c>
+      <c r="H1671" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1672">
       <c r="A1672" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1672" t="inlineStr">
@@ -54764,7 +54712,7 @@
       </c>
       <c r="C1672" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
+          <t>MBA 30-Year Mortgage RateJAN/24</t>
         </is>
       </c>
       <c r="D1672" t="inlineStr"/>
@@ -54780,816 +54728,102 @@
     <row r="1673">
       <c r="A1673" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1673" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1673" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYQ4</t>
+          <t>MBA Mortgage ApplicationsJAN/24</t>
         </is>
       </c>
       <c r="D1673" t="inlineStr"/>
-      <c r="E1673" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="E1673" t="inlineStr"/>
       <c r="F1673" t="inlineStr"/>
-      <c r="G1673" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1673" t="inlineStr"/>
       <c r="H1673" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1674">
       <c r="A1674" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1674" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1674" t="inlineStr">
         <is>
-          <t>Inflation Rate QoQQ4</t>
+          <t>MBA Mortgage Market IndexJAN/24</t>
         </is>
       </c>
       <c r="D1674" t="inlineStr"/>
-      <c r="E1674" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1674" t="inlineStr"/>
       <c r="F1674" t="inlineStr"/>
-      <c r="G1674" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1674" t="inlineStr"/>
       <c r="H1674" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1675">
       <c r="A1675" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1675" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1675" t="inlineStr">
         <is>
-          <t>Monthly CPI IndicatorDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/24</t>
         </is>
       </c>
       <c r="D1675" t="inlineStr"/>
-      <c r="E1675" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="E1675" t="inlineStr"/>
       <c r="F1675" t="inlineStr"/>
-      <c r="G1675" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1675" t="inlineStr"/>
       <c r="H1675" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1676">
       <c r="A1676" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1676" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1676" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
+          <t>MBA Purchase IndexJAN/24</t>
         </is>
       </c>
       <c r="D1676" t="inlineStr"/>
-      <c r="E1676" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1676" t="inlineStr"/>
       <c r="F1676" t="inlineStr"/>
-      <c r="G1676" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G1676" t="inlineStr"/>
       <c r="H1676" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1677">
-      <c r="A1677" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1677" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1677" t="inlineStr">
-        <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1677" t="inlineStr"/>
-      <c r="E1677" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="F1677" t="inlineStr"/>
-      <c r="G1677" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H1677" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1678">
-      <c r="A1678" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1678" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1678" t="inlineStr">
-        <is>
-          <t>CPIQ4</t>
-        </is>
-      </c>
-      <c r="D1678" t="inlineStr"/>
-      <c r="E1678" t="inlineStr"/>
-      <c r="F1678" t="inlineStr"/>
-      <c r="G1678" t="inlineStr">
-        <is>
-          <t>139.1</t>
-        </is>
-      </c>
-      <c r="H1678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1679">
-      <c r="A1679" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1679" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1679" t="inlineStr">
-        <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1679" t="inlineStr"/>
-      <c r="E1679" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F1679" t="inlineStr"/>
-      <c r="G1679" t="inlineStr"/>
-      <c r="H1679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1680">
-      <c r="A1680" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1680" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1680" t="inlineStr">
-        <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1680" t="inlineStr"/>
-      <c r="E1680" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F1680" t="inlineStr"/>
-      <c r="G1680" t="inlineStr"/>
-      <c r="H1680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1681">
-      <c r="A1681" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
-      <c r="B1681" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1681" t="inlineStr">
-        <is>
-          <t>5-Year Climate Transition JGB Auction</t>
-        </is>
-      </c>
-      <c r="D1681" t="inlineStr"/>
-      <c r="E1681" t="inlineStr">
-        <is>
-          <t>0.595%</t>
-        </is>
-      </c>
-      <c r="F1681" t="inlineStr"/>
-      <c r="G1681" t="inlineStr"/>
-      <c r="H1681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1682">
-      <c r="A1682" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1682" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1682" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1682" t="inlineStr"/>
-      <c r="E1682" t="inlineStr">
-        <is>
-          <t>36.2</t>
-        </is>
-      </c>
-      <c r="F1682" t="inlineStr"/>
-      <c r="G1682" t="inlineStr"/>
-      <c r="H1682" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1683">
-      <c r="A1683" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B1683" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1683" t="inlineStr">
-        <is>
-          <t>GfK Consumer ConfidenceFEB</t>
-        </is>
-      </c>
-      <c r="D1683" t="inlineStr"/>
-      <c r="E1683" t="inlineStr">
-        <is>
-          <t>-21.3</t>
-        </is>
-      </c>
-      <c r="F1683" t="inlineStr"/>
-      <c r="G1683" t="inlineStr"/>
-      <c r="H1683" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1684">
-      <c r="A1684" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B1684" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1684" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
-        </is>
-      </c>
-      <c r="D1684" t="inlineStr"/>
-      <c r="E1684" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1684" t="inlineStr"/>
-      <c r="G1684" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1684" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1685">
-      <c r="A1685" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B1685" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1685" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
-        </is>
-      </c>
-      <c r="D1685" t="inlineStr"/>
-      <c r="E1685" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F1685" t="inlineStr"/>
-      <c r="G1685" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="H1685" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1686">
-      <c r="A1686" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1686" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1686" t="inlineStr">
-        <is>
-          <t>Loans to Companies YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1686" t="inlineStr"/>
-      <c r="E1686" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="F1686" t="inlineStr"/>
-      <c r="G1686" t="inlineStr"/>
-      <c r="H1686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1687">
-      <c r="A1687" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1687" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1687" t="inlineStr">
-        <is>
-          <t>Loans to Households YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1687" t="inlineStr"/>
-      <c r="E1687" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F1687" t="inlineStr"/>
-      <c r="G1687" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H1687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1688">
-      <c r="A1688" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1688" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1688" t="inlineStr">
-        <is>
-          <t>M3 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1688" t="inlineStr"/>
-      <c r="E1688" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F1688" t="inlineStr"/>
-      <c r="G1688" t="inlineStr"/>
-      <c r="H1688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1689">
-      <c r="A1689" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1689" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1689" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1689" t="inlineStr"/>
-      <c r="E1689" t="inlineStr">
-        <is>
-          <t>85.8</t>
-        </is>
-      </c>
-      <c r="F1689" t="inlineStr"/>
-      <c r="G1689" t="inlineStr"/>
-      <c r="H1689" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1690">
-      <c r="A1690" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1690" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1690" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1690" t="inlineStr"/>
-      <c r="E1690" t="inlineStr">
-        <is>
-          <t>96.3</t>
-        </is>
-      </c>
-      <c r="F1690" t="inlineStr"/>
-      <c r="G1690" t="inlineStr"/>
-      <c r="H1690" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1691">
-      <c r="A1691" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1691" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1691" t="inlineStr">
-        <is>
-          <t>10-Year Green Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D1691" t="inlineStr"/>
-      <c r="E1691" t="inlineStr">
-        <is>
-          <t>3.731%</t>
-        </is>
-      </c>
-      <c r="F1691" t="inlineStr"/>
-      <c r="G1691" t="inlineStr"/>
-      <c r="H1691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1692">
-      <c r="A1692" t="inlineStr">
-        <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1692" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1692" t="inlineStr">
-        <is>
-          <t>6-Month BOT Auction</t>
-        </is>
-      </c>
-      <c r="D1692" t="inlineStr"/>
-      <c r="E1692" t="inlineStr"/>
-      <c r="F1692" t="inlineStr"/>
-      <c r="G1692" t="inlineStr"/>
-      <c r="H1692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1693">
-      <c r="A1693" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1693" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1693" t="inlineStr">
-        <is>
-          <t>10-Year Bund Auction</t>
-        </is>
-      </c>
-      <c r="D1693" t="inlineStr"/>
-      <c r="E1693" t="inlineStr">
-        <is>
-          <t>2.51%</t>
-        </is>
-      </c>
-      <c r="F1693" t="inlineStr"/>
-      <c r="G1693" t="inlineStr"/>
-      <c r="H1693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1694">
-      <c r="A1694" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1694" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1694" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
-      <c r="D1694" t="inlineStr"/>
-      <c r="E1694" t="inlineStr"/>
-      <c r="F1694" t="inlineStr"/>
-      <c r="G1694" t="inlineStr">
-        <is>
-          <t>2.70%</t>
-        </is>
-      </c>
-      <c r="H1694" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1695">
-      <c r="A1695" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1695" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1695" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
-        </is>
-      </c>
-      <c r="D1695" t="inlineStr"/>
-      <c r="E1695" t="inlineStr"/>
-      <c r="F1695" t="inlineStr"/>
-      <c r="G1695" t="inlineStr"/>
-      <c r="H1695" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1696">
-      <c r="A1696" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1696" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1696" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
-        </is>
-      </c>
-      <c r="D1696" t="inlineStr"/>
-      <c r="E1696" t="inlineStr"/>
-      <c r="F1696" t="inlineStr"/>
-      <c r="G1696" t="inlineStr"/>
-      <c r="H1696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1697">
-      <c r="A1697" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1697" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1697" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1697" t="inlineStr"/>
-      <c r="E1697" t="inlineStr"/>
-      <c r="F1697" t="inlineStr"/>
-      <c r="G1697" t="inlineStr"/>
-      <c r="H1697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1698">
-      <c r="A1698" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1698" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1698" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1698" t="inlineStr"/>
-      <c r="E1698" t="inlineStr"/>
-      <c r="F1698" t="inlineStr"/>
-      <c r="G1698" t="inlineStr"/>
-      <c r="H1698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1699">
-      <c r="A1699" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1699" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1699" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1699" t="inlineStr"/>
-      <c r="E1699" t="inlineStr"/>
-      <c r="F1699" t="inlineStr"/>
-      <c r="G1699" t="inlineStr"/>
-      <c r="H1699" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1676"/>
+  <dimension ref="A1:H1705"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49342,2159 +49342,2303 @@
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>Thursday January 23 2025</t>
-        </is>
-      </c>
-      <c r="B1497" t="inlineStr"/>
-      <c r="C1497" t="inlineStr"/>
+          <t>01:15 PM</t>
+        </is>
+      </c>
+      <c r="B1497" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1497" t="inlineStr">
+        <is>
+          <t>Business ConfidenceJAN</t>
+        </is>
+      </c>
       <c r="D1497" t="inlineStr"/>
-      <c r="E1497" t="inlineStr"/>
-      <c r="F1497" t="inlineStr"/>
-      <c r="G1497" t="inlineStr"/>
-      <c r="H1497" t="inlineStr"/>
+      <c r="E1497" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="F1497" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G1497" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H1497" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Business Climate IndicatorJAN</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
       <c r="E1498" t="inlineStr">
         <is>
-          <t>127.1%</t>
+          <t>94</t>
         </is>
       </c>
       <c r="F1498" t="inlineStr"/>
       <c r="G1498" t="inlineStr">
         <is>
-          <t>115.0%</t>
-        </is>
-      </c>
-      <c r="H1498" t="n">
-        <v>3</v>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="H1498" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>3-Year OAT Auction</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
       <c r="E1499" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>2.45%</t>
         </is>
       </c>
       <c r="F1499" t="inlineStr"/>
-      <c r="G1499" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="H1499" t="n">
-        <v>2</v>
+      <c r="G1499" t="inlineStr"/>
+      <c r="H1499" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>4-Year OAT Auction</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
       <c r="E1500" t="inlineStr">
         <is>
-          <t>-2.6M</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1500" t="inlineStr"/>
       <c r="G1500" t="inlineStr"/>
-      <c r="H1500" t="n">
-        <v>2</v>
+      <c r="H1500" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
+          <t>5-Year OAT Auction</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
       <c r="E1501" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1501" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1501" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1501" t="n">
-        <v>2</v>
+          <t>2.74%</t>
+        </is>
+      </c>
+      <c r="F1501" t="inlineStr"/>
+      <c r="G1501" t="inlineStr"/>
+      <c r="H1501" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
+          <t>4-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
       <c r="E1502" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F1502" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="G1502" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H1502" t="n">
-        <v>3</v>
+          <t>4.499%</t>
+        </is>
+      </c>
+      <c r="F1502" t="inlineStr"/>
+      <c r="G1502" t="inlineStr"/>
+      <c r="H1502" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>10-Year Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
       <c r="E1503" t="inlineStr">
         <is>
-          <t>¥-117.6B</t>
-        </is>
-      </c>
-      <c r="F1503" t="inlineStr">
-        <is>
-          <t>¥-55B</t>
-        </is>
-      </c>
-      <c r="G1503" t="inlineStr">
-        <is>
-          <t>¥ 100B</t>
-        </is>
-      </c>
-      <c r="H1503" t="n">
-        <v>1</v>
+          <t>1.03%</t>
+        </is>
+      </c>
+      <c r="F1503" t="inlineStr"/>
+      <c r="G1503" t="inlineStr"/>
+      <c r="H1503" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>14-Year Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr"/>
       <c r="E1504" t="inlineStr">
         <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F1504" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G1504" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="H1504" t="n">
-        <v>2</v>
+          <t>1.13%</t>
+        </is>
+      </c>
+      <c r="F1504" t="inlineStr"/>
+      <c r="G1504" t="inlineStr"/>
+      <c r="H1504" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/18</t>
+          <t>15-Year Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr"/>
       <c r="E1505" t="inlineStr">
         <is>
-          <t>¥756.7B</t>
+          <t>1.19%</t>
         </is>
       </c>
       <c r="F1505" t="inlineStr"/>
       <c r="G1505" t="inlineStr"/>
-      <c r="H1505" t="n">
-        <v>3</v>
+      <c r="H1505" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>28-Year Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1506" t="inlineStr"/>
       <c r="E1506" t="inlineStr">
         <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
-      <c r="F1506" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G1506" t="inlineStr">
-        <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
-      <c r="H1506" t="n">
-        <v>3</v>
+          <t>1.10%</t>
+        </is>
+      </c>
+      <c r="F1506" t="inlineStr"/>
+      <c r="G1506" t="inlineStr"/>
+      <c r="H1506" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1507" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/18</t>
+          <t>Building Permits YoYNOV</t>
         </is>
       </c>
       <c r="D1507" t="inlineStr"/>
       <c r="E1507" t="inlineStr">
         <is>
-          <t>¥313.3B</t>
+          <t>21.6%</t>
         </is>
       </c>
       <c r="F1507" t="inlineStr"/>
-      <c r="G1507" t="inlineStr"/>
-      <c r="H1507" t="n">
-        <v>3</v>
+      <c r="G1507" t="inlineStr">
+        <is>
+          <t>23.0%</t>
+        </is>
+      </c>
+      <c r="H1507" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Overnight Borrowing RateJAN</t>
         </is>
       </c>
       <c r="D1508" t="inlineStr"/>
       <c r="E1508" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="F1508" t="inlineStr"/>
-      <c r="G1508" t="inlineStr"/>
-      <c r="H1508" t="n">
-        <v>3</v>
+      <c r="G1508" t="inlineStr">
+        <is>
+          <t>43.5%</t>
+        </is>
+      </c>
+      <c r="H1508" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1509" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>TCMB Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr"/>
       <c r="E1509" t="inlineStr">
         <is>
-          <t>0.3544%</t>
-        </is>
-      </c>
-      <c r="F1509" t="inlineStr"/>
-      <c r="G1509" t="inlineStr"/>
-      <c r="H1509" t="n">
-        <v>3</v>
+          <t>47.5%</t>
+        </is>
+      </c>
+      <c r="F1509" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="G1509" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="H1509" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1510">
       <c r="A1510" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1510" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1510" t="inlineStr">
         <is>
-          <t>1-Year T-Bill Auction</t>
+          <t>Overnight Lending RateJAN</t>
         </is>
       </c>
       <c r="D1510" t="inlineStr"/>
       <c r="E1510" t="inlineStr">
         <is>
-          <t>2.71%</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr"/>
-      <c r="H1510" t="n">
-        <v>3</v>
+      <c r="G1510" t="inlineStr">
+        <is>
+          <t>46.5%</t>
+        </is>
+      </c>
+      <c r="H1510" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1511" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1511" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>CBI Business Optimism IndexQ1</t>
         </is>
       </c>
       <c r="D1511" t="inlineStr"/>
       <c r="E1511" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="F1511" t="inlineStr"/>
       <c r="G1511" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H1511" t="n">
-        <v>3</v>
+          <t>-30</t>
+        </is>
+      </c>
+      <c r="H1511" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1512" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>CBI Industrial Trends OrdersJAN</t>
         </is>
       </c>
       <c r="D1512" t="inlineStr"/>
       <c r="E1512" t="inlineStr">
         <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F1512" t="inlineStr"/>
+          <t>-40</t>
+        </is>
+      </c>
+      <c r="F1512" t="inlineStr">
+        <is>
+          <t>-34</t>
+        </is>
+      </c>
       <c r="G1512" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1512" t="n">
-        <v>3</v>
+          <t>-25</t>
+        </is>
+      </c>
+      <c r="H1512" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1513" t="inlineStr"/>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>$94.43B</t>
         </is>
       </c>
       <c r="F1513" t="inlineStr"/>
-      <c r="G1513" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H1513" t="n">
-        <v>3</v>
+      <c r="G1513" t="inlineStr"/>
+      <c r="H1513" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1514" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1514" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Mid-month Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1514" t="inlineStr"/>
       <c r="E1514" t="inlineStr">
         <is>
-          <t>SAR20.8B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1514" t="inlineStr"/>
       <c r="G1514" t="inlineStr">
         <is>
-          <t>SAR21.8B</t>
-        </is>
-      </c>
-      <c r="H1514" t="n">
-        <v>3</v>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H1514" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>Mid-month Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1515" t="inlineStr"/>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>SAR92.8B</t>
+          <t>3.62%</t>
         </is>
       </c>
       <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr"/>
-      <c r="H1515" t="n">
-        <v>3</v>
+      <c r="G1515" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="H1515" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>Mid-month Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1516" t="inlineStr"/>
       <c r="E1516" t="inlineStr">
         <is>
-          <t>SAR72B</t>
+          <t>0.42%</t>
         </is>
       </c>
       <c r="F1516" t="inlineStr"/>
-      <c r="G1516" t="inlineStr"/>
-      <c r="H1516" t="n">
-        <v>3</v>
+      <c r="G1516" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H1516" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1517" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Mid-month Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1517" t="inlineStr"/>
       <c r="E1517" t="inlineStr">
         <is>
-          <t>81.3</t>
+          <t>4.44%</t>
         </is>
       </c>
       <c r="F1517" t="inlineStr"/>
       <c r="G1517" t="inlineStr">
         <is>
-          <t>81.5</t>
-        </is>
-      </c>
-      <c r="H1517" t="n">
-        <v>2</v>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H1517" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Retail Sales Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="D1518" t="inlineStr"/>
       <c r="E1518" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1518" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="G1518" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H1518" t="n">
-        <v>2</v>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="H1518" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1519" t="inlineStr">
         <is>
-          <t>Business Climate IndicatorJAN</t>
+          <t>Retail Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1519" t="inlineStr"/>
       <c r="E1519" t="inlineStr">
         <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="F1519" t="inlineStr"/>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="F1519" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1519" t="inlineStr">
         <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="H1519" t="n">
-        <v>3</v>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H1519" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1520" t="inlineStr">
         <is>
-          <t>3-Year OAT Auction</t>
+          <t>Retail Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1520" t="inlineStr"/>
-      <c r="E1520" t="inlineStr">
-        <is>
-          <t>2.45%</t>
-        </is>
-      </c>
+      <c r="E1520" t="inlineStr"/>
       <c r="F1520" t="inlineStr"/>
       <c r="G1520" t="inlineStr"/>
-      <c r="H1520" t="n">
-        <v>3</v>
+      <c r="H1520" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1521" t="inlineStr">
         <is>
-          <t>4-Year OAT Auction</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1521" t="inlineStr"/>
       <c r="E1521" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr"/>
-      <c r="H1521" t="n">
-        <v>3</v>
+      <c r="G1521" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="H1521" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1522" t="inlineStr">
         <is>
-          <t>5-Year OAT Auction</t>
+          <t>Initial Jobless ClaimsJAN/18</t>
         </is>
       </c>
       <c r="D1522" t="inlineStr"/>
       <c r="E1522" t="inlineStr">
         <is>
-          <t>2.74%</t>
-        </is>
-      </c>
-      <c r="F1522" t="inlineStr"/>
-      <c r="G1522" t="inlineStr"/>
-      <c r="H1522" t="n">
-        <v>3</v>
+          <t>217K</t>
+        </is>
+      </c>
+      <c r="F1522" t="inlineStr">
+        <is>
+          <t>215K</t>
+        </is>
+      </c>
+      <c r="G1522" t="inlineStr">
+        <is>
+          <t>219K</t>
+        </is>
+      </c>
+      <c r="H1522" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr">
         <is>
-          <t>4-Year Treasury Gilt Auction</t>
+          <t>Continuing Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="D1523" t="inlineStr"/>
       <c r="E1523" t="inlineStr">
         <is>
-          <t>4.499%</t>
+          <t>1859K</t>
         </is>
       </c>
       <c r="F1523" t="inlineStr"/>
-      <c r="G1523" t="inlineStr"/>
-      <c r="H1523" t="n">
-        <v>3</v>
+      <c r="G1523" t="inlineStr">
+        <is>
+          <t>1861K</t>
+        </is>
+      </c>
+      <c r="H1523" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1524" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked OAT Auction</t>
+          <t>Jobless Claims 4-week AverageJAN/18</t>
         </is>
       </c>
       <c r="D1524" t="inlineStr"/>
       <c r="E1524" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>212.75K</t>
         </is>
       </c>
       <c r="F1524" t="inlineStr"/>
-      <c r="G1524" t="inlineStr"/>
-      <c r="H1524" t="n">
-        <v>3</v>
+      <c r="G1524" t="inlineStr">
+        <is>
+          <t>213.0K</t>
+        </is>
+      </c>
+      <c r="H1524" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1525" t="inlineStr">
         <is>
-          <t>14-Year Index-Linked OAT Auction</t>
+          <t>Consumer Confidence FlashJAN</t>
         </is>
       </c>
       <c r="D1525" t="inlineStr"/>
       <c r="E1525" t="inlineStr">
         <is>
-          <t>1.13%</t>
-        </is>
-      </c>
-      <c r="F1525" t="inlineStr"/>
-      <c r="G1525" t="inlineStr"/>
-      <c r="H1525" t="n">
-        <v>3</v>
+          <t>-14.5</t>
+        </is>
+      </c>
+      <c r="F1525" t="inlineStr">
+        <is>
+          <t>-14.5</t>
+        </is>
+      </c>
+      <c r="G1525" t="inlineStr">
+        <is>
+          <t>-14.7</t>
+        </is>
+      </c>
+      <c r="H1525" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1526" t="inlineStr">
         <is>
-          <t>15-Year Index-Linked OAT Auction</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1526" t="inlineStr"/>
       <c r="E1526" t="inlineStr">
         <is>
-          <t>1.19%</t>
+          <t>-258Bcf</t>
         </is>
       </c>
       <c r="F1526" t="inlineStr"/>
       <c r="G1526" t="inlineStr"/>
-      <c r="H1526" t="n">
-        <v>3</v>
+      <c r="H1526" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1527" t="inlineStr">
         <is>
-          <t>28-Year Index-Linked OAT Auction</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1527" t="inlineStr"/>
       <c r="E1527" t="inlineStr">
         <is>
-          <t>1.10%</t>
+          <t>-1.961M</t>
         </is>
       </c>
       <c r="F1527" t="inlineStr"/>
       <c r="G1527" t="inlineStr"/>
-      <c r="H1527" t="n">
-        <v>3</v>
+      <c r="H1527" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1528" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1528" t="inlineStr">
         <is>
-          <t>Building Permits YoYNOV</t>
+          <t>EIA Gasoline Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1528" t="inlineStr"/>
       <c r="E1528" t="inlineStr">
         <is>
-          <t>21.6%</t>
+          <t>5.852M</t>
         </is>
       </c>
       <c r="F1528" t="inlineStr"/>
-      <c r="G1528" t="inlineStr">
-        <is>
-          <t>23.0%</t>
-        </is>
-      </c>
-      <c r="H1528" t="n">
-        <v>3</v>
+      <c r="G1528" t="inlineStr"/>
+      <c r="H1528" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1529" t="inlineStr">
         <is>
-          <t>Overnight Borrowing RateJAN</t>
+          <t>EIA Crude Oil Imports ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1529" t="inlineStr"/>
       <c r="E1529" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>-1.304M</t>
         </is>
       </c>
       <c r="F1529" t="inlineStr"/>
-      <c r="G1529" t="inlineStr">
-        <is>
-          <t>43.5%</t>
-        </is>
-      </c>
-      <c r="H1529" t="n">
-        <v>2</v>
+      <c r="G1529" t="inlineStr"/>
+      <c r="H1529" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1530" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1530" t="inlineStr">
         <is>
-          <t>TCMB Interest Rate Decision</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1530" t="inlineStr"/>
       <c r="E1530" t="inlineStr">
         <is>
-          <t>47.5%</t>
-        </is>
-      </c>
-      <c r="F1530" t="inlineStr">
-        <is>
-          <t>45%</t>
-        </is>
-      </c>
-      <c r="G1530" t="inlineStr">
-        <is>
-          <t>45%</t>
-        </is>
-      </c>
-      <c r="H1530" t="n">
-        <v>2</v>
+          <t>0.765M</t>
+        </is>
+      </c>
+      <c r="F1530" t="inlineStr"/>
+      <c r="G1530" t="inlineStr"/>
+      <c r="H1530" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1531" t="inlineStr">
         <is>
-          <t>Overnight Lending RateJAN</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1531" t="inlineStr"/>
       <c r="E1531" t="inlineStr">
         <is>
-          <t>49%</t>
+          <t>-0.021M</t>
         </is>
       </c>
       <c r="F1531" t="inlineStr"/>
-      <c r="G1531" t="inlineStr">
-        <is>
-          <t>46.5%</t>
-        </is>
-      </c>
-      <c r="H1531" t="n">
-        <v>3</v>
+      <c r="G1531" t="inlineStr"/>
+      <c r="H1531" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1532" t="inlineStr">
         <is>
-          <t>CBI Business Optimism IndexQ1</t>
+          <t>EIA Distillate Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1532" t="inlineStr"/>
       <c r="E1532" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>3.077M</t>
         </is>
       </c>
       <c r="F1532" t="inlineStr"/>
-      <c r="G1532" t="inlineStr">
-        <is>
-          <t>-30</t>
-        </is>
-      </c>
-      <c r="H1532" t="n">
-        <v>2</v>
+      <c r="G1532" t="inlineStr"/>
+      <c r="H1532" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1533" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1533" t="inlineStr">
         <is>
-          <t>CBI Industrial Trends OrdersJAN</t>
+          <t>EIA Gasoline Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1533" t="inlineStr"/>
       <c r="E1533" t="inlineStr">
         <is>
-          <t>-40</t>
-        </is>
-      </c>
-      <c r="F1533" t="inlineStr">
-        <is>
-          <t>-34</t>
-        </is>
-      </c>
-      <c r="G1533" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="H1533" t="n">
-        <v>2</v>
+          <t>0.397M</t>
+        </is>
+      </c>
+      <c r="F1533" t="inlineStr"/>
+      <c r="G1533" t="inlineStr"/>
+      <c r="H1533" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1534" t="inlineStr"/>
       <c r="E1534" t="inlineStr">
         <is>
-          <t>$94.43B</t>
+          <t>0.646M</t>
         </is>
       </c>
       <c r="F1534" t="inlineStr"/>
       <c r="G1534" t="inlineStr"/>
-      <c r="H1534" t="n">
-        <v>3</v>
+      <c r="H1534" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1535" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate MoMJAN</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1535" t="inlineStr"/>
       <c r="E1535" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.255M</t>
         </is>
       </c>
       <c r="F1535" t="inlineStr"/>
-      <c r="G1535" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1535" t="n">
-        <v>3</v>
+      <c r="G1535" t="inlineStr"/>
+      <c r="H1535" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate YoYJAN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1536" t="inlineStr"/>
       <c r="E1536" t="inlineStr">
         <is>
-          <t>3.62%</t>
+          <t>4.240%</t>
         </is>
       </c>
       <c r="F1536" t="inlineStr"/>
-      <c r="G1536" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="H1536" t="n">
-        <v>3</v>
+      <c r="G1536" t="inlineStr"/>
+      <c r="H1536" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1537" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate MoMJAN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1537" t="inlineStr"/>
       <c r="E1537" t="inlineStr">
         <is>
-          <t>0.42%</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="F1537" t="inlineStr"/>
-      <c r="G1537" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1537" t="n">
-        <v>3</v>
+      <c r="G1537" t="inlineStr"/>
+      <c r="H1537" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1538" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate YoYJAN</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="D1538" t="inlineStr"/>
       <c r="E1538" t="inlineStr">
         <is>
-          <t>4.44%</t>
+          <t>3.25%</t>
         </is>
       </c>
       <c r="F1538" t="inlineStr"/>
-      <c r="G1538" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="H1538" t="n">
-        <v>3</v>
+      <c r="G1538" t="inlineStr"/>
+      <c r="H1538" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1539" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMNOV</t>
+          <t>15-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="D1539" t="inlineStr"/>
       <c r="E1539" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1539" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G1539" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="H1539" t="n">
-        <v>2</v>
+          <t>6.27%</t>
+        </is>
+      </c>
+      <c r="F1539" t="inlineStr"/>
+      <c r="G1539" t="inlineStr"/>
+      <c r="H1539" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1540">
       <c r="A1540" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1540" t="inlineStr">
         <is>
-          <t>Retail Sales MoM FinalNOV</t>
+          <t>30-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="D1540" t="inlineStr"/>
       <c r="E1540" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1540" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1540" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H1540" t="n">
-        <v>2</v>
+          <t>7.04%</t>
+        </is>
+      </c>
+      <c r="F1540" t="inlineStr"/>
+      <c r="G1540" t="inlineStr"/>
+      <c r="H1540" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr">
         <is>
-          <t>Retail Sales MoM PrelDEC</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="D1541" t="inlineStr"/>
-      <c r="E1541" t="inlineStr"/>
+      <c r="E1541" t="inlineStr">
+        <is>
+          <t>2.071%</t>
+        </is>
+      </c>
       <c r="F1541" t="inlineStr"/>
       <c r="G1541" t="inlineStr"/>
-      <c r="H1541" t="n">
-        <v>2</v>
+      <c r="H1541" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1542">
-      <c r="A1542" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A1542" t="inlineStr"/>
       <c r="B1542" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1542" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>20-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1542" t="inlineStr"/>
       <c r="E1542" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>2.750%</t>
         </is>
       </c>
       <c r="F1542" t="inlineStr"/>
-      <c r="G1542" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="H1542" t="n">
-        <v>3</v>
+      <c r="G1542" t="inlineStr"/>
+      <c r="H1542" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1543">
-      <c r="A1543" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A1543" t="inlineStr"/>
       <c r="B1543" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1543" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/18</t>
+          <t>Federal Tax RevenuesDEC</t>
         </is>
       </c>
       <c r="D1543" t="inlineStr"/>
       <c r="E1543" t="inlineStr">
         <is>
-          <t>217K</t>
-        </is>
-      </c>
-      <c r="F1543" t="inlineStr">
-        <is>
-          <t>215K</t>
-        </is>
-      </c>
+          <t>BRL209.2B</t>
+        </is>
+      </c>
+      <c r="F1543" t="inlineStr"/>
       <c r="G1543" t="inlineStr">
         <is>
-          <t>219K</t>
-        </is>
-      </c>
-      <c r="H1543" t="n">
-        <v>2</v>
+          <t>BRL 255.1B</t>
+        </is>
+      </c>
+      <c r="H1543" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1544">
       <c r="A1544" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1544" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1544" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJAN/11</t>
-        </is>
-      </c>
+          <t>Friday January 24 2025</t>
+        </is>
+      </c>
+      <c r="B1544" t="inlineStr"/>
+      <c r="C1544" t="inlineStr"/>
       <c r="D1544" t="inlineStr"/>
-      <c r="E1544" t="inlineStr">
-        <is>
-          <t>1859K</t>
-        </is>
-      </c>
+      <c r="E1544" t="inlineStr"/>
       <c r="F1544" t="inlineStr"/>
-      <c r="G1544" t="inlineStr">
-        <is>
-          <t>1861K</t>
-        </is>
-      </c>
-      <c r="H1544" t="n">
-        <v>3</v>
-      </c>
+      <c r="G1544" t="inlineStr"/>
+      <c r="H1544" t="inlineStr"/>
     </row>
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B1545" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1545" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/18</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1545" t="inlineStr"/>
       <c r="E1545" t="inlineStr">
         <is>
-          <t>212.75K</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1545" t="inlineStr"/>
       <c r="G1545" t="inlineStr">
         <is>
-          <t>213.0K</t>
-        </is>
-      </c>
-      <c r="H1545" t="n">
-        <v>3</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H1545" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1546" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1546" t="inlineStr">
         <is>
-          <t>Consumer Confidence FlashJAN</t>
+          <t>Fed Balance SheetJAN/22</t>
         </is>
       </c>
       <c r="D1546" t="inlineStr"/>
       <c r="E1546" t="inlineStr">
         <is>
-          <t>-14.5</t>
-        </is>
-      </c>
-      <c r="F1546" t="inlineStr">
-        <is>
-          <t>-14.5</t>
-        </is>
-      </c>
-      <c r="G1546" t="inlineStr">
-        <is>
-          <t>-14.7</t>
-        </is>
-      </c>
-      <c r="H1546" t="n">
-        <v>2</v>
+          <t>$6.83T</t>
+        </is>
+      </c>
+      <c r="F1546" t="inlineStr"/>
+      <c r="G1546" t="inlineStr"/>
+      <c r="H1546" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1547">
       <c r="A1547" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1547" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1547" t="inlineStr"/>
       <c r="E1547" t="inlineStr">
         <is>
-          <t>-258Bcf</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="F1547" t="inlineStr"/>
-      <c r="G1547" t="inlineStr"/>
-      <c r="H1547" t="n">
-        <v>3</v>
+      <c r="G1547" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
+      <c r="H1547" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1548">
       <c r="A1548" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1548" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
+          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1548" t="inlineStr"/>
       <c r="E1548" t="inlineStr">
         <is>
-          <t>-1.961M</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F1548" t="inlineStr"/>
-      <c r="G1548" t="inlineStr"/>
-      <c r="H1548" t="n">
-        <v>2</v>
+      <c r="G1548" t="inlineStr">
+        <is>
+          <t>50.6</t>
+        </is>
+      </c>
+      <c r="H1548" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1549">
       <c r="A1549" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1549" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1549" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/17</t>
+          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1549" t="inlineStr"/>
       <c r="E1549" t="inlineStr">
         <is>
-          <t>5.852M</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="F1549" t="inlineStr"/>
-      <c r="G1549" t="inlineStr"/>
-      <c r="H1549" t="n">
-        <v>2</v>
+      <c r="G1549" t="inlineStr">
+        <is>
+          <t>50.4</t>
+        </is>
+      </c>
+      <c r="H1549" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1550">
       <c r="A1550" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1550" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/17</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1550" t="inlineStr"/>
       <c r="E1550" t="inlineStr">
         <is>
-          <t>-1.304M</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1550" t="inlineStr"/>
-      <c r="G1550" t="inlineStr"/>
-      <c r="H1550" t="n">
-        <v>3</v>
+      <c r="G1550" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="H1550" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1551">
       <c r="A1551" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1551" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1551" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1551" t="inlineStr"/>
       <c r="E1551" t="inlineStr">
         <is>
-          <t>0.765M</t>
-        </is>
-      </c>
-      <c r="F1551" t="inlineStr"/>
-      <c r="G1551" t="inlineStr"/>
-      <c r="H1551" t="n">
-        <v>3</v>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F1551" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="G1551" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="H1551" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1552">
       <c r="A1552" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1552" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1552" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
+          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
         </is>
       </c>
       <c r="D1552" t="inlineStr"/>
       <c r="E1552" t="inlineStr">
         <is>
-          <t>-0.021M</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1552" t="inlineStr"/>
-      <c r="G1552" t="inlineStr"/>
-      <c r="H1552" t="n">
-        <v>3</v>
+      <c r="G1552" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="H1552" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1553" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1553" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/17</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1553" t="inlineStr"/>
       <c r="E1553" t="inlineStr">
         <is>
-          <t>3.077M</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1553" t="inlineStr"/>
-      <c r="G1553" t="inlineStr"/>
-      <c r="H1553" t="n">
-        <v>3</v>
+      <c r="G1553" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H1553" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>05:31 AM</t>
         </is>
       </c>
       <c r="B1554" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1554" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/17</t>
+          <t>Gfk Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1554" t="inlineStr"/>
       <c r="E1554" t="inlineStr">
         <is>
-          <t>0.397M</t>
-        </is>
-      </c>
-      <c r="F1554" t="inlineStr"/>
-      <c r="G1554" t="inlineStr"/>
-      <c r="H1554" t="n">
-        <v>3</v>
+          <t>-17</t>
+        </is>
+      </c>
+      <c r="F1554" t="inlineStr">
+        <is>
+          <t>-18</t>
+        </is>
+      </c>
+      <c r="G1554" t="inlineStr">
+        <is>
+          <t>-23</t>
+        </is>
+      </c>
+      <c r="H1554" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1555">
       <c r="A1555" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1555" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
+          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1555" t="inlineStr"/>
       <c r="E1555" t="inlineStr">
         <is>
-          <t>0.646M</t>
-        </is>
-      </c>
-      <c r="F1555" t="inlineStr"/>
-      <c r="G1555" t="inlineStr"/>
-      <c r="H1555" t="n">
-        <v>3</v>
+          <t>49.5</t>
+        </is>
+      </c>
+      <c r="F1555" t="inlineStr">
+        <is>
+          <t>49.7</t>
+        </is>
+      </c>
+      <c r="G1555" t="inlineStr">
+        <is>
+          <t>49.9</t>
+        </is>
+      </c>
+      <c r="H1555" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1556" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1556" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
+          <t>Jibun Bank Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1556" t="inlineStr"/>
       <c r="E1556" t="inlineStr">
         <is>
-          <t>-0.255M</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="F1556" t="inlineStr"/>
-      <c r="G1556" t="inlineStr"/>
-      <c r="H1556" t="n">
-        <v>3</v>
+      <c r="G1556" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="H1556" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1557">
       <c r="A1557" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1557" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1557" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Jibun Bank Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1557" t="inlineStr"/>
       <c r="E1557" t="inlineStr">
         <is>
-          <t>4.240%</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F1557" t="inlineStr"/>
-      <c r="G1557" t="inlineStr"/>
-      <c r="H1557" t="n">
-        <v>3</v>
+      <c r="G1557" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H1557" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1558">
       <c r="A1558" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1558" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>URA Property Index QoQ FinalQ4</t>
         </is>
       </c>
       <c r="D1558" t="inlineStr"/>
       <c r="E1558" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1558" t="inlineStr"/>
-      <c r="G1558" t="inlineStr"/>
-      <c r="H1558" t="n">
-        <v>3</v>
+      <c r="G1558" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H1558" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1559">
       <c r="A1559" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1559" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1559" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>BoJ Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1559" t="inlineStr"/>
       <c r="E1559" t="inlineStr">
         <is>
-          <t>3.25%</t>
-        </is>
-      </c>
-      <c r="F1559" t="inlineStr"/>
-      <c r="G1559" t="inlineStr"/>
-      <c r="H1559" t="n">
-        <v>3</v>
+          <t>0.25%</t>
+        </is>
+      </c>
+      <c r="F1559" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G1559" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H1559" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1560">
       <c r="A1560" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1560" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1560" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/23</t>
+          <t>BoJ Quarterly Outlook Report</t>
         </is>
       </c>
       <c r="D1560" t="inlineStr"/>
-      <c r="E1560" t="inlineStr">
-        <is>
-          <t>6.27%</t>
-        </is>
-      </c>
+      <c r="E1560" t="inlineStr"/>
       <c r="F1560" t="inlineStr"/>
       <c r="G1560" t="inlineStr"/>
-      <c r="H1560" t="n">
-        <v>3</v>
+      <c r="H1560" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1561" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1561" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/23</t>
+          <t>Foreign Direct Investment YoYQ4</t>
         </is>
       </c>
       <c r="D1561" t="inlineStr"/>
       <c r="E1561" t="inlineStr">
         <is>
-          <t>7.04%</t>
+          <t>18.55%</t>
         </is>
       </c>
       <c r="F1561" t="inlineStr"/>
       <c r="G1561" t="inlineStr"/>
-      <c r="H1561" t="n">
-        <v>3</v>
+      <c r="H1561" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1562">
       <c r="A1562" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1562" t="inlineStr">
         <is>
-          <t>10-Year TIPS Auction</t>
+          <t>HSBC Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1562" t="inlineStr"/>
       <c r="E1562" t="inlineStr">
         <is>
-          <t>2.071%</t>
+          <t>59.2</t>
         </is>
       </c>
       <c r="F1562" t="inlineStr"/>
-      <c r="G1562" t="inlineStr"/>
-      <c r="H1562" t="n">
-        <v>3</v>
+      <c r="G1562" t="inlineStr">
+        <is>
+          <t>58.8</t>
+        </is>
+      </c>
+      <c r="H1562" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1563">
-      <c r="A1563" t="inlineStr"/>
+      <c r="A1563" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B1563" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1563" t="inlineStr">
         <is>
-          <t>20-Year KTB Auction</t>
+          <t>HSBC Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1563" t="inlineStr"/>
       <c r="E1563" t="inlineStr">
         <is>
-          <t>2.750%</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1563" t="inlineStr"/>
-      <c r="G1563" t="inlineStr"/>
-      <c r="H1563" t="n">
-        <v>3</v>
+      <c r="G1563" t="inlineStr">
+        <is>
+          <t>56.1</t>
+        </is>
+      </c>
+      <c r="H1563" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1564">
-      <c r="A1564" t="inlineStr"/>
+      <c r="A1564" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B1564" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1564" t="inlineStr">
         <is>
-          <t>Federal Tax RevenuesDEC</t>
+          <t>HSBC Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1564" t="inlineStr"/>
       <c r="E1564" t="inlineStr">
         <is>
-          <t>BRL209.2B</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="F1564" t="inlineStr"/>
       <c r="G1564" t="inlineStr">
         <is>
-          <t>BRL 255.1B</t>
-        </is>
-      </c>
-      <c r="H1564" t="n">
-        <v>3</v>
+          <t>59.1</t>
+        </is>
+      </c>
+      <c r="H1564" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1565">
       <c r="A1565" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1565" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1565" t="inlineStr"/>
       <c r="E1565" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F1565" t="inlineStr"/>
       <c r="G1565" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H1565" t="n">
-        <v>3</v>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H1565" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1566" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1566" t="inlineStr"/>
       <c r="E1566" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1566" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="F1566" t="inlineStr"/>
       <c r="G1566" t="inlineStr">
         <is>
-          <t>42.2</t>
-        </is>
-      </c>
-      <c r="H1566" t="n">
-        <v>2</v>
+          <t>7%</t>
+        </is>
+      </c>
+      <c r="H1566" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr"/>
       <c r="E1567" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1567" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="F1567" t="inlineStr"/>
       <c r="G1567" t="inlineStr">
         <is>
-          <t>49.5</t>
-        </is>
-      </c>
-      <c r="H1567" t="n">
-        <v>2</v>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="H1567" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1568">
@@ -51510,70 +51654,78 @@
       </c>
       <c r="C1568" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1568" t="inlineStr"/>
       <c r="E1568" t="inlineStr">
         <is>
-          <t>47.5</t>
-        </is>
-      </c>
-      <c r="F1568" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F1568" t="inlineStr">
+        <is>
+          <t>42.1</t>
+        </is>
+      </c>
       <c r="G1568" t="inlineStr">
         <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="H1568" t="n">
-        <v>3</v>
+          <t>42.2</t>
+        </is>
+      </c>
+      <c r="H1568" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="F1569" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="G1569" t="inlineStr">
         <is>
-          <t>42.3</t>
-        </is>
-      </c>
-      <c r="H1569" t="n">
-        <v>1</v>
+          <t>49.5</t>
+        </is>
+      </c>
+      <c r="H1569" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr">
@@ -51584,17 +51736,19 @@
       <c r="D1570" t="inlineStr"/>
       <c r="E1570" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="F1570" t="inlineStr"/>
       <c r="G1570" t="inlineStr">
         <is>
-          <t>47.8</t>
-        </is>
-      </c>
-      <c r="H1570" t="n">
-        <v>2</v>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H1570" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1571">
@@ -51610,38 +51764,40 @@
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1571" t="inlineStr"/>
       <c r="E1571" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="F1571" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>42</t>
         </is>
       </c>
       <c r="G1571" t="inlineStr">
         <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="H1571" t="n">
-        <v>2</v>
+          <t>42.3</t>
+        </is>
+      </c>
+      <c r="H1571" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr">
@@ -51652,53 +51808,57 @@
       <c r="D1572" t="inlineStr"/>
       <c r="E1572" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F1572" t="inlineStr"/>
       <c r="G1572" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="H1572" t="n">
-        <v>2</v>
+          <t>47.8</t>
+        </is>
+      </c>
+      <c r="H1572" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1573" t="inlineStr"/>
       <c r="E1573" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F1573" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G1573" t="inlineStr">
         <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="H1573" t="n">
-        <v>2</v>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H1573" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1574">
@@ -51714,99 +51874,101 @@
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1574" t="inlineStr"/>
       <c r="E1574" t="inlineStr">
         <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="F1574" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F1574" t="inlineStr"/>
       <c r="G1574" t="inlineStr">
         <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="H1574" t="n">
-        <v>2</v>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="H1574" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1575" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1575" t="inlineStr"/>
       <c r="E1575" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F1575" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="G1575" t="inlineStr">
         <is>
-          <t>47.2</t>
-        </is>
-      </c>
-      <c r="H1575" t="n">
-        <v>1</v>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H1575" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr"/>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="F1576" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="G1576" t="inlineStr">
         <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="H1576" t="n">
-        <v>1</v>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="H1576" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1577">
@@ -51822,85 +51984,107 @@
       </c>
       <c r="C1577" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1577" t="inlineStr"/>
       <c r="E1577" t="inlineStr">
         <is>
-          <t>50.4</t>
-        </is>
-      </c>
-      <c r="F1577" t="inlineStr"/>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F1577" t="inlineStr">
+        <is>
+          <t>47.1</t>
+        </is>
+      </c>
       <c r="G1577" t="inlineStr">
         <is>
-          <t>50.3</t>
-        </is>
-      </c>
-      <c r="H1577" t="n">
-        <v>3</v>
+          <t>47.2</t>
+        </is>
+      </c>
+      <c r="H1577" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr"/>
-      <c r="E1578" t="inlineStr"/>
-      <c r="F1578" t="inlineStr"/>
-      <c r="G1578" t="inlineStr"/>
-      <c r="H1578" t="n">
-        <v>2</v>
+      <c r="E1578" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="F1578" t="inlineStr">
+        <is>
+          <t>50.6</t>
+        </is>
+      </c>
+      <c r="G1578" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H1578" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr"/>
       <c r="E1579" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F1579" t="inlineStr"/>
       <c r="G1579" t="inlineStr">
         <is>
-          <t>91.4</t>
-        </is>
-      </c>
-      <c r="H1579" t="n">
-        <v>3</v>
+          <t>50.3</t>
+        </is>
+      </c>
+      <c r="H1579" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1580">
       <c r="A1580" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1580" t="inlineStr">
@@ -51910,15 +52094,17 @@
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>ECB Cipollone Speech</t>
+          <t>ECB President Lagarde Speech</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr"/>
       <c r="E1580" t="inlineStr"/>
       <c r="F1580" t="inlineStr"/>
       <c r="G1580" t="inlineStr"/>
-      <c r="H1580" t="n">
-        <v>3</v>
+      <c r="H1580" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1581">
@@ -51929,124 +52115,124 @@
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>FGV Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1581" t="inlineStr"/>
       <c r="E1581" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1581" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="F1581" t="inlineStr"/>
       <c r="G1581" t="inlineStr">
         <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="H1581" t="n">
-        <v>2</v>
+          <t>91.4</t>
+        </is>
+      </c>
+      <c r="H1581" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1582">
       <c r="A1582" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr"/>
-      <c r="E1582" t="inlineStr">
-        <is>
-          <t>$625.87B</t>
-        </is>
-      </c>
+      <c r="E1582" t="inlineStr"/>
       <c r="F1582" t="inlineStr"/>
       <c r="G1582" t="inlineStr"/>
-      <c r="H1582" t="n">
-        <v>3</v>
+      <c r="H1582" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>CBI Distributive TradesJAN</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr"/>
       <c r="E1583" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F1583" t="inlineStr"/>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="F1583" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
       <c r="G1583" t="inlineStr">
         <is>
-          <t>56.2</t>
-        </is>
-      </c>
-      <c r="H1583" t="n">
-        <v>3</v>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="H1583" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr"/>
       <c r="E1584" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>$625.87B</t>
         </is>
       </c>
       <c r="F1584" t="inlineStr"/>
-      <c r="G1584" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1584" t="n">
-        <v>3</v>
+      <c r="G1584" t="inlineStr"/>
+      <c r="H1584" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1585">
@@ -52057,96 +52243,98 @@
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr"/>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1585" t="inlineStr"/>
       <c r="G1585" t="inlineStr">
         <is>
-          <t>1.0%</t>
-        </is>
-      </c>
-      <c r="H1585" t="n">
-        <v>3</v>
+          <t>56.2</t>
+        </is>
+      </c>
+      <c r="H1585" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1586" t="inlineStr"/>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1586" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="F1586" t="inlineStr"/>
       <c r="G1586" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1586" t="n">
-        <v>2</v>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H1586" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr"/>
       <c r="E1587" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1587" t="inlineStr"/>
       <c r="G1587" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1587" t="n">
-        <v>2</v>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="H1587" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1588">
@@ -52162,87 +52350,97 @@
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1588" t="inlineStr"/>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1588" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1588" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1588" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1588" t="n">
-        <v>3</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H1588" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1589" t="inlineStr"/>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1589" t="inlineStr"/>
       <c r="G1589" t="inlineStr">
         <is>
-          <t>55.3</t>
-        </is>
-      </c>
-      <c r="H1589" t="n">
-        <v>2</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H1589" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1590" t="inlineStr"/>
       <c r="E1590" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1590" t="inlineStr"/>
       <c r="G1590" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="H1590" t="n">
-        <v>2</v>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H1590" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1591">
@@ -52258,29 +52456,31 @@
       </c>
       <c r="C1591" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1591" t="inlineStr"/>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="F1591" t="inlineStr"/>
       <c r="G1591" t="inlineStr">
         <is>
-          <t>56.6</t>
-        </is>
-      </c>
-      <c r="H1591" t="n">
-        <v>2</v>
+          <t>55.3</t>
+        </is>
+      </c>
+      <c r="H1591" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
@@ -52290,33 +52490,31 @@
       </c>
       <c r="C1592" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1592" t="inlineStr"/>
       <c r="E1592" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1592" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F1592" t="inlineStr"/>
       <c r="G1592" t="inlineStr">
         <is>
-          <t>4.1M</t>
-        </is>
-      </c>
-      <c r="H1592" t="n">
-        <v>1</v>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="H1592" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr">
@@ -52326,23 +52524,25 @@
       </c>
       <c r="C1593" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1593" t="inlineStr"/>
       <c r="E1593" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1593" t="inlineStr"/>
       <c r="G1593" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1593" t="n">
-        <v>2</v>
+          <t>56.6</t>
+        </is>
+      </c>
+      <c r="H1593" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1594">
@@ -52358,27 +52558,29 @@
       </c>
       <c r="C1594" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1594" t="inlineStr"/>
       <c r="E1594" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1594" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>73.2</t>
-        </is>
-      </c>
-      <c r="H1594" t="n">
-        <v>2</v>
+          <t>4.1M</t>
+        </is>
+      </c>
+      <c r="H1594" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1595">
@@ -52394,27 +52596,25 @@
       </c>
       <c r="C1595" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1595" t="inlineStr"/>
       <c r="E1595" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1595" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>4.8%</t>
+        </is>
+      </c>
+      <c r="F1595" t="inlineStr"/>
       <c r="G1595" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1595" t="n">
-        <v>3</v>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H1595" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1596">
@@ -52430,27 +52630,29 @@
       </c>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1596" t="inlineStr"/>
       <c r="E1596" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1596" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1596" t="inlineStr">
         <is>
-          <t>70.2</t>
-        </is>
-      </c>
-      <c r="H1596" t="n">
-        <v>3</v>
+          <t>73.2</t>
+        </is>
+      </c>
+      <c r="H1596" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1597">
@@ -52466,27 +52668,29 @@
       </c>
       <c r="C1597" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1597" t="inlineStr"/>
       <c r="E1597" t="inlineStr">
         <is>
-          <t>75.1</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F1597" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1597" t="inlineStr">
         <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="H1597" t="n">
-        <v>3</v>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="H1597" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1598">
@@ -52502,33 +52706,35 @@
       </c>
       <c r="C1598" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1598" t="inlineStr"/>
       <c r="E1598" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1598" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1598" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1598" t="n">
-        <v>3</v>
+          <t>70.2</t>
+        </is>
+      </c>
+      <c r="H1598" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
@@ -52538,29 +52744,35 @@
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1599" t="inlineStr"/>
       <c r="E1599" t="inlineStr">
         <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F1599" t="inlineStr"/>
+          <t>75.1</t>
+        </is>
+      </c>
+      <c r="F1599" t="inlineStr">
+        <is>
+          <t>77.9</t>
+        </is>
+      </c>
       <c r="G1599" t="inlineStr">
         <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="H1599" t="n">
-        <v>3</v>
+          <t>77.9</t>
+        </is>
+      </c>
+      <c r="H1599" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
@@ -52570,29 +52782,35 @@
       </c>
       <c r="C1600" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1600" t="inlineStr"/>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F1600" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1600" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="H1600" t="n">
-        <v>3</v>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="H1600" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
@@ -52602,25 +52820,31 @@
       </c>
       <c r="C1601" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1601" t="inlineStr"/>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="F1601" t="inlineStr"/>
-      <c r="G1601" t="inlineStr"/>
-      <c r="H1601" t="n">
-        <v>3</v>
+      <c r="G1601" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="H1601" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1602" t="inlineStr">
@@ -52630,39 +52854,49 @@
       </c>
       <c r="C1602" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1602" t="inlineStr"/>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1602" t="inlineStr"/>
-      <c r="G1602" t="inlineStr"/>
-      <c r="H1602" t="n">
-        <v>3</v>
+      <c r="G1602" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="H1602" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
-      <c r="E1603" t="inlineStr"/>
+      <c r="E1603" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1603" t="inlineStr"/>
       <c r="G1603" t="inlineStr"/>
       <c r="H1603" t="inlineStr">
@@ -52674,21 +52908,25 @@
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1604" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1604" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1604" t="inlineStr"/>
-      <c r="E1604" t="inlineStr"/>
+      <c r="E1604" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
       <c r="F1604" t="inlineStr"/>
       <c r="G1604" t="inlineStr"/>
       <c r="H1604" t="inlineStr">
@@ -52700,107 +52938,103 @@
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1605" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1605" t="inlineStr">
-        <is>
-          <t>New Home SalesDEC</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1605" t="inlineStr"/>
+      <c r="C1605" t="inlineStr"/>
       <c r="D1605" t="inlineStr"/>
       <c r="E1605" t="inlineStr"/>
       <c r="F1605" t="inlineStr"/>
       <c r="G1605" t="inlineStr"/>
-      <c r="H1605" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H1605" t="inlineStr"/>
     </row>
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
-      <c r="E1606" t="inlineStr"/>
+      <c r="E1606" t="inlineStr">
+        <is>
+          <t>-4.7%</t>
+        </is>
+      </c>
       <c r="F1606" t="inlineStr"/>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1606" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr"/>
       <c r="G1607" t="inlineStr"/>
       <c r="H1607" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
-      <c r="E1608" t="inlineStr"/>
+      <c r="E1608" t="inlineStr">
+        <is>
+          <t>109.1</t>
+        </is>
+      </c>
       <c r="F1608" t="inlineStr"/>
       <c r="G1608" t="inlineStr"/>
       <c r="H1608" t="inlineStr">
@@ -52812,21 +53046,25 @@
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
-      <c r="E1609" t="inlineStr"/>
+      <c r="E1609" t="inlineStr">
+        <is>
+          <t>3.46%</t>
+        </is>
+      </c>
       <c r="F1609" t="inlineStr"/>
       <c r="G1609" t="inlineStr"/>
       <c r="H1609" t="inlineStr">
@@ -52838,17 +53076,17 @@
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
@@ -52864,17 +53102,17 @@
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
@@ -52888,63 +53126,59 @@
       </c>
     </row>
     <row r="1612">
-      <c r="A1612" t="inlineStr"/>
+      <c r="A1612" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr"/>
-      <c r="G1612" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1612" t="inlineStr"/>
       <c r="H1612" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1613">
-      <c r="A1613" t="inlineStr"/>
+      <c r="A1613" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1613" t="inlineStr"/>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1613" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1613" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>75.8%</t>
+        </is>
+      </c>
+      <c r="F1613" t="inlineStr"/>
+      <c r="G1613" t="inlineStr"/>
       <c r="H1613" t="inlineStr">
         <is>
           <t>3</t>
@@ -52954,79 +53188,87 @@
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1614" t="inlineStr"/>
-      <c r="C1614" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B1614" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C1614" t="inlineStr">
+        <is>
+          <t>Ifo Business ClimateJAN</t>
+        </is>
+      </c>
       <c r="D1614" t="inlineStr"/>
-      <c r="E1614" t="inlineStr"/>
+      <c r="E1614" t="inlineStr">
+        <is>
+          <t>84.7</t>
+        </is>
+      </c>
       <c r="F1614" t="inlineStr"/>
       <c r="G1614" t="inlineStr"/>
-      <c r="H1614" t="inlineStr"/>
+      <c r="H1614" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr"/>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1615" t="inlineStr"/>
-      <c r="G1615" t="inlineStr">
+      <c r="G1615" t="inlineStr"/>
+      <c r="H1615" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1615" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1616" t="inlineStr"/>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F1616" t="inlineStr"/>
-      <c r="G1616" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1616" t="inlineStr"/>
       <c r="H1616" t="inlineStr">
         <is>
           <t>3</t>
@@ -53036,25 +53278,21 @@
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:15 PM</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1617" t="inlineStr"/>
-      <c r="E1617" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1617" t="inlineStr"/>
       <c r="F1617" t="inlineStr"/>
       <c r="G1617" t="inlineStr"/>
       <c r="H1617" t="inlineStr">
@@ -53066,63 +53304,63 @@
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>43.5K</t>
         </is>
       </c>
       <c r="F1618" t="inlineStr"/>
       <c r="G1618" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1618" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1619" t="inlineStr"/>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>2935K</t>
         </is>
       </c>
       <c r="F1619" t="inlineStr"/>
       <c r="G1619" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1619" t="inlineStr">
@@ -53134,29 +53372,29 @@
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1620" t="inlineStr"/>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F1620" t="inlineStr"/>
       <c r="G1620" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1620" t="inlineStr">
@@ -53168,31 +53406,27 @@
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>0.34%</t>
         </is>
       </c>
       <c r="F1621" t="inlineStr"/>
-      <c r="G1621" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1621" t="inlineStr"/>
       <c r="H1621" t="inlineStr">
         <is>
           <t>3</t>
@@ -53202,59 +53436,59 @@
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>4.71%</t>
         </is>
       </c>
       <c r="F1622" t="inlineStr"/>
       <c r="G1622" t="inlineStr"/>
       <c r="H1622" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr"/>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>$-0.133B</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr"/>
       <c r="G1623" t="inlineStr">
         <is>
-          <t>11.70%</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1623" t="inlineStr">
@@ -53266,27 +53500,31 @@
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
       <c r="E1624" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1624" t="inlineStr"/>
-      <c r="G1624" t="inlineStr"/>
+      <c r="G1624" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1624" t="inlineStr">
         <is>
           <t>3</t>
@@ -53296,49 +53534,65 @@
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1625" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1625" t="inlineStr">
         <is>
-          <t>BTP Short Term Auction</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1625" t="inlineStr"/>
-      <c r="E1625" t="inlineStr"/>
+      <c r="E1625" t="inlineStr">
+        <is>
+          <t>-0.12</t>
+        </is>
+      </c>
       <c r="F1625" t="inlineStr"/>
-      <c r="G1625" t="inlineStr"/>
+      <c r="G1625" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
       <c r="H1625" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1626" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1626" t="inlineStr"/>
-      <c r="E1626" t="inlineStr"/>
+      <c r="E1626" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
       <c r="F1626" t="inlineStr"/>
-      <c r="G1626" t="inlineStr"/>
+      <c r="G1626" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1626" t="inlineStr">
         <is>
           <t>3</t>
@@ -53348,17 +53602,17 @@
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1627" t="inlineStr"/>
@@ -53374,25 +53628,21 @@
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1628" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1628" t="inlineStr"/>
-      <c r="E1628" t="inlineStr">
-        <is>
-          <t>2.18%</t>
-        </is>
-      </c>
+      <c r="E1628" t="inlineStr"/>
       <c r="F1628" t="inlineStr"/>
       <c r="G1628" t="inlineStr"/>
       <c r="H1628" t="inlineStr">
@@ -53404,41 +53654,33 @@
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1629" t="inlineStr"/>
-      <c r="E1629" t="inlineStr">
-        <is>
-          <t>-1.1%</t>
-        </is>
-      </c>
+      <c r="E1629" t="inlineStr"/>
       <c r="F1629" t="inlineStr"/>
-      <c r="G1629" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G1629" t="inlineStr"/>
       <c r="H1629" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr">
@@ -53448,21 +53690,13 @@
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1630" t="inlineStr"/>
-      <c r="E1630" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="E1630" t="inlineStr"/>
       <c r="F1630" t="inlineStr"/>
-      <c r="G1630" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1630" t="inlineStr"/>
       <c r="H1630" t="inlineStr">
         <is>
           <t>2</t>
@@ -53472,7 +53706,7 @@
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1631" t="inlineStr">
@@ -53482,31 +53716,27 @@
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1631" t="inlineStr"/>
-      <c r="E1631" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E1631" t="inlineStr"/>
       <c r="F1631" t="inlineStr"/>
       <c r="G1631" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1631" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1632" t="inlineStr">
@@ -53516,27 +53746,27 @@
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1632" t="inlineStr"/>
       <c r="E1632" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1632" t="inlineStr"/>
       <c r="G1632" t="inlineStr"/>
       <c r="H1632" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
@@ -53546,7 +53776,7 @@
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr"/>
@@ -53562,7 +53792,7 @@
     <row r="1634">
       <c r="A1634" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1634" t="inlineStr">
@@ -53572,27 +53802,23 @@
       </c>
       <c r="C1634" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1634" t="inlineStr"/>
-      <c r="E1634" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="E1634" t="inlineStr"/>
       <c r="F1634" t="inlineStr"/>
       <c r="G1634" t="inlineStr"/>
       <c r="H1634" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1635">
       <c r="A1635" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1635" t="inlineStr">
@@ -53602,15 +53828,11 @@
       </c>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>House Price IndexNOV</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1635" t="inlineStr"/>
-      <c r="E1635" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
+      <c r="E1635" t="inlineStr"/>
       <c r="F1635" t="inlineStr"/>
       <c r="G1635" t="inlineStr"/>
       <c r="H1635" t="inlineStr">
@@ -53622,7 +53844,7 @@
     <row r="1636">
       <c r="A1636" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1636" t="inlineStr">
@@ -53632,7 +53854,7 @@
       </c>
       <c r="C1636" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1636" t="inlineStr"/>
@@ -53646,11 +53868,7 @@
       </c>
     </row>
     <row r="1637">
-      <c r="A1637" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
+      <c r="A1637" t="inlineStr"/>
       <c r="B1637" t="inlineStr">
         <is>
           <t>US</t>
@@ -53658,17 +53876,21 @@
       </c>
       <c r="C1637" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1637" t="inlineStr"/>
       <c r="E1637" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1637" t="inlineStr"/>
-      <c r="G1637" t="inlineStr"/>
+      <c r="G1637" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1637" t="inlineStr">
         <is>
           <t>3</t>
@@ -53676,11 +53898,7 @@
       </c>
     </row>
     <row r="1638">
-      <c r="A1638" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
+      <c r="A1638" t="inlineStr"/>
       <c r="B1638" t="inlineStr">
         <is>
           <t>US</t>
@@ -53688,17 +53906,25 @@
       </c>
       <c r="C1638" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1638" t="inlineStr"/>
       <c r="E1638" t="inlineStr">
         <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1638" t="inlineStr"/>
-      <c r="G1638" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1638" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1638" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1638" t="inlineStr">
         <is>
           <t>3</t>
@@ -53708,81 +53934,77 @@
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1639" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1639" t="inlineStr">
-        <is>
-          <t>CB Consumer ConfidenceJAN</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1639" t="inlineStr"/>
+      <c r="C1639" t="inlineStr"/>
       <c r="D1639" t="inlineStr"/>
       <c r="E1639" t="inlineStr"/>
       <c r="F1639" t="inlineStr"/>
       <c r="G1639" t="inlineStr"/>
-      <c r="H1639" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H1639" t="inlineStr"/>
     </row>
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1640" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1640" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1640" t="inlineStr"/>
-      <c r="E1640" t="inlineStr"/>
+      <c r="E1640" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1640" t="inlineStr"/>
-      <c r="G1640" t="inlineStr"/>
+      <c r="G1640" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1640" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1641" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1641" t="inlineStr"/>
       <c r="E1641" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1641" t="inlineStr"/>
       <c r="G1641" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="H1641" t="inlineStr">
@@ -53794,31 +54016,27 @@
     <row r="1642">
       <c r="A1642" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1642" t="inlineStr"/>
       <c r="E1642" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1642" t="inlineStr"/>
-      <c r="G1642" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="G1642" t="inlineStr"/>
       <c r="H1642" t="inlineStr">
         <is>
           <t>3</t>
@@ -53828,27 +54046,31 @@
     <row r="1643">
       <c r="A1643" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1643" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexJAN</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1643" t="inlineStr"/>
       <c r="E1643" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1643" t="inlineStr"/>
-      <c r="G1643" t="inlineStr"/>
+      <c r="G1643" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="H1643" t="inlineStr">
         <is>
           <t>3</t>
@@ -53858,27 +54080,31 @@
     <row r="1644">
       <c r="A1644" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1644" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1644" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1644" t="inlineStr"/>
       <c r="E1644" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1644" t="inlineStr"/>
-      <c r="G1644" t="inlineStr"/>
+      <c r="G1644" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1644" t="inlineStr">
         <is>
           <t>3</t>
@@ -53888,23 +54114,31 @@
     <row r="1645">
       <c r="A1645" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1645" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1645" t="inlineStr"/>
-      <c r="E1645" t="inlineStr"/>
+      <c r="E1645" t="inlineStr">
+        <is>
+          <t>-3%</t>
+        </is>
+      </c>
       <c r="F1645" t="inlineStr"/>
-      <c r="G1645" t="inlineStr"/>
+      <c r="G1645" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1645" t="inlineStr">
         <is>
           <t>3</t>
@@ -53914,27 +54148,31 @@
     <row r="1646">
       <c r="A1646" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1646" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1646" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1646" t="inlineStr"/>
       <c r="E1646" t="inlineStr">
         <is>
-          <t>4.532%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1646" t="inlineStr"/>
-      <c r="G1646" t="inlineStr"/>
+      <c r="G1646" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1646" t="inlineStr">
         <is>
           <t>3</t>
@@ -53944,297 +54182,301 @@
     <row r="1647">
       <c r="A1647" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1647" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1647" t="inlineStr">
         <is>
-          <t>Money SupplyDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1647" t="inlineStr"/>
       <c r="E1647" t="inlineStr">
         <is>
-          <t>$21.45T</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1647" t="inlineStr"/>
       <c r="G1647" t="inlineStr"/>
       <c r="H1647" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1648">
       <c r="A1648" t="inlineStr">
         <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1648" t="inlineStr"/>
-      <c r="C1648" t="inlineStr"/>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B1648" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C1648" t="inlineStr">
+        <is>
+          <t>Unemployment RateQ4</t>
+        </is>
+      </c>
       <c r="D1648" t="inlineStr"/>
-      <c r="E1648" t="inlineStr"/>
+      <c r="E1648" t="inlineStr">
+        <is>
+          <t>11.21%</t>
+        </is>
+      </c>
       <c r="F1648" t="inlineStr"/>
-      <c r="G1648" t="inlineStr"/>
-      <c r="H1648" t="inlineStr"/>
+      <c r="G1648" t="inlineStr">
+        <is>
+          <t>11.70%</t>
+        </is>
+      </c>
+      <c r="H1648" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1649">
       <c r="A1649" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1649" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1649" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1649" t="inlineStr"/>
-      <c r="E1649" t="inlineStr"/>
+      <c r="E1649" t="inlineStr">
+        <is>
+          <t>0.745%</t>
+        </is>
+      </c>
       <c r="F1649" t="inlineStr"/>
       <c r="G1649" t="inlineStr"/>
       <c r="H1649" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1650">
       <c r="A1650" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1650" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1650" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYQ4</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1650" t="inlineStr"/>
-      <c r="E1650" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="E1650" t="inlineStr"/>
       <c r="F1650" t="inlineStr"/>
-      <c r="G1650" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1650" t="inlineStr"/>
       <c r="H1650" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1651">
       <c r="A1651" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1651" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1651" t="inlineStr">
         <is>
-          <t>Inflation Rate QoQQ4</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1651" t="inlineStr"/>
-      <c r="E1651" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1651" t="inlineStr"/>
       <c r="F1651" t="inlineStr"/>
-      <c r="G1651" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1651" t="inlineStr"/>
       <c r="H1651" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1652">
       <c r="A1652" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1652" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1652" t="inlineStr">
         <is>
-          <t>Monthly CPI IndicatorDEC</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1652" t="inlineStr"/>
-      <c r="E1652" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="E1652" t="inlineStr"/>
       <c r="F1652" t="inlineStr"/>
-      <c r="G1652" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1652" t="inlineStr"/>
       <c r="H1652" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1653">
       <c r="A1653" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1653" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1653" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1653" t="inlineStr"/>
       <c r="E1653" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>2.18%</t>
         </is>
       </c>
       <c r="F1653" t="inlineStr"/>
-      <c r="G1653" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G1653" t="inlineStr"/>
       <c r="H1653" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1654">
       <c r="A1654" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1654" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1654" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1654" t="inlineStr"/>
       <c r="E1654" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>-1.1%</t>
         </is>
       </c>
       <c r="F1654" t="inlineStr"/>
       <c r="G1654" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1654" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1655">
       <c r="A1655" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1655" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1655" t="inlineStr">
         <is>
-          <t>CPIQ4</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1655" t="inlineStr"/>
-      <c r="E1655" t="inlineStr"/>
+      <c r="E1655" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="F1655" t="inlineStr"/>
       <c r="G1655" t="inlineStr">
         <is>
-          <t>139.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1655" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1656">
       <c r="A1656" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1656" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1656" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1656" t="inlineStr"/>
       <c r="E1656" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1656" t="inlineStr"/>
-      <c r="G1656" t="inlineStr"/>
+      <c r="G1656" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1656" t="inlineStr">
         <is>
           <t>3</t>
@@ -54244,23 +54486,23 @@
     <row r="1657">
       <c r="A1657" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1657" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1657" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1657" t="inlineStr"/>
       <c r="E1657" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1657" t="inlineStr"/>
@@ -54274,25 +54516,21 @@
     <row r="1658">
       <c r="A1658" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B1658" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1658" t="inlineStr">
         <is>
-          <t>5-Year Climate Transition JGB Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1658" t="inlineStr"/>
-      <c r="E1658" t="inlineStr">
-        <is>
-          <t>0.595%</t>
-        </is>
-      </c>
+      <c r="E1658" t="inlineStr"/>
       <c r="F1658" t="inlineStr"/>
       <c r="G1658" t="inlineStr"/>
       <c r="H1658" t="inlineStr">
@@ -54304,151 +54542,139 @@
     <row r="1659">
       <c r="A1659" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1659" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1659" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1659" t="inlineStr"/>
       <c r="E1659" t="inlineStr">
         <is>
-          <t>36.2</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F1659" t="inlineStr"/>
       <c r="G1659" t="inlineStr"/>
       <c r="H1659" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1660">
       <c r="A1660" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1660" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1660" t="inlineStr">
         <is>
-          <t>GfK Consumer ConfidenceFEB</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1660" t="inlineStr"/>
       <c r="E1660" t="inlineStr">
         <is>
-          <t>-21.3</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1660" t="inlineStr"/>
       <c r="G1660" t="inlineStr"/>
       <c r="H1660" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1661">
       <c r="A1661" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1661" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1661" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1661" t="inlineStr"/>
-      <c r="E1661" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1661" t="inlineStr"/>
       <c r="F1661" t="inlineStr"/>
-      <c r="G1661" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1661" t="inlineStr"/>
       <c r="H1661" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1662">
       <c r="A1662" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1662" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1662" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
+          <t>House Price Index YoYNOV</t>
         </is>
       </c>
       <c r="D1662" t="inlineStr"/>
       <c r="E1662" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1662" t="inlineStr"/>
-      <c r="G1662" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G1662" t="inlineStr"/>
       <c r="H1662" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1663">
       <c r="A1663" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1663" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1663" t="inlineStr">
         <is>
-          <t>Loans to Companies YoYDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1663" t="inlineStr"/>
       <c r="E1663" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1663" t="inlineStr"/>
@@ -54462,59 +54688,47 @@
     <row r="1664">
       <c r="A1664" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1664" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1664" t="inlineStr">
         <is>
-          <t>Loans to Households YoYDEC</t>
+          <t>CB Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1664" t="inlineStr"/>
-      <c r="E1664" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="E1664" t="inlineStr"/>
       <c r="F1664" t="inlineStr"/>
-      <c r="G1664" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G1664" t="inlineStr"/>
       <c r="H1664" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1665">
       <c r="A1665" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1665" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1665" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1665" t="inlineStr"/>
-      <c r="E1665" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1665" t="inlineStr"/>
       <c r="F1665" t="inlineStr"/>
       <c r="G1665" t="inlineStr"/>
       <c r="H1665" t="inlineStr">
@@ -54526,83 +54740,91 @@
     <row r="1666">
       <c r="A1666" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1666" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1666" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1666" t="inlineStr"/>
       <c r="E1666" t="inlineStr">
         <is>
-          <t>85.8</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1666" t="inlineStr"/>
-      <c r="G1666" t="inlineStr"/>
+      <c r="G1666" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
       <c r="H1666" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1667">
       <c r="A1667" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1667" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1667" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1667" t="inlineStr"/>
       <c r="E1667" t="inlineStr">
         <is>
-          <t>96.3</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1667" t="inlineStr"/>
-      <c r="G1667" t="inlineStr"/>
+      <c r="G1667" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
       <c r="H1667" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1668">
       <c r="A1668" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1668" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1668" t="inlineStr">
         <is>
-          <t>10-Year Green Gilt Auction</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1668" t="inlineStr"/>
       <c r="E1668" t="inlineStr">
         <is>
-          <t>3.731%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1668" t="inlineStr"/>
@@ -54616,21 +54838,25 @@
     <row r="1669">
       <c r="A1669" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1669" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1669" t="inlineStr">
         <is>
-          <t>6-Month BOT Auction</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1669" t="inlineStr"/>
-      <c r="E1669" t="inlineStr"/>
+      <c r="E1669" t="inlineStr">
+        <is>
+          <t>13.8</t>
+        </is>
+      </c>
       <c r="F1669" t="inlineStr"/>
       <c r="G1669" t="inlineStr"/>
       <c r="H1669" t="inlineStr">
@@ -54642,25 +54868,21 @@
     <row r="1670">
       <c r="A1670" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1670" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1670" t="inlineStr">
         <is>
-          <t>10-Year Bund Auction</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1670" t="inlineStr"/>
-      <c r="E1670" t="inlineStr">
-        <is>
-          <t>2.51%</t>
-        </is>
-      </c>
+      <c r="E1670" t="inlineStr"/>
       <c r="F1670" t="inlineStr"/>
       <c r="G1670" t="inlineStr"/>
       <c r="H1670" t="inlineStr">
@@ -54672,37 +54894,37 @@
     <row r="1671">
       <c r="A1671" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1671" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1671" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1671" t="inlineStr"/>
-      <c r="E1671" t="inlineStr"/>
+      <c r="E1671" t="inlineStr">
+        <is>
+          <t>4.532%</t>
+        </is>
+      </c>
       <c r="F1671" t="inlineStr"/>
-      <c r="G1671" t="inlineStr">
-        <is>
-          <t>2.70%</t>
-        </is>
-      </c>
+      <c r="G1671" t="inlineStr"/>
       <c r="H1671" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1672">
       <c r="A1672" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1672" t="inlineStr">
@@ -54712,49 +54934,41 @@
       </c>
       <c r="C1672" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1672" t="inlineStr"/>
-      <c r="E1672" t="inlineStr"/>
+      <c r="E1672" t="inlineStr">
+        <is>
+          <t>$21.45T</t>
+        </is>
+      </c>
       <c r="F1672" t="inlineStr"/>
       <c r="G1672" t="inlineStr"/>
       <c r="H1672" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1673">
       <c r="A1673" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1673" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1673" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1673" t="inlineStr"/>
+      <c r="C1673" t="inlineStr"/>
       <c r="D1673" t="inlineStr"/>
       <c r="E1673" t="inlineStr"/>
       <c r="F1673" t="inlineStr"/>
       <c r="G1673" t="inlineStr"/>
-      <c r="H1673" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1673" t="inlineStr"/>
     </row>
     <row r="1674">
       <c r="A1674" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1674" t="inlineStr">
@@ -54764,7 +54978,7 @@
       </c>
       <c r="C1674" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1674" t="inlineStr"/>
@@ -54773,59 +54987,949 @@
       <c r="G1674" t="inlineStr"/>
       <c r="H1674" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1675">
       <c r="A1675" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1675" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1675" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1675" t="inlineStr"/>
-      <c r="E1675" t="inlineStr"/>
+      <c r="E1675" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1675" t="inlineStr"/>
-      <c r="G1675" t="inlineStr"/>
+      <c r="G1675" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1675" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1676">
       <c r="A1676" t="inlineStr">
         <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1676" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C1676" t="inlineStr">
+        <is>
+          <t>Inflation Rate QoQQ4</t>
+        </is>
+      </c>
+      <c r="D1676" t="inlineStr"/>
+      <c r="E1676" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F1676" t="inlineStr"/>
+      <c r="G1676" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H1676" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1677" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C1677" t="inlineStr">
+        <is>
+          <t>Monthly CPI IndicatorDEC</t>
+        </is>
+      </c>
+      <c r="D1677" t="inlineStr"/>
+      <c r="E1677" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="F1677" t="inlineStr"/>
+      <c r="G1677" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H1677" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1678" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C1678" t="inlineStr">
+        <is>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
+        </is>
+      </c>
+      <c r="D1678" t="inlineStr"/>
+      <c r="E1678" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F1678" t="inlineStr"/>
+      <c r="G1678" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="H1678" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1679" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C1679" t="inlineStr">
+        <is>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
+        </is>
+      </c>
+      <c r="D1679" t="inlineStr"/>
+      <c r="E1679" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="F1679" t="inlineStr"/>
+      <c r="G1679" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="H1679" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1680" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C1680" t="inlineStr">
+        <is>
+          <t>CPIQ4</t>
+        </is>
+      </c>
+      <c r="D1680" t="inlineStr"/>
+      <c r="E1680" t="inlineStr"/>
+      <c r="F1680" t="inlineStr"/>
+      <c r="G1680" t="inlineStr">
+        <is>
+          <t>139.1</t>
+        </is>
+      </c>
+      <c r="H1680" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1681" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C1681" t="inlineStr">
+        <is>
+          <t>RBA Weighted Median CPI QoQQ4</t>
+        </is>
+      </c>
+      <c r="D1681" t="inlineStr"/>
+      <c r="E1681" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="F1681" t="inlineStr"/>
+      <c r="G1681" t="inlineStr"/>
+      <c r="H1681" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1682" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C1682" t="inlineStr">
+        <is>
+          <t>RBA Weighted Median CPI YoYQ4</t>
+        </is>
+      </c>
+      <c r="D1682" t="inlineStr"/>
+      <c r="E1682" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
+      <c r="F1682" t="inlineStr"/>
+      <c r="G1682" t="inlineStr"/>
+      <c r="H1682" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="inlineStr">
+        <is>
+          <t>09:05 AM</t>
+        </is>
+      </c>
+      <c r="B1683" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C1683" t="inlineStr">
+        <is>
+          <t>5-Year Climate Transition JGB Auction</t>
+        </is>
+      </c>
+      <c r="D1683" t="inlineStr"/>
+      <c r="E1683" t="inlineStr">
+        <is>
+          <t>0.595%</t>
+        </is>
+      </c>
+      <c r="F1683" t="inlineStr"/>
+      <c r="G1683" t="inlineStr"/>
+      <c r="H1683" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1684" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C1684" t="inlineStr">
+        <is>
+          <t>Consumer ConfidenceJAN</t>
+        </is>
+      </c>
+      <c r="D1684" t="inlineStr"/>
+      <c r="E1684" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
+      <c r="F1684" t="inlineStr"/>
+      <c r="G1684" t="inlineStr"/>
+      <c r="H1684" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B1685" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C1685" t="inlineStr">
+        <is>
+          <t>GfK Consumer ConfidenceFEB</t>
+        </is>
+      </c>
+      <c r="D1685" t="inlineStr"/>
+      <c r="E1685" t="inlineStr">
+        <is>
+          <t>-21.3</t>
+        </is>
+      </c>
+      <c r="F1685" t="inlineStr"/>
+      <c r="G1685" t="inlineStr"/>
+      <c r="H1685" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="inlineStr">
+        <is>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B1686" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C1686" t="inlineStr">
+        <is>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
+        </is>
+      </c>
+      <c r="D1686" t="inlineStr"/>
+      <c r="E1686" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F1686" t="inlineStr"/>
+      <c r="G1686" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H1686" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="inlineStr">
+        <is>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B1687" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C1687" t="inlineStr">
+        <is>
+          <t>GDP Growth Rate YoY FlashQ4</t>
+        </is>
+      </c>
+      <c r="D1687" t="inlineStr"/>
+      <c r="E1687" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="F1687" t="inlineStr"/>
+      <c r="G1687" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="H1687" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="inlineStr">
+        <is>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B1688" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C1688" t="inlineStr">
+        <is>
+          <t>Loans to Companies YoYDEC</t>
+        </is>
+      </c>
+      <c r="D1688" t="inlineStr"/>
+      <c r="E1688" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="F1688" t="inlineStr"/>
+      <c r="G1688" t="inlineStr"/>
+      <c r="H1688" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="inlineStr">
+        <is>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B1689" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C1689" t="inlineStr">
+        <is>
+          <t>Loans to Households YoYDEC</t>
+        </is>
+      </c>
+      <c r="D1689" t="inlineStr"/>
+      <c r="E1689" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="F1689" t="inlineStr"/>
+      <c r="G1689" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="H1689" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="inlineStr">
+        <is>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B1690" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C1690" t="inlineStr">
+        <is>
+          <t>M3 Money Supply YoYDEC</t>
+        </is>
+      </c>
+      <c r="D1690" t="inlineStr"/>
+      <c r="E1690" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
+      <c r="F1690" t="inlineStr"/>
+      <c r="G1690" t="inlineStr"/>
+      <c r="H1690" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="inlineStr">
+        <is>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B1691" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C1691" t="inlineStr">
+        <is>
+          <t>Business ConfidenceJAN</t>
+        </is>
+      </c>
+      <c r="D1691" t="inlineStr"/>
+      <c r="E1691" t="inlineStr">
+        <is>
+          <t>85.8</t>
+        </is>
+      </c>
+      <c r="F1691" t="inlineStr"/>
+      <c r="G1691" t="inlineStr"/>
+      <c r="H1691" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="inlineStr">
+        <is>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B1692" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C1692" t="inlineStr">
+        <is>
+          <t>Consumer ConfidenceJAN</t>
+        </is>
+      </c>
+      <c r="D1692" t="inlineStr"/>
+      <c r="E1692" t="inlineStr">
+        <is>
+          <t>96.3</t>
+        </is>
+      </c>
+      <c r="F1692" t="inlineStr"/>
+      <c r="G1692" t="inlineStr"/>
+      <c r="H1692" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B1693" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C1693" t="inlineStr">
+        <is>
+          <t>10-Year Green Gilt Auction</t>
+        </is>
+      </c>
+      <c r="D1693" t="inlineStr"/>
+      <c r="E1693" t="inlineStr">
+        <is>
+          <t>3.731%</t>
+        </is>
+      </c>
+      <c r="F1693" t="inlineStr"/>
+      <c r="G1693" t="inlineStr"/>
+      <c r="H1693" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" t="inlineStr">
+        <is>
+          <t>03:40 PM</t>
+        </is>
+      </c>
+      <c r="B1694" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C1694" t="inlineStr">
+        <is>
+          <t>6-Month BOT Auction</t>
+        </is>
+      </c>
+      <c r="D1694" t="inlineStr"/>
+      <c r="E1694" t="inlineStr"/>
+      <c r="F1694" t="inlineStr"/>
+      <c r="G1694" t="inlineStr"/>
+      <c r="H1694" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B1695" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C1695" t="inlineStr">
+        <is>
+          <t>10-Year Bund Auction</t>
+        </is>
+      </c>
+      <c r="D1695" t="inlineStr"/>
+      <c r="E1695" t="inlineStr">
+        <is>
+          <t>2.51%</t>
+        </is>
+      </c>
+      <c r="F1695" t="inlineStr"/>
+      <c r="G1695" t="inlineStr"/>
+      <c r="H1695" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="inlineStr">
+        <is>
           <t>05:30 PM</t>
         </is>
       </c>
-      <c r="B1676" t="inlineStr">
+      <c r="B1696" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C1696" t="inlineStr">
+        <is>
+          <t>Unemployment RateDEC</t>
+        </is>
+      </c>
+      <c r="D1696" t="inlineStr"/>
+      <c r="E1696" t="inlineStr"/>
+      <c r="F1696" t="inlineStr"/>
+      <c r="G1696" t="inlineStr">
+        <is>
+          <t>2.70%</t>
+        </is>
+      </c>
+      <c r="H1696" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1697" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="C1676" t="inlineStr">
+      <c r="C1697" t="inlineStr">
+        <is>
+          <t>MBA 30-Year Mortgage RateJAN/24</t>
+        </is>
+      </c>
+      <c r="D1697" t="inlineStr"/>
+      <c r="E1697" t="inlineStr"/>
+      <c r="F1697" t="inlineStr"/>
+      <c r="G1697" t="inlineStr"/>
+      <c r="H1697" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1698" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1698" t="inlineStr">
+        <is>
+          <t>MBA Mortgage ApplicationsJAN/24</t>
+        </is>
+      </c>
+      <c r="D1698" t="inlineStr"/>
+      <c r="E1698" t="inlineStr"/>
+      <c r="F1698" t="inlineStr"/>
+      <c r="G1698" t="inlineStr"/>
+      <c r="H1698" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1699" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1699" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Market IndexJAN/24</t>
+        </is>
+      </c>
+      <c r="D1699" t="inlineStr"/>
+      <c r="E1699" t="inlineStr"/>
+      <c r="F1699" t="inlineStr"/>
+      <c r="G1699" t="inlineStr"/>
+      <c r="H1699" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1700" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1700" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Refinance IndexJAN/24</t>
+        </is>
+      </c>
+      <c r="D1700" t="inlineStr"/>
+      <c r="E1700" t="inlineStr"/>
+      <c r="F1700" t="inlineStr"/>
+      <c r="G1700" t="inlineStr"/>
+      <c r="H1700" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1701" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1701" t="inlineStr">
         <is>
           <t>MBA Purchase IndexJAN/24</t>
         </is>
       </c>
-      <c r="D1676" t="inlineStr"/>
-      <c r="E1676" t="inlineStr"/>
-      <c r="F1676" t="inlineStr"/>
-      <c r="G1676" t="inlineStr"/>
-      <c r="H1676" t="inlineStr">
+      <c r="D1701" t="inlineStr"/>
+      <c r="E1701" t="inlineStr"/>
+      <c r="F1701" t="inlineStr"/>
+      <c r="G1701" t="inlineStr"/>
+      <c r="H1701" t="inlineStr">
         <is>
           <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1702" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1702" t="inlineStr">
+        <is>
+          <t>Goods Trade Balance AdvDEC</t>
+        </is>
+      </c>
+      <c r="D1702" t="inlineStr"/>
+      <c r="E1702" t="inlineStr">
+        <is>
+          <t>$-102.86B</t>
+        </is>
+      </c>
+      <c r="F1702" t="inlineStr"/>
+      <c r="G1702" t="inlineStr">
+        <is>
+          <t>$ -104.5B</t>
+        </is>
+      </c>
+      <c r="H1702" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1703" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1703" t="inlineStr">
+        <is>
+          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
+        </is>
+      </c>
+      <c r="D1703" t="inlineStr"/>
+      <c r="E1703" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1703" t="inlineStr"/>
+      <c r="G1703" t="inlineStr"/>
+      <c r="H1703" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1704" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1704" t="inlineStr">
+        <is>
+          <t>Wholesale Inventories MoM AdvDEC</t>
+        </is>
+      </c>
+      <c r="D1704" t="inlineStr"/>
+      <c r="E1704" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F1704" t="inlineStr"/>
+      <c r="G1704" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H1704" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" t="inlineStr">
+        <is>
+          <t>07:15 PM</t>
+        </is>
+      </c>
+      <c r="B1705" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1705" t="inlineStr">
+        <is>
+          <t>BoC Monetary Policy Report</t>
+        </is>
+      </c>
+      <c r="D1705" t="inlineStr"/>
+      <c r="E1705" t="inlineStr"/>
+      <c r="F1705" t="inlineStr"/>
+      <c r="G1705" t="inlineStr"/>
+      <c r="H1705" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1705"/>
+  <dimension ref="A1:H1683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49371,10 +49371,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1497" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1497" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1498">
@@ -49405,10 +49403,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1498" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1499">
@@ -49435,10 +49431,8 @@
       </c>
       <c r="F1499" t="inlineStr"/>
       <c r="G1499" t="inlineStr"/>
-      <c r="H1499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1499" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1500">
@@ -49465,10 +49459,8 @@
       </c>
       <c r="F1500" t="inlineStr"/>
       <c r="G1500" t="inlineStr"/>
-      <c r="H1500" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1500" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1501">
@@ -49495,10 +49487,8 @@
       </c>
       <c r="F1501" t="inlineStr"/>
       <c r="G1501" t="inlineStr"/>
-      <c r="H1501" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1501" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1502">
@@ -49525,10 +49515,8 @@
       </c>
       <c r="F1502" t="inlineStr"/>
       <c r="G1502" t="inlineStr"/>
-      <c r="H1502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1502" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1503">
@@ -49555,10 +49543,8 @@
       </c>
       <c r="F1503" t="inlineStr"/>
       <c r="G1503" t="inlineStr"/>
-      <c r="H1503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1503" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1504">
@@ -49585,10 +49571,8 @@
       </c>
       <c r="F1504" t="inlineStr"/>
       <c r="G1504" t="inlineStr"/>
-      <c r="H1504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1504" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1505">
@@ -49615,10 +49599,8 @@
       </c>
       <c r="F1505" t="inlineStr"/>
       <c r="G1505" t="inlineStr"/>
-      <c r="H1505" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1505" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1506">
@@ -49645,10 +49627,8 @@
       </c>
       <c r="F1506" t="inlineStr"/>
       <c r="G1506" t="inlineStr"/>
-      <c r="H1506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1506" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1507">
@@ -49679,10 +49659,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1508">
@@ -49713,10 +49691,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1508" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1508" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1509">
@@ -49751,10 +49727,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1509" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1509" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1510">
@@ -49785,10 +49759,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1511">
@@ -49819,10 +49791,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1511" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1511" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1512">
@@ -49857,10 +49827,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1512" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1512" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1513">
@@ -49887,10 +49855,8 @@
       </c>
       <c r="F1513" t="inlineStr"/>
       <c r="G1513" t="inlineStr"/>
-      <c r="H1513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1514">
@@ -49921,10 +49887,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1515">
@@ -49955,10 +49919,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1516">
@@ -49989,10 +49951,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1517">
@@ -50023,10 +49983,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1518">
@@ -50061,10 +50019,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1518" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1518" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1519">
@@ -50099,10 +50055,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1519" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1519" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1520">
@@ -50125,10 +50079,8 @@
       <c r="E1520" t="inlineStr"/>
       <c r="F1520" t="inlineStr"/>
       <c r="G1520" t="inlineStr"/>
-      <c r="H1520" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1520" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1521">
@@ -50159,10 +50111,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1522">
@@ -50197,10 +50147,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1522" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1522" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1523">
@@ -50231,10 +50179,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1524">
@@ -50265,10 +50211,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1524" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1525">
@@ -50303,10 +50247,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1525" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1525" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1526">
@@ -50333,10 +50275,8 @@
       </c>
       <c r="F1526" t="inlineStr"/>
       <c r="G1526" t="inlineStr"/>
-      <c r="H1526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1527">
@@ -50363,10 +50303,8 @@
       </c>
       <c r="F1527" t="inlineStr"/>
       <c r="G1527" t="inlineStr"/>
-      <c r="H1527" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1527" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1528">
@@ -50393,10 +50331,8 @@
       </c>
       <c r="F1528" t="inlineStr"/>
       <c r="G1528" t="inlineStr"/>
-      <c r="H1528" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1528" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1529">
@@ -50423,10 +50359,8 @@
       </c>
       <c r="F1529" t="inlineStr"/>
       <c r="G1529" t="inlineStr"/>
-      <c r="H1529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1529" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1530">
@@ -50453,10 +50387,8 @@
       </c>
       <c r="F1530" t="inlineStr"/>
       <c r="G1530" t="inlineStr"/>
-      <c r="H1530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1530" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1531">
@@ -50483,10 +50415,8 @@
       </c>
       <c r="F1531" t="inlineStr"/>
       <c r="G1531" t="inlineStr"/>
-      <c r="H1531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1531" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1532">
@@ -50513,10 +50443,8 @@
       </c>
       <c r="F1532" t="inlineStr"/>
       <c r="G1532" t="inlineStr"/>
-      <c r="H1532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1532" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1533">
@@ -50543,10 +50471,8 @@
       </c>
       <c r="F1533" t="inlineStr"/>
       <c r="G1533" t="inlineStr"/>
-      <c r="H1533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1533" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1534">
@@ -50573,10 +50499,8 @@
       </c>
       <c r="F1534" t="inlineStr"/>
       <c r="G1534" t="inlineStr"/>
-      <c r="H1534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1534" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1535">
@@ -50603,10 +50527,8 @@
       </c>
       <c r="F1535" t="inlineStr"/>
       <c r="G1535" t="inlineStr"/>
-      <c r="H1535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1535" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1536">
@@ -50633,10 +50555,8 @@
       </c>
       <c r="F1536" t="inlineStr"/>
       <c r="G1536" t="inlineStr"/>
-      <c r="H1536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1536" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1537">
@@ -50663,10 +50583,8 @@
       </c>
       <c r="F1537" t="inlineStr"/>
       <c r="G1537" t="inlineStr"/>
-      <c r="H1537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1537" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1538">
@@ -50693,10 +50611,8 @@
       </c>
       <c r="F1538" t="inlineStr"/>
       <c r="G1538" t="inlineStr"/>
-      <c r="H1538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1538" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1539">
@@ -50723,10 +50639,8 @@
       </c>
       <c r="F1539" t="inlineStr"/>
       <c r="G1539" t="inlineStr"/>
-      <c r="H1539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1540">
@@ -50753,10 +50667,8 @@
       </c>
       <c r="F1540" t="inlineStr"/>
       <c r="G1540" t="inlineStr"/>
-      <c r="H1540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1541">
@@ -50783,10 +50695,8 @@
       </c>
       <c r="F1541" t="inlineStr"/>
       <c r="G1541" t="inlineStr"/>
-      <c r="H1541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1542">
@@ -50809,10 +50719,8 @@
       </c>
       <c r="F1542" t="inlineStr"/>
       <c r="G1542" t="inlineStr"/>
-      <c r="H1542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1543">
@@ -50839,256 +50747,290 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1544">
       <c r="A1544" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1544" t="inlineStr"/>
-      <c r="C1544" t="inlineStr"/>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B1544" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C1544" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D1544" t="inlineStr"/>
-      <c r="E1544" t="inlineStr"/>
+      <c r="E1544" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1544" t="inlineStr"/>
-      <c r="G1544" t="inlineStr"/>
-      <c r="H1544" t="inlineStr"/>
+      <c r="G1544" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="H1544" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1545" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1545" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1545" t="inlineStr"/>
       <c r="E1545" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F1545" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F1545" t="inlineStr">
+        <is>
+          <t>42.1</t>
+        </is>
+      </c>
       <c r="G1545" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="H1545" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1546" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1546" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1546" t="inlineStr"/>
       <c r="E1546" t="inlineStr">
         <is>
-          <t>$6.83T</t>
-        </is>
-      </c>
-      <c r="F1546" t="inlineStr"/>
-      <c r="G1546" t="inlineStr"/>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F1546" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="G1546" t="inlineStr">
+        <is>
+          <t>49.5</t>
+        </is>
+      </c>
       <c r="H1546" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1547">
       <c r="A1547" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1547" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1547" t="inlineStr"/>
       <c r="E1547" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="F1547" t="inlineStr"/>
       <c r="G1547" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H1547" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1548">
       <c r="A1548" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1548" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1548" t="inlineStr"/>
       <c r="E1548" t="inlineStr">
         <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1548" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F1548" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
       <c r="G1548" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="H1548" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1549">
       <c r="A1549" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1549" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1549" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1549" t="inlineStr"/>
       <c r="E1549" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F1549" t="inlineStr"/>
       <c r="G1549" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="H1549" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1550">
       <c r="A1550" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1550" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1550" t="inlineStr"/>
       <c r="E1550" t="inlineStr">
         <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F1550" t="inlineStr"/>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F1550" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="G1550" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1550" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1551">
       <c r="A1551" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1551" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1551" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1551" t="inlineStr"/>
       <c r="E1551" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1551" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F1551" t="inlineStr"/>
       <c r="G1551" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="H1551" t="inlineStr">
@@ -51100,75 +51042,83 @@
     <row r="1552">
       <c r="A1552" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1552" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1552" t="inlineStr">
         <is>
-          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1552" t="inlineStr"/>
       <c r="E1552" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1552" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F1552" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="G1552" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H1552" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1553" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1553" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1553" t="inlineStr"/>
       <c r="E1553" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1553" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F1553" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="G1553" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H1553" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1554" t="inlineStr">
@@ -51178,23 +51128,23 @@
       </c>
       <c r="C1554" t="inlineStr">
         <is>
-          <t>Gfk Consumer ConfidenceJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1554" t="inlineStr"/>
       <c r="E1554" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F1554" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="G1554" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="H1554" t="inlineStr">
@@ -51206,135 +51156,127 @@
     <row r="1555">
       <c r="A1555" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1555" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1555" t="inlineStr"/>
       <c r="E1555" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F1555" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="G1555" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1555" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1556" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1556" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1556" t="inlineStr"/>
       <c r="E1556" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F1556" t="inlineStr"/>
       <c r="G1556" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="H1556" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1557">
       <c r="A1557" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1557" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1557" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FlashJAN</t>
+          <t>ECB President Lagarde Speech</t>
         </is>
       </c>
       <c r="D1557" t="inlineStr"/>
-      <c r="E1557" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
+      <c r="E1557" t="inlineStr"/>
       <c r="F1557" t="inlineStr"/>
-      <c r="G1557" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G1557" t="inlineStr"/>
       <c r="H1557" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1558">
       <c r="A1558" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1558" t="inlineStr">
         <is>
-          <t>URA Property Index QoQ FinalQ4</t>
+          <t>FGV Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1558" t="inlineStr"/>
       <c r="E1558" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F1558" t="inlineStr"/>
       <c r="G1558" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>91.4</t>
         </is>
       </c>
       <c r="H1558" t="inlineStr">
@@ -51346,61 +51288,61 @@
     <row r="1559">
       <c r="A1559" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1559" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1559" t="inlineStr">
         <is>
-          <t>BoJ Interest Rate Decision</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D1559" t="inlineStr"/>
-      <c r="E1559" t="inlineStr">
-        <is>
-          <t>0.25%</t>
-        </is>
-      </c>
-      <c r="F1559" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1559" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E1559" t="inlineStr"/>
+      <c r="F1559" t="inlineStr"/>
+      <c r="G1559" t="inlineStr"/>
       <c r="H1559" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1560">
       <c r="A1560" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1560" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1560" t="inlineStr">
         <is>
-          <t>BoJ Quarterly Outlook Report</t>
+          <t>CBI Distributive TradesJAN</t>
         </is>
       </c>
       <c r="D1560" t="inlineStr"/>
-      <c r="E1560" t="inlineStr"/>
-      <c r="F1560" t="inlineStr"/>
-      <c r="G1560" t="inlineStr"/>
+      <c r="E1560" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="F1560" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="G1560" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
       <c r="H1560" t="inlineStr">
         <is>
           <t>2</t>
@@ -51410,23 +51352,23 @@
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1561" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1561" t="inlineStr">
         <is>
-          <t>Foreign Direct Investment YoYQ4</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1561" t="inlineStr"/>
       <c r="E1561" t="inlineStr">
         <is>
-          <t>18.55%</t>
+          <t>$625.87B</t>
         </is>
       </c>
       <c r="F1561" t="inlineStr"/>
@@ -51440,199 +51382,203 @@
     <row r="1562">
       <c r="A1562" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1562" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1562" t="inlineStr"/>
       <c r="E1562" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1562" t="inlineStr"/>
       <c r="G1562" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1562" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1563">
       <c r="A1563" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1563" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1563" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1563" t="inlineStr"/>
       <c r="E1563" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1563" t="inlineStr"/>
       <c r="G1563" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1563" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1564" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1564" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1564" t="inlineStr"/>
       <c r="E1564" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1564" t="inlineStr"/>
       <c r="G1564" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1564" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1565">
       <c r="A1565" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1565" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1565" t="inlineStr"/>
       <c r="E1565" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1565" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1565" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1565" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1565" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1566" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1566" t="inlineStr"/>
       <c r="E1566" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1566" t="inlineStr"/>
       <c r="G1566" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1566" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr"/>
       <c r="E1567" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1567" t="inlineStr"/>
       <c r="G1567" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1567" t="inlineStr">
@@ -51644,33 +51590,29 @@
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1568" t="inlineStr"/>
       <c r="E1568" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1568" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1568" t="inlineStr"/>
       <c r="G1568" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1568" t="inlineStr">
@@ -51682,33 +51624,29 @@
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1569" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1569" t="inlineStr"/>
       <c r="G1569" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1569" t="inlineStr">
@@ -51720,67 +51658,67 @@
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1570" t="inlineStr"/>
       <c r="E1570" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1570" t="inlineStr"/>
       <c r="G1570" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1570" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1571" t="inlineStr"/>
       <c r="E1571" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1571" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1571" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1571" t="inlineStr">
@@ -51792,29 +51730,29 @@
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1572" t="inlineStr"/>
       <c r="E1572" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1572" t="inlineStr"/>
       <c r="G1572" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1572" t="inlineStr">
@@ -51826,33 +51764,33 @@
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1573" t="inlineStr"/>
       <c r="E1573" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1573" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1573" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1573" t="inlineStr">
@@ -51864,215 +51802,215 @@
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1574" t="inlineStr"/>
       <c r="E1574" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1574" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1574" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1574" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1574" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1575" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1575" t="inlineStr"/>
       <c r="E1575" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1575" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1575" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1575" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr"/>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1576" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1576" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1576" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1577" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1577" t="inlineStr"/>
       <c r="E1577" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1577" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1577" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1577" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr"/>
       <c r="E1578" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1578" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1578" t="inlineStr"/>
       <c r="G1578" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1578" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr"/>
       <c r="E1579" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1579" t="inlineStr"/>
       <c r="G1579" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1579" t="inlineStr">
@@ -52084,57 +52022,57 @@
     <row r="1580">
       <c r="A1580" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr"/>
-      <c r="E1580" t="inlineStr"/>
+      <c r="E1580" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1580" t="inlineStr"/>
       <c r="G1580" t="inlineStr"/>
       <c r="H1580" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1581">
       <c r="A1581" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1581" t="inlineStr"/>
       <c r="E1581" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1581" t="inlineStr"/>
-      <c r="G1581" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1581" t="inlineStr"/>
       <c r="H1581" t="inlineStr">
         <is>
           <t>3</t>
@@ -52144,87 +52082,71 @@
     <row r="1582">
       <c r="A1582" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1582" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1582" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1582" t="inlineStr"/>
+      <c r="C1582" t="inlineStr"/>
       <c r="D1582" t="inlineStr"/>
       <c r="E1582" t="inlineStr"/>
       <c r="F1582" t="inlineStr"/>
       <c r="G1582" t="inlineStr"/>
-      <c r="H1582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1582" t="inlineStr"/>
     </row>
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr"/>
       <c r="E1583" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1583" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F1583" t="inlineStr"/>
       <c r="G1583" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1583" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr"/>
       <c r="E1584" t="inlineStr">
         <is>
-          <t>$625.87B</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1584" t="inlineStr"/>
@@ -52238,31 +52160,27 @@
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr"/>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1585" t="inlineStr"/>
-      <c r="G1585" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1585" t="inlineStr"/>
       <c r="H1585" t="inlineStr">
         <is>
           <t>3</t>
@@ -52272,31 +52190,27 @@
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1586" t="inlineStr"/>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1586" t="inlineStr"/>
-      <c r="G1586" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1586" t="inlineStr"/>
       <c r="H1586" t="inlineStr">
         <is>
           <t>3</t>
@@ -52306,31 +52220,23 @@
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr"/>
-      <c r="E1587" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1587" t="inlineStr"/>
       <c r="F1587" t="inlineStr"/>
-      <c r="G1587" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1587" t="inlineStr"/>
       <c r="H1587" t="inlineStr">
         <is>
           <t>3</t>
@@ -52340,69 +52246,53 @@
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1588" t="inlineStr"/>
-      <c r="E1588" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1588" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1588" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1588" t="inlineStr"/>
+      <c r="F1588" t="inlineStr"/>
+      <c r="G1588" t="inlineStr"/>
       <c r="H1588" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1589" t="inlineStr"/>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1589" t="inlineStr"/>
-      <c r="G1589" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1589" t="inlineStr"/>
       <c r="H1589" t="inlineStr">
         <is>
           <t>2</t>
@@ -52412,31 +52302,27 @@
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1590" t="inlineStr"/>
       <c r="E1590" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1590" t="inlineStr"/>
-      <c r="G1590" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1590" t="inlineStr"/>
       <c r="H1590" t="inlineStr">
         <is>
           <t>3</t>
@@ -52446,169 +52332,145 @@
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1591" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1591" t="inlineStr"/>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1591" t="inlineStr"/>
-      <c r="G1591" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1591" t="inlineStr"/>
       <c r="H1591" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1592" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1592" t="inlineStr"/>
       <c r="E1592" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1592" t="inlineStr"/>
-      <c r="G1592" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1592" t="inlineStr"/>
       <c r="H1592" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1593" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1593" t="inlineStr"/>
       <c r="E1593" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F1593" t="inlineStr"/>
-      <c r="G1593" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1593" t="inlineStr"/>
       <c r="H1593" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:15 PM</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1594" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1594" t="inlineStr"/>
-      <c r="E1594" t="inlineStr">
-        <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1594" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1594" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+      <c r="E1594" t="inlineStr"/>
+      <c r="F1594" t="inlineStr"/>
+      <c r="G1594" t="inlineStr"/>
       <c r="H1594" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1595" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1595" t="inlineStr"/>
       <c r="E1595" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>43.5K</t>
         </is>
       </c>
       <c r="F1595" t="inlineStr"/>
       <c r="G1595" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1595" t="inlineStr">
@@ -52620,71 +52482,63 @@
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1596" t="inlineStr"/>
       <c r="E1596" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1596" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1596" t="inlineStr"/>
       <c r="G1596" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1596" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1597" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1597" t="inlineStr"/>
       <c r="E1597" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1597" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1597" t="inlineStr"/>
       <c r="G1597" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1597" t="inlineStr">
@@ -52696,35 +52550,27 @@
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1598" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1598" t="inlineStr"/>
       <c r="E1598" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1598" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
-      <c r="G1598" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1598" t="inlineStr"/>
+      <c r="G1598" t="inlineStr"/>
       <c r="H1598" t="inlineStr">
         <is>
           <t>3</t>
@@ -52734,35 +52580,27 @@
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1599" t="inlineStr"/>
       <c r="E1599" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1599" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1599" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1599" t="inlineStr"/>
+      <c r="G1599" t="inlineStr"/>
       <c r="H1599" t="inlineStr">
         <is>
           <t>3</t>
@@ -52772,67 +52610,63 @@
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1600" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1600" t="inlineStr"/>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1600" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>$-0.133B</t>
+        </is>
+      </c>
+      <c r="F1600" t="inlineStr"/>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1600" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1601" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1601" t="inlineStr"/>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1601" t="inlineStr"/>
       <c r="G1601" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1601" t="inlineStr">
@@ -52844,7 +52678,7 @@
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1602" t="inlineStr">
@@ -52854,51 +52688,55 @@
       </c>
       <c r="C1602" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1602" t="inlineStr"/>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1602" t="inlineStr"/>
       <c r="G1602" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="H1602" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1603" t="inlineStr"/>
-      <c r="G1603" t="inlineStr"/>
+      <c r="G1603" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1603" t="inlineStr">
         <is>
           <t>3</t>
@@ -52908,25 +52746,21 @@
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1604" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1604" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1604" t="inlineStr"/>
-      <c r="E1604" t="inlineStr">
-        <is>
-          <t>580</t>
-        </is>
-      </c>
+      <c r="E1604" t="inlineStr"/>
       <c r="F1604" t="inlineStr"/>
       <c r="G1604" t="inlineStr"/>
       <c r="H1604" t="inlineStr">
@@ -52938,45 +52772,49 @@
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1605" t="inlineStr"/>
-      <c r="C1605" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1605" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1605" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1605" t="inlineStr"/>
       <c r="E1605" t="inlineStr"/>
       <c r="F1605" t="inlineStr"/>
       <c r="G1605" t="inlineStr"/>
-      <c r="H1605" t="inlineStr"/>
+      <c r="H1605" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
-      <c r="E1606" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1606" t="inlineStr"/>
       <c r="F1606" t="inlineStr"/>
-      <c r="G1606" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1606" t="inlineStr"/>
       <c r="H1606" t="inlineStr">
         <is>
           <t>3</t>
@@ -52986,107 +52824,103 @@
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
-      <c r="E1607" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1607" t="inlineStr"/>
       <c r="F1607" t="inlineStr"/>
       <c r="G1607" t="inlineStr"/>
       <c r="H1607" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
-      <c r="E1608" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1608" t="inlineStr"/>
       <c r="F1608" t="inlineStr"/>
-      <c r="G1608" t="inlineStr"/>
+      <c r="G1608" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1608" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1609" t="inlineStr"/>
       <c r="G1609" t="inlineStr"/>
       <c r="H1609" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
@@ -53102,17 +52936,17 @@
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
@@ -53128,55 +52962,47 @@
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
-      <c r="E1612" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1612" t="inlineStr"/>
       <c r="F1612" t="inlineStr"/>
       <c r="G1612" t="inlineStr"/>
       <c r="H1612" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1613" t="inlineStr"/>
-      <c r="E1613" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1613" t="inlineStr"/>
       <c r="F1613" t="inlineStr"/>
       <c r="G1613" t="inlineStr"/>
       <c r="H1613" t="inlineStr">
@@ -53186,59 +53012,63 @@
       </c>
     </row>
     <row r="1614">
-      <c r="A1614" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1614" t="inlineStr"/>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr"/>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1614" t="inlineStr"/>
-      <c r="G1614" t="inlineStr"/>
+      <c r="G1614" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1614" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1615">
-      <c r="A1615" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1615" t="inlineStr"/>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr"/>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>85.1</t>
-        </is>
-      </c>
-      <c r="F1615" t="inlineStr"/>
-      <c r="G1615" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1615" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1615" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1615" t="inlineStr">
         <is>
           <t>3</t>
@@ -53248,121 +53078,109 @@
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1616" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1616" t="inlineStr">
-        <is>
-          <t>Ifo ExpectationsJAN</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1616" t="inlineStr"/>
+      <c r="C1616" t="inlineStr"/>
       <c r="D1616" t="inlineStr"/>
-      <c r="E1616" t="inlineStr">
-        <is>
-          <t>84.4</t>
-        </is>
-      </c>
+      <c r="E1616" t="inlineStr"/>
       <c r="F1616" t="inlineStr"/>
       <c r="G1616" t="inlineStr"/>
-      <c r="H1616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1616" t="inlineStr"/>
     </row>
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1617" t="inlineStr"/>
-      <c r="E1617" t="inlineStr"/>
+      <c r="E1617" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1617" t="inlineStr"/>
-      <c r="G1617" t="inlineStr"/>
+      <c r="G1617" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1617" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>43.5K</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1618" t="inlineStr"/>
       <c r="G1618" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="H1618" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1619" t="inlineStr"/>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1619" t="inlineStr"/>
-      <c r="G1619" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1619" t="inlineStr"/>
       <c r="H1619" t="inlineStr">
         <is>
           <t>3</t>
@@ -53372,29 +53190,29 @@
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1620" t="inlineStr"/>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1620" t="inlineStr"/>
       <c r="G1620" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1620" t="inlineStr">
@@ -53406,27 +53224,31 @@
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1621" t="inlineStr"/>
-      <c r="G1621" t="inlineStr"/>
+      <c r="G1621" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1621" t="inlineStr">
         <is>
           <t>3</t>
@@ -53436,27 +53258,31 @@
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1622" t="inlineStr"/>
-      <c r="G1622" t="inlineStr"/>
+      <c r="G1622" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1622" t="inlineStr">
         <is>
           <t>3</t>
@@ -53466,97 +53292,93 @@
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr"/>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr"/>
       <c r="G1623" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1623" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
       <c r="E1624" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1624" t="inlineStr"/>
-      <c r="G1624" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1624" t="inlineStr"/>
       <c r="H1624" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1625" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1625" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1625" t="inlineStr"/>
       <c r="E1625" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1625" t="inlineStr"/>
       <c r="G1625" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1625" t="inlineStr">
@@ -53568,31 +53390,27 @@
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1626" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1626" t="inlineStr"/>
       <c r="E1626" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1626" t="inlineStr"/>
-      <c r="G1626" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1626" t="inlineStr"/>
       <c r="H1626" t="inlineStr">
         <is>
           <t>3</t>
@@ -53602,17 +53420,17 @@
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1627" t="inlineStr"/>
@@ -53628,17 +53446,17 @@
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1628" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1628" t="inlineStr"/>
@@ -53654,17 +53472,17 @@
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1629" t="inlineStr"/>
@@ -53680,33 +53498,37 @@
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1630" t="inlineStr"/>
-      <c r="E1630" t="inlineStr"/>
+      <c r="E1630" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1630" t="inlineStr"/>
       <c r="G1630" t="inlineStr"/>
       <c r="H1630" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1631" t="inlineStr">
@@ -53716,27 +53538,31 @@
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1631" t="inlineStr"/>
-      <c r="E1631" t="inlineStr"/>
+      <c r="E1631" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1631" t="inlineStr"/>
       <c r="G1631" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1631" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1632" t="inlineStr">
@@ -53746,17 +53572,21 @@
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1632" t="inlineStr"/>
       <c r="E1632" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1632" t="inlineStr"/>
-      <c r="G1632" t="inlineStr"/>
+      <c r="G1632" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1632" t="inlineStr">
         <is>
           <t>2</t>
@@ -53766,7 +53596,7 @@
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
@@ -53776,13 +53606,21 @@
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr"/>
-      <c r="E1633" t="inlineStr"/>
+      <c r="E1633" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1633" t="inlineStr"/>
-      <c r="G1633" t="inlineStr"/>
+      <c r="G1633" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1633" t="inlineStr">
         <is>
           <t>3</t>
@@ -53792,7 +53630,7 @@
     <row r="1634">
       <c r="A1634" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1634" t="inlineStr">
@@ -53802,11 +53640,15 @@
       </c>
       <c r="C1634" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1634" t="inlineStr"/>
-      <c r="E1634" t="inlineStr"/>
+      <c r="E1634" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1634" t="inlineStr"/>
       <c r="G1634" t="inlineStr"/>
       <c r="H1634" t="inlineStr">
@@ -53818,7 +53660,7 @@
     <row r="1635">
       <c r="A1635" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B1635" t="inlineStr">
@@ -53828,7 +53670,7 @@
       </c>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1635" t="inlineStr"/>
@@ -53844,7 +53686,7 @@
     <row r="1636">
       <c r="A1636" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1636" t="inlineStr">
@@ -53854,21 +53696,29 @@
       </c>
       <c r="C1636" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1636" t="inlineStr"/>
-      <c r="E1636" t="inlineStr"/>
+      <c r="E1636" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1636" t="inlineStr"/>
       <c r="G1636" t="inlineStr"/>
       <c r="H1636" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1637">
-      <c r="A1637" t="inlineStr"/>
+      <c r="A1637" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1637" t="inlineStr">
         <is>
           <t>US</t>
@@ -53876,21 +53726,17 @@
       </c>
       <c r="C1637" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1637" t="inlineStr"/>
       <c r="E1637" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1637" t="inlineStr"/>
-      <c r="G1637" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1637" t="inlineStr"/>
       <c r="H1637" t="inlineStr">
         <is>
           <t>3</t>
@@ -53898,7 +53744,11 @@
       </c>
     </row>
     <row r="1638">
-      <c r="A1638" t="inlineStr"/>
+      <c r="A1638" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1638" t="inlineStr">
         <is>
           <t>US</t>
@@ -53906,25 +53756,13 @@
       </c>
       <c r="C1638" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1638" t="inlineStr"/>
-      <c r="E1638" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1638" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1638" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="E1638" t="inlineStr"/>
+      <c r="F1638" t="inlineStr"/>
+      <c r="G1638" t="inlineStr"/>
       <c r="H1638" t="inlineStr">
         <is>
           <t>3</t>
@@ -53934,107 +53772,107 @@
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1639" t="inlineStr"/>
-      <c r="C1639" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1639" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1639" t="inlineStr">
+        <is>
+          <t>House Price Index YoYNOV</t>
+        </is>
+      </c>
       <c r="D1639" t="inlineStr"/>
-      <c r="E1639" t="inlineStr"/>
+      <c r="E1639" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="F1639" t="inlineStr"/>
       <c r="G1639" t="inlineStr"/>
-      <c r="H1639" t="inlineStr"/>
+      <c r="H1639" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1640" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1640" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1640" t="inlineStr"/>
       <c r="E1640" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1640" t="inlineStr"/>
-      <c r="G1640" t="inlineStr">
+      <c r="G1640" t="inlineStr"/>
+      <c r="H1640" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1640" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1641" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>CB Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1641" t="inlineStr"/>
-      <c r="E1641" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1641" t="inlineStr"/>
       <c r="F1641" t="inlineStr"/>
-      <c r="G1641" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1641" t="inlineStr"/>
       <c r="H1641" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1642">
       <c r="A1642" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1642" t="inlineStr"/>
-      <c r="E1642" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1642" t="inlineStr"/>
       <c r="F1642" t="inlineStr"/>
       <c r="G1642" t="inlineStr"/>
       <c r="H1642" t="inlineStr">
@@ -54046,29 +53884,29 @@
     <row r="1643">
       <c r="A1643" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1643" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1643" t="inlineStr"/>
       <c r="E1643" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1643" t="inlineStr"/>
       <c r="G1643" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1643" t="inlineStr">
@@ -54080,29 +53918,29 @@
     <row r="1644">
       <c r="A1644" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1644" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1644" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1644" t="inlineStr"/>
       <c r="E1644" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1644" t="inlineStr"/>
       <c r="G1644" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1644" t="inlineStr">
@@ -54114,31 +53952,27 @@
     <row r="1645">
       <c r="A1645" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1645" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1645" t="inlineStr"/>
       <c r="E1645" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1645" t="inlineStr"/>
-      <c r="G1645" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1645" t="inlineStr"/>
       <c r="H1645" t="inlineStr">
         <is>
           <t>3</t>
@@ -54148,31 +53982,27 @@
     <row r="1646">
       <c r="A1646" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1646" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1646" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1646" t="inlineStr"/>
       <c r="E1646" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1646" t="inlineStr"/>
-      <c r="G1646" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1646" t="inlineStr"/>
       <c r="H1646" t="inlineStr">
         <is>
           <t>3</t>
@@ -54182,87 +54012,79 @@
     <row r="1647">
       <c r="A1647" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1647" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1647" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1647" t="inlineStr"/>
-      <c r="E1647" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1647" t="inlineStr"/>
       <c r="F1647" t="inlineStr"/>
       <c r="G1647" t="inlineStr"/>
       <c r="H1647" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1648">
       <c r="A1648" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1648" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1648" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1648" t="inlineStr"/>
       <c r="E1648" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1648" t="inlineStr"/>
-      <c r="G1648" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1648" t="inlineStr"/>
       <c r="H1648" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1649">
       <c r="A1649" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1649" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1649" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1649" t="inlineStr"/>
       <c r="E1649" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1649" t="inlineStr"/>
@@ -54276,43 +54098,31 @@
     <row r="1650">
       <c r="A1650" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1650" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1650" t="inlineStr">
-        <is>
-          <t>BTP Short Term Auction</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1650" t="inlineStr"/>
+      <c r="C1650" t="inlineStr"/>
       <c r="D1650" t="inlineStr"/>
       <c r="E1650" t="inlineStr"/>
       <c r="F1650" t="inlineStr"/>
       <c r="G1650" t="inlineStr"/>
-      <c r="H1650" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1650" t="inlineStr"/>
     </row>
     <row r="1651">
       <c r="A1651" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1651" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1651" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1651" t="inlineStr"/>
@@ -54321,126 +54131,138 @@
       <c r="G1651" t="inlineStr"/>
       <c r="H1651" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1652">
       <c r="A1652" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1652" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1652" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1652" t="inlineStr"/>
-      <c r="E1652" t="inlineStr"/>
+      <c r="E1652" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1652" t="inlineStr"/>
-      <c r="G1652" t="inlineStr"/>
+      <c r="G1652" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1652" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1653">
       <c r="A1653" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1653" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1653" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1653" t="inlineStr"/>
       <c r="E1653" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1653" t="inlineStr"/>
-      <c r="G1653" t="inlineStr"/>
+      <c r="G1653" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1653" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1654">
       <c r="A1654" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1654" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1654" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1654" t="inlineStr"/>
       <c r="E1654" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1654" t="inlineStr"/>
       <c r="G1654" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H1654" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1655">
       <c r="A1655" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1655" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1655" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1655" t="inlineStr"/>
       <c r="E1655" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1655" t="inlineStr"/>
       <c r="G1655" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1655" t="inlineStr">
@@ -54452,61 +54274,61 @@
     <row r="1656">
       <c r="A1656" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1656" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1656" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1656" t="inlineStr"/>
       <c r="E1656" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1656" t="inlineStr"/>
       <c r="G1656" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1656" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1657">
       <c r="A1657" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1657" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1657" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1657" t="inlineStr"/>
-      <c r="E1657" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1657" t="inlineStr"/>
       <c r="F1657" t="inlineStr"/>
-      <c r="G1657" t="inlineStr"/>
+      <c r="G1657" t="inlineStr">
+        <is>
+          <t>139.1</t>
+        </is>
+      </c>
       <c r="H1657" t="inlineStr">
         <is>
           <t>3</t>
@@ -54516,21 +54338,25 @@
     <row r="1658">
       <c r="A1658" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1658" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1658" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1658" t="inlineStr"/>
-      <c r="E1658" t="inlineStr"/>
+      <c r="E1658" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1658" t="inlineStr"/>
       <c r="G1658" t="inlineStr"/>
       <c r="H1658" t="inlineStr">
@@ -54542,53 +54368,53 @@
     <row r="1659">
       <c r="A1659" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1659" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1659" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1659" t="inlineStr"/>
       <c r="E1659" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1659" t="inlineStr"/>
       <c r="G1659" t="inlineStr"/>
       <c r="H1659" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1660">
       <c r="A1660" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B1660" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1660" t="inlineStr">
         <is>
-          <t>House Price IndexNOV</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1660" t="inlineStr"/>
       <c r="E1660" t="inlineStr">
         <is>
-          <t>432.3</t>
+          <t>0.595%</t>
         </is>
       </c>
       <c r="F1660" t="inlineStr"/>
@@ -54602,133 +54428,153 @@
     <row r="1661">
       <c r="A1661" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1661" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1661" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1661" t="inlineStr"/>
-      <c r="E1661" t="inlineStr"/>
+      <c r="E1661" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
       <c r="F1661" t="inlineStr"/>
       <c r="G1661" t="inlineStr"/>
       <c r="H1661" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1662">
       <c r="A1662" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1662" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1662" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>GfK Consumer ConfidenceFEB</t>
         </is>
       </c>
       <c r="D1662" t="inlineStr"/>
       <c r="E1662" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-21.3</t>
         </is>
       </c>
       <c r="F1662" t="inlineStr"/>
       <c r="G1662" t="inlineStr"/>
       <c r="H1662" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1663">
       <c r="A1663" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1663" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1663" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1663" t="inlineStr"/>
       <c r="E1663" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1663" t="inlineStr"/>
-      <c r="G1663" t="inlineStr"/>
+      <c r="G1663" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1663" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1664">
       <c r="A1664" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1664" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1664" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJAN</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1664" t="inlineStr"/>
-      <c r="E1664" t="inlineStr"/>
+      <c r="E1664" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F1664" t="inlineStr"/>
-      <c r="G1664" t="inlineStr"/>
+      <c r="G1664" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H1664" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1665">
       <c r="A1665" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1665" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1665" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
+          <t>Loans to Companies YoYDEC</t>
         </is>
       </c>
       <c r="D1665" t="inlineStr"/>
-      <c r="E1665" t="inlineStr"/>
+      <c r="E1665" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="F1665" t="inlineStr"/>
       <c r="G1665" t="inlineStr"/>
       <c r="H1665" t="inlineStr">
@@ -54740,29 +54586,29 @@
     <row r="1666">
       <c r="A1666" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1666" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1666" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
+          <t>Loans to Households YoYDEC</t>
         </is>
       </c>
       <c r="D1666" t="inlineStr"/>
       <c r="E1666" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1666" t="inlineStr"/>
       <c r="G1666" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1666" t="inlineStr">
@@ -54774,31 +54620,27 @@
     <row r="1667">
       <c r="A1667" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1667" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1667" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1667" t="inlineStr"/>
       <c r="E1667" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1667" t="inlineStr"/>
-      <c r="G1667" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="G1667" t="inlineStr"/>
       <c r="H1667" t="inlineStr">
         <is>
           <t>3</t>
@@ -54808,81 +54650,85 @@
     <row r="1668">
       <c r="A1668" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1668" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1668" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1668" t="inlineStr"/>
       <c r="E1668" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>85.8</t>
         </is>
       </c>
       <c r="F1668" t="inlineStr"/>
       <c r="G1668" t="inlineStr"/>
       <c r="H1668" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1669">
       <c r="A1669" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1669" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1669" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1669" t="inlineStr"/>
       <c r="E1669" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>96.3</t>
         </is>
       </c>
       <c r="F1669" t="inlineStr"/>
       <c r="G1669" t="inlineStr"/>
       <c r="H1669" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1670">
       <c r="A1670" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1670" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1670" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>10-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D1670" t="inlineStr"/>
-      <c r="E1670" t="inlineStr"/>
+      <c r="E1670" t="inlineStr">
+        <is>
+          <t>3.731%</t>
+        </is>
+      </c>
       <c r="F1670" t="inlineStr"/>
       <c r="G1670" t="inlineStr"/>
       <c r="H1670" t="inlineStr">
@@ -54894,25 +54740,21 @@
     <row r="1671">
       <c r="A1671" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1671" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1671" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>6-Month BOT Auction</t>
         </is>
       </c>
       <c r="D1671" t="inlineStr"/>
-      <c r="E1671" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
+      <c r="E1671" t="inlineStr"/>
       <c r="F1671" t="inlineStr"/>
       <c r="G1671" t="inlineStr"/>
       <c r="H1671" t="inlineStr">
@@ -54924,23 +54766,23 @@
     <row r="1672">
       <c r="A1672" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1672" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1672" t="inlineStr">
         <is>
-          <t>Money SupplyDEC</t>
+          <t>10-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1672" t="inlineStr"/>
       <c r="E1672" t="inlineStr">
         <is>
-          <t>$21.45T</t>
+          <t>2.51%</t>
         </is>
       </c>
       <c r="F1672" t="inlineStr"/>
@@ -54954,21 +54796,37 @@
     <row r="1673">
       <c r="A1673" t="inlineStr">
         <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1673" t="inlineStr"/>
-      <c r="C1673" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1673" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C1673" t="inlineStr">
+        <is>
+          <t>Unemployment RateDEC</t>
+        </is>
+      </c>
       <c r="D1673" t="inlineStr"/>
       <c r="E1673" t="inlineStr"/>
       <c r="F1673" t="inlineStr"/>
-      <c r="G1673" t="inlineStr"/>
-      <c r="H1673" t="inlineStr"/>
+      <c r="G1673" t="inlineStr">
+        <is>
+          <t>2.70%</t>
+        </is>
+      </c>
+      <c r="H1673" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1674">
       <c r="A1674" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1674" t="inlineStr">
@@ -54978,7 +54836,7 @@
       </c>
       <c r="C1674" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
+          <t>MBA 30-Year Mortgage RateJAN/24</t>
         </is>
       </c>
       <c r="D1674" t="inlineStr"/>
@@ -54994,165 +54852,133 @@
     <row r="1675">
       <c r="A1675" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1675" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1675" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYQ4</t>
+          <t>MBA Mortgage ApplicationsJAN/24</t>
         </is>
       </c>
       <c r="D1675" t="inlineStr"/>
-      <c r="E1675" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="E1675" t="inlineStr"/>
       <c r="F1675" t="inlineStr"/>
-      <c r="G1675" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1675" t="inlineStr"/>
       <c r="H1675" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1676">
       <c r="A1676" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1676" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1676" t="inlineStr">
         <is>
-          <t>Inflation Rate QoQQ4</t>
+          <t>MBA Mortgage Market IndexJAN/24</t>
         </is>
       </c>
       <c r="D1676" t="inlineStr"/>
-      <c r="E1676" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1676" t="inlineStr"/>
       <c r="F1676" t="inlineStr"/>
-      <c r="G1676" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1676" t="inlineStr"/>
       <c r="H1676" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1677">
       <c r="A1677" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1677" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1677" t="inlineStr">
         <is>
-          <t>Monthly CPI IndicatorDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/24</t>
         </is>
       </c>
       <c r="D1677" t="inlineStr"/>
-      <c r="E1677" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="E1677" t="inlineStr"/>
       <c r="F1677" t="inlineStr"/>
-      <c r="G1677" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1677" t="inlineStr"/>
       <c r="H1677" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1678">
       <c r="A1678" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1678" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1678" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
+          <t>MBA Purchase IndexJAN/24</t>
         </is>
       </c>
       <c r="D1678" t="inlineStr"/>
-      <c r="E1678" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1678" t="inlineStr"/>
       <c r="F1678" t="inlineStr"/>
-      <c r="G1678" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G1678" t="inlineStr"/>
       <c r="H1678" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1679">
       <c r="A1679" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1679" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1679" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
+          <t>Goods Trade Balance AdvDEC</t>
         </is>
       </c>
       <c r="D1679" t="inlineStr"/>
       <c r="E1679" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>$-102.86B</t>
         </is>
       </c>
       <c r="F1679" t="inlineStr"/>
       <c r="G1679" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>$ -104.5B</t>
         </is>
       </c>
       <c r="H1679" t="inlineStr">
@@ -55164,770 +54990,122 @@
     <row r="1680">
       <c r="A1680" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1680" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1680" t="inlineStr">
         <is>
-          <t>CPIQ4</t>
+          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1680" t="inlineStr"/>
-      <c r="E1680" t="inlineStr"/>
+      <c r="E1680" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F1680" t="inlineStr"/>
-      <c r="G1680" t="inlineStr">
-        <is>
-          <t>139.1</t>
-        </is>
-      </c>
+      <c r="G1680" t="inlineStr"/>
       <c r="H1680" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1681">
       <c r="A1681" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1681" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1681" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
+          <t>Wholesale Inventories MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1681" t="inlineStr"/>
       <c r="E1681" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1681" t="inlineStr"/>
-      <c r="G1681" t="inlineStr"/>
+      <c r="G1681" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1681" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1682">
       <c r="A1682" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B1682" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1682" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
+          <t>BoC Monetary Policy Report</t>
         </is>
       </c>
       <c r="D1682" t="inlineStr"/>
-      <c r="E1682" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1682" t="inlineStr"/>
       <c r="F1682" t="inlineStr"/>
       <c r="G1682" t="inlineStr"/>
       <c r="H1682" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1683">
       <c r="A1683" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1683" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1683" t="inlineStr">
         <is>
-          <t>5-Year Climate Transition JGB Auction</t>
+          <t>BoC Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1683" t="inlineStr"/>
       <c r="E1683" t="inlineStr">
         <is>
-          <t>0.595%</t>
-        </is>
-      </c>
-      <c r="F1683" t="inlineStr"/>
+          <t>3.25%</t>
+        </is>
+      </c>
+      <c r="F1683" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="G1683" t="inlineStr"/>
       <c r="H1683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1684">
-      <c r="A1684" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1684" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1684" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1684" t="inlineStr"/>
-      <c r="E1684" t="inlineStr">
-        <is>
-          <t>36.2</t>
-        </is>
-      </c>
-      <c r="F1684" t="inlineStr"/>
-      <c r="G1684" t="inlineStr"/>
-      <c r="H1684" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1685">
-      <c r="A1685" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B1685" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1685" t="inlineStr">
-        <is>
-          <t>GfK Consumer ConfidenceFEB</t>
-        </is>
-      </c>
-      <c r="D1685" t="inlineStr"/>
-      <c r="E1685" t="inlineStr">
-        <is>
-          <t>-21.3</t>
-        </is>
-      </c>
-      <c r="F1685" t="inlineStr"/>
-      <c r="G1685" t="inlineStr"/>
-      <c r="H1685" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1686">
-      <c r="A1686" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B1686" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1686" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
-        </is>
-      </c>
-      <c r="D1686" t="inlineStr"/>
-      <c r="E1686" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1686" t="inlineStr"/>
-      <c r="G1686" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1686" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1687">
-      <c r="A1687" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B1687" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1687" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
-        </is>
-      </c>
-      <c r="D1687" t="inlineStr"/>
-      <c r="E1687" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F1687" t="inlineStr"/>
-      <c r="G1687" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="H1687" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1688">
-      <c r="A1688" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1688" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1688" t="inlineStr">
-        <is>
-          <t>Loans to Companies YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1688" t="inlineStr"/>
-      <c r="E1688" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="F1688" t="inlineStr"/>
-      <c r="G1688" t="inlineStr"/>
-      <c r="H1688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1689">
-      <c r="A1689" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1689" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1689" t="inlineStr">
-        <is>
-          <t>Loans to Households YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1689" t="inlineStr"/>
-      <c r="E1689" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F1689" t="inlineStr"/>
-      <c r="G1689" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H1689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1690">
-      <c r="A1690" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1690" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1690" t="inlineStr">
-        <is>
-          <t>M3 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1690" t="inlineStr"/>
-      <c r="E1690" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F1690" t="inlineStr"/>
-      <c r="G1690" t="inlineStr"/>
-      <c r="H1690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1691">
-      <c r="A1691" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1691" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1691" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1691" t="inlineStr"/>
-      <c r="E1691" t="inlineStr">
-        <is>
-          <t>85.8</t>
-        </is>
-      </c>
-      <c r="F1691" t="inlineStr"/>
-      <c r="G1691" t="inlineStr"/>
-      <c r="H1691" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1692">
-      <c r="A1692" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1692" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1692" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1692" t="inlineStr"/>
-      <c r="E1692" t="inlineStr">
-        <is>
-          <t>96.3</t>
-        </is>
-      </c>
-      <c r="F1692" t="inlineStr"/>
-      <c r="G1692" t="inlineStr"/>
-      <c r="H1692" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1693">
-      <c r="A1693" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1693" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1693" t="inlineStr">
-        <is>
-          <t>10-Year Green Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D1693" t="inlineStr"/>
-      <c r="E1693" t="inlineStr">
-        <is>
-          <t>3.731%</t>
-        </is>
-      </c>
-      <c r="F1693" t="inlineStr"/>
-      <c r="G1693" t="inlineStr"/>
-      <c r="H1693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1694">
-      <c r="A1694" t="inlineStr">
-        <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1694" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1694" t="inlineStr">
-        <is>
-          <t>6-Month BOT Auction</t>
-        </is>
-      </c>
-      <c r="D1694" t="inlineStr"/>
-      <c r="E1694" t="inlineStr"/>
-      <c r="F1694" t="inlineStr"/>
-      <c r="G1694" t="inlineStr"/>
-      <c r="H1694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1695">
-      <c r="A1695" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1695" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1695" t="inlineStr">
-        <is>
-          <t>10-Year Bund Auction</t>
-        </is>
-      </c>
-      <c r="D1695" t="inlineStr"/>
-      <c r="E1695" t="inlineStr">
-        <is>
-          <t>2.51%</t>
-        </is>
-      </c>
-      <c r="F1695" t="inlineStr"/>
-      <c r="G1695" t="inlineStr"/>
-      <c r="H1695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1696">
-      <c r="A1696" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1696" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1696" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
-      <c r="D1696" t="inlineStr"/>
-      <c r="E1696" t="inlineStr"/>
-      <c r="F1696" t="inlineStr"/>
-      <c r="G1696" t="inlineStr">
-        <is>
-          <t>2.70%</t>
-        </is>
-      </c>
-      <c r="H1696" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1697">
-      <c r="A1697" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1697" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1697" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
-        </is>
-      </c>
-      <c r="D1697" t="inlineStr"/>
-      <c r="E1697" t="inlineStr"/>
-      <c r="F1697" t="inlineStr"/>
-      <c r="G1697" t="inlineStr"/>
-      <c r="H1697" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1698">
-      <c r="A1698" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1698" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1698" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
-        </is>
-      </c>
-      <c r="D1698" t="inlineStr"/>
-      <c r="E1698" t="inlineStr"/>
-      <c r="F1698" t="inlineStr"/>
-      <c r="G1698" t="inlineStr"/>
-      <c r="H1698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1699">
-      <c r="A1699" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1699" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1699" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1699" t="inlineStr"/>
-      <c r="E1699" t="inlineStr"/>
-      <c r="F1699" t="inlineStr"/>
-      <c r="G1699" t="inlineStr"/>
-      <c r="H1699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1700">
-      <c r="A1700" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1700" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1700" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1700" t="inlineStr"/>
-      <c r="E1700" t="inlineStr"/>
-      <c r="F1700" t="inlineStr"/>
-      <c r="G1700" t="inlineStr"/>
-      <c r="H1700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1701">
-      <c r="A1701" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1701" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1701" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1701" t="inlineStr"/>
-      <c r="E1701" t="inlineStr"/>
-      <c r="F1701" t="inlineStr"/>
-      <c r="G1701" t="inlineStr"/>
-      <c r="H1701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1702">
-      <c r="A1702" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1702" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1702" t="inlineStr">
-        <is>
-          <t>Goods Trade Balance AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1702" t="inlineStr"/>
-      <c r="E1702" t="inlineStr">
-        <is>
-          <t>$-102.86B</t>
-        </is>
-      </c>
-      <c r="F1702" t="inlineStr"/>
-      <c r="G1702" t="inlineStr">
-        <is>
-          <t>$ -104.5B</t>
-        </is>
-      </c>
-      <c r="H1702" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1703">
-      <c r="A1703" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1703" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1703" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1703" t="inlineStr"/>
-      <c r="E1703" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1703" t="inlineStr"/>
-      <c r="G1703" t="inlineStr"/>
-      <c r="H1703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1704">
-      <c r="A1704" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1704" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1704" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1704" t="inlineStr"/>
-      <c r="E1704" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1704" t="inlineStr"/>
-      <c r="G1704" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1704" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1705">
-      <c r="A1705" t="inlineStr">
-        <is>
-          <t>07:15 PM</t>
-        </is>
-      </c>
-      <c r="B1705" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1705" t="inlineStr">
-        <is>
-          <t>BoC Monetary Policy Report</t>
-        </is>
-      </c>
-      <c r="D1705" t="inlineStr"/>
-      <c r="E1705" t="inlineStr"/>
-      <c r="F1705" t="inlineStr"/>
-      <c r="G1705" t="inlineStr"/>
-      <c r="H1705" t="inlineStr">
         <is>
           <t>1</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1683"/>
+  <dimension ref="A1:H1670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50779,10 +50779,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1545">
@@ -50817,10 +50815,8 @@
           <t>42.2</t>
         </is>
       </c>
-      <c r="H1545" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1545" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1546">
@@ -50855,10 +50851,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H1546" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1546" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1547">
@@ -50889,10 +50883,8 @@
           <t>48</t>
         </is>
       </c>
-      <c r="H1547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1547" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1548">
@@ -50927,10 +50919,8 @@
           <t>42.3</t>
         </is>
       </c>
-      <c r="H1548" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1548" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1549">
@@ -50961,10 +50951,8 @@
           <t>47.8</t>
         </is>
       </c>
-      <c r="H1549" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1549" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1550">
@@ -50999,10 +50987,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1550" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1550" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1551">
@@ -51033,10 +51019,8 @@
           <t>49.4</t>
         </is>
       </c>
-      <c r="H1551" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1551" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1552">
@@ -51071,10 +51055,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1552" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1552" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1553">
@@ -51109,10 +51091,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H1553" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1553" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1554">
@@ -51147,10 +51127,8 @@
           <t>47.2</t>
         </is>
       </c>
-      <c r="H1554" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1554" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1555">
@@ -51185,10 +51163,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1555" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1555" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1556">
@@ -51219,10 +51195,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H1556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1556" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1557">
@@ -51245,10 +51219,8 @@
       <c r="E1557" t="inlineStr"/>
       <c r="F1557" t="inlineStr"/>
       <c r="G1557" t="inlineStr"/>
-      <c r="H1557" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1557" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1558">
@@ -51279,10 +51251,8 @@
           <t>91.4</t>
         </is>
       </c>
-      <c r="H1558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1558" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1559">
@@ -51305,10 +51275,8 @@
       <c r="E1559" t="inlineStr"/>
       <c r="F1559" t="inlineStr"/>
       <c r="G1559" t="inlineStr"/>
-      <c r="H1559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1559" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1560">
@@ -51343,10 +51311,8 @@
           <t>-11</t>
         </is>
       </c>
-      <c r="H1560" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1560" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1561">
@@ -51373,10 +51339,8 @@
       </c>
       <c r="F1561" t="inlineStr"/>
       <c r="G1561" t="inlineStr"/>
-      <c r="H1561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1562">
@@ -51407,10 +51371,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H1562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1563">
@@ -51441,10 +51403,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1563" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1564">
@@ -51475,10 +51435,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1564" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1565">
@@ -51513,10 +51471,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1565" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1565" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1566">
@@ -51547,10 +51503,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1566" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1566" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1567">
@@ -51581,10 +51535,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1567" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1568">
@@ -51615,10 +51567,8 @@
           <t>55.3</t>
         </is>
       </c>
-      <c r="H1568" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1568" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1569">
@@ -51649,10 +51599,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H1569" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1569" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1570">
@@ -51683,10 +51631,8 @@
           <t>56.6</t>
         </is>
       </c>
-      <c r="H1570" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1570" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1571">
@@ -51721,10 +51667,8 @@
           <t>4.1M</t>
         </is>
       </c>
-      <c r="H1571" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1571" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1572">
@@ -51755,10 +51699,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1572" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1572" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1573">
@@ -51793,10 +51735,8 @@
           <t>73.2</t>
         </is>
       </c>
-      <c r="H1573" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1573" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1574">
@@ -51831,10 +51771,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1574" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1574" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1575">
@@ -51869,10 +51807,8 @@
           <t>70.2</t>
         </is>
       </c>
-      <c r="H1575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1575" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1576">
@@ -51907,10 +51843,8 @@
           <t>77.9</t>
         </is>
       </c>
-      <c r="H1576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1577">
@@ -51945,10 +51879,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1577" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1578">
@@ -51979,10 +51911,8 @@
           <t>-7</t>
         </is>
       </c>
-      <c r="H1578" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1578" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1579">
@@ -52013,10 +51943,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H1579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1579" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1580">
@@ -52043,10 +51971,8 @@
       </c>
       <c r="F1580" t="inlineStr"/>
       <c r="G1580" t="inlineStr"/>
-      <c r="H1580" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1580" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1581">
@@ -52073,54 +51999,56 @@
       </c>
       <c r="F1581" t="inlineStr"/>
       <c r="G1581" t="inlineStr"/>
-      <c r="H1581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1582">
       <c r="A1582" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1582" t="inlineStr"/>
-      <c r="C1582" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1582" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1582" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1582" t="inlineStr"/>
       <c r="E1582" t="inlineStr"/>
       <c r="F1582" t="inlineStr"/>
       <c r="G1582" t="inlineStr"/>
-      <c r="H1582" t="inlineStr"/>
+      <c r="H1582" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr"/>
-      <c r="E1583" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1583" t="inlineStr"/>
       <c r="F1583" t="inlineStr"/>
-      <c r="G1583" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1583" t="inlineStr"/>
       <c r="H1583" t="inlineStr">
         <is>
           <t>3</t>
@@ -52130,107 +52058,103 @@
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr"/>
-      <c r="E1584" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1584" t="inlineStr"/>
       <c r="F1584" t="inlineStr"/>
       <c r="G1584" t="inlineStr"/>
       <c r="H1584" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr"/>
-      <c r="E1585" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1585" t="inlineStr"/>
       <c r="F1585" t="inlineStr"/>
-      <c r="G1585" t="inlineStr"/>
+      <c r="G1585" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1585" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1586" t="inlineStr"/>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1586" t="inlineStr"/>
       <c r="G1586" t="inlineStr"/>
       <c r="H1586" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr"/>
@@ -52246,17 +52170,17 @@
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1588" t="inlineStr"/>
@@ -52272,55 +52196,47 @@
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1589" t="inlineStr"/>
-      <c r="E1589" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1589" t="inlineStr"/>
       <c r="F1589" t="inlineStr"/>
       <c r="G1589" t="inlineStr"/>
       <c r="H1589" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1590" t="inlineStr"/>
-      <c r="E1590" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1590" t="inlineStr"/>
       <c r="F1590" t="inlineStr"/>
       <c r="G1590" t="inlineStr"/>
       <c r="H1590" t="inlineStr">
@@ -52330,59 +52246,63 @@
       </c>
     </row>
     <row r="1591">
-      <c r="A1591" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1591" t="inlineStr"/>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1591" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1591" t="inlineStr"/>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1591" t="inlineStr"/>
-      <c r="G1591" t="inlineStr"/>
+      <c r="G1591" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1591" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1592">
-      <c r="A1592" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1592" t="inlineStr"/>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1592" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1592" t="inlineStr"/>
       <c r="E1592" t="inlineStr">
         <is>
-          <t>85.1</t>
-        </is>
-      </c>
-      <c r="F1592" t="inlineStr"/>
-      <c r="G1592" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1592" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1592" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1592" t="inlineStr">
         <is>
           <t>3</t>
@@ -52392,121 +52312,109 @@
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1593" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1593" t="inlineStr">
-        <is>
-          <t>Ifo ExpectationsJAN</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1593" t="inlineStr"/>
+      <c r="C1593" t="inlineStr"/>
       <c r="D1593" t="inlineStr"/>
-      <c r="E1593" t="inlineStr">
-        <is>
-          <t>84.4</t>
-        </is>
-      </c>
+      <c r="E1593" t="inlineStr"/>
       <c r="F1593" t="inlineStr"/>
       <c r="G1593" t="inlineStr"/>
-      <c r="H1593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1593" t="inlineStr"/>
     </row>
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1594" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1594" t="inlineStr"/>
-      <c r="E1594" t="inlineStr"/>
+      <c r="E1594" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1594" t="inlineStr"/>
-      <c r="G1594" t="inlineStr"/>
+      <c r="G1594" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1594" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1595" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1595" t="inlineStr"/>
       <c r="E1595" t="inlineStr">
         <is>
-          <t>43.5K</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1595" t="inlineStr"/>
       <c r="G1595" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="H1595" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1596" t="inlineStr"/>
       <c r="E1596" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1596" t="inlineStr"/>
-      <c r="G1596" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1596" t="inlineStr"/>
       <c r="H1596" t="inlineStr">
         <is>
           <t>3</t>
@@ -52516,29 +52424,29 @@
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1597" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1597" t="inlineStr"/>
       <c r="E1597" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1597" t="inlineStr"/>
       <c r="G1597" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1597" t="inlineStr">
@@ -52550,27 +52458,31 @@
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1598" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1598" t="inlineStr"/>
       <c r="E1598" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1598" t="inlineStr"/>
-      <c r="G1598" t="inlineStr"/>
+      <c r="G1598" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1598" t="inlineStr">
         <is>
           <t>3</t>
@@ -52580,27 +52492,31 @@
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1599" t="inlineStr"/>
       <c r="E1599" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1599" t="inlineStr"/>
-      <c r="G1599" t="inlineStr"/>
+      <c r="G1599" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1599" t="inlineStr">
         <is>
           <t>3</t>
@@ -52610,97 +52526,93 @@
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1600" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1600" t="inlineStr"/>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1600" t="inlineStr"/>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1600" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1601" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1601" t="inlineStr"/>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1601" t="inlineStr"/>
-      <c r="G1601" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1601" t="inlineStr"/>
       <c r="H1601" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1602" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1602" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1602" t="inlineStr"/>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1602" t="inlineStr"/>
       <c r="G1602" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1602" t="inlineStr">
@@ -52712,31 +52624,27 @@
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1603" t="inlineStr"/>
-      <c r="G1603" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1603" t="inlineStr"/>
       <c r="H1603" t="inlineStr">
         <is>
           <t>3</t>
@@ -52746,17 +52654,17 @@
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1604" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1604" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1604" t="inlineStr"/>
@@ -52772,17 +52680,17 @@
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
@@ -52798,17 +52706,17 @@
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
@@ -52824,33 +52732,37 @@
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
-      <c r="E1607" t="inlineStr"/>
+      <c r="E1607" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1607" t="inlineStr"/>
       <c r="G1607" t="inlineStr"/>
       <c r="H1607" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
@@ -52860,27 +52772,31 @@
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
-      <c r="E1608" t="inlineStr"/>
+      <c r="E1608" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1608" t="inlineStr"/>
       <c r="G1608" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1608" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
@@ -52890,17 +52806,21 @@
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1609" t="inlineStr"/>
-      <c r="G1609" t="inlineStr"/>
+      <c r="G1609" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1609" t="inlineStr">
         <is>
           <t>2</t>
@@ -52910,7 +52830,7 @@
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
@@ -52920,13 +52840,21 @@
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
-      <c r="E1610" t="inlineStr"/>
+      <c r="E1610" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1610" t="inlineStr"/>
-      <c r="G1610" t="inlineStr"/>
+      <c r="G1610" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1610" t="inlineStr">
         <is>
           <t>3</t>
@@ -52936,7 +52864,7 @@
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1611" t="inlineStr">
@@ -52946,11 +52874,15 @@
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
-      <c r="E1611" t="inlineStr"/>
+      <c r="E1611" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1611" t="inlineStr"/>
       <c r="G1611" t="inlineStr"/>
       <c r="H1611" t="inlineStr">
@@ -52962,7 +52894,7 @@
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B1612" t="inlineStr">
@@ -52972,7 +52904,7 @@
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
@@ -52988,7 +52920,7 @@
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1613" t="inlineStr">
@@ -52998,21 +52930,29 @@
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1613" t="inlineStr"/>
-      <c r="E1613" t="inlineStr"/>
+      <c r="E1613" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1613" t="inlineStr"/>
       <c r="G1613" t="inlineStr"/>
       <c r="H1613" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1614">
-      <c r="A1614" t="inlineStr"/>
+      <c r="A1614" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1614" t="inlineStr">
         <is>
           <t>US</t>
@@ -53020,21 +52960,17 @@
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr"/>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1614" t="inlineStr"/>
-      <c r="G1614" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1614" t="inlineStr"/>
       <c r="H1614" t="inlineStr">
         <is>
           <t>3</t>
@@ -53042,7 +52978,11 @@
       </c>
     </row>
     <row r="1615">
-      <c r="A1615" t="inlineStr"/>
+      <c r="A1615" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1615" t="inlineStr">
         <is>
           <t>US</t>
@@ -53050,25 +52990,13 @@
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr"/>
-      <c r="E1615" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1615" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1615" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="E1615" t="inlineStr"/>
+      <c r="F1615" t="inlineStr"/>
+      <c r="G1615" t="inlineStr"/>
       <c r="H1615" t="inlineStr">
         <is>
           <t>3</t>
@@ -53078,107 +53006,107 @@
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1616" t="inlineStr"/>
-      <c r="C1616" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1616" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1616" t="inlineStr">
+        <is>
+          <t>House Price Index YoYNOV</t>
+        </is>
+      </c>
       <c r="D1616" t="inlineStr"/>
-      <c r="E1616" t="inlineStr"/>
+      <c r="E1616" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="F1616" t="inlineStr"/>
       <c r="G1616" t="inlineStr"/>
-      <c r="H1616" t="inlineStr"/>
+      <c r="H1616" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1617" t="inlineStr"/>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1617" t="inlineStr"/>
-      <c r="G1617" t="inlineStr">
+      <c r="G1617" t="inlineStr"/>
+      <c r="H1617" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1617" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>CB Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
-      <c r="E1618" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1618" t="inlineStr"/>
       <c r="F1618" t="inlineStr"/>
-      <c r="G1618" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1618" t="inlineStr"/>
       <c r="H1618" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1619" t="inlineStr"/>
-      <c r="E1619" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1619" t="inlineStr"/>
       <c r="F1619" t="inlineStr"/>
       <c r="G1619" t="inlineStr"/>
       <c r="H1619" t="inlineStr">
@@ -53190,29 +53118,29 @@
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1620" t="inlineStr"/>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1620" t="inlineStr"/>
       <c r="G1620" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1620" t="inlineStr">
@@ -53224,29 +53152,29 @@
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1621" t="inlineStr"/>
       <c r="G1621" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1621" t="inlineStr">
@@ -53258,31 +53186,27 @@
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1622" t="inlineStr"/>
-      <c r="G1622" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1622" t="inlineStr"/>
       <c r="H1622" t="inlineStr">
         <is>
           <t>3</t>
@@ -53292,31 +53216,27 @@
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr"/>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr"/>
-      <c r="G1623" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1623" t="inlineStr"/>
       <c r="H1623" t="inlineStr">
         <is>
           <t>3</t>
@@ -53326,87 +53246,79 @@
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
-      <c r="E1624" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1624" t="inlineStr"/>
       <c r="F1624" t="inlineStr"/>
       <c r="G1624" t="inlineStr"/>
       <c r="H1624" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1625" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1625" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1625" t="inlineStr"/>
       <c r="E1625" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1625" t="inlineStr"/>
-      <c r="G1625" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1625" t="inlineStr"/>
       <c r="H1625" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1626" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1626" t="inlineStr"/>
       <c r="E1626" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1626" t="inlineStr"/>
@@ -53420,43 +53332,31 @@
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1627" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1627" t="inlineStr">
-        <is>
-          <t>BTP Short Term Auction</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1627" t="inlineStr"/>
+      <c r="C1627" t="inlineStr"/>
       <c r="D1627" t="inlineStr"/>
       <c r="E1627" t="inlineStr"/>
       <c r="F1627" t="inlineStr"/>
       <c r="G1627" t="inlineStr"/>
-      <c r="H1627" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1627" t="inlineStr"/>
     </row>
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1628" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1628" t="inlineStr"/>
@@ -53465,126 +53365,138 @@
       <c r="G1628" t="inlineStr"/>
       <c r="H1628" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1629" t="inlineStr"/>
-      <c r="E1629" t="inlineStr"/>
+      <c r="E1629" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1629" t="inlineStr"/>
-      <c r="G1629" t="inlineStr"/>
+      <c r="G1629" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1629" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1630" t="inlineStr"/>
       <c r="E1630" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1630" t="inlineStr"/>
-      <c r="G1630" t="inlineStr"/>
+      <c r="G1630" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1630" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1631" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1631" t="inlineStr"/>
       <c r="E1631" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1631" t="inlineStr"/>
       <c r="G1631" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H1631" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1632" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1632" t="inlineStr"/>
       <c r="E1632" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1632" t="inlineStr"/>
       <c r="G1632" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1632" t="inlineStr">
@@ -53596,61 +53508,61 @@
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr"/>
       <c r="E1633" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1633" t="inlineStr"/>
       <c r="G1633" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1633" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1634">
       <c r="A1634" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1634" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1634" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1634" t="inlineStr"/>
-      <c r="E1634" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1634" t="inlineStr"/>
       <c r="F1634" t="inlineStr"/>
-      <c r="G1634" t="inlineStr"/>
+      <c r="G1634" t="inlineStr">
+        <is>
+          <t>139.1</t>
+        </is>
+      </c>
       <c r="H1634" t="inlineStr">
         <is>
           <t>3</t>
@@ -53660,21 +53572,25 @@
     <row r="1635">
       <c r="A1635" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1635" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1635" t="inlineStr"/>
-      <c r="E1635" t="inlineStr"/>
+      <c r="E1635" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1635" t="inlineStr"/>
       <c r="G1635" t="inlineStr"/>
       <c r="H1635" t="inlineStr">
@@ -53686,53 +53602,53 @@
     <row r="1636">
       <c r="A1636" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1636" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1636" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1636" t="inlineStr"/>
       <c r="E1636" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1636" t="inlineStr"/>
       <c r="G1636" t="inlineStr"/>
       <c r="H1636" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1637">
       <c r="A1637" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B1637" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1637" t="inlineStr">
         <is>
-          <t>House Price IndexNOV</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1637" t="inlineStr"/>
       <c r="E1637" t="inlineStr">
         <is>
-          <t>432.3</t>
+          <t>0.595%</t>
         </is>
       </c>
       <c r="F1637" t="inlineStr"/>
@@ -53746,133 +53662,153 @@
     <row r="1638">
       <c r="A1638" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1638" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1638" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1638" t="inlineStr"/>
-      <c r="E1638" t="inlineStr"/>
+      <c r="E1638" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
       <c r="F1638" t="inlineStr"/>
       <c r="G1638" t="inlineStr"/>
       <c r="H1638" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1639" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1639" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>GfK Consumer ConfidenceFEB</t>
         </is>
       </c>
       <c r="D1639" t="inlineStr"/>
       <c r="E1639" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-21.3</t>
         </is>
       </c>
       <c r="F1639" t="inlineStr"/>
       <c r="G1639" t="inlineStr"/>
       <c r="H1639" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1640" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1640" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1640" t="inlineStr"/>
       <c r="E1640" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1640" t="inlineStr"/>
-      <c r="G1640" t="inlineStr"/>
+      <c r="G1640" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1640" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1641" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJAN</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1641" t="inlineStr"/>
-      <c r="E1641" t="inlineStr"/>
+      <c r="E1641" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F1641" t="inlineStr"/>
-      <c r="G1641" t="inlineStr"/>
+      <c r="G1641" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H1641" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1642">
       <c r="A1642" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
+          <t>Loans to Companies YoYDEC</t>
         </is>
       </c>
       <c r="D1642" t="inlineStr"/>
-      <c r="E1642" t="inlineStr"/>
+      <c r="E1642" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="F1642" t="inlineStr"/>
       <c r="G1642" t="inlineStr"/>
       <c r="H1642" t="inlineStr">
@@ -53884,29 +53820,29 @@
     <row r="1643">
       <c r="A1643" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1643" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
+          <t>Loans to Households YoYDEC</t>
         </is>
       </c>
       <c r="D1643" t="inlineStr"/>
       <c r="E1643" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1643" t="inlineStr"/>
       <c r="G1643" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1643" t="inlineStr">
@@ -53918,31 +53854,27 @@
     <row r="1644">
       <c r="A1644" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1644" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1644" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1644" t="inlineStr"/>
       <c r="E1644" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1644" t="inlineStr"/>
-      <c r="G1644" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="G1644" t="inlineStr"/>
       <c r="H1644" t="inlineStr">
         <is>
           <t>3</t>
@@ -53952,81 +53884,85 @@
     <row r="1645">
       <c r="A1645" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1645" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1645" t="inlineStr"/>
       <c r="E1645" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>85.8</t>
         </is>
       </c>
       <c r="F1645" t="inlineStr"/>
       <c r="G1645" t="inlineStr"/>
       <c r="H1645" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1646">
       <c r="A1646" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1646" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1646" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1646" t="inlineStr"/>
       <c r="E1646" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>96.3</t>
         </is>
       </c>
       <c r="F1646" t="inlineStr"/>
       <c r="G1646" t="inlineStr"/>
       <c r="H1646" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1647">
       <c r="A1647" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1647" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1647" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>10-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D1647" t="inlineStr"/>
-      <c r="E1647" t="inlineStr"/>
+      <c r="E1647" t="inlineStr">
+        <is>
+          <t>3.731%</t>
+        </is>
+      </c>
       <c r="F1647" t="inlineStr"/>
       <c r="G1647" t="inlineStr"/>
       <c r="H1647" t="inlineStr">
@@ -54038,25 +53974,21 @@
     <row r="1648">
       <c r="A1648" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1648" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1648" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>6-Month BOT Auction</t>
         </is>
       </c>
       <c r="D1648" t="inlineStr"/>
-      <c r="E1648" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
+      <c r="E1648" t="inlineStr"/>
       <c r="F1648" t="inlineStr"/>
       <c r="G1648" t="inlineStr"/>
       <c r="H1648" t="inlineStr">
@@ -54068,23 +54000,23 @@
     <row r="1649">
       <c r="A1649" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1649" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1649" t="inlineStr">
         <is>
-          <t>Money SupplyDEC</t>
+          <t>10-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1649" t="inlineStr"/>
       <c r="E1649" t="inlineStr">
         <is>
-          <t>$21.45T</t>
+          <t>2.51%</t>
         </is>
       </c>
       <c r="F1649" t="inlineStr"/>
@@ -54098,21 +54030,37 @@
     <row r="1650">
       <c r="A1650" t="inlineStr">
         <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1650" t="inlineStr"/>
-      <c r="C1650" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1650" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C1650" t="inlineStr">
+        <is>
+          <t>Unemployment RateDEC</t>
+        </is>
+      </c>
       <c r="D1650" t="inlineStr"/>
       <c r="E1650" t="inlineStr"/>
       <c r="F1650" t="inlineStr"/>
-      <c r="G1650" t="inlineStr"/>
-      <c r="H1650" t="inlineStr"/>
+      <c r="G1650" t="inlineStr">
+        <is>
+          <t>2.70%</t>
+        </is>
+      </c>
+      <c r="H1650" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1651">
       <c r="A1651" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1651" t="inlineStr">
@@ -54122,7 +54070,7 @@
       </c>
       <c r="C1651" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
+          <t>MBA 30-Year Mortgage RateJAN/24</t>
         </is>
       </c>
       <c r="D1651" t="inlineStr"/>
@@ -54138,165 +54086,133 @@
     <row r="1652">
       <c r="A1652" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1652" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1652" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYQ4</t>
+          <t>MBA Mortgage ApplicationsJAN/24</t>
         </is>
       </c>
       <c r="D1652" t="inlineStr"/>
-      <c r="E1652" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="E1652" t="inlineStr"/>
       <c r="F1652" t="inlineStr"/>
-      <c r="G1652" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1652" t="inlineStr"/>
       <c r="H1652" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1653">
       <c r="A1653" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1653" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1653" t="inlineStr">
         <is>
-          <t>Inflation Rate QoQQ4</t>
+          <t>MBA Mortgage Market IndexJAN/24</t>
         </is>
       </c>
       <c r="D1653" t="inlineStr"/>
-      <c r="E1653" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1653" t="inlineStr"/>
       <c r="F1653" t="inlineStr"/>
-      <c r="G1653" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1653" t="inlineStr"/>
       <c r="H1653" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1654">
       <c r="A1654" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1654" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1654" t="inlineStr">
         <is>
-          <t>Monthly CPI IndicatorDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/24</t>
         </is>
       </c>
       <c r="D1654" t="inlineStr"/>
-      <c r="E1654" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="E1654" t="inlineStr"/>
       <c r="F1654" t="inlineStr"/>
-      <c r="G1654" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1654" t="inlineStr"/>
       <c r="H1654" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1655">
       <c r="A1655" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1655" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1655" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
+          <t>MBA Purchase IndexJAN/24</t>
         </is>
       </c>
       <c r="D1655" t="inlineStr"/>
-      <c r="E1655" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1655" t="inlineStr"/>
       <c r="F1655" t="inlineStr"/>
-      <c r="G1655" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G1655" t="inlineStr"/>
       <c r="H1655" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1656">
       <c r="A1656" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1656" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1656" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
+          <t>Goods Trade Balance AdvDEC</t>
         </is>
       </c>
       <c r="D1656" t="inlineStr"/>
       <c r="E1656" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>$-102.86B</t>
         </is>
       </c>
       <c r="F1656" t="inlineStr"/>
       <c r="G1656" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>$ -104.5B</t>
         </is>
       </c>
       <c r="H1656" t="inlineStr">
@@ -54308,273 +54224,249 @@
     <row r="1657">
       <c r="A1657" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1657" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1657" t="inlineStr">
         <is>
-          <t>CPIQ4</t>
+          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1657" t="inlineStr"/>
-      <c r="E1657" t="inlineStr"/>
+      <c r="E1657" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F1657" t="inlineStr"/>
-      <c r="G1657" t="inlineStr">
-        <is>
-          <t>139.1</t>
-        </is>
-      </c>
+      <c r="G1657" t="inlineStr"/>
       <c r="H1657" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1658">
       <c r="A1658" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1658" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1658" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
+          <t>Wholesale Inventories MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1658" t="inlineStr"/>
       <c r="E1658" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1658" t="inlineStr"/>
-      <c r="G1658" t="inlineStr"/>
+      <c r="G1658" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1658" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1659">
       <c r="A1659" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B1659" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1659" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
+          <t>BoC Monetary Policy Report</t>
         </is>
       </c>
       <c r="D1659" t="inlineStr"/>
-      <c r="E1659" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1659" t="inlineStr"/>
       <c r="F1659" t="inlineStr"/>
       <c r="G1659" t="inlineStr"/>
       <c r="H1659" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1660">
       <c r="A1660" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1660" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1660" t="inlineStr">
         <is>
-          <t>5-Year Climate Transition JGB Auction</t>
+          <t>BoC Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1660" t="inlineStr"/>
       <c r="E1660" t="inlineStr">
         <is>
-          <t>0.595%</t>
-        </is>
-      </c>
-      <c r="F1660" t="inlineStr"/>
+          <t>3.25%</t>
+        </is>
+      </c>
+      <c r="F1660" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="G1660" t="inlineStr"/>
       <c r="H1660" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1661">
       <c r="A1661" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1661" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1661" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>BoC Press Conference</t>
         </is>
       </c>
       <c r="D1661" t="inlineStr"/>
-      <c r="E1661" t="inlineStr">
-        <is>
-          <t>36.2</t>
-        </is>
-      </c>
+      <c r="E1661" t="inlineStr"/>
       <c r="F1661" t="inlineStr"/>
       <c r="G1661" t="inlineStr"/>
       <c r="H1661" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1662">
       <c r="A1662" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1662" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1662" t="inlineStr">
         <is>
-          <t>GfK Consumer ConfidenceFEB</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1662" t="inlineStr"/>
-      <c r="E1662" t="inlineStr">
-        <is>
-          <t>-21.3</t>
-        </is>
-      </c>
+      <c r="E1662" t="inlineStr"/>
       <c r="F1662" t="inlineStr"/>
       <c r="G1662" t="inlineStr"/>
       <c r="H1662" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1663">
       <c r="A1663" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1663" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1663" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
+          <t>EIA Gasoline Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1663" t="inlineStr"/>
-      <c r="E1663" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1663" t="inlineStr"/>
       <c r="F1663" t="inlineStr"/>
-      <c r="G1663" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1663" t="inlineStr"/>
       <c r="H1663" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1664">
       <c r="A1664" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1664" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1664" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
+          <t>EIA Crude Oil Imports ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1664" t="inlineStr"/>
-      <c r="E1664" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="E1664" t="inlineStr"/>
       <c r="F1664" t="inlineStr"/>
-      <c r="G1664" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G1664" t="inlineStr"/>
       <c r="H1664" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1665">
       <c r="A1665" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1665" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1665" t="inlineStr">
         <is>
-          <t>Loans to Companies YoYDEC</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1665" t="inlineStr"/>
-      <c r="E1665" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="E1665" t="inlineStr"/>
       <c r="F1665" t="inlineStr"/>
       <c r="G1665" t="inlineStr"/>
       <c r="H1665" t="inlineStr">
@@ -54586,31 +54478,23 @@
     <row r="1666">
       <c r="A1666" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1666" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1666" t="inlineStr">
         <is>
-          <t>Loans to Households YoYDEC</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1666" t="inlineStr"/>
-      <c r="E1666" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="E1666" t="inlineStr"/>
       <c r="F1666" t="inlineStr"/>
-      <c r="G1666" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G1666" t="inlineStr"/>
       <c r="H1666" t="inlineStr">
         <is>
           <t>3</t>
@@ -54620,25 +54504,21 @@
     <row r="1667">
       <c r="A1667" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1667" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1667" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC</t>
+          <t>EIA Distillate Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1667" t="inlineStr"/>
-      <c r="E1667" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1667" t="inlineStr"/>
       <c r="F1667" t="inlineStr"/>
       <c r="G1667" t="inlineStr"/>
       <c r="H1667" t="inlineStr">
@@ -54650,464 +54530,78 @@
     <row r="1668">
       <c r="A1668" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1668" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1668" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>EIA Gasoline Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1668" t="inlineStr"/>
-      <c r="E1668" t="inlineStr">
-        <is>
-          <t>85.8</t>
-        </is>
-      </c>
+      <c r="E1668" t="inlineStr"/>
       <c r="F1668" t="inlineStr"/>
       <c r="G1668" t="inlineStr"/>
       <c r="H1668" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1669">
       <c r="A1669" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1669" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1669" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1669" t="inlineStr"/>
-      <c r="E1669" t="inlineStr">
-        <is>
-          <t>96.3</t>
-        </is>
-      </c>
+      <c r="E1669" t="inlineStr"/>
       <c r="F1669" t="inlineStr"/>
       <c r="G1669" t="inlineStr"/>
       <c r="H1669" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1670">
       <c r="A1670" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1670" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1670" t="inlineStr">
         <is>
-          <t>10-Year Green Gilt Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1670" t="inlineStr"/>
-      <c r="E1670" t="inlineStr">
-        <is>
-          <t>3.731%</t>
-        </is>
-      </c>
+      <c r="E1670" t="inlineStr"/>
       <c r="F1670" t="inlineStr"/>
       <c r="G1670" t="inlineStr"/>
       <c r="H1670" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1671">
-      <c r="A1671" t="inlineStr">
-        <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1671" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1671" t="inlineStr">
-        <is>
-          <t>6-Month BOT Auction</t>
-        </is>
-      </c>
-      <c r="D1671" t="inlineStr"/>
-      <c r="E1671" t="inlineStr"/>
-      <c r="F1671" t="inlineStr"/>
-      <c r="G1671" t="inlineStr"/>
-      <c r="H1671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1672">
-      <c r="A1672" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1672" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1672" t="inlineStr">
-        <is>
-          <t>10-Year Bund Auction</t>
-        </is>
-      </c>
-      <c r="D1672" t="inlineStr"/>
-      <c r="E1672" t="inlineStr">
-        <is>
-          <t>2.51%</t>
-        </is>
-      </c>
-      <c r="F1672" t="inlineStr"/>
-      <c r="G1672" t="inlineStr"/>
-      <c r="H1672" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1673">
-      <c r="A1673" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1673" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1673" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
-      <c r="D1673" t="inlineStr"/>
-      <c r="E1673" t="inlineStr"/>
-      <c r="F1673" t="inlineStr"/>
-      <c r="G1673" t="inlineStr">
-        <is>
-          <t>2.70%</t>
-        </is>
-      </c>
-      <c r="H1673" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1674">
-      <c r="A1674" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1674" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1674" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
-        </is>
-      </c>
-      <c r="D1674" t="inlineStr"/>
-      <c r="E1674" t="inlineStr"/>
-      <c r="F1674" t="inlineStr"/>
-      <c r="G1674" t="inlineStr"/>
-      <c r="H1674" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1675">
-      <c r="A1675" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1675" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1675" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
-        </is>
-      </c>
-      <c r="D1675" t="inlineStr"/>
-      <c r="E1675" t="inlineStr"/>
-      <c r="F1675" t="inlineStr"/>
-      <c r="G1675" t="inlineStr"/>
-      <c r="H1675" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1676">
-      <c r="A1676" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1676" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1676" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1676" t="inlineStr"/>
-      <c r="E1676" t="inlineStr"/>
-      <c r="F1676" t="inlineStr"/>
-      <c r="G1676" t="inlineStr"/>
-      <c r="H1676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1677">
-      <c r="A1677" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1677" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1677" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1677" t="inlineStr"/>
-      <c r="E1677" t="inlineStr"/>
-      <c r="F1677" t="inlineStr"/>
-      <c r="G1677" t="inlineStr"/>
-      <c r="H1677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1678">
-      <c r="A1678" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1678" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1678" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1678" t="inlineStr"/>
-      <c r="E1678" t="inlineStr"/>
-      <c r="F1678" t="inlineStr"/>
-      <c r="G1678" t="inlineStr"/>
-      <c r="H1678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1679">
-      <c r="A1679" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1679" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1679" t="inlineStr">
-        <is>
-          <t>Goods Trade Balance AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1679" t="inlineStr"/>
-      <c r="E1679" t="inlineStr">
-        <is>
-          <t>$-102.86B</t>
-        </is>
-      </c>
-      <c r="F1679" t="inlineStr"/>
-      <c r="G1679" t="inlineStr">
-        <is>
-          <t>$ -104.5B</t>
-        </is>
-      </c>
-      <c r="H1679" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1680">
-      <c r="A1680" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1680" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1680" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1680" t="inlineStr"/>
-      <c r="E1680" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1680" t="inlineStr"/>
-      <c r="G1680" t="inlineStr"/>
-      <c r="H1680" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1681">
-      <c r="A1681" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1681" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1681" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1681" t="inlineStr"/>
-      <c r="E1681" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1681" t="inlineStr"/>
-      <c r="G1681" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1681" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1682">
-      <c r="A1682" t="inlineStr">
-        <is>
-          <t>07:15 PM</t>
-        </is>
-      </c>
-      <c r="B1682" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1682" t="inlineStr">
-        <is>
-          <t>BoC Monetary Policy Report</t>
-        </is>
-      </c>
-      <c r="D1682" t="inlineStr"/>
-      <c r="E1682" t="inlineStr"/>
-      <c r="F1682" t="inlineStr"/>
-      <c r="G1682" t="inlineStr"/>
-      <c r="H1682" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1683">
-      <c r="A1683" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B1683" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1683" t="inlineStr">
-        <is>
-          <t>BoC Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1683" t="inlineStr"/>
-      <c r="E1683" t="inlineStr">
-        <is>
-          <t>3.25%</t>
-        </is>
-      </c>
-      <c r="F1683" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="G1683" t="inlineStr"/>
-      <c r="H1683" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1724"/>
+  <dimension ref="A1:H1701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47427,10 +47427,8 @@
           <t>-3.0%</t>
         </is>
       </c>
-      <c r="H1434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1434" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1435">
@@ -47461,10 +47459,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H1435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1436">
@@ -47495,10 +47491,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1437">
@@ -47533,10 +47527,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1437" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1437" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1438">
@@ -47571,10 +47563,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1438" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1438" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1439">
@@ -47609,10 +47599,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1440">
@@ -47639,10 +47627,8 @@
       </c>
       <c r="F1440" t="inlineStr"/>
       <c r="G1440" t="inlineStr"/>
-      <c r="H1440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1441">
@@ -47669,10 +47655,8 @@
       </c>
       <c r="F1441" t="inlineStr"/>
       <c r="G1441" t="inlineStr"/>
-      <c r="H1441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1442">
@@ -47703,10 +47687,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1442" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1443">
@@ -47737,10 +47719,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1443" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1443" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1444">
@@ -47775,10 +47755,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1444" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1444" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1445">
@@ -47809,10 +47787,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1445" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1445" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1446">
@@ -47847,10 +47823,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1446" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1446" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1447">
@@ -47881,10 +47855,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1448">
@@ -47919,10 +47891,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1449">
@@ -47957,10 +47927,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1450">
@@ -47987,10 +47955,8 @@
       </c>
       <c r="F1450" t="inlineStr"/>
       <c r="G1450" t="inlineStr"/>
-      <c r="H1450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1450" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1451">
@@ -48017,10 +47983,8 @@
       </c>
       <c r="F1451" t="inlineStr"/>
       <c r="G1451" t="inlineStr"/>
-      <c r="H1451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1451" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1452">
@@ -48047,10 +48011,8 @@
       </c>
       <c r="F1452" t="inlineStr"/>
       <c r="G1452" t="inlineStr"/>
-      <c r="H1452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1452" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1453">
@@ -48077,10 +48039,8 @@
       </c>
       <c r="F1453" t="inlineStr"/>
       <c r="G1453" t="inlineStr"/>
-      <c r="H1453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1453" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1454">
@@ -48099,10 +48059,8 @@
       <c r="E1454" t="inlineStr"/>
       <c r="F1454" t="inlineStr"/>
       <c r="G1454" t="inlineStr"/>
-      <c r="H1454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1454" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1455">
@@ -48147,10 +48105,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1456" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1456" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1457">
@@ -48181,10 +48137,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1457" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1457" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1458">
@@ -48219,10 +48173,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1458" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1459">
@@ -48253,10 +48205,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1459" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1459" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1460">
@@ -48287,10 +48237,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1460" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1460" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1461">
@@ -48321,10 +48269,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1461" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1461" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1462">
@@ -48355,10 +48301,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1462" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1463">
@@ -48385,10 +48329,8 @@
       </c>
       <c r="F1463" t="inlineStr"/>
       <c r="G1463" t="inlineStr"/>
-      <c r="H1463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1463" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1464">
@@ -48419,10 +48361,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1464" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1465">
@@ -48453,10 +48393,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1465" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1466">
@@ -48483,10 +48421,8 @@
       </c>
       <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr"/>
-      <c r="H1466" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1466" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1467">
@@ -48513,10 +48449,8 @@
       </c>
       <c r="F1467" t="inlineStr"/>
       <c r="G1467" t="inlineStr"/>
-      <c r="H1467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1467" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1468">
@@ -48543,10 +48477,8 @@
       </c>
       <c r="F1468" t="inlineStr"/>
       <c r="G1468" t="inlineStr"/>
-      <c r="H1468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1468" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1469">
@@ -48573,10 +48505,8 @@
       </c>
       <c r="F1469" t="inlineStr"/>
       <c r="G1469" t="inlineStr"/>
-      <c r="H1469" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1469" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1470">
@@ -48603,10 +48533,8 @@
       </c>
       <c r="F1470" t="inlineStr"/>
       <c r="G1470" t="inlineStr"/>
-      <c r="H1470" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1470" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1471">
@@ -48633,10 +48561,8 @@
       </c>
       <c r="F1471" t="inlineStr"/>
       <c r="G1471" t="inlineStr"/>
-      <c r="H1471" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1471" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1472">
@@ -48663,10 +48589,8 @@
       </c>
       <c r="F1472" t="inlineStr"/>
       <c r="G1472" t="inlineStr"/>
-      <c r="H1472" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1472" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1473">
@@ -48693,10 +48617,8 @@
       </c>
       <c r="F1473" t="inlineStr"/>
       <c r="G1473" t="inlineStr"/>
-      <c r="H1473" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1473" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1474">
@@ -48731,10 +48653,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1474" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1474" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1475">
@@ -48765,10 +48685,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1475" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1475" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1476">
@@ -48803,10 +48721,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1476" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1476" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1477">
@@ -48837,10 +48753,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1477" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1478">
@@ -48867,10 +48781,8 @@
       </c>
       <c r="F1478" t="inlineStr"/>
       <c r="G1478" t="inlineStr"/>
-      <c r="H1478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1478" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1479">
@@ -48905,10 +48817,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1479" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1480">
@@ -48931,10 +48841,8 @@
       <c r="E1480" t="inlineStr"/>
       <c r="F1480" t="inlineStr"/>
       <c r="G1480" t="inlineStr"/>
-      <c r="H1480" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1480" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1481">
@@ -48961,10 +48869,8 @@
       </c>
       <c r="F1481" t="inlineStr"/>
       <c r="G1481" t="inlineStr"/>
-      <c r="H1481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1481" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1482">
@@ -48991,10 +48897,8 @@
       </c>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
-      <c r="H1482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1482" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1483">
@@ -49039,10 +48943,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1484" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1485">
@@ -49073,10 +48975,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1485" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1485" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1486">
@@ -49103,10 +49003,8 @@
       </c>
       <c r="F1486" t="inlineStr"/>
       <c r="G1486" t="inlineStr"/>
-      <c r="H1486" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1486" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1487">
@@ -49141,10 +49039,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1487" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1487" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1488">
@@ -49179,10 +49075,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1488" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1489">
@@ -49217,10 +49111,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1489" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1489" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1490">
@@ -49255,10 +49147,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1490" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1490" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1491">
@@ -49285,10 +49175,8 @@
       </c>
       <c r="F1491" t="inlineStr"/>
       <c r="G1491" t="inlineStr"/>
-      <c r="H1491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1491" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1492">
@@ -49323,10 +49211,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1492" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1493">
@@ -49353,10 +49239,8 @@
       </c>
       <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr"/>
-      <c r="H1493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1493" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1494">
@@ -49383,10 +49267,8 @@
       </c>
       <c r="F1494" t="inlineStr"/>
       <c r="G1494" t="inlineStr"/>
-      <c r="H1494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1494" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1495">
@@ -49413,10 +49295,8 @@
       </c>
       <c r="F1495" t="inlineStr"/>
       <c r="G1495" t="inlineStr"/>
-      <c r="H1495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1495" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1496">
@@ -49443,10 +49323,8 @@
       </c>
       <c r="F1496" t="inlineStr"/>
       <c r="G1496" t="inlineStr"/>
-      <c r="H1496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1496" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1497">
@@ -49477,10 +49355,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1497" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1498">
@@ -49511,10 +49387,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1498" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1499">
@@ -49545,10 +49419,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1499" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1500">
@@ -49579,10 +49451,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1500" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1500" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1501">
@@ -49609,10 +49479,8 @@
       </c>
       <c r="F1501" t="inlineStr"/>
       <c r="G1501" t="inlineStr"/>
-      <c r="H1501" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1501" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1502">
@@ -49639,10 +49507,8 @@
       </c>
       <c r="F1502" t="inlineStr"/>
       <c r="G1502" t="inlineStr"/>
-      <c r="H1502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1502" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1503">
@@ -49673,10 +49539,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1503" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1503" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1504">
@@ -49711,10 +49575,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1504" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1504" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1505">
@@ -49745,10 +49607,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1505" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1505" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1506">
@@ -49775,10 +49635,8 @@
       </c>
       <c r="F1506" t="inlineStr"/>
       <c r="G1506" t="inlineStr"/>
-      <c r="H1506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1506" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1507">
@@ -49805,10 +49663,8 @@
       </c>
       <c r="F1507" t="inlineStr"/>
       <c r="G1507" t="inlineStr"/>
-      <c r="H1507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1508">
@@ -49835,10 +49691,8 @@
       </c>
       <c r="F1508" t="inlineStr"/>
       <c r="G1508" t="inlineStr"/>
-      <c r="H1508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1509">
@@ -49865,10 +49719,8 @@
       </c>
       <c r="F1509" t="inlineStr"/>
       <c r="G1509" t="inlineStr"/>
-      <c r="H1509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1510">
@@ -49895,10 +49747,8 @@
       </c>
       <c r="F1510" t="inlineStr"/>
       <c r="G1510" t="inlineStr"/>
-      <c r="H1510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1511">
@@ -49925,10 +49775,8 @@
       </c>
       <c r="F1511" t="inlineStr"/>
       <c r="G1511" t="inlineStr"/>
-      <c r="H1511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1512">
@@ -49955,10 +49803,8 @@
       </c>
       <c r="F1512" t="inlineStr"/>
       <c r="G1512" t="inlineStr"/>
-      <c r="H1512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1513">
@@ -49985,10 +49831,8 @@
       </c>
       <c r="F1513" t="inlineStr"/>
       <c r="G1513" t="inlineStr"/>
-      <c r="H1513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1514">
@@ -50019,10 +49863,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1515">
@@ -50053,10 +49895,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1515" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1515" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1516">
@@ -50091,10 +49931,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1516" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1516" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1517">
@@ -50125,10 +49963,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1518">
@@ -50159,10 +49995,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1518" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1518" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1519">
@@ -50197,10 +50031,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1519" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1519" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1520">
@@ -50227,10 +50059,8 @@
       </c>
       <c r="F1520" t="inlineStr"/>
       <c r="G1520" t="inlineStr"/>
-      <c r="H1520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1521">
@@ -50261,10 +50091,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1522">
@@ -50295,10 +50123,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1522" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1523">
@@ -50329,10 +50155,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1524">
@@ -50363,10 +50187,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1524" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1525">
@@ -50401,10 +50223,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1525" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1525" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1526">
@@ -50439,10 +50259,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1526" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1526" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1527">
@@ -50465,10 +50283,8 @@
       <c r="E1527" t="inlineStr"/>
       <c r="F1527" t="inlineStr"/>
       <c r="G1527" t="inlineStr"/>
-      <c r="H1527" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1527" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1528">
@@ -50499,10 +50315,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1528" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1529">
@@ -50537,10 +50351,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1529" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1529" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1530">
@@ -50571,10 +50383,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1530" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1531">
@@ -50605,10 +50415,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1531" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1532">
@@ -50643,10 +50451,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1532" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1532" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1533">
@@ -50673,10 +50479,8 @@
       </c>
       <c r="F1533" t="inlineStr"/>
       <c r="G1533" t="inlineStr"/>
-      <c r="H1533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1533" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1534">
@@ -50703,10 +50507,8 @@
       </c>
       <c r="F1534" t="inlineStr"/>
       <c r="G1534" t="inlineStr"/>
-      <c r="H1534" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1534" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1535">
@@ -50733,10 +50535,8 @@
       </c>
       <c r="F1535" t="inlineStr"/>
       <c r="G1535" t="inlineStr"/>
-      <c r="H1535" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1535" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1536">
@@ -50763,10 +50563,8 @@
       </c>
       <c r="F1536" t="inlineStr"/>
       <c r="G1536" t="inlineStr"/>
-      <c r="H1536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1536" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1537">
@@ -50793,10 +50591,8 @@
       </c>
       <c r="F1537" t="inlineStr"/>
       <c r="G1537" t="inlineStr"/>
-      <c r="H1537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1537" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1538">
@@ -50823,10 +50619,8 @@
       </c>
       <c r="F1538" t="inlineStr"/>
       <c r="G1538" t="inlineStr"/>
-      <c r="H1538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1538" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1539">
@@ -50853,10 +50647,8 @@
       </c>
       <c r="F1539" t="inlineStr"/>
       <c r="G1539" t="inlineStr"/>
-      <c r="H1539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1540">
@@ -50883,10 +50675,8 @@
       </c>
       <c r="F1540" t="inlineStr"/>
       <c r="G1540" t="inlineStr"/>
-      <c r="H1540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1541">
@@ -50913,10 +50703,8 @@
       </c>
       <c r="F1541" t="inlineStr"/>
       <c r="G1541" t="inlineStr"/>
-      <c r="H1541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1542">
@@ -50943,10 +50731,8 @@
       </c>
       <c r="F1542" t="inlineStr"/>
       <c r="G1542" t="inlineStr"/>
-      <c r="H1542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1543">
@@ -50973,10 +50759,8 @@
       </c>
       <c r="F1543" t="inlineStr"/>
       <c r="G1543" t="inlineStr"/>
-      <c r="H1543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1544">
@@ -51003,10 +50787,8 @@
       </c>
       <c r="F1544" t="inlineStr"/>
       <c r="G1544" t="inlineStr"/>
-      <c r="H1544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1545">
@@ -51033,10 +50815,8 @@
       </c>
       <c r="F1545" t="inlineStr"/>
       <c r="G1545" t="inlineStr"/>
-      <c r="H1545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1545" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1546">
@@ -51063,10 +50843,8 @@
       </c>
       <c r="F1546" t="inlineStr"/>
       <c r="G1546" t="inlineStr"/>
-      <c r="H1546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1547">
@@ -51093,10 +50871,8 @@
       </c>
       <c r="F1547" t="inlineStr"/>
       <c r="G1547" t="inlineStr"/>
-      <c r="H1547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1547" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1548">
@@ -51123,10 +50899,8 @@
       </c>
       <c r="F1548" t="inlineStr"/>
       <c r="G1548" t="inlineStr"/>
-      <c r="H1548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1549">
@@ -51149,10 +50923,8 @@
       </c>
       <c r="F1549" t="inlineStr"/>
       <c r="G1549" t="inlineStr"/>
-      <c r="H1549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1549" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1550">
@@ -51179,256 +50951,290 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1550" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1551">
       <c r="A1551" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1551" t="inlineStr"/>
-      <c r="C1551" t="inlineStr"/>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B1551" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C1551" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
       <c r="D1551" t="inlineStr"/>
-      <c r="E1551" t="inlineStr"/>
+      <c r="E1551" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1551" t="inlineStr"/>
-      <c r="G1551" t="inlineStr"/>
-      <c r="H1551" t="inlineStr"/>
+      <c r="G1551" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="H1551" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1552">
       <c r="A1552" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1552" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1552" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1552" t="inlineStr"/>
       <c r="E1552" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F1552" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F1552" t="inlineStr">
+        <is>
+          <t>42.1</t>
+        </is>
+      </c>
       <c r="G1552" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="H1552" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1553" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1553" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1553" t="inlineStr"/>
       <c r="E1553" t="inlineStr">
         <is>
-          <t>$6.83T</t>
-        </is>
-      </c>
-      <c r="F1553" t="inlineStr"/>
-      <c r="G1553" t="inlineStr"/>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F1553" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="G1553" t="inlineStr">
+        <is>
+          <t>49.5</t>
+        </is>
+      </c>
       <c r="H1553" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1554" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1554" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1554" t="inlineStr"/>
       <c r="E1554" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="F1554" t="inlineStr"/>
       <c r="G1554" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H1554" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1555">
       <c r="A1555" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1555" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1555" t="inlineStr"/>
       <c r="E1555" t="inlineStr">
         <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1555" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F1555" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
       <c r="G1555" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="H1555" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1556" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1556" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1556" t="inlineStr"/>
       <c r="E1556" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F1556" t="inlineStr"/>
       <c r="G1556" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="H1556" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1557">
       <c r="A1557" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1557" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1557" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1557" t="inlineStr"/>
       <c r="E1557" t="inlineStr">
         <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="F1557" t="inlineStr"/>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F1557" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="G1557" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1557" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1558">
       <c r="A1558" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1558" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1558" t="inlineStr"/>
       <c r="E1558" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1558" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F1558" t="inlineStr"/>
       <c r="G1558" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="H1558" t="inlineStr">
@@ -51440,75 +51246,83 @@
     <row r="1559">
       <c r="A1559" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1559" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1559" t="inlineStr">
         <is>
-          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1559" t="inlineStr"/>
       <c r="E1559" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1559" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F1559" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="G1559" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H1559" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1560">
       <c r="A1560" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1560" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1560" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1560" t="inlineStr"/>
       <c r="E1560" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1560" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F1560" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="G1560" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H1560" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1561" t="inlineStr">
@@ -51518,23 +51332,23 @@
       </c>
       <c r="C1561" t="inlineStr">
         <is>
-          <t>Gfk Consumer ConfidenceJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1561" t="inlineStr"/>
       <c r="E1561" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F1561" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="G1561" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="H1561" t="inlineStr">
@@ -51546,135 +51360,127 @@
     <row r="1562">
       <c r="A1562" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1562" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1562" t="inlineStr"/>
       <c r="E1562" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F1562" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="G1562" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1562" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1563">
       <c r="A1563" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1563" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1563" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1563" t="inlineStr"/>
       <c r="E1563" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F1563" t="inlineStr"/>
       <c r="G1563" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="H1563" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1564" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1564" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FlashJAN</t>
+          <t>ECB President Lagarde Speech</t>
         </is>
       </c>
       <c r="D1564" t="inlineStr"/>
-      <c r="E1564" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
+      <c r="E1564" t="inlineStr"/>
       <c r="F1564" t="inlineStr"/>
-      <c r="G1564" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G1564" t="inlineStr"/>
       <c r="H1564" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1565">
       <c r="A1565" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1565" t="inlineStr">
         <is>
-          <t>URA Property Index QoQ FinalQ4</t>
+          <t>FGV Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1565" t="inlineStr"/>
       <c r="E1565" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F1565" t="inlineStr"/>
       <c r="G1565" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>91.4</t>
         </is>
       </c>
       <c r="H1565" t="inlineStr">
@@ -51686,61 +51492,61 @@
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1566" t="inlineStr">
         <is>
-          <t>BoJ Interest Rate Decision</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D1566" t="inlineStr"/>
-      <c r="E1566" t="inlineStr">
-        <is>
-          <t>0.25%</t>
-        </is>
-      </c>
-      <c r="F1566" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1566" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E1566" t="inlineStr"/>
+      <c r="F1566" t="inlineStr"/>
+      <c r="G1566" t="inlineStr"/>
       <c r="H1566" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>BoJ Quarterly Outlook Report</t>
+          <t>CBI Distributive TradesJAN</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr"/>
-      <c r="E1567" t="inlineStr"/>
-      <c r="F1567" t="inlineStr"/>
-      <c r="G1567" t="inlineStr"/>
+      <c r="E1567" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="F1567" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="G1567" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
       <c r="H1567" t="inlineStr">
         <is>
           <t>2</t>
@@ -51750,23 +51556,23 @@
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr">
         <is>
-          <t>Foreign Direct Investment YoYQ4</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1568" t="inlineStr"/>
       <c r="E1568" t="inlineStr">
         <is>
-          <t>18.55%</t>
+          <t>$625.87B</t>
         </is>
       </c>
       <c r="F1568" t="inlineStr"/>
@@ -51780,199 +51586,203 @@
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1569" t="inlineStr"/>
       <c r="G1569" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1569" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1570" t="inlineStr"/>
       <c r="E1570" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1570" t="inlineStr"/>
       <c r="G1570" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1570" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1571" t="inlineStr"/>
       <c r="E1571" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1571" t="inlineStr"/>
       <c r="G1571" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1571" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1572" t="inlineStr"/>
       <c r="E1572" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1572" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1572" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1572" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1572" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1573" t="inlineStr"/>
       <c r="E1573" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1573" t="inlineStr"/>
       <c r="G1573" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1573" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1574" t="inlineStr"/>
       <c r="E1574" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1574" t="inlineStr"/>
       <c r="G1574" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1574" t="inlineStr">
@@ -51984,33 +51794,29 @@
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1575" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1575" t="inlineStr"/>
       <c r="E1575" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1575" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1575" t="inlineStr"/>
       <c r="G1575" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1575" t="inlineStr">
@@ -52022,33 +51828,29 @@
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr"/>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1576" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1576" t="inlineStr"/>
       <c r="G1576" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1576" t="inlineStr">
@@ -52060,67 +51862,67 @@
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1577" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1577" t="inlineStr"/>
       <c r="E1577" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1577" t="inlineStr"/>
       <c r="G1577" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1577" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr"/>
       <c r="E1578" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1578" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1578" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1578" t="inlineStr">
@@ -52132,29 +51934,29 @@
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr"/>
       <c r="E1579" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1579" t="inlineStr"/>
       <c r="G1579" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1579" t="inlineStr">
@@ -52166,33 +51968,33 @@
     <row r="1580">
       <c r="A1580" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr"/>
       <c r="E1580" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1580" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1580" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1580" t="inlineStr">
@@ -52204,215 +52006,215 @@
     <row r="1581">
       <c r="A1581" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1581" t="inlineStr"/>
       <c r="E1581" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1581" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1581" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1581" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1581" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1582">
       <c r="A1582" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr"/>
       <c r="E1582" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1582" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1582" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1582" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr"/>
       <c r="E1583" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1583" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1583" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1583" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr"/>
       <c r="E1584" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1584" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1584" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1584" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr"/>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1585" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1585" t="inlineStr"/>
       <c r="G1585" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1585" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1586" t="inlineStr"/>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1586" t="inlineStr"/>
       <c r="G1586" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1586" t="inlineStr">
@@ -52424,57 +52226,57 @@
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr"/>
-      <c r="E1587" t="inlineStr"/>
+      <c r="E1587" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1587" t="inlineStr"/>
       <c r="G1587" t="inlineStr"/>
       <c r="H1587" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1588" t="inlineStr"/>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1588" t="inlineStr"/>
-      <c r="G1588" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1588" t="inlineStr"/>
       <c r="H1588" t="inlineStr">
         <is>
           <t>3</t>
@@ -52484,87 +52286,71 @@
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1589" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1589" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1589" t="inlineStr"/>
+      <c r="C1589" t="inlineStr"/>
       <c r="D1589" t="inlineStr"/>
       <c r="E1589" t="inlineStr"/>
       <c r="F1589" t="inlineStr"/>
       <c r="G1589" t="inlineStr"/>
-      <c r="H1589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1589" t="inlineStr"/>
     </row>
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1590" t="inlineStr"/>
       <c r="E1590" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1590" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F1590" t="inlineStr"/>
       <c r="G1590" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1590" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1591" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1591" t="inlineStr"/>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>$625.87B</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1591" t="inlineStr"/>
@@ -52578,31 +52364,27 @@
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1592" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1592" t="inlineStr"/>
       <c r="E1592" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1592" t="inlineStr"/>
-      <c r="G1592" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1592" t="inlineStr"/>
       <c r="H1592" t="inlineStr">
         <is>
           <t>3</t>
@@ -52612,31 +52394,27 @@
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1593" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1593" t="inlineStr"/>
       <c r="E1593" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1593" t="inlineStr"/>
-      <c r="G1593" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1593" t="inlineStr"/>
       <c r="H1593" t="inlineStr">
         <is>
           <t>3</t>
@@ -52646,31 +52424,23 @@
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1594" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1594" t="inlineStr"/>
-      <c r="E1594" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1594" t="inlineStr"/>
       <c r="F1594" t="inlineStr"/>
-      <c r="G1594" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1594" t="inlineStr"/>
       <c r="H1594" t="inlineStr">
         <is>
           <t>3</t>
@@ -52680,69 +52450,53 @@
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1595" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1595" t="inlineStr"/>
-      <c r="E1595" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1595" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1595" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1595" t="inlineStr"/>
+      <c r="F1595" t="inlineStr"/>
+      <c r="G1595" t="inlineStr"/>
       <c r="H1595" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1596" t="inlineStr"/>
       <c r="E1596" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1596" t="inlineStr"/>
-      <c r="G1596" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1596" t="inlineStr"/>
       <c r="H1596" t="inlineStr">
         <is>
           <t>2</t>
@@ -52752,31 +52506,27 @@
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1597" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1597" t="inlineStr"/>
       <c r="E1597" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1597" t="inlineStr"/>
-      <c r="G1597" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1597" t="inlineStr"/>
       <c r="H1597" t="inlineStr">
         <is>
           <t>3</t>
@@ -52786,169 +52536,145 @@
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1598" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1598" t="inlineStr"/>
       <c r="E1598" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1598" t="inlineStr"/>
-      <c r="G1598" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1598" t="inlineStr"/>
       <c r="H1598" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1599" t="inlineStr"/>
       <c r="E1599" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1599" t="inlineStr"/>
-      <c r="G1599" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1599" t="inlineStr"/>
       <c r="H1599" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1600" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1600" t="inlineStr"/>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F1600" t="inlineStr"/>
-      <c r="G1600" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1600" t="inlineStr"/>
       <c r="H1600" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:15 PM</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1601" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1601" t="inlineStr"/>
-      <c r="E1601" t="inlineStr">
-        <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1601" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1601" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+      <c r="E1601" t="inlineStr"/>
+      <c r="F1601" t="inlineStr"/>
+      <c r="G1601" t="inlineStr"/>
       <c r="H1601" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1602" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1602" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1602" t="inlineStr"/>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>43.5K</t>
         </is>
       </c>
       <c r="F1602" t="inlineStr"/>
       <c r="G1602" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1602" t="inlineStr">
@@ -52960,71 +52686,63 @@
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1603" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1603" t="inlineStr"/>
       <c r="G1603" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1603" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1604" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1604" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1604" t="inlineStr"/>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1604" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1604" t="inlineStr"/>
       <c r="G1604" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1604" t="inlineStr">
@@ -53036,35 +52754,27 @@
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1605" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
-      <c r="G1605" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1605" t="inlineStr"/>
+      <c r="G1605" t="inlineStr"/>
       <c r="H1605" t="inlineStr">
         <is>
           <t>3</t>
@@ -53074,35 +52784,27 @@
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1606" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1606" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1606" t="inlineStr"/>
+      <c r="G1606" t="inlineStr"/>
       <c r="H1606" t="inlineStr">
         <is>
           <t>3</t>
@@ -53112,67 +52814,63 @@
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1607" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>$-0.133B</t>
+        </is>
+      </c>
+      <c r="F1607" t="inlineStr"/>
       <c r="G1607" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1607" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1608" t="inlineStr"/>
       <c r="G1608" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1608" t="inlineStr">
@@ -53184,7 +52882,7 @@
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
@@ -53194,51 +52892,55 @@
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1609" t="inlineStr"/>
       <c r="G1609" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="H1609" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1610" t="inlineStr"/>
-      <c r="G1610" t="inlineStr"/>
+      <c r="G1610" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1610" t="inlineStr">
         <is>
           <t>3</t>
@@ -53248,25 +52950,21 @@
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
-      <c r="E1611" t="inlineStr">
-        <is>
-          <t>580</t>
-        </is>
-      </c>
+      <c r="E1611" t="inlineStr"/>
       <c r="F1611" t="inlineStr"/>
       <c r="G1611" t="inlineStr"/>
       <c r="H1611" t="inlineStr">
@@ -53278,45 +52976,49 @@
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1612" t="inlineStr"/>
-      <c r="C1612" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1612" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1612" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1612" t="inlineStr"/>
       <c r="E1612" t="inlineStr"/>
       <c r="F1612" t="inlineStr"/>
       <c r="G1612" t="inlineStr"/>
-      <c r="H1612" t="inlineStr"/>
+      <c r="H1612" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1613" t="inlineStr"/>
-      <c r="E1613" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1613" t="inlineStr"/>
       <c r="F1613" t="inlineStr"/>
-      <c r="G1613" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1613" t="inlineStr"/>
       <c r="H1613" t="inlineStr">
         <is>
           <t>3</t>
@@ -53326,107 +53028,103 @@
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr"/>
-      <c r="E1614" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1614" t="inlineStr"/>
       <c r="F1614" t="inlineStr"/>
       <c r="G1614" t="inlineStr"/>
       <c r="H1614" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr"/>
-      <c r="E1615" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1615" t="inlineStr"/>
       <c r="F1615" t="inlineStr"/>
-      <c r="G1615" t="inlineStr"/>
+      <c r="G1615" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1615" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1616" t="inlineStr"/>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1616" t="inlineStr"/>
       <c r="G1616" t="inlineStr"/>
       <c r="H1616" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1617" t="inlineStr"/>
@@ -53442,17 +53140,17 @@
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
@@ -53468,55 +53166,47 @@
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1619" t="inlineStr"/>
-      <c r="E1619" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1619" t="inlineStr"/>
       <c r="F1619" t="inlineStr"/>
       <c r="G1619" t="inlineStr"/>
       <c r="H1619" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1620" t="inlineStr"/>
-      <c r="E1620" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1620" t="inlineStr"/>
       <c r="F1620" t="inlineStr"/>
       <c r="G1620" t="inlineStr"/>
       <c r="H1620" t="inlineStr">
@@ -53526,59 +53216,63 @@
       </c>
     </row>
     <row r="1621">
-      <c r="A1621" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1621" t="inlineStr"/>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1621" t="inlineStr"/>
-      <c r="G1621" t="inlineStr"/>
+      <c r="G1621" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1621" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1622">
-      <c r="A1622" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A1622" t="inlineStr"/>
       <c r="B1622" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>85.1</t>
-        </is>
-      </c>
-      <c r="F1622" t="inlineStr"/>
-      <c r="G1622" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1622" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1622" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1622" t="inlineStr">
         <is>
           <t>3</t>
@@ -53588,121 +53282,109 @@
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B1623" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1623" t="inlineStr">
-        <is>
-          <t>Ifo ExpectationsJAN</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1623" t="inlineStr"/>
+      <c r="C1623" t="inlineStr"/>
       <c r="D1623" t="inlineStr"/>
-      <c r="E1623" t="inlineStr">
-        <is>
-          <t>84.4</t>
-        </is>
-      </c>
+      <c r="E1623" t="inlineStr"/>
       <c r="F1623" t="inlineStr"/>
       <c r="G1623" t="inlineStr"/>
-      <c r="H1623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1623" t="inlineStr"/>
     </row>
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
-      <c r="E1624" t="inlineStr"/>
+      <c r="E1624" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1624" t="inlineStr"/>
-      <c r="G1624" t="inlineStr"/>
+      <c r="G1624" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1624" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1625" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1625" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1625" t="inlineStr"/>
       <c r="E1625" t="inlineStr">
         <is>
-          <t>43.5K</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1625" t="inlineStr"/>
       <c r="G1625" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="H1625" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1626" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1626" t="inlineStr"/>
       <c r="E1626" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1626" t="inlineStr"/>
-      <c r="G1626" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1626" t="inlineStr"/>
       <c r="H1626" t="inlineStr">
         <is>
           <t>3</t>
@@ -53712,29 +53394,29 @@
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1627" t="inlineStr"/>
       <c r="E1627" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1627" t="inlineStr"/>
       <c r="G1627" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1627" t="inlineStr">
@@ -53746,27 +53428,31 @@
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1628" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1628" t="inlineStr"/>
       <c r="E1628" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1628" t="inlineStr"/>
-      <c r="G1628" t="inlineStr"/>
+      <c r="G1628" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1628" t="inlineStr">
         <is>
           <t>3</t>
@@ -53776,27 +53462,31 @@
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1629" t="inlineStr"/>
       <c r="E1629" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1629" t="inlineStr"/>
-      <c r="G1629" t="inlineStr"/>
+      <c r="G1629" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1629" t="inlineStr">
         <is>
           <t>3</t>
@@ -53806,97 +53496,93 @@
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1630" t="inlineStr"/>
       <c r="E1630" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1630" t="inlineStr"/>
       <c r="G1630" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1630" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1631" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1631" t="inlineStr"/>
       <c r="E1631" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1631" t="inlineStr"/>
-      <c r="G1631" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1631" t="inlineStr"/>
       <c r="H1631" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1632" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1632" t="inlineStr"/>
       <c r="E1632" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1632" t="inlineStr"/>
       <c r="G1632" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1632" t="inlineStr">
@@ -53908,31 +53594,27 @@
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr"/>
       <c r="E1633" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1633" t="inlineStr"/>
-      <c r="G1633" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1633" t="inlineStr"/>
       <c r="H1633" t="inlineStr">
         <is>
           <t>3</t>
@@ -53942,17 +53624,17 @@
     <row r="1634">
       <c r="A1634" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1634" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1634" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1634" t="inlineStr"/>
@@ -53968,17 +53650,17 @@
     <row r="1635">
       <c r="A1635" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1635" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1635" t="inlineStr"/>
@@ -53994,17 +53676,17 @@
     <row r="1636">
       <c r="A1636" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1636" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1636" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1636" t="inlineStr"/>
@@ -54020,33 +53702,37 @@
     <row r="1637">
       <c r="A1637" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1637" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1637" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1637" t="inlineStr"/>
-      <c r="E1637" t="inlineStr"/>
+      <c r="E1637" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1637" t="inlineStr"/>
       <c r="G1637" t="inlineStr"/>
       <c r="H1637" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1638">
       <c r="A1638" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1638" t="inlineStr">
@@ -54056,27 +53742,31 @@
       </c>
       <c r="C1638" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1638" t="inlineStr"/>
-      <c r="E1638" t="inlineStr"/>
+      <c r="E1638" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1638" t="inlineStr"/>
       <c r="G1638" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1638" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1639" t="inlineStr">
@@ -54086,17 +53776,21 @@
       </c>
       <c r="C1639" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1639" t="inlineStr"/>
       <c r="E1639" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1639" t="inlineStr"/>
-      <c r="G1639" t="inlineStr"/>
+      <c r="G1639" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1639" t="inlineStr">
         <is>
           <t>2</t>
@@ -54106,7 +53800,7 @@
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1640" t="inlineStr">
@@ -54116,13 +53810,21 @@
       </c>
       <c r="C1640" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1640" t="inlineStr"/>
-      <c r="E1640" t="inlineStr"/>
+      <c r="E1640" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1640" t="inlineStr"/>
-      <c r="G1640" t="inlineStr"/>
+      <c r="G1640" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1640" t="inlineStr">
         <is>
           <t>3</t>
@@ -54132,7 +53834,7 @@
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1641" t="inlineStr">
@@ -54142,11 +53844,15 @@
       </c>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1641" t="inlineStr"/>
-      <c r="E1641" t="inlineStr"/>
+      <c r="E1641" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1641" t="inlineStr"/>
       <c r="G1641" t="inlineStr"/>
       <c r="H1641" t="inlineStr">
@@ -54158,7 +53864,7 @@
     <row r="1642">
       <c r="A1642" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B1642" t="inlineStr">
@@ -54168,7 +53874,7 @@
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1642" t="inlineStr"/>
@@ -54184,7 +53890,7 @@
     <row r="1643">
       <c r="A1643" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1643" t="inlineStr">
@@ -54194,21 +53900,29 @@
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1643" t="inlineStr"/>
-      <c r="E1643" t="inlineStr"/>
+      <c r="E1643" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1643" t="inlineStr"/>
       <c r="G1643" t="inlineStr"/>
       <c r="H1643" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1644">
-      <c r="A1644" t="inlineStr"/>
+      <c r="A1644" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1644" t="inlineStr">
         <is>
           <t>US</t>
@@ -54216,21 +53930,17 @@
       </c>
       <c r="C1644" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1644" t="inlineStr"/>
       <c r="E1644" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1644" t="inlineStr"/>
-      <c r="G1644" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1644" t="inlineStr"/>
       <c r="H1644" t="inlineStr">
         <is>
           <t>3</t>
@@ -54238,7 +53948,11 @@
       </c>
     </row>
     <row r="1645">
-      <c r="A1645" t="inlineStr"/>
+      <c r="A1645" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1645" t="inlineStr">
         <is>
           <t>US</t>
@@ -54246,25 +53960,13 @@
       </c>
       <c r="C1645" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1645" t="inlineStr"/>
-      <c r="E1645" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1645" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1645" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="E1645" t="inlineStr"/>
+      <c r="F1645" t="inlineStr"/>
+      <c r="G1645" t="inlineStr"/>
       <c r="H1645" t="inlineStr">
         <is>
           <t>3</t>
@@ -54274,107 +53976,107 @@
     <row r="1646">
       <c r="A1646" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1646" t="inlineStr"/>
-      <c r="C1646" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1646" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1646" t="inlineStr">
+        <is>
+          <t>House Price Index YoYNOV</t>
+        </is>
+      </c>
       <c r="D1646" t="inlineStr"/>
-      <c r="E1646" t="inlineStr"/>
+      <c r="E1646" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="F1646" t="inlineStr"/>
       <c r="G1646" t="inlineStr"/>
-      <c r="H1646" t="inlineStr"/>
+      <c r="H1646" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1647">
       <c r="A1647" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1647" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1647" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1647" t="inlineStr"/>
       <c r="E1647" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1647" t="inlineStr"/>
-      <c r="G1647" t="inlineStr">
+      <c r="G1647" t="inlineStr"/>
+      <c r="H1647" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1647" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1648">
       <c r="A1648" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1648" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1648" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>CB Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1648" t="inlineStr"/>
-      <c r="E1648" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1648" t="inlineStr"/>
       <c r="F1648" t="inlineStr"/>
-      <c r="G1648" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1648" t="inlineStr"/>
       <c r="H1648" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1649">
       <c r="A1649" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1649" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1649" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1649" t="inlineStr"/>
-      <c r="E1649" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1649" t="inlineStr"/>
       <c r="F1649" t="inlineStr"/>
       <c r="G1649" t="inlineStr"/>
       <c r="H1649" t="inlineStr">
@@ -54386,29 +54088,29 @@
     <row r="1650">
       <c r="A1650" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1650" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1650" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1650" t="inlineStr"/>
       <c r="E1650" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1650" t="inlineStr"/>
       <c r="G1650" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1650" t="inlineStr">
@@ -54420,29 +54122,29 @@
     <row r="1651">
       <c r="A1651" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1651" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1651" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1651" t="inlineStr"/>
       <c r="E1651" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1651" t="inlineStr"/>
       <c r="G1651" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1651" t="inlineStr">
@@ -54454,31 +54156,27 @@
     <row r="1652">
       <c r="A1652" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1652" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1652" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1652" t="inlineStr"/>
       <c r="E1652" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1652" t="inlineStr"/>
-      <c r="G1652" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1652" t="inlineStr"/>
       <c r="H1652" t="inlineStr">
         <is>
           <t>3</t>
@@ -54488,31 +54186,27 @@
     <row r="1653">
       <c r="A1653" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1653" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1653" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1653" t="inlineStr"/>
       <c r="E1653" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1653" t="inlineStr"/>
-      <c r="G1653" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1653" t="inlineStr"/>
       <c r="H1653" t="inlineStr">
         <is>
           <t>3</t>
@@ -54522,87 +54216,79 @@
     <row r="1654">
       <c r="A1654" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1654" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1654" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1654" t="inlineStr"/>
-      <c r="E1654" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1654" t="inlineStr"/>
       <c r="F1654" t="inlineStr"/>
       <c r="G1654" t="inlineStr"/>
       <c r="H1654" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1655">
       <c r="A1655" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1655" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1655" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1655" t="inlineStr"/>
       <c r="E1655" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1655" t="inlineStr"/>
-      <c r="G1655" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1655" t="inlineStr"/>
       <c r="H1655" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1656">
       <c r="A1656" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1656" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1656" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1656" t="inlineStr"/>
       <c r="E1656" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1656" t="inlineStr"/>
@@ -54616,43 +54302,31 @@
     <row r="1657">
       <c r="A1657" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="B1657" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1657" t="inlineStr">
-        <is>
-          <t>BTP Short Term Auction</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B1657" t="inlineStr"/>
+      <c r="C1657" t="inlineStr"/>
       <c r="D1657" t="inlineStr"/>
       <c r="E1657" t="inlineStr"/>
       <c r="F1657" t="inlineStr"/>
       <c r="G1657" t="inlineStr"/>
-      <c r="H1657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1657" t="inlineStr"/>
     </row>
     <row r="1658">
       <c r="A1658" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1658" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1658" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1658" t="inlineStr"/>
@@ -54661,126 +54335,138 @@
       <c r="G1658" t="inlineStr"/>
       <c r="H1658" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1659">
       <c r="A1659" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1659" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1659" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1659" t="inlineStr"/>
-      <c r="E1659" t="inlineStr"/>
+      <c r="E1659" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1659" t="inlineStr"/>
-      <c r="G1659" t="inlineStr"/>
+      <c r="G1659" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1659" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1660">
       <c r="A1660" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1660" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1660" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1660" t="inlineStr"/>
       <c r="E1660" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1660" t="inlineStr"/>
-      <c r="G1660" t="inlineStr"/>
+      <c r="G1660" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1660" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1661">
       <c r="A1661" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1661" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1661" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1661" t="inlineStr"/>
       <c r="E1661" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1661" t="inlineStr"/>
       <c r="G1661" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H1661" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1662">
       <c r="A1662" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1662" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1662" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1662" t="inlineStr"/>
       <c r="E1662" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1662" t="inlineStr"/>
       <c r="G1662" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1662" t="inlineStr">
@@ -54792,61 +54478,61 @@
     <row r="1663">
       <c r="A1663" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1663" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1663" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1663" t="inlineStr"/>
       <c r="E1663" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1663" t="inlineStr"/>
       <c r="G1663" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1663" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1664">
       <c r="A1664" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1664" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1664" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1664" t="inlineStr"/>
-      <c r="E1664" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1664" t="inlineStr"/>
       <c r="F1664" t="inlineStr"/>
-      <c r="G1664" t="inlineStr"/>
+      <c r="G1664" t="inlineStr">
+        <is>
+          <t>139.1</t>
+        </is>
+      </c>
       <c r="H1664" t="inlineStr">
         <is>
           <t>3</t>
@@ -54856,21 +54542,25 @@
     <row r="1665">
       <c r="A1665" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1665" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1665" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1665" t="inlineStr"/>
-      <c r="E1665" t="inlineStr"/>
+      <c r="E1665" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1665" t="inlineStr"/>
       <c r="G1665" t="inlineStr"/>
       <c r="H1665" t="inlineStr">
@@ -54882,53 +54572,53 @@
     <row r="1666">
       <c r="A1666" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1666" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1666" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1666" t="inlineStr"/>
       <c r="E1666" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1666" t="inlineStr"/>
       <c r="G1666" t="inlineStr"/>
       <c r="H1666" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1667">
       <c r="A1667" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B1667" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1667" t="inlineStr">
         <is>
-          <t>House Price IndexNOV</t>
+          <t>5-Year Climate Transition JGB Auction</t>
         </is>
       </c>
       <c r="D1667" t="inlineStr"/>
       <c r="E1667" t="inlineStr">
         <is>
-          <t>432.3</t>
+          <t>0.595%</t>
         </is>
       </c>
       <c r="F1667" t="inlineStr"/>
@@ -54942,133 +54632,153 @@
     <row r="1668">
       <c r="A1668" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1668" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1668" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1668" t="inlineStr"/>
-      <c r="E1668" t="inlineStr"/>
+      <c r="E1668" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
       <c r="F1668" t="inlineStr"/>
       <c r="G1668" t="inlineStr"/>
       <c r="H1668" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1669">
       <c r="A1669" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1669" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1669" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>GfK Consumer ConfidenceFEB</t>
         </is>
       </c>
       <c r="D1669" t="inlineStr"/>
       <c r="E1669" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-21.3</t>
         </is>
       </c>
       <c r="F1669" t="inlineStr"/>
       <c r="G1669" t="inlineStr"/>
       <c r="H1669" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1670">
       <c r="A1670" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1670" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1670" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D1670" t="inlineStr"/>
       <c r="E1670" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1670" t="inlineStr"/>
-      <c r="G1670" t="inlineStr"/>
+      <c r="G1670" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1670" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1671">
       <c r="A1671" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1671" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1671" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJAN</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D1671" t="inlineStr"/>
-      <c r="E1671" t="inlineStr"/>
+      <c r="E1671" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F1671" t="inlineStr"/>
-      <c r="G1671" t="inlineStr"/>
+      <c r="G1671" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H1671" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1672">
       <c r="A1672" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1672" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1672" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
+          <t>Loans to Companies YoYDEC</t>
         </is>
       </c>
       <c r="D1672" t="inlineStr"/>
-      <c r="E1672" t="inlineStr"/>
+      <c r="E1672" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="F1672" t="inlineStr"/>
       <c r="G1672" t="inlineStr"/>
       <c r="H1672" t="inlineStr">
@@ -55080,29 +54790,29 @@
     <row r="1673">
       <c r="A1673" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1673" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1673" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
+          <t>Loans to Households YoYDEC</t>
         </is>
       </c>
       <c r="D1673" t="inlineStr"/>
       <c r="E1673" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1673" t="inlineStr"/>
       <c r="G1673" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1673" t="inlineStr">
@@ -55114,31 +54824,27 @@
     <row r="1674">
       <c r="A1674" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1674" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1674" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1674" t="inlineStr"/>
       <c r="E1674" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1674" t="inlineStr"/>
-      <c r="G1674" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="G1674" t="inlineStr"/>
       <c r="H1674" t="inlineStr">
         <is>
           <t>3</t>
@@ -55148,81 +54854,85 @@
     <row r="1675">
       <c r="A1675" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1675" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1675" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1675" t="inlineStr"/>
       <c r="E1675" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>85.8</t>
         </is>
       </c>
       <c r="F1675" t="inlineStr"/>
       <c r="G1675" t="inlineStr"/>
       <c r="H1675" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1676">
       <c r="A1676" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1676" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1676" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1676" t="inlineStr"/>
       <c r="E1676" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>96.3</t>
         </is>
       </c>
       <c r="F1676" t="inlineStr"/>
       <c r="G1676" t="inlineStr"/>
       <c r="H1676" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1677">
       <c r="A1677" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1677" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1677" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>10-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D1677" t="inlineStr"/>
-      <c r="E1677" t="inlineStr"/>
+      <c r="E1677" t="inlineStr">
+        <is>
+          <t>3.731%</t>
+        </is>
+      </c>
       <c r="F1677" t="inlineStr"/>
       <c r="G1677" t="inlineStr"/>
       <c r="H1677" t="inlineStr">
@@ -55234,25 +54944,21 @@
     <row r="1678">
       <c r="A1678" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B1678" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1678" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>6-Month BOT Auction</t>
         </is>
       </c>
       <c r="D1678" t="inlineStr"/>
-      <c r="E1678" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
+      <c r="E1678" t="inlineStr"/>
       <c r="F1678" t="inlineStr"/>
       <c r="G1678" t="inlineStr"/>
       <c r="H1678" t="inlineStr">
@@ -55264,23 +54970,23 @@
     <row r="1679">
       <c r="A1679" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1679" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1679" t="inlineStr">
         <is>
-          <t>Money SupplyDEC</t>
+          <t>10-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1679" t="inlineStr"/>
       <c r="E1679" t="inlineStr">
         <is>
-          <t>$21.45T</t>
+          <t>2.51%</t>
         </is>
       </c>
       <c r="F1679" t="inlineStr"/>
@@ -55294,21 +55000,37 @@
     <row r="1680">
       <c r="A1680" t="inlineStr">
         <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B1680" t="inlineStr"/>
-      <c r="C1680" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1680" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C1680" t="inlineStr">
+        <is>
+          <t>Unemployment RateDEC</t>
+        </is>
+      </c>
       <c r="D1680" t="inlineStr"/>
       <c r="E1680" t="inlineStr"/>
       <c r="F1680" t="inlineStr"/>
-      <c r="G1680" t="inlineStr"/>
-      <c r="H1680" t="inlineStr"/>
+      <c r="G1680" t="inlineStr">
+        <is>
+          <t>2.70%</t>
+        </is>
+      </c>
+      <c r="H1680" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1681">
       <c r="A1681" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1681" t="inlineStr">
@@ -55318,7 +55040,7 @@
       </c>
       <c r="C1681" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
+          <t>MBA 30-Year Mortgage RateJAN/24</t>
         </is>
       </c>
       <c r="D1681" t="inlineStr"/>
@@ -55334,165 +55056,133 @@
     <row r="1682">
       <c r="A1682" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1682" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1682" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYQ4</t>
+          <t>MBA Mortgage ApplicationsJAN/24</t>
         </is>
       </c>
       <c r="D1682" t="inlineStr"/>
-      <c r="E1682" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="E1682" t="inlineStr"/>
       <c r="F1682" t="inlineStr"/>
-      <c r="G1682" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G1682" t="inlineStr"/>
       <c r="H1682" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1683">
       <c r="A1683" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1683" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1683" t="inlineStr">
         <is>
-          <t>Inflation Rate QoQQ4</t>
+          <t>MBA Mortgage Market IndexJAN/24</t>
         </is>
       </c>
       <c r="D1683" t="inlineStr"/>
-      <c r="E1683" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1683" t="inlineStr"/>
       <c r="F1683" t="inlineStr"/>
-      <c r="G1683" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1683" t="inlineStr"/>
       <c r="H1683" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1684">
       <c r="A1684" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1684" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1684" t="inlineStr">
         <is>
-          <t>Monthly CPI IndicatorDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/24</t>
         </is>
       </c>
       <c r="D1684" t="inlineStr"/>
-      <c r="E1684" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="E1684" t="inlineStr"/>
       <c r="F1684" t="inlineStr"/>
-      <c r="G1684" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1684" t="inlineStr"/>
       <c r="H1684" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1685">
       <c r="A1685" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1685" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1685" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
+          <t>MBA Purchase IndexJAN/24</t>
         </is>
       </c>
       <c r="D1685" t="inlineStr"/>
-      <c r="E1685" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1685" t="inlineStr"/>
       <c r="F1685" t="inlineStr"/>
-      <c r="G1685" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G1685" t="inlineStr"/>
       <c r="H1685" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1686">
       <c r="A1686" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1686" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1686" t="inlineStr">
         <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
+          <t>Goods Trade Balance AdvDEC</t>
         </is>
       </c>
       <c r="D1686" t="inlineStr"/>
       <c r="E1686" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>$-102.86B</t>
         </is>
       </c>
       <c r="F1686" t="inlineStr"/>
       <c r="G1686" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>$ -104.5B</t>
         </is>
       </c>
       <c r="H1686" t="inlineStr">
@@ -55504,273 +55194,249 @@
     <row r="1687">
       <c r="A1687" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1687" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1687" t="inlineStr">
         <is>
-          <t>CPIQ4</t>
+          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1687" t="inlineStr"/>
-      <c r="E1687" t="inlineStr"/>
+      <c r="E1687" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F1687" t="inlineStr"/>
-      <c r="G1687" t="inlineStr">
-        <is>
-          <t>139.1</t>
-        </is>
-      </c>
+      <c r="G1687" t="inlineStr"/>
       <c r="H1687" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1688">
       <c r="A1688" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1688" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1688" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
+          <t>Wholesale Inventories MoM AdvDEC</t>
         </is>
       </c>
       <c r="D1688" t="inlineStr"/>
       <c r="E1688" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1688" t="inlineStr"/>
-      <c r="G1688" t="inlineStr"/>
+      <c r="G1688" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1688" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1689">
       <c r="A1689" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B1689" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1689" t="inlineStr">
         <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
+          <t>BoC Monetary Policy Report</t>
         </is>
       </c>
       <c r="D1689" t="inlineStr"/>
-      <c r="E1689" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1689" t="inlineStr"/>
       <c r="F1689" t="inlineStr"/>
       <c r="G1689" t="inlineStr"/>
       <c r="H1689" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1690">
       <c r="A1690" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1690" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1690" t="inlineStr">
         <is>
-          <t>5-Year Climate Transition JGB Auction</t>
+          <t>BoC Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1690" t="inlineStr"/>
       <c r="E1690" t="inlineStr">
         <is>
-          <t>0.595%</t>
-        </is>
-      </c>
-      <c r="F1690" t="inlineStr"/>
+          <t>3.25%</t>
+        </is>
+      </c>
+      <c r="F1690" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="G1690" t="inlineStr"/>
       <c r="H1690" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1691">
       <c r="A1691" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1691" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1691" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>BoC Press Conference</t>
         </is>
       </c>
       <c r="D1691" t="inlineStr"/>
-      <c r="E1691" t="inlineStr">
-        <is>
-          <t>36.2</t>
-        </is>
-      </c>
+      <c r="E1691" t="inlineStr"/>
       <c r="F1691" t="inlineStr"/>
       <c r="G1691" t="inlineStr"/>
       <c r="H1691" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1692">
       <c r="A1692" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1692" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1692" t="inlineStr">
         <is>
-          <t>GfK Consumer ConfidenceFEB</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1692" t="inlineStr"/>
-      <c r="E1692" t="inlineStr">
-        <is>
-          <t>-21.3</t>
-        </is>
-      </c>
+      <c r="E1692" t="inlineStr"/>
       <c r="F1692" t="inlineStr"/>
       <c r="G1692" t="inlineStr"/>
       <c r="H1692" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1693">
       <c r="A1693" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1693" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1693" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
+          <t>EIA Gasoline Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1693" t="inlineStr"/>
-      <c r="E1693" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1693" t="inlineStr"/>
       <c r="F1693" t="inlineStr"/>
-      <c r="G1693" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1693" t="inlineStr"/>
       <c r="H1693" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1694">
       <c r="A1694" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1694" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1694" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
+          <t>EIA Crude Oil Imports ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1694" t="inlineStr"/>
-      <c r="E1694" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="E1694" t="inlineStr"/>
       <c r="F1694" t="inlineStr"/>
-      <c r="G1694" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G1694" t="inlineStr"/>
       <c r="H1694" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1695">
       <c r="A1695" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1695" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1695" t="inlineStr">
         <is>
-          <t>Loans to Companies YoYDEC</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1695" t="inlineStr"/>
-      <c r="E1695" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="E1695" t="inlineStr"/>
       <c r="F1695" t="inlineStr"/>
       <c r="G1695" t="inlineStr"/>
       <c r="H1695" t="inlineStr">
@@ -55782,31 +55448,23 @@
     <row r="1696">
       <c r="A1696" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1696" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1696" t="inlineStr">
         <is>
-          <t>Loans to Households YoYDEC</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1696" t="inlineStr"/>
-      <c r="E1696" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="E1696" t="inlineStr"/>
       <c r="F1696" t="inlineStr"/>
-      <c r="G1696" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G1696" t="inlineStr"/>
       <c r="H1696" t="inlineStr">
         <is>
           <t>3</t>
@@ -55816,25 +55474,21 @@
     <row r="1697">
       <c r="A1697" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1697" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1697" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC</t>
+          <t>EIA Distillate Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1697" t="inlineStr"/>
-      <c r="E1697" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1697" t="inlineStr"/>
       <c r="F1697" t="inlineStr"/>
       <c r="G1697" t="inlineStr"/>
       <c r="H1697" t="inlineStr">
@@ -55846,85 +55500,73 @@
     <row r="1698">
       <c r="A1698" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1698" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1698" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>EIA Gasoline Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1698" t="inlineStr"/>
-      <c r="E1698" t="inlineStr">
-        <is>
-          <t>85.8</t>
-        </is>
-      </c>
+      <c r="E1698" t="inlineStr"/>
       <c r="F1698" t="inlineStr"/>
       <c r="G1698" t="inlineStr"/>
       <c r="H1698" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1699">
       <c r="A1699" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1699" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1699" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1699" t="inlineStr"/>
-      <c r="E1699" t="inlineStr">
-        <is>
-          <t>96.3</t>
-        </is>
-      </c>
+      <c r="E1699" t="inlineStr"/>
       <c r="F1699" t="inlineStr"/>
       <c r="G1699" t="inlineStr"/>
       <c r="H1699" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1700">
       <c r="A1700" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1700" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1700" t="inlineStr">
         <is>
-          <t>10-Year Green Gilt Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1700" t="inlineStr"/>
-      <c r="E1700" t="inlineStr">
-        <is>
-          <t>3.731%</t>
-        </is>
-      </c>
+      <c r="E1700" t="inlineStr"/>
       <c r="F1700" t="inlineStr"/>
       <c r="G1700" t="inlineStr"/>
       <c r="H1700" t="inlineStr">
@@ -55936,17 +55578,17 @@
     <row r="1701">
       <c r="A1701" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1701" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1701" t="inlineStr">
         <is>
-          <t>6-Month BOT Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1701" t="inlineStr"/>
@@ -55959,640 +55601,6 @@
         </is>
       </c>
     </row>
-    <row r="1702">
-      <c r="A1702" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1702" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1702" t="inlineStr">
-        <is>
-          <t>10-Year Bund Auction</t>
-        </is>
-      </c>
-      <c r="D1702" t="inlineStr"/>
-      <c r="E1702" t="inlineStr">
-        <is>
-          <t>2.51%</t>
-        </is>
-      </c>
-      <c r="F1702" t="inlineStr"/>
-      <c r="G1702" t="inlineStr"/>
-      <c r="H1702" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1703">
-      <c r="A1703" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1703" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1703" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
-      <c r="D1703" t="inlineStr"/>
-      <c r="E1703" t="inlineStr"/>
-      <c r="F1703" t="inlineStr"/>
-      <c r="G1703" t="inlineStr">
-        <is>
-          <t>2.70%</t>
-        </is>
-      </c>
-      <c r="H1703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1704">
-      <c r="A1704" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1704" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1704" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
-        </is>
-      </c>
-      <c r="D1704" t="inlineStr"/>
-      <c r="E1704" t="inlineStr"/>
-      <c r="F1704" t="inlineStr"/>
-      <c r="G1704" t="inlineStr"/>
-      <c r="H1704" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1705">
-      <c r="A1705" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1705" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1705" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
-        </is>
-      </c>
-      <c r="D1705" t="inlineStr"/>
-      <c r="E1705" t="inlineStr"/>
-      <c r="F1705" t="inlineStr"/>
-      <c r="G1705" t="inlineStr"/>
-      <c r="H1705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1706">
-      <c r="A1706" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1706" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1706" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1706" t="inlineStr"/>
-      <c r="E1706" t="inlineStr"/>
-      <c r="F1706" t="inlineStr"/>
-      <c r="G1706" t="inlineStr"/>
-      <c r="H1706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1707">
-      <c r="A1707" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1707" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1707" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1707" t="inlineStr"/>
-      <c r="E1707" t="inlineStr"/>
-      <c r="F1707" t="inlineStr"/>
-      <c r="G1707" t="inlineStr"/>
-      <c r="H1707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1708">
-      <c r="A1708" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B1708" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1708" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/24</t>
-        </is>
-      </c>
-      <c r="D1708" t="inlineStr"/>
-      <c r="E1708" t="inlineStr"/>
-      <c r="F1708" t="inlineStr"/>
-      <c r="G1708" t="inlineStr"/>
-      <c r="H1708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1709">
-      <c r="A1709" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1709" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1709" t="inlineStr">
-        <is>
-          <t>Goods Trade Balance AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1709" t="inlineStr"/>
-      <c r="E1709" t="inlineStr">
-        <is>
-          <t>$-102.86B</t>
-        </is>
-      </c>
-      <c r="F1709" t="inlineStr"/>
-      <c r="G1709" t="inlineStr">
-        <is>
-          <t>$ -104.5B</t>
-        </is>
-      </c>
-      <c r="H1709" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1710">
-      <c r="A1710" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1710" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1710" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1710" t="inlineStr"/>
-      <c r="E1710" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1710" t="inlineStr"/>
-      <c r="G1710" t="inlineStr"/>
-      <c r="H1710" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1711">
-      <c r="A1711" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1711" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1711" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvDEC</t>
-        </is>
-      </c>
-      <c r="D1711" t="inlineStr"/>
-      <c r="E1711" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1711" t="inlineStr"/>
-      <c r="G1711" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1711" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1712">
-      <c r="A1712" t="inlineStr">
-        <is>
-          <t>07:15 PM</t>
-        </is>
-      </c>
-      <c r="B1712" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1712" t="inlineStr">
-        <is>
-          <t>BoC Monetary Policy Report</t>
-        </is>
-      </c>
-      <c r="D1712" t="inlineStr"/>
-      <c r="E1712" t="inlineStr"/>
-      <c r="F1712" t="inlineStr"/>
-      <c r="G1712" t="inlineStr"/>
-      <c r="H1712" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1713">
-      <c r="A1713" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B1713" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1713" t="inlineStr">
-        <is>
-          <t>BoC Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1713" t="inlineStr"/>
-      <c r="E1713" t="inlineStr">
-        <is>
-          <t>3.25%</t>
-        </is>
-      </c>
-      <c r="F1713" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="G1713" t="inlineStr"/>
-      <c r="H1713" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1714">
-      <c r="A1714" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1714" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1714" t="inlineStr">
-        <is>
-          <t>BoC Press Conference</t>
-        </is>
-      </c>
-      <c r="D1714" t="inlineStr"/>
-      <c r="E1714" t="inlineStr"/>
-      <c r="F1714" t="inlineStr"/>
-      <c r="G1714" t="inlineStr"/>
-      <c r="H1714" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1715">
-      <c r="A1715" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1715" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1715" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1715" t="inlineStr"/>
-      <c r="E1715" t="inlineStr"/>
-      <c r="F1715" t="inlineStr"/>
-      <c r="G1715" t="inlineStr"/>
-      <c r="H1715" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1716">
-      <c r="A1716" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1716" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1716" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1716" t="inlineStr"/>
-      <c r="E1716" t="inlineStr"/>
-      <c r="F1716" t="inlineStr"/>
-      <c r="G1716" t="inlineStr"/>
-      <c r="H1716" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1717">
-      <c r="A1717" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1717" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1717" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1717" t="inlineStr"/>
-      <c r="E1717" t="inlineStr"/>
-      <c r="F1717" t="inlineStr"/>
-      <c r="G1717" t="inlineStr"/>
-      <c r="H1717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1718">
-      <c r="A1718" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1718" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1718" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1718" t="inlineStr"/>
-      <c r="E1718" t="inlineStr"/>
-      <c r="F1718" t="inlineStr"/>
-      <c r="G1718" t="inlineStr"/>
-      <c r="H1718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1719">
-      <c r="A1719" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1719" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1719" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1719" t="inlineStr"/>
-      <c r="E1719" t="inlineStr"/>
-      <c r="F1719" t="inlineStr"/>
-      <c r="G1719" t="inlineStr"/>
-      <c r="H1719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1720">
-      <c r="A1720" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1720" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1720" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1720" t="inlineStr"/>
-      <c r="E1720" t="inlineStr"/>
-      <c r="F1720" t="inlineStr"/>
-      <c r="G1720" t="inlineStr"/>
-      <c r="H1720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1721">
-      <c r="A1721" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1721" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1721" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1721" t="inlineStr"/>
-      <c r="E1721" t="inlineStr"/>
-      <c r="F1721" t="inlineStr"/>
-      <c r="G1721" t="inlineStr"/>
-      <c r="H1721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1722">
-      <c r="A1722" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1722" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1722" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1722" t="inlineStr"/>
-      <c r="E1722" t="inlineStr"/>
-      <c r="F1722" t="inlineStr"/>
-      <c r="G1722" t="inlineStr"/>
-      <c r="H1722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1723">
-      <c r="A1723" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1723" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1723" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1723" t="inlineStr"/>
-      <c r="E1723" t="inlineStr"/>
-      <c r="F1723" t="inlineStr"/>
-      <c r="G1723" t="inlineStr"/>
-      <c r="H1723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1724">
-      <c r="A1724" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1724" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1724" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1724" t="inlineStr"/>
-      <c r="E1724" t="inlineStr"/>
-      <c r="F1724" t="inlineStr"/>
-      <c r="G1724" t="inlineStr"/>
-      <c r="H1724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
